--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Agent Register</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Website</t>
-  </si>
-  <si>
-    <t>Main Destination</t>
   </si>
   <si>
     <t>City</t>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>Email Address*</t>
-  </si>
-  <si>
-    <t>Type Of Business*</t>
   </si>
   <si>
     <t>Promo Hotel</t>
@@ -585,10 +579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA38"/>
+  <dimension ref="B1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +683,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -747,7 +741,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -927,18 +921,18 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -983,7 +977,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1099,7 +1093,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1214,22 +1208,20 @@
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="3"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
@@ -1248,9 +1240,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -1272,22 +1266,20 @@
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="3"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
@@ -1336,9 +1328,11 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="K27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -1355,162 +1349,46 @@
       <c r="AA27" s="9"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="9"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="9"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="9"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="12"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="12"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>16</v>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K28" r:id="rId1" display="javascript:MM_openBrWindow('../termandcondition.php','terms','scrollbars=yes,width=600,height=500')"/>
+    <hyperlink ref="K24" r:id="rId1" display="javascript:MM_openBrWindow('../termandcondition.php','terms','scrollbars=yes,width=600,height=500')"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="main page" sheetId="1" r:id="rId1"/>
-    <sheet name="Agent Register" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
+    <sheet name="Confirmation Payment" sheetId="3" r:id="rId2"/>
+    <sheet name="order hotel" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Agent Register</t>
   </si>
@@ -60,7 +60,46 @@
     <t>Email Address*</t>
   </si>
   <si>
-    <t>Promo Hotel</t>
+    <t xml:space="preserve">Confirmation payment </t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Catatan</t>
+  </si>
+  <si>
+    <t>Confirm Payment</t>
+  </si>
+  <si>
+    <t>Order Date</t>
+  </si>
+  <si>
+    <t>No Order*</t>
+  </si>
+  <si>
+    <t>Email*</t>
+  </si>
+  <si>
+    <t>Transfer To*</t>
+  </si>
+  <si>
+    <t>Payment Value*</t>
+  </si>
+  <si>
+    <t>Transfer Date*</t>
+  </si>
+  <si>
+    <t>Bank Transfer From*</t>
+  </si>
+  <si>
+    <t>Account Transfer*</t>
+  </si>
+  <si>
+    <t>Name *</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diambil dari table saldo ordernya</t>
   </si>
 </sst>
 </file>
@@ -245,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -263,6 +302,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,24 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AA28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,16 +1403,6 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="12"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K24" r:id="rId1" display="javascript:MM_openBrWindow('../termandcondition.php','terms','scrollbars=yes,width=600,height=500')"/>
@@ -1395,13 +1412,788 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Y29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="9"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="9"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="9"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="9"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="9"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="9"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="9"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="9"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="9"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="9"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="9"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="9"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="9"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="9"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="9"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="9"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>Agent Register</t>
   </si>
@@ -100,6 +100,138 @@
   </si>
   <si>
     <t xml:space="preserve"> diambil dari table saldo ordernya</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Informasi Hotel</t>
+  </si>
+  <si>
+    <t>bintangnya</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Check In Date</t>
+  </si>
+  <si>
+    <t>Check Out Date</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Room And Brakfast</t>
+  </si>
+  <si>
+    <t>Type Room</t>
+  </si>
+  <si>
+    <t>Special request</t>
+  </si>
+  <si>
+    <t>Deluxue</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>total Price</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>Interconnection Room</t>
+  </si>
+  <si>
+    <t>Non Smoking</t>
+  </si>
+  <si>
+    <t>Early Check In</t>
+  </si>
+  <si>
+    <t>Late Check In</t>
+  </si>
+  <si>
+    <t>High Floor</t>
+  </si>
+  <si>
+    <t>Low Floor</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Twin/Double Bed</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Booking Hotel</t>
+  </si>
+  <si>
+    <t>Valuta</t>
+  </si>
+  <si>
+    <t>Cancellation Policy</t>
+  </si>
+  <si>
+    <t>bla bla bla</t>
+  </si>
+  <si>
+    <t>Payment Detail</t>
+  </si>
+  <si>
+    <t>Tipe</t>
+  </si>
+  <si>
+    <t>check in date - check out date</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Title*</t>
+  </si>
+  <si>
+    <t>Last Name*</t>
+  </si>
+  <si>
+    <t>First Name*</t>
+  </si>
+  <si>
+    <t>Total payment</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Use Deposit</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>visa/master</t>
+  </si>
+  <si>
+    <t>info no rek dan bank</t>
   </si>
 </sst>
 </file>
@@ -139,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -279,12 +411,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -304,6 +449,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
@@ -1417,7 +1565,7 @@
   <dimension ref="B2:Y29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,14 +2335,2404 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="T72" sqref="T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="9"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="9"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="9"/>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="9"/>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="9"/>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="20">
+        <v>42325</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="9"/>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="20">
+        <v>42326</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="9"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="9"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="9"/>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="9"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="9"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="9"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="9"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="9"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="9"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="9"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="9"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="9"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="9"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="9"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="9"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="9"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="9"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="9"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="9"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="9"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="9"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="9"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="9"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="9"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="9"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="9"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="9"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="9"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="9"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="9"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="9"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="9"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="9"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="9"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="9"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="9"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="9"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="9"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="9"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V48" s="2"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="9"/>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="12"/>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="6"/>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="9"/>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="9"/>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="9"/>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="9"/>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="9"/>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="9"/>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="9"/>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="9"/>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="9"/>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="9"/>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="9"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="9"/>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="9"/>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="9"/>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="9"/>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="9"/>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="9"/>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="9"/>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="9"/>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="9"/>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11"/>
+      <c r="AC77" s="11"/>
+      <c r="AD77" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Agent Register</t>
   </si>
@@ -232,6 +232,78 @@
   </si>
   <si>
     <t>info no rek dan bank</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>isi ke table trx001</t>
+  </si>
+  <si>
+    <t>transfer to combo sesuai bank yang kita punya (tanya jones ntar)</t>
+  </si>
+  <si>
+    <t>No Order</t>
+  </si>
+  <si>
+    <t>S/D</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Total pembayaran</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>cmb</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Search dari trx001</t>
+  </si>
+  <si>
+    <t>Browse Payment</t>
+  </si>
+  <si>
+    <t>ada tombol save di grid</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>jika menggunakan deposit maka validasi jika deposit hrs mencukupi</t>
+  </si>
+  <si>
+    <t>cek ke BLNC001 sisanya hrs mencukupi</t>
+  </si>
+  <si>
+    <t>jika menggunakan deposit maka update  used value = used value + total payment (BLNC001)</t>
+  </si>
+  <si>
+    <t>jika menggunakan deposit maka tulis ke LOG001</t>
+  </si>
+  <si>
+    <t>jika menggunakan deposit / visa master dan berhasil maka status flag di trx001 = Done</t>
+  </si>
+  <si>
+    <t>selain itu Pending</t>
   </si>
 </sst>
 </file>
@@ -271,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -424,12 +496,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -452,6 +548,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1562,15 +1660,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y29"/>
+  <dimension ref="B2:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
@@ -1597,8 +1695,11 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="6"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1623,8 +1724,11 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
@@ -1651,8 +1755,11 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="9"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1678,7 +1785,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
@@ -1710,7 +1817,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1736,7 +1843,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
@@ -1764,7 +1871,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1790,7 +1897,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
@@ -1820,7 +1927,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1846,7 +1953,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
@@ -1874,7 +1981,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="9"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1900,7 +2007,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
@@ -1928,7 +2035,7 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1954,7 +2061,7 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
@@ -1982,7 +2089,7 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2008,7 +2115,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
@@ -2036,7 +2143,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2062,7 +2169,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
@@ -2090,7 +2197,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="9"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2116,7 +2223,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
@@ -2144,7 +2251,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="9"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2170,7 +2277,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="9"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2196,7 +2303,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2222,7 +2329,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="4"/>
@@ -2248,7 +2355,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="9"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="17" t="s">
@@ -2276,7 +2383,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="10"/>
@@ -2302,7 +2409,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2328,17 +2435,503 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="12"/>
     </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="6"/>
+      <c r="AA32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="9"/>
+      <c r="AA33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="9"/>
+      <c r="AA34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V40" s="5"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V42" s="3"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD77"/>
+  <dimension ref="B2:AG77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="T72" sqref="T72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="AG58" sqref="AG58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,7 +4425,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C49" s="10"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -3861,7 +4454,7 @@
       <c r="AB49" s="11"/>
       <c r="AC49" s="12"/>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>52</v>
       </c>
@@ -3893,8 +4486,11 @@
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="6"/>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AF51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="15" t="s">
         <v>57</v>
@@ -3926,8 +4522,14 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="9"/>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -3969,8 +4571,11 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="9"/>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
@@ -4000,8 +4605,14 @@
       <c r="AB54" s="8"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AF54">
+        <v>2</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
@@ -4031,8 +4642,14 @@
       <c r="AB55" s="8"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AF55">
+        <v>3</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
@@ -4062,8 +4679,14 @@
       <c r="AB56" s="8"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AF56">
+        <v>4</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -4093,8 +4716,11 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -4125,7 +4751,7 @@
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
@@ -4156,7 +4782,7 @@
       <c r="AC59" s="12"/>
       <c r="AD59" s="9"/>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -4187,7 +4813,7 @@
       <c r="AC60" s="8"/>
       <c r="AD60" s="9"/>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4218,7 +4844,7 @@
       <c r="AC61" s="8"/>
       <c r="AD61" s="9"/>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="8" t="s">
         <v>65</v>
@@ -4255,7 +4881,7 @@
       <c r="AC62" s="8"/>
       <c r="AD62" s="9"/>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -4286,7 +4912,7 @@
       <c r="AC63" s="8"/>
       <c r="AD63" s="9"/>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
       <c r="D64" s="13"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="174">
   <si>
     <t>Agent Register</t>
   </si>
@@ -304,6 +304,240 @@
   </si>
   <si>
     <t>selain itu Pending</t>
+  </si>
+  <si>
+    <t>trx011.check_in_date</t>
+  </si>
+  <si>
+    <t>trx011.check_out_date</t>
+  </si>
+  <si>
+    <t>trx011.day</t>
+  </si>
+  <si>
+    <t>trx011.type_room</t>
+  </si>
+  <si>
+    <t>trx011.type</t>
+  </si>
+  <si>
+    <t>pantek idr</t>
+  </si>
+  <si>
+    <t>trx011.gross_value_day</t>
+  </si>
+  <si>
+    <t>trx011.tot_value</t>
+  </si>
+  <si>
+    <t>trx011.guest_first_name</t>
+  </si>
+  <si>
+    <t>trx011.guest_last_name</t>
+  </si>
+  <si>
+    <t>trx011.title</t>
+  </si>
+  <si>
+    <t>mr/mrs</t>
+  </si>
+  <si>
+    <t>trx011.interconnetion_flag</t>
+  </si>
+  <si>
+    <t>trx011.early_check_in_flag</t>
+  </si>
+  <si>
+    <t>trx011.late_check_in_flag</t>
+  </si>
+  <si>
+    <t>trx011.high_floor_flag</t>
+  </si>
+  <si>
+    <t>trx011.low_floor_flag</t>
+  </si>
+  <si>
+    <t>trx011.twin_flag</t>
+  </si>
+  <si>
+    <t>trx011.non_smoking_flag</t>
+  </si>
+  <si>
+    <t>trx011.note</t>
+  </si>
+  <si>
+    <t>trx011.cancel_policy</t>
+  </si>
+  <si>
+    <t>trx011.photo</t>
+  </si>
+  <si>
+    <t>spesifikasi</t>
+  </si>
+  <si>
+    <t>data diambil dari table temp table api (menyusul)</t>
+  </si>
+  <si>
+    <t>waktu payment isi ke table trx010,trx011</t>
+  </si>
+  <si>
+    <t>trx010</t>
+  </si>
+  <si>
+    <t>order_no</t>
+  </si>
+  <si>
+    <t>generate otomatis tgl+counter</t>
+  </si>
+  <si>
+    <t>oder_yrmo</t>
+  </si>
+  <si>
+    <t>thn bln sysdate</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>sysdate</t>
+  </si>
+  <si>
+    <t>tot_base_value</t>
+  </si>
+  <si>
+    <t>tot_gross_value</t>
+  </si>
+  <si>
+    <t>disc_value</t>
+  </si>
+  <si>
+    <t>tot_dpp_value</t>
+  </si>
+  <si>
+    <t>ppn_value</t>
+  </si>
+  <si>
+    <t>tot_nett_value</t>
+  </si>
+  <si>
+    <t>status_flg</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>dari total trx011.base_value</t>
+  </si>
+  <si>
+    <t>dari total trx011.disc_value</t>
+  </si>
+  <si>
+    <t>dari total trx011.gross_value</t>
+  </si>
+  <si>
+    <t>dari total trx011.ppn_value</t>
+  </si>
+  <si>
+    <t>dari total trx011.tot_value</t>
+  </si>
+  <si>
+    <t>dari total trx011.dpp_value</t>
+  </si>
+  <si>
+    <t>trx011</t>
+  </si>
+  <si>
+    <t>trx011.hotel_name</t>
+  </si>
+  <si>
+    <t>trx011.star</t>
+  </si>
+  <si>
+    <t>base_value</t>
+  </si>
+  <si>
+    <t>gross_value</t>
+  </si>
+  <si>
+    <t>dpp_value</t>
+  </si>
+  <si>
+    <t>dari api</t>
+  </si>
+  <si>
+    <t>gross_value_day * day</t>
+  </si>
+  <si>
+    <t>sementara 0</t>
+  </si>
+  <si>
+    <t>gross_value - disc_value</t>
+  </si>
+  <si>
+    <t>tot_value</t>
+  </si>
+  <si>
+    <t>dpp_value+ppn_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grosss_value_day </t>
+  </si>
+  <si>
+    <t>(10% X base_value)+base_value</t>
+  </si>
+  <si>
+    <t>confirm isi ke table trx012</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>tergantung check apa</t>
+  </si>
+  <si>
+    <t>Deposit/Transfer/Card</t>
+  </si>
+  <si>
+    <t>tanya jonse mau diisi apa</t>
+  </si>
+  <si>
+    <t>card_type</t>
+  </si>
+  <si>
+    <t>jika car tipe bayarnya maka diisi</t>
+  </si>
+  <si>
+    <t>visa/master, selain tu kosong</t>
+  </si>
+  <si>
+    <t>card_number</t>
+  </si>
+  <si>
+    <t>card_name</t>
+  </si>
+  <si>
+    <t>ccv</t>
+  </si>
+  <si>
+    <t>jika card tipe bayarnya maka diisi</t>
+  </si>
+  <si>
+    <t>jika di check muncul</t>
+  </si>
+  <si>
+    <t>Card Number</t>
+  </si>
+  <si>
+    <t>card Name</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>expired date</t>
   </si>
 </sst>
 </file>
@@ -2928,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG77"/>
+  <dimension ref="B2:AM80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="AG58" sqref="AG58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,7 +3173,7 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C2" s="18" t="s">
         <v>53</v>
       </c>
@@ -2969,8 +3203,11 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="6"/>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -2998,8 +3235,14 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="9"/>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="18" t="s">
         <v>29</v>
@@ -3029,12 +3272,20 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="9"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3059,8 +3310,11 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="9"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3074,7 +3328,9 @@
         <v>30</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -3084,7 +3340,9 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="U6" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
@@ -3093,8 +3351,17 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="9"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3123,8 +3390,17 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="9"/>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3141,7 +3417,9 @@
         <v>42325</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -3159,8 +3437,17 @@
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="9"/>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3177,7 +3464,9 @@
         <v>42326</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -3197,8 +3486,17 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="9"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3215,7 +3513,9 @@
         <v>1</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -3233,8 +3533,17 @@
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="9"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3263,8 +3572,17 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="9"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3283,7 +3601,9 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="N12" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -3299,8 +3619,17 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="9"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3329,8 +3658,17 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="9"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3349,7 +3687,9 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="N14" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -3365,8 +3705,17 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="9"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3395,8 +3744,17 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="9"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3415,7 +3773,9 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -3432,7 +3792,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3451,7 +3811,9 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="N17" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -3467,8 +3829,11 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="9"/>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3487,7 +3852,9 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="N18" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
@@ -3503,8 +3870,17 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="9"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="10"/>
@@ -3533,8 +3909,17 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="9"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
@@ -3563,8 +3948,17 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="9"/>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="7"/>
       <c r="D21" s="18" t="s">
@@ -3595,8 +3989,17 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="9"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3604,7 +4007,9 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -3625,8 +4030,17 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="9"/>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3636,9 +4050,13 @@
       </c>
       <c r="G23" s="8"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -3656,8 +4074,17 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="9"/>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3670,7 +4097,9 @@
       <c r="I24" s="1"/>
       <c r="J24" s="3"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -3688,8 +4117,17 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="9"/>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3702,7 +4140,9 @@
       <c r="I25" s="1"/>
       <c r="J25" s="3"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -3721,7 +4161,7 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
       <c r="D26" s="10"/>
@@ -3751,7 +4191,7 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="9"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -3781,7 +4221,7 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="9"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="7"/>
       <c r="D28" s="15" t="s">
@@ -3813,7 +4253,7 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="9"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -3843,8 +4283,10 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="9"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="13"/>
@@ -3861,7 +4303,9 @@
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="O30" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
@@ -3877,8 +4321,10 @@
       <c r="AB30" s="8"/>
       <c r="AC30" s="9"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="13"/>
@@ -3895,7 +4341,9 @@
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="O31" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -3911,8 +4359,10 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="9"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="13"/>
@@ -3932,7 +4382,9 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="R32" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
@@ -3982,7 +4434,9 @@
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -4110,7 +4564,9 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="L38" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -4226,7 +4682,9 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="J42" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -4425,7 +4883,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C49" s="10"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -4454,7 +4912,7 @@
       <c r="AB49" s="11"/>
       <c r="AC49" s="12"/>
     </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>52</v>
       </c>
@@ -4490,7 +4948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="15" t="s">
         <v>57</v>
@@ -4529,7 +4987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -4575,7 +5033,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
@@ -4612,7 +5070,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
@@ -4649,7 +5107,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
@@ -4686,7 +5144,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -4720,7 +5178,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -4750,8 +5208,14 @@
       <c r="AB58" s="8"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
-    </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF58">
+        <v>5</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
@@ -4781,8 +5245,17 @@
       <c r="AB59" s="11"/>
       <c r="AC59" s="12"/>
       <c r="AD59" s="9"/>
-    </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG59" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -4812,8 +5285,11 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
       <c r="AD60" s="9"/>
-    </row>
-    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AM60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4843,8 +5319,20 @@
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
       <c r="AD61" s="9"/>
-    </row>
-    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF61">
+        <v>6</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="8" t="s">
         <v>65</v>
@@ -4880,8 +5368,11 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
       <c r="AD62" s="9"/>
-    </row>
-    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AK62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -4911,8 +5402,20 @@
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
       <c r="AD63" s="9"/>
-    </row>
-    <row r="64" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF63">
+        <v>7</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
       <c r="D64" s="13"/>
@@ -4947,7 +5450,7 @@
       <c r="AC64" s="8"/>
       <c r="AD64" s="9"/>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -4977,8 +5480,20 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
       <c r="AD65" s="9"/>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AF65">
+        <v>8</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
       <c r="D66" s="13"/>
@@ -5011,7 +5526,7 @@
       <c r="AC66" s="8"/>
       <c r="AD66" s="9"/>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5043,13 +5558,27 @@
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
       <c r="AD67" s="9"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AF67">
+        <v>9</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -5075,7 +5604,7 @@
       <c r="AC68" s="8"/>
       <c r="AD68" s="9"/>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -5106,7 +5635,7 @@
       <c r="AC69" s="8"/>
       <c r="AD69" s="9"/>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
       <c r="D70" s="13"/>
@@ -5139,12 +5668,14 @@
       <c r="AC70" s="8"/>
       <c r="AD70" s="9"/>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
+      <c r="F71" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -5170,29 +5701,19 @@
       <c r="AC71" s="8"/>
       <c r="AD71" s="9"/>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
+      <c r="G72" s="13"/>
+      <c r="H72" t="s">
+        <v>171</v>
+      </c>
+      <c r="K72" s="13"/>
+      <c r="L72" t="s">
+        <v>172</v>
+      </c>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
@@ -5201,12 +5722,12 @@
       <c r="AC72" s="8"/>
       <c r="AD72" s="9"/>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
+      <c r="F73" s="19"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -5232,31 +5753,33 @@
       <c r="AC73" s="8"/>
       <c r="AD73" s="9"/>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="3"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
+      <c r="O74" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="3"/>
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
@@ -5265,26 +5788,30 @@
       <c r="AC74" s="8"/>
       <c r="AD74" s="9"/>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="19" t="s">
+        <v>166</v>
+      </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="J75" s="13"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
+      <c r="O75" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="3"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
@@ -5296,7 +5823,7 @@
       <c r="AC75" s="8"/>
       <c r="AD75" s="9"/>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -5327,36 +5854,131 @@
       <c r="AC76" s="8"/>
       <c r="AD76" s="9"/>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="11"/>
-      <c r="AC77" s="11"/>
-      <c r="AD77" s="12"/>
+    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="9"/>
+    </row>
+    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="9"/>
+    </row>
+    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="9"/>
+    </row>
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11"/>
+      <c r="AD80" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
     <sheet name="Confirmation Payment" sheetId="3" r:id="rId2"/>
     <sheet name="order hotel" sheetId="4" r:id="rId3"/>
+    <sheet name="Cancel Booking" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="176">
   <si>
     <t>Agent Register</t>
   </si>
@@ -276,9 +277,6 @@
     <t>Save</t>
   </si>
   <si>
-    <t>Search dari trx001</t>
-  </si>
-  <si>
     <t>Browse Payment</t>
   </si>
   <si>
@@ -538,6 +536,15 @@
   </si>
   <si>
     <t>expired date</t>
+  </si>
+  <si>
+    <t>Search dari trx001 yang statusnya pending dan cancel</t>
+  </si>
+  <si>
+    <t>Ubah Status payment</t>
+  </si>
+  <si>
+    <t>hanya bisa ubah dari pending or cancel ke done</t>
   </si>
 </sst>
 </file>
@@ -759,7 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -784,6 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1088,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
@@ -1894,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA49"/>
+  <dimension ref="B2:AA50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,7 +2331,7 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2349,7 +2357,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
@@ -2377,7 +2385,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2403,7 +2411,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
@@ -2431,7 +2439,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="9"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2457,7 +2465,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
@@ -2485,7 +2493,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="9"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2511,7 +2519,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="9"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2537,7 +2545,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2563,7 +2571,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="4"/>
@@ -2589,7 +2597,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="9"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="17" t="s">
@@ -2617,7 +2625,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="10"/>
@@ -2643,7 +2651,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2669,79 +2677,54 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="6"/>
-      <c r="AA32" t="s">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="6"/>
+      <c r="AA33" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="9"/>
-      <c r="AA33" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="3"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -2754,22 +2737,24 @@
       <c r="W34" s="8"/>
       <c r="X34" s="9"/>
       <c r="AA34" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -2781,55 +2766,61 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="9"/>
+      <c r="AA35" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="9"/>
+      <c r="AA36" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
@@ -2839,10 +2830,8 @@
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2866,8 +2855,10 @@
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="D39" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="3"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2890,98 +2881,96 @@
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="V40" s="5"/>
-      <c r="W40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
       <c r="X40" s="9"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="12"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V41" s="5"/>
+      <c r="W41" s="6"/>
       <c r="X41" s="9"/>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
-      <c r="C42" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V42" s="3"/>
-      <c r="W42" s="9"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="12"/>
       <c r="X42" s="9"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="22"/>
+      <c r="C43" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
@@ -2999,8 +2988,10 @@
       <c r="R43" s="8"/>
       <c r="S43" s="9"/>
       <c r="T43" s="7"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
+      <c r="U43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V43" s="3"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
     </row>
@@ -3056,52 +3047,52 @@
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="12"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="9"/>
       <c r="X46" s="9"/>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="12"/>
       <c r="X47" s="9"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
@@ -3130,29 +3121,54 @@
       <c r="X48" s="9"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="12"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3164,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3220,7 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="6"/>
       <c r="AD2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
@@ -3239,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
@@ -3276,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
@@ -3284,7 +3300,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -3311,7 +3327,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="9"/>
       <c r="AE5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
@@ -3329,7 +3345,7 @@
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -3341,7 +3357,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -3352,13 +3368,13 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="9"/>
       <c r="AE6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI6" t="s">
         <v>35</v>
       </c>
       <c r="AJ6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
@@ -3391,13 +3407,13 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="9"/>
       <c r="AE7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI7" t="s">
         <v>35</v>
       </c>
       <c r="AJ7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
@@ -3418,7 +3434,7 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -3438,13 +3454,13 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="9"/>
       <c r="AE8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI8" t="s">
         <v>35</v>
       </c>
       <c r="AJ8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
@@ -3465,7 +3481,7 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -3487,13 +3503,13 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="9"/>
       <c r="AE9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI9" t="s">
         <v>35</v>
       </c>
       <c r="AJ9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
@@ -3514,7 +3530,7 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -3534,13 +3550,13 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="9"/>
       <c r="AE10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI10" t="s">
         <v>35</v>
       </c>
       <c r="AJ10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
@@ -3573,13 +3589,13 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="9"/>
       <c r="AE11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI11" t="s">
         <v>35</v>
       </c>
       <c r="AJ11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
@@ -3602,7 +3618,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -3620,13 +3636,13 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="9"/>
       <c r="AE12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI12" t="s">
         <v>35</v>
       </c>
       <c r="AJ12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
@@ -3659,13 +3675,13 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="9"/>
       <c r="AE13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI13" t="s">
         <v>35</v>
       </c>
       <c r="AJ13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.25">
@@ -3688,7 +3704,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -3706,13 +3722,13 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="9"/>
       <c r="AE14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI14" t="s">
         <v>35</v>
       </c>
       <c r="AJ14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.25">
@@ -3745,13 +3761,13 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="9"/>
       <c r="AE15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI15" t="s">
         <v>35</v>
       </c>
       <c r="AJ15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.25">
@@ -3774,7 +3790,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -3812,7 +3828,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -3830,7 +3846,7 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="9"/>
       <c r="AE17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.25">
@@ -3853,7 +3869,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -3871,13 +3887,13 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="9"/>
       <c r="AE18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH18" t="s">
         <v>35</v>
       </c>
       <c r="AI18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
@@ -3910,13 +3926,13 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="9"/>
       <c r="AE19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH19" t="s">
         <v>35</v>
       </c>
       <c r="AI19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.25">
@@ -3949,13 +3965,13 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="9"/>
       <c r="AE20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH20" t="s">
         <v>35</v>
       </c>
       <c r="AI20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.25">
@@ -3990,13 +4006,13 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="9"/>
       <c r="AE21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH21" t="s">
         <v>35</v>
       </c>
       <c r="AI21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.25">
@@ -4008,7 +4024,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -4031,13 +4047,13 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="9"/>
       <c r="AE22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH22" t="s">
         <v>35</v>
       </c>
       <c r="AI22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
@@ -4055,7 +4071,7 @@
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -4075,13 +4091,13 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="9"/>
       <c r="AE23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="s">
         <v>35</v>
       </c>
       <c r="AI23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.25">
@@ -4098,7 +4114,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -4118,13 +4134,13 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="9"/>
       <c r="AE24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AJ24" t="s">
         <v>35</v>
       </c>
       <c r="AK24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.25">
@@ -4141,7 +4157,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -4285,7 +4301,7 @@
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -4304,7 +4320,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -4323,7 +4339,7 @@
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -4342,7 +4358,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -4361,7 +4377,7 @@
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -4383,7 +4399,7 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
@@ -4435,7 +4451,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -4565,7 +4581,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -4683,7 +4699,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -4945,7 +4961,7 @@
       <c r="AC51" s="5"/>
       <c r="AD51" s="6"/>
       <c r="AF51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:39" x14ac:dyDescent="0.25">
@@ -4984,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="AG52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="2:39" x14ac:dyDescent="0.25">
@@ -5030,7 +5046,7 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="9"/>
       <c r="AG53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="2:39" x14ac:dyDescent="0.25">
@@ -5067,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="AG54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:39" x14ac:dyDescent="0.25">
@@ -5104,7 +5120,7 @@
         <v>3</v>
       </c>
       <c r="AG55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="2:39" x14ac:dyDescent="0.25">
@@ -5141,7 +5157,7 @@
         <v>4</v>
       </c>
       <c r="AG56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="2:39" x14ac:dyDescent="0.25">
@@ -5175,7 +5191,7 @@
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
       <c r="AG57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:39" x14ac:dyDescent="0.25">
@@ -5212,7 +5228,7 @@
         <v>5</v>
       </c>
       <c r="AG58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="2:39" x14ac:dyDescent="0.25">
@@ -5246,13 +5262,13 @@
       <c r="AC59" s="12"/>
       <c r="AD59" s="9"/>
       <c r="AG59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL59" t="s">
         <v>35</v>
       </c>
       <c r="AM59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="2:39" x14ac:dyDescent="0.25">
@@ -5286,7 +5302,7 @@
       <c r="AC60" s="8"/>
       <c r="AD60" s="9"/>
       <c r="AM60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="2:39" x14ac:dyDescent="0.25">
@@ -5323,13 +5339,13 @@
         <v>6</v>
       </c>
       <c r="AG61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ61" t="s">
         <v>35</v>
       </c>
       <c r="AK61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="2:39" x14ac:dyDescent="0.25">
@@ -5369,7 +5385,7 @@
       <c r="AC62" s="8"/>
       <c r="AD62" s="9"/>
       <c r="AK62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="2:39" x14ac:dyDescent="0.25">
@@ -5406,13 +5422,13 @@
         <v>7</v>
       </c>
       <c r="AG63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK63" t="s">
         <v>35</v>
       </c>
       <c r="AL63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="2:39" x14ac:dyDescent="0.25">
@@ -5484,13 +5500,13 @@
         <v>8</v>
       </c>
       <c r="AG65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AK65" t="s">
         <v>35</v>
       </c>
       <c r="AL65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="2:38" x14ac:dyDescent="0.25">
@@ -5562,13 +5578,13 @@
         <v>9</v>
       </c>
       <c r="AG67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK67" t="s">
         <v>35</v>
       </c>
       <c r="AL67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="2:38" x14ac:dyDescent="0.25">
@@ -5577,7 +5593,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -5674,7 +5690,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -5708,11 +5724,11 @@
       <c r="E72" s="8"/>
       <c r="G72" s="13"/>
       <c r="H72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
@@ -5759,7 +5775,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -5770,7 +5786,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
@@ -5794,7 +5810,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -5805,7 +5821,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
@@ -5983,4 +5999,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
     <sheet name="Confirmation Payment" sheetId="3" r:id="rId2"/>
     <sheet name="order hotel" sheetId="4" r:id="rId3"/>
-    <sheet name="Cancel Booking" sheetId="5" r:id="rId4"/>
+    <sheet name="Hotel Register" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="201">
   <si>
     <t>Agent Register</t>
   </si>
@@ -545,13 +545,88 @@
   </si>
   <si>
     <t>hanya bisa ubah dari pending or cancel ke done</t>
+  </si>
+  <si>
+    <t>Hotel register</t>
+  </si>
+  <si>
+    <t>Hotel browse</t>
+  </si>
+  <si>
+    <t>Hotel Name</t>
+  </si>
+  <si>
+    <t>bisa all</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Register Hotel</t>
+  </si>
+  <si>
+    <t>Hotel Name *</t>
+  </si>
+  <si>
+    <t>Star*</t>
+  </si>
+  <si>
+    <t>cmb 0-5</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Country*</t>
+  </si>
+  <si>
+    <t>City*</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Landmark Name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>Valuta*</t>
+  </si>
+  <si>
+    <t>Meal Price</t>
+  </si>
+  <si>
+    <t>Bed Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>email*</t>
+  </si>
+  <si>
+    <t>password*</t>
+  </si>
+  <si>
+    <t>confirm password*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +646,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -766,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -792,6 +875,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3180,7 +3265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM80"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
@@ -6003,12 +6088,1739 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="9"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="9"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="9"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="9"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="9"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="9"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="9"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="9"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="9"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="9"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="9"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="9"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="9"/>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="9"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="9"/>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="12"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="9"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="9"/>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="9"/>
+    </row>
+    <row r="38" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="9"/>
+    </row>
+    <row r="40" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="9"/>
+    </row>
+    <row r="41" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="9"/>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="9"/>
+    </row>
+    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="9"/>
+    </row>
+    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S45" s="8"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="9"/>
+    </row>
+    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="9"/>
+    </row>
+    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="9"/>
+    </row>
+    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="9"/>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="9"/>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="9"/>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="9"/>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="9"/>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="9"/>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="9"/>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="9"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="9"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="9"/>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="9"/>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="9"/>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="9"/>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="9"/>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="9"/>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="9"/>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="9"/>
+    </row>
+    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="9"/>
+    </row>
+    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="9"/>
+    </row>
+    <row r="67" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="9"/>
+    </row>
+    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
     <sheet name="Confirmation Payment" sheetId="3" r:id="rId2"/>
     <sheet name="order hotel" sheetId="4" r:id="rId3"/>
     <sheet name="Hotel Register" sheetId="5" r:id="rId4"/>
+    <sheet name="Detail Hotel register" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="212">
   <si>
     <t>Agent Register</t>
   </si>
@@ -620,6 +621,39 @@
   </si>
   <si>
     <t>confirm password*</t>
+  </si>
+  <si>
+    <t>yang di query yang flag api = No</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Khusus Admin</t>
+  </si>
+  <si>
+    <t>Change Status Hotel</t>
+  </si>
+  <si>
+    <t>Profile Hotel</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Gambar</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>browse</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -849,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -877,6 +911,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3265,7 +3302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM80"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
@@ -6088,20 +6125,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA68"/>
+  <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:X53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="D4" s="25" t="s">
         <v>177</v>
@@ -6129,8 +6171,11 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="6"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -6157,7 +6202,7 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
@@ -6186,7 +6231,7 @@
       <c r="Z6" s="8"/>
       <c r="AA6" s="9"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -6213,7 +6258,7 @@
       <c r="Z7" s="8"/>
       <c r="AA7" s="9"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
@@ -6252,7 +6297,7 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="9"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6279,7 +6324,7 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -6306,7 +6351,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="1" t="s">
@@ -6335,7 +6380,7 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6362,7 +6407,7 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
@@ -6394,12 +6439,14 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
+      <c r="X13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="26" t="s">
@@ -6423,12 +6470,12 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="6"/>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
@@ -6450,12 +6497,12 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="9"/>
-      <c r="X15" s="8"/>
+      <c r="X15" s="7"/>
       <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="7"/>
@@ -6477,9 +6524,9 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="9"/>
-      <c r="X16" s="8"/>
+      <c r="X16" s="7"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
+      <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.25">
@@ -6504,9 +6551,9 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="9"/>
-      <c r="X17" s="8"/>
+      <c r="X17" s="7"/>
       <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
@@ -6531,9 +6578,9 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="9"/>
-      <c r="X18" s="8"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.25">
@@ -6558,9 +6605,9 @@
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="9"/>
-      <c r="X19" s="8"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
+      <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.25">
@@ -6585,9 +6632,9 @@
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="9"/>
-      <c r="X20" s="8"/>
+      <c r="X20" s="7"/>
       <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
+      <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.25">
@@ -6612,9 +6659,9 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="9"/>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.25">
@@ -7713,7 +7760,7 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="9"/>
     </row>
-    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -7739,7 +7786,7 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="9"/>
     </row>
-    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -7767,7 +7814,7 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="9"/>
     </row>
-    <row r="67" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -7793,7 +7840,7 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="9"/>
     </row>
-    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C68" s="10"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -7819,8 +7866,2054 @@
       <c r="Y68" s="11"/>
       <c r="Z68" s="12"/>
     </row>
+    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C71" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C72" s="4"/>
+      <c r="D72" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="6"/>
+    </row>
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="9"/>
+    </row>
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="9"/>
+    </row>
+    <row r="75" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="9"/>
+    </row>
+    <row r="76" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="9"/>
+    </row>
+    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="9"/>
+    </row>
+    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="9"/>
+    </row>
+    <row r="79" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="9"/>
+    </row>
+    <row r="80" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="9"/>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C81" s="7"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N81" s="3"/>
+      <c r="O81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="9"/>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C82" s="7"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="9"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C83" s="7"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C84" s="7"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C85" s="7"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C86" s="7"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C87" s="7"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C88" s="7"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C89" s="7"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="9"/>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="9"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="9"/>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C92" s="10"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+      <c r="AA92" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="12"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="6"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="9"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="9"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="9"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="9"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="9"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="9"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="9"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="9"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="9"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="9"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="9"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="9"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="9"/>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="9"/>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="9"/>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="9"/>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="9"/>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="9"/>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="9"/>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="231">
   <si>
     <t>Agent Register</t>
   </si>
@@ -578,9 +578,6 @@
     <t>cmb 0-5</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>Country*</t>
   </si>
   <si>
@@ -654,6 +651,66 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>mst020.hotel_name</t>
+  </si>
+  <si>
+    <t>mst020.star</t>
+  </si>
+  <si>
+    <t>address*</t>
+  </si>
+  <si>
+    <t>mst020_address</t>
+  </si>
+  <si>
+    <t>mst020.mst002_id</t>
+  </si>
+  <si>
+    <t>mst020.mst003_id</t>
+  </si>
+  <si>
+    <t>mst020.postcode</t>
+  </si>
+  <si>
+    <t>mst020.landmark_name</t>
+  </si>
+  <si>
+    <t>mst020.phone_number</t>
+  </si>
+  <si>
+    <t>mst020.fax_number</t>
+  </si>
+  <si>
+    <t>mst020.email</t>
+  </si>
+  <si>
+    <t>mst020.website</t>
+  </si>
+  <si>
+    <t>mst020.mst004_id</t>
+  </si>
+  <si>
+    <t>mst020.meal_price</t>
+  </si>
+  <si>
+    <t>mst020.bed_price</t>
+  </si>
+  <si>
+    <t>mst001</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>active_flg = Yes</t>
+  </si>
+  <si>
+    <t>api_flg = No</t>
+  </si>
+  <si>
+    <t>market = all</t>
   </si>
 </sst>
 </file>
@@ -883,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -912,8 +969,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6127,15 +6185,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:X53"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -6172,7 +6230,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="6"/>
       <c r="AC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -6440,7 +6498,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
       <c r="X13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="3"/>
@@ -6529,7 +6587,7 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
@@ -6556,7 +6614,7 @@
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7"/>
@@ -6583,7 +6641,7 @@
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="7"/>
@@ -6610,7 +6668,7 @@
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7"/>
@@ -6637,7 +6695,7 @@
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -6664,7 +6722,7 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="9"/>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -6691,7 +6749,7 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="9"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
@@ -6720,7 +6778,7 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="9"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -6747,12 +6805,12 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="12"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="25" t="s">
         <v>182</v>
@@ -6779,8 +6837,11 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AC28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -6805,8 +6866,11 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="9"/>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AC29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -6824,7 +6888,9 @@
       <c r="O30" s="2"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="R30" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
@@ -6833,8 +6899,11 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="9"/>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AC30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -6859,8 +6928,11 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="9"/>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AC31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -6878,7 +6950,9 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
+      <c r="P32" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -6921,7 +6995,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -6940,7 +7014,9 @@
       <c r="U34" s="5"/>
       <c r="V34" s="6"/>
       <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
+      <c r="X34" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="9"/>
     </row>
@@ -7031,14 +7107,18 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="K38" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
+      <c r="R38" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
@@ -7053,7 +7133,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -7067,7 +7147,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="1" t="s">
@@ -7113,7 +7193,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -7124,7 +7204,9 @@
       <c r="M41" s="2"/>
       <c r="N41" s="3"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
+      <c r="P41" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -7167,7 +7249,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -7182,7 +7264,9 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="3"/>
       <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
+      <c r="T43" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
@@ -7227,7 +7311,9 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7235,10 +7321,12 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S45" s="8"/>
-      <c r="T45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="3"/>
@@ -7277,13 +7365,15 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7331,13 +7421,15 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7385,7 +7477,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -7397,7 +7489,9 @@
         <v>83</v>
       </c>
       <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="O51" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
@@ -7441,13 +7535,15 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7455,11 +7551,13 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
-      <c r="U53" s="1"/>
+      <c r="U53" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="3"/>
@@ -7523,7 +7621,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -7579,13 +7677,15 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
-      <c r="M58" s="1"/>
+      <c r="M58" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -7633,13 +7733,15 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
-      <c r="M60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -7687,13 +7789,15 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -7868,7 +7972,7 @@
     </row>
     <row r="71" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C71" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="3:27" x14ac:dyDescent="0.25">
@@ -8165,7 +8269,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="3"/>
       <c r="X81" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" s="3"/>
@@ -8174,7 +8278,7 @@
     <row r="82" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
       <c r="D82" s="22"/>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="29" t="s">
         <v>66</v>
       </c>
       <c r="F82" s="8"/>
@@ -8480,35 +8584,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB55"/>
+  <dimension ref="B2:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="U51" sqref="U51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="5"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -8517,9 +8621,10 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="6"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -8542,24 +8647,24 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-      <c r="X3" s="9"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>183</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -8569,47 +8674,50 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="9"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X5" s="8"/>
+      <c r="Y5" s="9"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>184</v>
-      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="8" t="s">
-        <v>185</v>
-      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -8623,23 +8731,30 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="9"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -8648,61 +8763,66 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="9"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="6"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
-      <c r="X8" s="9"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X8" s="8"/>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="9"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -8710,8 +8830,8 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -8721,13 +8841,14 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-      <c r="X10" s="9"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -8735,24 +8856,25 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="9"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="9"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -8761,94 +8883,99 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-      <c r="X12" s="9"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>187</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
-        <v>188</v>
-      </c>
+      <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="3"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
-      <c r="X13" s="9"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X13" s="8"/>
+      <c r="Y13" s="9"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="O14" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="Q14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
-      <c r="X14" s="9"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X14" s="8"/>
+      <c r="Y14" s="9"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>189</v>
-      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -8860,23 +8987,28 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
-      <c r="X15" s="9"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X15" s="8"/>
+      <c r="Y15" s="9"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="O16" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -8885,26 +9017,25 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
-      <c r="X16" s="9"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X16" s="8"/>
+      <c r="Y16" s="9"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -8912,102 +9043,112 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
-      <c r="X17" s="9"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X17" s="8"/>
+      <c r="Y17" s="9"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="S18" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
-      <c r="X18" s="9"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X18" s="8"/>
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="8" t="s">
-        <v>190</v>
-      </c>
+      <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="3"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
-      <c r="X19" s="9"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X19" s="8"/>
+      <c r="Y19" s="9"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="J20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
+      <c r="S20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="3"/>
       <c r="W20" s="8"/>
-      <c r="X20" s="9"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X20" s="8"/>
+      <c r="Y20" s="9"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="3"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -9018,22 +9159,27 @@
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
-      <c r="X21" s="9"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X21" s="8"/>
+      <c r="Y21" s="9"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="J22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -9043,23 +9189,22 @@
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
-      <c r="X22" s="9"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X22" s="8"/>
+      <c r="Y22" s="9"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>193</v>
-      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
@@ -9070,22 +9215,27 @@
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="9"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X23" s="8"/>
+      <c r="Y23" s="9"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="J24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -9095,23 +9245,20 @@
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
-      <c r="X24" s="9"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X24" s="8"/>
+      <c r="Y24" s="9"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>194</v>
-      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -9124,22 +9271,29 @@
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
-      <c r="X25" s="9"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X25" s="8"/>
+      <c r="Y25" s="9"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -9149,63 +9303,70 @@
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
-      <c r="X26" s="9"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X26" s="8"/>
+      <c r="Y26" s="9"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="3"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="3"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
       <c r="W27" s="8"/>
-      <c r="X27" s="9"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X27" s="8"/>
+      <c r="Y27" s="9"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="J28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="9"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="9"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -9228,94 +9389,98 @@
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="9"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="9"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="12"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="9"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="12"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="6"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="9"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
@@ -9349,64 +9514,64 @@
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="AA37" s="8"/>
       <c r="AB37" s="9"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="9"/>
       <c r="S38" s="8"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="9"/>
       <c r="AA38" s="8"/>
       <c r="AB38" s="9"/>
     </row>
@@ -9529,93 +9694,93 @@
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
+      <c r="D43" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="9"/>
+      <c r="L43" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="6"/>
       <c r="S43" s="8"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="9"/>
+      <c r="T43" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="6"/>
       <c r="AA43" s="8"/>
       <c r="AB43" s="9"/>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="6"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="12"/>
       <c r="S44" s="8"/>
-      <c r="T44" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="6"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="12"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="9"/>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="12"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
       <c r="S45" s="8"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="12"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="9"/>
     </row>
@@ -9709,15 +9874,17 @@
     <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="J49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="3"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
@@ -9738,17 +9905,15 @@
     <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="3"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
@@ -9769,9 +9934,11 @@
     <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+      <c r="D51" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -9798,11 +9965,9 @@
     <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -9856,62 +10021,68 @@
       <c r="AB53" s="9"/>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="9"/>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="12"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="12"/>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="291">
   <si>
     <t>Agent Register</t>
   </si>
@@ -711,6 +711,186 @@
   </si>
   <si>
     <t>market = all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Name </t>
+  </si>
+  <si>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t>S/d</t>
+  </si>
+  <si>
+    <t>Periode*</t>
+  </si>
+  <si>
+    <t>Room Name*</t>
+  </si>
+  <si>
+    <t>Number Adults*</t>
+  </si>
+  <si>
+    <t>Number Children*</t>
+  </si>
+  <si>
+    <t>Daily Price</t>
+  </si>
+  <si>
+    <t>Daily Price*</t>
+  </si>
+  <si>
+    <t>Rp</t>
+  </si>
+  <si>
+    <t>Bed Type*</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>queen/king/</t>
+  </si>
+  <si>
+    <t>Internet Fee</t>
+  </si>
+  <si>
+    <t>enable jika internet = yes</t>
+  </si>
+  <si>
+    <t>cut off</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Allotment</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>pax</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>nett/commision</t>
+  </si>
+  <si>
+    <t>jika type =  commision maka ini baru</t>
+  </si>
+  <si>
+    <t>Type Commision</t>
+  </si>
+  <si>
+    <t>%/value</t>
+  </si>
+  <si>
+    <t>% commision</t>
+  </si>
+  <si>
+    <t>Commision Value</t>
+  </si>
+  <si>
+    <t>kalau tipe komisi =% baru visible</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>kalau tipe komisi &lt;&gt;% baru visible</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Detail Room Type</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Room Name</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Browse</t>
+  </si>
+  <si>
+    <t>Foto setelah di upload</t>
+  </si>
+  <si>
+    <t>MST022</t>
+  </si>
+  <si>
+    <t>from_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>room_name</t>
+  </si>
+  <si>
+    <t>num_adults</t>
+  </si>
+  <si>
+    <t>num_child</t>
+  </si>
+  <si>
+    <t>num_breakfast</t>
+  </si>
+  <si>
+    <t>cut_off</t>
+  </si>
+  <si>
+    <t>allotment</t>
+  </si>
+  <si>
+    <t>net_fee</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>room_desc</t>
+  </si>
+  <si>
+    <t>bet_type</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>rate_type</t>
+  </si>
+  <si>
+    <t>daily_price</t>
+  </si>
+  <si>
+    <t>comm_pct</t>
+  </si>
+  <si>
+    <t>comm_value</t>
+  </si>
+  <si>
+    <t>comm_type</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -972,6 +1152,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8584,10 +8767,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB57"/>
+  <dimension ref="B2:BC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="F75" workbookViewId="0">
+      <selection activeCell="AR87" sqref="AR87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9871,7 +10054,7 @@
       <c r="AA48" s="8"/>
       <c r="AB48" s="9"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="1"/>
@@ -9902,7 +10085,7 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="9"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -9931,7 +10114,7 @@
       <c r="AA50" s="8"/>
       <c r="AB50" s="9"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="14" t="s">
@@ -9962,7 +10145,7 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="9"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -9991,7 +10174,7 @@
       <c r="AA52" s="8"/>
       <c r="AB52" s="9"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -10020,7 +10203,7 @@
       <c r="AA53" s="8"/>
       <c r="AB53" s="9"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -10049,7 +10232,63 @@
       <c r="AA54" s="11"/>
       <c r="AB54" s="12"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AE55" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="5"/>
+      <c r="AS55" s="5"/>
+      <c r="AT55" s="5"/>
+      <c r="AU55" s="5"/>
+      <c r="AV55" s="5"/>
+      <c r="AW55" s="5"/>
+      <c r="AX55" s="5"/>
+      <c r="AY55" s="5"/>
+      <c r="AZ55" s="5"/>
+      <c r="BA55" s="5"/>
+      <c r="BB55" s="6"/>
+    </row>
+    <row r="56" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="8"/>
+      <c r="AN56" s="8"/>
+      <c r="AO56" s="8"/>
+      <c r="AP56" s="8"/>
+      <c r="AQ56" s="8"/>
+      <c r="AR56" s="8"/>
+      <c r="AS56" s="8"/>
+      <c r="AT56" s="4"/>
+      <c r="AU56" s="5"/>
+      <c r="AV56" s="5"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="6"/>
+      <c r="AY56" s="8"/>
+      <c r="AZ56" s="8"/>
+      <c r="BA56" s="8"/>
+      <c r="BB56" s="9"/>
+    </row>
+    <row r="57" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="28" t="s">
         <v>204</v>
@@ -10083,8 +10322,2406 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="6"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN57" s="8"/>
+      <c r="AO57" s="8"/>
+      <c r="AP57" s="8"/>
+      <c r="AQ57" s="8"/>
+      <c r="AR57" s="8"/>
+      <c r="AS57" s="8"/>
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="8"/>
+      <c r="AV57" s="8"/>
+      <c r="AW57" s="8"/>
+      <c r="AX57" s="9"/>
+      <c r="AY57" s="8"/>
+      <c r="AZ57" s="8"/>
+      <c r="BA57" s="8"/>
+      <c r="BB57" s="9"/>
+    </row>
+    <row r="58" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="9"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="8"/>
+      <c r="AN58" s="8"/>
+      <c r="AO58" s="8"/>
+      <c r="AP58" s="8"/>
+      <c r="AQ58" s="8"/>
+      <c r="AR58" s="8"/>
+      <c r="AS58" s="8"/>
+      <c r="AT58" s="7"/>
+      <c r="AU58" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV58" s="8"/>
+      <c r="AW58" s="8"/>
+      <c r="AX58" s="9"/>
+      <c r="AY58" s="8"/>
+      <c r="AZ58" s="8"/>
+      <c r="BA58" s="8"/>
+      <c r="BB58" s="9"/>
+    </row>
+    <row r="59" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="9"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="8"/>
+      <c r="AN59" s="8"/>
+      <c r="AO59" s="8"/>
+      <c r="AP59" s="8"/>
+      <c r="AQ59" s="8"/>
+      <c r="AR59" s="8"/>
+      <c r="AS59" s="8"/>
+      <c r="AT59" s="7"/>
+      <c r="AU59" s="8"/>
+      <c r="AV59" s="8"/>
+      <c r="AW59" s="8"/>
+      <c r="AX59" s="9"/>
+      <c r="AY59" s="8"/>
+      <c r="AZ59" s="8"/>
+      <c r="BA59" s="8"/>
+      <c r="BB59" s="9"/>
+      <c r="BC59" s="8"/>
+    </row>
+    <row r="60" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="9"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ60" s="8"/>
+      <c r="AR60" s="8"/>
+      <c r="AS60" s="8"/>
+      <c r="AT60" s="10"/>
+      <c r="AU60" s="11"/>
+      <c r="AV60" s="11"/>
+      <c r="AW60" s="11"/>
+      <c r="AX60" s="12"/>
+      <c r="AY60" s="8"/>
+      <c r="AZ60" s="8"/>
+      <c r="BA60" s="8"/>
+      <c r="BB60" s="9"/>
+      <c r="BC60" s="8"/>
+    </row>
+    <row r="61" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="9"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="8"/>
+      <c r="AP61" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ61" s="8"/>
+      <c r="AR61" s="8"/>
+      <c r="AS61" s="8"/>
+      <c r="AT61" s="8"/>
+      <c r="AU61" s="8"/>
+      <c r="AV61" s="8"/>
+      <c r="AW61" s="8"/>
+      <c r="AX61" s="8"/>
+      <c r="AY61" s="8"/>
+      <c r="AZ61" s="8"/>
+      <c r="BA61" s="8"/>
+      <c r="BB61" s="9"/>
+      <c r="BC61" s="8"/>
+    </row>
+    <row r="62" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="9"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="13"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="3"/>
+      <c r="AO62" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="13"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="3"/>
+      <c r="AT62" s="8"/>
+      <c r="AU62" s="8"/>
+      <c r="AV62" s="8"/>
+      <c r="AW62" s="8"/>
+      <c r="AX62" s="8"/>
+      <c r="AY62" s="8"/>
+      <c r="AZ62" s="8"/>
+      <c r="BA62" s="8"/>
+      <c r="BB62" s="9"/>
+      <c r="BC62" s="8"/>
+    </row>
+    <row r="63" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="9"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="8"/>
+      <c r="AN63" s="8"/>
+      <c r="AO63" s="8"/>
+      <c r="AP63" s="8"/>
+      <c r="AQ63" s="8"/>
+      <c r="AR63" s="8"/>
+      <c r="AS63" s="8"/>
+      <c r="AT63" s="8"/>
+      <c r="AU63" s="8"/>
+      <c r="AV63" s="8"/>
+      <c r="AW63" s="8"/>
+      <c r="AX63" s="8"/>
+      <c r="AY63" s="8"/>
+      <c r="AZ63" s="8"/>
+      <c r="BA63" s="8"/>
+      <c r="BB63" s="9"/>
+      <c r="BC63" s="8"/>
+    </row>
+    <row r="64" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="9"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL64" s="2"/>
+      <c r="AM64" s="2"/>
+      <c r="AN64" s="2"/>
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="8"/>
+      <c r="AQ64" s="8"/>
+      <c r="AR64" s="8"/>
+      <c r="AS64" s="8"/>
+      <c r="AT64" s="8"/>
+      <c r="AU64" s="8"/>
+      <c r="AV64" s="8"/>
+      <c r="AW64" s="8"/>
+      <c r="AX64" s="8"/>
+      <c r="AY64" s="8"/>
+      <c r="AZ64" s="8"/>
+      <c r="BA64" s="8"/>
+      <c r="BB64" s="9"/>
+      <c r="BC64" s="8"/>
+    </row>
+    <row r="65" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="9"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="8"/>
+      <c r="AN65" s="8"/>
+      <c r="AO65" s="8"/>
+      <c r="AP65" s="8"/>
+      <c r="AQ65" s="8"/>
+      <c r="AR65" s="8"/>
+      <c r="AS65" s="8"/>
+      <c r="AT65" s="8"/>
+      <c r="AU65" s="8"/>
+      <c r="AV65" s="8"/>
+      <c r="AW65" s="8"/>
+      <c r="AX65" s="8"/>
+      <c r="AY65" s="8"/>
+      <c r="AZ65" s="8"/>
+      <c r="BA65" s="8"/>
+      <c r="BB65" s="9"/>
+      <c r="BC65" s="8"/>
+    </row>
+    <row r="66" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="9"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL66" s="3"/>
+      <c r="AM66" s="8"/>
+      <c r="AN66" s="8"/>
+      <c r="AO66" s="8"/>
+      <c r="AP66" s="8"/>
+      <c r="AQ66" s="8"/>
+      <c r="AR66" s="8"/>
+      <c r="AS66" s="8"/>
+      <c r="AT66" s="8"/>
+      <c r="AU66" s="8"/>
+      <c r="AV66" s="8"/>
+      <c r="AW66" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX66" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AY66" s="3"/>
+      <c r="AZ66" s="8"/>
+      <c r="BA66" s="8"/>
+      <c r="BB66" s="9"/>
+      <c r="BC66" s="8"/>
+    </row>
+    <row r="67" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="9"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="8"/>
+      <c r="AN67" s="8"/>
+      <c r="AO67" s="8"/>
+      <c r="AP67" s="8"/>
+      <c r="AQ67" s="8"/>
+      <c r="AR67" s="8"/>
+      <c r="AS67" s="8"/>
+      <c r="AT67" s="8"/>
+      <c r="AU67" s="8"/>
+      <c r="AV67" s="8"/>
+      <c r="AW67" s="8"/>
+      <c r="AX67" s="8"/>
+      <c r="AY67" s="8"/>
+      <c r="AZ67" s="8"/>
+      <c r="BA67" s="8"/>
+      <c r="BB67" s="9"/>
+      <c r="BC67" s="8"/>
+    </row>
+    <row r="68" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="9"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="2"/>
+      <c r="AM68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN68" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO68" s="8"/>
+      <c r="AP68" s="8"/>
+      <c r="AQ68" s="8"/>
+      <c r="AR68" s="8"/>
+      <c r="AS68" s="8"/>
+      <c r="AT68" s="8"/>
+      <c r="AU68" s="8"/>
+      <c r="AV68" s="8"/>
+      <c r="AW68" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="3"/>
+      <c r="AZ68" s="8"/>
+      <c r="BA68" s="8"/>
+      <c r="BB68" s="9"/>
+      <c r="BC68" s="8"/>
+    </row>
+    <row r="69" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
+      <c r="AB69" s="12"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="8"/>
+      <c r="AN69" s="8"/>
+      <c r="AO69" s="8"/>
+      <c r="AP69" s="8"/>
+      <c r="AQ69" s="8"/>
+      <c r="AR69" s="8"/>
+      <c r="AS69" s="8"/>
+      <c r="AT69" s="8"/>
+      <c r="AU69" s="8"/>
+      <c r="AV69" s="8"/>
+      <c r="AW69" s="8"/>
+      <c r="AX69" s="8"/>
+      <c r="AY69" s="8"/>
+      <c r="AZ69" s="8"/>
+      <c r="BA69" s="8"/>
+      <c r="BB69" s="9"/>
+      <c r="BC69" s="8"/>
+    </row>
+    <row r="70" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM70" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN70" s="8"/>
+      <c r="AO70" s="8"/>
+      <c r="AP70" s="8"/>
+      <c r="AQ70" s="8"/>
+      <c r="AR70" s="8"/>
+      <c r="AS70" s="8"/>
+      <c r="AT70" s="8"/>
+      <c r="AU70" s="8"/>
+      <c r="AV70" s="8"/>
+      <c r="AW70" s="8"/>
+      <c r="AX70" s="8"/>
+      <c r="AY70" s="8"/>
+      <c r="AZ70" s="8"/>
+      <c r="BA70" s="8"/>
+      <c r="BB70" s="9"/>
+      <c r="BC70" s="8"/>
+    </row>
+    <row r="71" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="8"/>
+      <c r="AN71" s="8"/>
+      <c r="AO71" s="8"/>
+      <c r="AP71" s="8"/>
+      <c r="AQ71" s="8"/>
+      <c r="AR71" s="8"/>
+      <c r="AS71" s="8"/>
+      <c r="AT71" s="8"/>
+      <c r="AU71" s="8"/>
+      <c r="AV71" s="8"/>
+      <c r="AW71" s="8"/>
+      <c r="AX71" s="8"/>
+      <c r="AY71" s="8"/>
+      <c r="AZ71" s="8"/>
+      <c r="BA71" s="8"/>
+      <c r="BB71" s="9"/>
+      <c r="BC71" s="8"/>
+    </row>
+    <row r="72" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="2"/>
+      <c r="AM72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN72" s="8"/>
+      <c r="AO72" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP72" s="8"/>
+      <c r="AQ72" s="8"/>
+      <c r="AR72" s="8"/>
+      <c r="AS72" s="8"/>
+      <c r="AT72" s="8"/>
+      <c r="AU72" s="8"/>
+      <c r="AV72" s="8"/>
+      <c r="AW72" s="8"/>
+      <c r="AX72" s="8"/>
+      <c r="AY72" s="8"/>
+      <c r="AZ72" s="8"/>
+      <c r="BA72" s="8"/>
+      <c r="BB72" s="9"/>
+      <c r="BC72" s="8"/>
+    </row>
+    <row r="73" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="8"/>
+      <c r="AN73" s="8"/>
+      <c r="AO73" s="8"/>
+      <c r="AP73" s="8"/>
+      <c r="AQ73" s="8"/>
+      <c r="AR73" s="8"/>
+      <c r="AS73" s="8"/>
+      <c r="AT73" s="8"/>
+      <c r="AU73" s="8"/>
+      <c r="AV73" s="8"/>
+      <c r="AW73" s="8"/>
+      <c r="AX73" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AY73" s="8"/>
+      <c r="AZ73" s="8"/>
+      <c r="BA73" s="8"/>
+      <c r="BB73" s="9"/>
+      <c r="BC73" s="8"/>
+    </row>
+    <row r="74" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="3"/>
+      <c r="AM74" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN74" s="8"/>
+      <c r="AO74" s="8"/>
+      <c r="AP74" s="8"/>
+      <c r="AQ74" s="8"/>
+      <c r="AR74" s="8"/>
+      <c r="AS74" s="8"/>
+      <c r="AT74" s="8"/>
+      <c r="AU74" s="8"/>
+      <c r="AV74" s="8"/>
+      <c r="AW74" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="3"/>
+      <c r="AZ74" s="8"/>
+      <c r="BA74" s="8"/>
+      <c r="BB74" s="9"/>
+      <c r="BC74" s="8"/>
+    </row>
+    <row r="75" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="8"/>
+      <c r="AN75" s="8"/>
+      <c r="AO75" s="8"/>
+      <c r="AP75" s="8"/>
+      <c r="AQ75" s="8"/>
+      <c r="AR75" s="8"/>
+      <c r="AS75" s="8"/>
+      <c r="AT75" s="8"/>
+      <c r="AU75" s="8"/>
+      <c r="AV75" s="8"/>
+      <c r="AW75" s="8"/>
+      <c r="AX75" s="8"/>
+      <c r="AY75" s="8"/>
+      <c r="AZ75" s="8"/>
+      <c r="BA75" s="8"/>
+      <c r="BB75" s="9"/>
+      <c r="BC75" s="8"/>
+    </row>
+    <row r="76" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="3"/>
+      <c r="AM76" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN76" s="8"/>
+      <c r="AO76" s="8"/>
+      <c r="AP76" s="8"/>
+      <c r="AQ76" s="8"/>
+      <c r="AR76" s="8"/>
+      <c r="AS76" s="8"/>
+      <c r="AT76" s="8"/>
+      <c r="AU76" s="8"/>
+      <c r="AV76" s="8"/>
+      <c r="AW76" s="8"/>
+      <c r="AX76" s="8"/>
+      <c r="AY76" s="8"/>
+      <c r="AZ76" s="8"/>
+      <c r="BA76" s="8"/>
+      <c r="BB76" s="9"/>
+      <c r="BC76" s="8"/>
+    </row>
+    <row r="77" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="8"/>
+      <c r="AN77" s="8"/>
+      <c r="AO77" s="8"/>
+      <c r="AP77" s="8"/>
+      <c r="AQ77" s="8"/>
+      <c r="AR77" s="8"/>
+      <c r="AS77" s="8"/>
+      <c r="AT77" s="8"/>
+      <c r="AU77" s="8"/>
+      <c r="AV77" s="8"/>
+      <c r="AW77" s="8"/>
+      <c r="AX77" s="8"/>
+      <c r="AY77" s="8"/>
+      <c r="AZ77" s="8"/>
+      <c r="BA77" s="8"/>
+      <c r="BB77" s="9"/>
+      <c r="BC77" s="8"/>
+    </row>
+    <row r="78" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="8"/>
+      <c r="AN78" s="8"/>
+      <c r="AO78" s="8"/>
+      <c r="AP78" s="8"/>
+      <c r="AQ78" s="8"/>
+      <c r="AR78" s="8"/>
+      <c r="AS78" s="8"/>
+      <c r="AT78" s="8"/>
+      <c r="AU78" s="8"/>
+      <c r="AV78" s="8"/>
+      <c r="AW78" s="8"/>
+      <c r="AX78" s="8"/>
+      <c r="AY78" s="8"/>
+      <c r="AZ78" s="8"/>
+      <c r="BA78" s="8"/>
+      <c r="BB78" s="9"/>
+      <c r="BC78" s="8"/>
+    </row>
+    <row r="79" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="8"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="5"/>
+      <c r="AP79" s="5"/>
+      <c r="AQ79" s="5"/>
+      <c r="AR79" s="5"/>
+      <c r="AS79" s="5"/>
+      <c r="AT79" s="5"/>
+      <c r="AU79" s="5"/>
+      <c r="AV79" s="5"/>
+      <c r="AW79" s="6"/>
+      <c r="AX79" s="8"/>
+      <c r="AY79" s="8"/>
+      <c r="AZ79" s="8"/>
+      <c r="BA79" s="8"/>
+      <c r="BB79" s="9"/>
+      <c r="BC79" s="8"/>
+    </row>
+    <row r="80" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="8"/>
+      <c r="AH80" s="8"/>
+      <c r="AI80" s="8"/>
+      <c r="AJ80" s="8"/>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="8"/>
+      <c r="AM80" s="8"/>
+      <c r="AN80" s="8"/>
+      <c r="AO80" s="8"/>
+      <c r="AP80" s="8"/>
+      <c r="AQ80" s="8"/>
+      <c r="AR80" s="8"/>
+      <c r="AS80" s="8"/>
+      <c r="AT80" s="8"/>
+      <c r="AU80" s="8"/>
+      <c r="AV80" s="8"/>
+      <c r="AW80" s="9"/>
+      <c r="AX80" s="8"/>
+      <c r="AY80" s="8"/>
+      <c r="AZ80" s="8"/>
+      <c r="BA80" s="8"/>
+      <c r="BB80" s="9"/>
+      <c r="BC80" s="8"/>
+    </row>
+    <row r="81" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="8"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="8"/>
+      <c r="AH81" s="8"/>
+      <c r="AI81" s="8"/>
+      <c r="AJ81" s="8"/>
+      <c r="AK81" s="10"/>
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
+      <c r="AN81" s="11"/>
+      <c r="AO81" s="11"/>
+      <c r="AP81" s="11"/>
+      <c r="AQ81" s="11"/>
+      <c r="AR81" s="11"/>
+      <c r="AS81" s="11"/>
+      <c r="AT81" s="11"/>
+      <c r="AU81" s="11"/>
+      <c r="AV81" s="11"/>
+      <c r="AW81" s="12"/>
+      <c r="AX81" s="8"/>
+      <c r="AY81" s="8"/>
+      <c r="AZ81" s="8"/>
+      <c r="BA81" s="8"/>
+      <c r="BB81" s="9"/>
+      <c r="BC81" s="8"/>
+    </row>
+    <row r="82" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="8"/>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="8"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="8"/>
+      <c r="AG82" s="8"/>
+      <c r="AH82" s="8"/>
+      <c r="AI82" s="8"/>
+      <c r="AJ82" s="8"/>
+      <c r="AK82" s="8"/>
+      <c r="AL82" s="8"/>
+      <c r="AM82" s="8"/>
+      <c r="AN82" s="8"/>
+      <c r="AO82" s="8"/>
+      <c r="AP82" s="8"/>
+      <c r="AQ82" s="8"/>
+      <c r="AR82" s="8"/>
+      <c r="AS82" s="8"/>
+      <c r="AT82" s="8"/>
+      <c r="AU82" s="8"/>
+      <c r="AV82" s="8"/>
+      <c r="AW82" s="8"/>
+      <c r="AX82" s="8"/>
+      <c r="AY82" s="8"/>
+      <c r="AZ82" s="8"/>
+      <c r="BA82" s="8"/>
+      <c r="BB82" s="9"/>
+      <c r="BC82" s="8"/>
+    </row>
+    <row r="83" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="8"/>
+      <c r="AB83" s="8"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+      <c r="AP83" s="5"/>
+      <c r="AQ83" s="5"/>
+      <c r="AR83" s="5"/>
+      <c r="AS83" s="5"/>
+      <c r="AT83" s="5"/>
+      <c r="AU83" s="5"/>
+      <c r="AV83" s="5"/>
+      <c r="AW83" s="5"/>
+      <c r="AX83" s="5"/>
+      <c r="AY83" s="5"/>
+      <c r="AZ83" s="6"/>
+      <c r="BA83" s="8"/>
+      <c r="BB83" s="9"/>
+      <c r="BC83" s="8"/>
+    </row>
+    <row r="84" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="8"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="7"/>
+      <c r="AG84" s="8"/>
+      <c r="AH84" s="8"/>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="8"/>
+      <c r="AK84" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL84" s="8"/>
+      <c r="AM84" s="8"/>
+      <c r="AN84" s="8"/>
+      <c r="AO84" s="8"/>
+      <c r="AP84" s="8"/>
+      <c r="AQ84" s="8"/>
+      <c r="AR84" s="8"/>
+      <c r="AS84" s="8"/>
+      <c r="AT84" s="8"/>
+      <c r="AU84" s="8"/>
+      <c r="AV84" s="8"/>
+      <c r="AW84" s="8"/>
+      <c r="AX84" s="8"/>
+      <c r="AY84" s="8"/>
+      <c r="AZ84" s="9"/>
+      <c r="BA84" s="8"/>
+      <c r="BB84" s="9"/>
+      <c r="BC84" s="8"/>
+    </row>
+    <row r="85" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="8"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH85" s="8"/>
+      <c r="AI85" s="8"/>
+      <c r="AJ85" s="8"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM85" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN85" s="8"/>
+      <c r="AO85" s="8"/>
+      <c r="AP85" s="8"/>
+      <c r="AQ85" s="8"/>
+      <c r="AR85" s="8"/>
+      <c r="AS85" s="8"/>
+      <c r="AT85" s="8"/>
+      <c r="AU85" s="8"/>
+      <c r="AV85" s="8"/>
+      <c r="AW85" s="8"/>
+      <c r="AX85" s="8"/>
+      <c r="AY85" s="8"/>
+      <c r="AZ85" s="9"/>
+      <c r="BA85" s="8"/>
+      <c r="BB85" s="9"/>
+      <c r="BC85" s="8"/>
+    </row>
+    <row r="86" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+      <c r="AI86" s="8"/>
+      <c r="AJ86" s="8"/>
+      <c r="AK86" s="8"/>
+      <c r="AL86" s="8"/>
+      <c r="AM86" s="8"/>
+      <c r="AN86" s="8"/>
+      <c r="AO86" s="8"/>
+      <c r="AP86" s="8"/>
+      <c r="AQ86" s="8"/>
+      <c r="AR86" s="8"/>
+      <c r="AS86" s="8"/>
+      <c r="AT86" s="8"/>
+      <c r="AU86" s="8"/>
+      <c r="AV86" s="8"/>
+      <c r="AW86" s="8"/>
+      <c r="AX86" s="8"/>
+      <c r="AY86" s="8"/>
+      <c r="AZ86" s="9"/>
+      <c r="BA86" s="8"/>
+      <c r="BB86" s="9"/>
+      <c r="BC86" s="8"/>
+    </row>
+    <row r="87" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8"/>
+      <c r="AL87" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM87" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN87" s="2"/>
+      <c r="AO87" s="2"/>
+      <c r="AP87" s="3"/>
+      <c r="AQ87" s="8"/>
+      <c r="AR87" s="8"/>
+      <c r="AS87" s="8"/>
+      <c r="AT87" s="8"/>
+      <c r="AU87" s="8"/>
+      <c r="AV87" s="8"/>
+      <c r="AW87" s="8"/>
+      <c r="AX87" s="8"/>
+      <c r="AY87" s="8"/>
+      <c r="AZ87" s="9"/>
+      <c r="BA87" s="8"/>
+      <c r="BB87" s="9"/>
+      <c r="BC87" s="8"/>
+    </row>
+    <row r="88" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="8"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="8"/>
+      <c r="AH88" s="8"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="8"/>
+      <c r="AL88" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM88" s="8"/>
+      <c r="AN88" s="8"/>
+      <c r="AO88" s="8"/>
+      <c r="AP88" s="8"/>
+      <c r="AQ88" s="8"/>
+      <c r="AR88" s="8"/>
+      <c r="AS88" s="8"/>
+      <c r="AT88" s="8"/>
+      <c r="AU88" s="8"/>
+      <c r="AV88" s="8"/>
+      <c r="AW88" s="8"/>
+      <c r="AX88" s="8"/>
+      <c r="AY88" s="8"/>
+      <c r="AZ88" s="9"/>
+      <c r="BA88" s="8"/>
+      <c r="BB88" s="9"/>
+      <c r="BC88" s="8"/>
+    </row>
+    <row r="89" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN89" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO89" s="8"/>
+      <c r="AP89" s="8"/>
+      <c r="AQ89" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR89" s="8"/>
+      <c r="AS89" s="8"/>
+      <c r="AT89" s="8"/>
+      <c r="AU89" s="8"/>
+      <c r="AV89" s="8"/>
+      <c r="AW89" s="8"/>
+      <c r="AX89" s="8"/>
+      <c r="AY89" s="8"/>
+      <c r="AZ89" s="9"/>
+      <c r="BA89" s="8"/>
+      <c r="BB89" s="9"/>
+      <c r="BC89" s="8"/>
+    </row>
+    <row r="90" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="8"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="8"/>
+      <c r="AH90" s="8"/>
+      <c r="AI90" s="8"/>
+      <c r="AJ90" s="8"/>
+      <c r="AK90" s="8"/>
+      <c r="AL90" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM90" s="8"/>
+      <c r="AN90" s="8"/>
+      <c r="AO90" s="8"/>
+      <c r="AP90" s="8"/>
+      <c r="AQ90" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR90" s="8"/>
+      <c r="AS90" s="8"/>
+      <c r="AT90" s="8"/>
+      <c r="AU90" s="8"/>
+      <c r="AV90" s="8"/>
+      <c r="AW90" s="8"/>
+      <c r="AX90" s="8"/>
+      <c r="AY90" s="8"/>
+      <c r="AZ90" s="9"/>
+      <c r="BA90" s="8"/>
+      <c r="BB90" s="9"/>
+      <c r="BC90" s="8"/>
+    </row>
+    <row r="91" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="8"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH91" s="8"/>
+      <c r="AI91" s="8"/>
+      <c r="AJ91" s="8"/>
+      <c r="AK91" s="8"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="3"/>
+      <c r="AN91" s="8"/>
+      <c r="AO91" s="8"/>
+      <c r="AP91" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ91" s="8"/>
+      <c r="AR91" s="8"/>
+      <c r="AS91" s="8"/>
+      <c r="AT91" s="8"/>
+      <c r="AU91" s="8"/>
+      <c r="AV91" s="8"/>
+      <c r="AW91" s="8"/>
+      <c r="AX91" s="8"/>
+      <c r="AY91" s="8"/>
+      <c r="AZ91" s="9"/>
+      <c r="BA91" s="8"/>
+      <c r="BB91" s="9"/>
+      <c r="BC91" s="8"/>
+    </row>
+    <row r="92" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="8"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="8"/>
+      <c r="AH92" s="8"/>
+      <c r="AI92" s="8"/>
+      <c r="AJ92" s="8"/>
+      <c r="AK92" s="8"/>
+      <c r="AL92" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM92" s="8"/>
+      <c r="AN92" s="8"/>
+      <c r="AO92" s="8"/>
+      <c r="AP92" s="8"/>
+      <c r="AQ92" s="8"/>
+      <c r="AR92" s="8"/>
+      <c r="AS92" s="8"/>
+      <c r="AT92" s="8"/>
+      <c r="AU92" s="8"/>
+      <c r="AV92" s="8"/>
+      <c r="AW92" s="8"/>
+      <c r="AX92" s="8"/>
+      <c r="AY92" s="8"/>
+      <c r="AZ92" s="9"/>
+      <c r="BA92" s="8"/>
+      <c r="BB92" s="9"/>
+      <c r="BC92" s="8"/>
+    </row>
+    <row r="93" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="8"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH93" s="8"/>
+      <c r="AI93" s="8"/>
+      <c r="AJ93" s="8"/>
+      <c r="AK93" s="8"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="3"/>
+      <c r="AN93" s="8"/>
+      <c r="AO93" s="8"/>
+      <c r="AP93" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AQ93" s="8"/>
+      <c r="AR93" s="8"/>
+      <c r="AS93" s="8"/>
+      <c r="AT93" s="8"/>
+      <c r="AU93" s="8"/>
+      <c r="AV93" s="8"/>
+      <c r="AW93" s="8"/>
+      <c r="AX93" s="8"/>
+      <c r="AY93" s="8"/>
+      <c r="AZ93" s="9"/>
+      <c r="BA93" s="8"/>
+      <c r="BB93" s="9"/>
+      <c r="BC93" s="8"/>
+    </row>
+    <row r="94" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8"/>
+      <c r="AB94" s="8"/>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="8"/>
+      <c r="AH94" s="8"/>
+      <c r="AI94" s="8"/>
+      <c r="AJ94" s="8"/>
+      <c r="AK94" s="8"/>
+      <c r="AL94" s="8"/>
+      <c r="AM94" s="8"/>
+      <c r="AN94" s="8"/>
+      <c r="AO94" s="8"/>
+      <c r="AP94" s="8"/>
+      <c r="AQ94" s="8"/>
+      <c r="AR94" s="8"/>
+      <c r="AS94" s="8"/>
+      <c r="AT94" s="8"/>
+      <c r="AU94" s="8"/>
+      <c r="AV94" s="8"/>
+      <c r="AW94" s="8"/>
+      <c r="AX94" s="8"/>
+      <c r="AY94" s="8"/>
+      <c r="AZ94" s="9"/>
+      <c r="BA94" s="8"/>
+      <c r="BB94" s="9"/>
+      <c r="BC94" s="8"/>
+    </row>
+    <row r="95" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8"/>
+      <c r="AB95" s="8"/>
+      <c r="AE95" s="7"/>
+      <c r="AF95" s="10"/>
+      <c r="AG95" s="11"/>
+      <c r="AH95" s="11"/>
+      <c r="AI95" s="11"/>
+      <c r="AJ95" s="11"/>
+      <c r="AK95" s="11"/>
+      <c r="AL95" s="11"/>
+      <c r="AM95" s="11"/>
+      <c r="AN95" s="11"/>
+      <c r="AO95" s="11"/>
+      <c r="AP95" s="11"/>
+      <c r="AQ95" s="11"/>
+      <c r="AR95" s="11"/>
+      <c r="AS95" s="11"/>
+      <c r="AT95" s="11"/>
+      <c r="AU95" s="11"/>
+      <c r="AV95" s="11"/>
+      <c r="AW95" s="11"/>
+      <c r="AX95" s="11"/>
+      <c r="AY95" s="11"/>
+      <c r="AZ95" s="12"/>
+      <c r="BA95" s="8"/>
+      <c r="BB95" s="9"/>
+      <c r="BC95" s="8"/>
+    </row>
+    <row r="96" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="8"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="8"/>
+      <c r="AG96" s="8"/>
+      <c r="AH96" s="8"/>
+      <c r="AI96" s="8"/>
+      <c r="AJ96" s="8"/>
+      <c r="AK96" s="8"/>
+      <c r="AL96" s="8"/>
+      <c r="AM96" s="8"/>
+      <c r="AN96" s="8"/>
+      <c r="AO96" s="8"/>
+      <c r="AP96" s="8"/>
+      <c r="AQ96" s="8"/>
+      <c r="AR96" s="8"/>
+      <c r="AS96" s="8"/>
+      <c r="AT96" s="8"/>
+      <c r="AU96" s="8"/>
+      <c r="AV96" s="8"/>
+      <c r="AW96" s="8"/>
+      <c r="AX96" s="8"/>
+      <c r="AY96" s="8"/>
+      <c r="AZ96" s="8"/>
+      <c r="BA96" s="8"/>
+      <c r="BB96" s="9"/>
+      <c r="BC96" s="8"/>
+    </row>
+    <row r="97" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8"/>
+      <c r="AB97" s="8"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG97" s="3"/>
+      <c r="AH97" s="8"/>
+      <c r="AI97" s="8"/>
+      <c r="AJ97" s="8"/>
+      <c r="AK97" s="8"/>
+      <c r="AL97" s="8"/>
+      <c r="AM97" s="8"/>
+      <c r="AN97" s="8"/>
+      <c r="AO97" s="8"/>
+      <c r="AP97" s="8"/>
+      <c r="AQ97" s="8"/>
+      <c r="AR97" s="8"/>
+      <c r="AS97" s="8"/>
+      <c r="AT97" s="8"/>
+      <c r="AU97" s="8"/>
+      <c r="AV97" s="8"/>
+      <c r="AW97" s="8"/>
+      <c r="AX97" s="8"/>
+      <c r="AY97" s="8"/>
+      <c r="AZ97" s="8"/>
+      <c r="BA97" s="8"/>
+      <c r="BB97" s="9"/>
+      <c r="BC97" s="8"/>
+    </row>
+    <row r="98" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8"/>
+      <c r="AB98" s="8"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="11"/>
+      <c r="AG98" s="11"/>
+      <c r="AH98" s="11"/>
+      <c r="AI98" s="11"/>
+      <c r="AJ98" s="11"/>
+      <c r="AK98" s="11"/>
+      <c r="AL98" s="11"/>
+      <c r="AM98" s="11"/>
+      <c r="AN98" s="11"/>
+      <c r="AO98" s="11"/>
+      <c r="AP98" s="11"/>
+      <c r="AQ98" s="11"/>
+      <c r="AR98" s="11"/>
+      <c r="AS98" s="11"/>
+      <c r="AT98" s="11"/>
+      <c r="AU98" s="11"/>
+      <c r="AV98" s="11"/>
+      <c r="AW98" s="11"/>
+      <c r="AX98" s="11"/>
+      <c r="AY98" s="11"/>
+      <c r="AZ98" s="11"/>
+      <c r="BA98" s="11"/>
+      <c r="BB98" s="12"/>
+    </row>
+    <row r="99" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8"/>
+      <c r="AB99" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="309">
   <si>
     <t>Agent Register</t>
   </si>
@@ -891,6 +891,60 @@
   </si>
   <si>
     <t>comm_type</t>
+  </si>
+  <si>
+    <t>validasi periode from harus &gt;= periode to</t>
+  </si>
+  <si>
+    <t>validasi periode from tdk blh between dr tgl periode from and periode to</t>
+  </si>
+  <si>
+    <t>contoh data:</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>20-1-2015</t>
+  </si>
+  <si>
+    <t>1-1-2015</t>
+  </si>
+  <si>
+    <t>23-1-2015</t>
+  </si>
+  <si>
+    <t>14-2-2015</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>from : 2-1-2015</t>
+  </si>
+  <si>
+    <t>end : 15-1-2015</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>kalau pake query</t>
+  </si>
+  <si>
+    <t>select count(*) from mst022 where from betweed periodeFrom and periodeTo</t>
+  </si>
+  <si>
+    <t>if count &gt; 0 then error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">untuk yang end datenya jg sama </t>
+  </si>
+  <si>
+    <t>tgl ganti aja</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1155,6 +1209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8769,11 +8826,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F75" workbookViewId="0">
-      <selection activeCell="AR87" sqref="AR87"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -11111,7 +11171,9 @@
       <c r="BC70" s="8"/>
     </row>
     <row r="71" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
+      <c r="B71" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -11167,8 +11229,12 @@
       <c r="BC71" s="8"/>
     </row>
     <row r="72" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+      <c r="B72" s="8">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -11227,8 +11293,12 @@
       <c r="BC72" s="8"/>
     </row>
     <row r="73" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+      <c r="B73" s="8">
+        <v>2</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -11286,7 +11356,9 @@
     </row>
     <row r="74" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+      <c r="C74" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -11346,10 +11418,14 @@
     </row>
     <row r="75" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+      <c r="C75" s="19" t="s">
+        <v>294</v>
+      </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -11400,10 +11476,14 @@
     </row>
     <row r="76" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="C76" s="32" t="s">
+        <v>297</v>
+      </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+      <c r="F76" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -11458,10 +11538,14 @@
     </row>
     <row r="77" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="C77" s="34" t="s">
+        <v>298</v>
+      </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
+      <c r="F77" s="33" t="s">
+        <v>299</v>
+      </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
@@ -11568,10 +11652,16 @@
     </row>
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+      <c r="C79" s="19" t="s">
+        <v>300</v>
+      </c>
       <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>301</v>
+      </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -11629,13 +11719,17 @@
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
+      <c r="F80" s="19" t="s">
+        <v>302</v>
+      </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
+      <c r="L80" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -11734,7 +11828,9 @@
     </row>
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
+      <c r="C82" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -11788,7 +11884,9 @@
     </row>
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+      <c r="C83" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="D83" s="15"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -11844,7 +11942,9 @@
     </row>
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+      <c r="C84" s="19" t="s">
+        <v>306</v>
+      </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -11960,7 +12060,9 @@
     </row>
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
+      <c r="C86" s="19" t="s">
+        <v>307</v>
+      </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -12014,7 +12116,9 @@
     </row>
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+      <c r="C87" s="19" t="s">
+        <v>308</v>
+      </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="322">
   <si>
     <t>Agent Register</t>
   </si>
@@ -945,6 +945,45 @@
   </si>
   <si>
     <t>tgl ganti aja</t>
+  </si>
+  <si>
+    <t>Room Rate</t>
+  </si>
+  <si>
+    <t>Cancel Fee</t>
+  </si>
+  <si>
+    <t>Fee Value</t>
+  </si>
+  <si>
+    <t>Visibled kalau cancl fee = Yes</t>
+  </si>
+  <si>
+    <t>cancel_fee_flag</t>
+  </si>
+  <si>
+    <t>cancel_fee_val</t>
+  </si>
+  <si>
+    <t>Number Adults</t>
+  </si>
+  <si>
+    <t>Number Children</t>
+  </si>
+  <si>
+    <t>Detail Room Rate</t>
+  </si>
+  <si>
+    <t>MST023</t>
+  </si>
+  <si>
+    <t>data yang diambil dari master detail room tp masih bisa di edit</t>
+  </si>
+  <si>
+    <t>mst023_id</t>
+  </si>
+  <si>
+    <t>Bed Type</t>
   </si>
 </sst>
 </file>
@@ -8824,10 +8863,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BC99"/>
+  <dimension ref="B2:BC132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
+      <selection activeCell="AY69" sqref="AY69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9681,9 +9720,11 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="O34" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -10294,7 +10335,7 @@
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="AE55" s="18" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
@@ -10338,11 +10379,11 @@
       <c r="AQ56" s="8"/>
       <c r="AR56" s="8"/>
       <c r="AS56" s="8"/>
-      <c r="AT56" s="4"/>
-      <c r="AU56" s="5"/>
-      <c r="AV56" s="5"/>
-      <c r="AW56" s="5"/>
-      <c r="AX56" s="6"/>
+      <c r="AT56" s="8"/>
+      <c r="AU56" s="8"/>
+      <c r="AV56" s="8"/>
+      <c r="AW56" s="8"/>
+      <c r="AX56" s="8"/>
       <c r="AY56" s="8"/>
       <c r="AZ56" s="8"/>
       <c r="BA56" s="8"/>
@@ -10356,7 +10397,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="30" t="s">
         <v>205</v>
       </c>
       <c r="H57" s="2"/>
@@ -10368,9 +10409,11 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
+      <c r="O57" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="3"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
@@ -10384,28 +10427,24 @@
       <c r="AB57" s="6"/>
       <c r="AE57" s="7"/>
       <c r="AF57" s="8"/>
-      <c r="AG57" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH57" s="2"/>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
-      <c r="AK57" s="3"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
       <c r="AL57" s="8"/>
-      <c r="AM57" s="8" t="s">
-        <v>269</v>
-      </c>
+      <c r="AM57" s="8"/>
       <c r="AN57" s="8"/>
       <c r="AO57" s="8"/>
       <c r="AP57" s="8"/>
       <c r="AQ57" s="8"/>
       <c r="AR57" s="8"/>
       <c r="AS57" s="8"/>
-      <c r="AT57" s="7"/>
+      <c r="AT57" s="8"/>
       <c r="AU57" s="8"/>
       <c r="AV57" s="8"/>
       <c r="AW57" s="8"/>
-      <c r="AX57" s="9"/>
+      <c r="AX57" s="8"/>
       <c r="AY57" s="8"/>
       <c r="AZ57" s="8"/>
       <c r="BA57" s="8"/>
@@ -10454,13 +10493,11 @@
       <c r="AQ58" s="8"/>
       <c r="AR58" s="8"/>
       <c r="AS58" s="8"/>
-      <c r="AT58" s="7"/>
-      <c r="AU58" s="8" t="s">
-        <v>270</v>
-      </c>
+      <c r="AT58" s="8"/>
+      <c r="AU58" s="8"/>
       <c r="AV58" s="8"/>
       <c r="AW58" s="8"/>
-      <c r="AX58" s="9"/>
+      <c r="AX58" s="8"/>
       <c r="AY58" s="8"/>
       <c r="AZ58" s="8"/>
       <c r="BA58" s="8"/>
@@ -10511,11 +10548,11 @@
       <c r="AQ59" s="8"/>
       <c r="AR59" s="8"/>
       <c r="AS59" s="8"/>
-      <c r="AT59" s="7"/>
+      <c r="AT59" s="8"/>
       <c r="AU59" s="8"/>
       <c r="AV59" s="8"/>
       <c r="AW59" s="8"/>
-      <c r="AX59" s="9"/>
+      <c r="AX59" s="8"/>
       <c r="AY59" s="8"/>
       <c r="AZ59" s="8"/>
       <c r="BA59" s="8"/>
@@ -10581,11 +10618,11 @@
       <c r="AQ60" s="8"/>
       <c r="AR60" s="8"/>
       <c r="AS60" s="8"/>
-      <c r="AT60" s="10"/>
-      <c r="AU60" s="11"/>
-      <c r="AV60" s="11"/>
-      <c r="AW60" s="11"/>
-      <c r="AX60" s="12"/>
+      <c r="AT60" s="8"/>
+      <c r="AU60" s="8"/>
+      <c r="AV60" s="8"/>
+      <c r="AW60" s="8"/>
+      <c r="AX60" s="8"/>
       <c r="AY60" s="8"/>
       <c r="AZ60" s="8"/>
       <c r="BA60" s="8"/>
@@ -10799,12 +10836,14 @@
       <c r="AI64" s="8"/>
       <c r="AJ64" s="8"/>
       <c r="AK64" s="1" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
-      <c r="AO64" s="3"/>
+      <c r="AO64" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
       <c r="AR64" s="8"/>
@@ -11048,7 +11087,9 @@
         <v>242</v>
       </c>
       <c r="AX68" s="1"/>
-      <c r="AY68" s="3"/>
+      <c r="AY68" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="AZ68" s="8"/>
       <c r="BA68" s="8"/>
       <c r="BB68" s="9"/>
@@ -12233,8 +12274,12 @@
       <c r="BC88" s="8"/>
     </row>
     <row r="89" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="8">
+        <v>2</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>319</v>
+      </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -12296,7 +12341,9 @@
     </row>
     <row r="90" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="C90" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -12354,7 +12401,9 @@
     </row>
     <row r="91" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+      <c r="C91" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -12412,7 +12461,9 @@
     </row>
     <row r="92" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
+      <c r="C92" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -12468,7 +12519,9 @@
     </row>
     <row r="93" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+      <c r="C93" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -12526,7 +12579,9 @@
     </row>
     <row r="94" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
+      <c r="C94" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -12580,7 +12635,9 @@
     </row>
     <row r="95" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
+      <c r="C95" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -12607,34 +12664,40 @@
       <c r="AA95" s="8"/>
       <c r="AB95" s="8"/>
       <c r="AE95" s="7"/>
-      <c r="AF95" s="10"/>
-      <c r="AG95" s="11"/>
-      <c r="AH95" s="11"/>
-      <c r="AI95" s="11"/>
-      <c r="AJ95" s="11"/>
-      <c r="AK95" s="11"/>
-      <c r="AL95" s="11"/>
-      <c r="AM95" s="11"/>
-      <c r="AN95" s="11"/>
-      <c r="AO95" s="11"/>
-      <c r="AP95" s="11"/>
-      <c r="AQ95" s="11"/>
-      <c r="AR95" s="11"/>
-      <c r="AS95" s="11"/>
-      <c r="AT95" s="11"/>
-      <c r="AU95" s="11"/>
-      <c r="AV95" s="11"/>
-      <c r="AW95" s="11"/>
-      <c r="AX95" s="11"/>
-      <c r="AY95" s="11"/>
-      <c r="AZ95" s="12"/>
+      <c r="AF95" s="7"/>
+      <c r="AG95" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH95" s="8"/>
+      <c r="AI95" s="8"/>
+      <c r="AJ95" s="8"/>
+      <c r="AK95" s="8"/>
+      <c r="AL95" s="13"/>
+      <c r="AM95" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN95" s="8"/>
+      <c r="AO95" s="8"/>
+      <c r="AP95" s="8"/>
+      <c r="AQ95" s="8"/>
+      <c r="AR95" s="8"/>
+      <c r="AS95" s="8"/>
+      <c r="AT95" s="8"/>
+      <c r="AU95" s="8"/>
+      <c r="AV95" s="8"/>
+      <c r="AW95" s="8"/>
+      <c r="AX95" s="8"/>
+      <c r="AY95" s="8"/>
+      <c r="AZ95" s="9"/>
       <c r="BA95" s="8"/>
       <c r="BB95" s="9"/>
       <c r="BC95" s="8"/>
     </row>
     <row r="96" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
+      <c r="C96" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -12661,7 +12724,7 @@
       <c r="AA96" s="8"/>
       <c r="AB96" s="8"/>
       <c r="AE96" s="7"/>
-      <c r="AF96" s="8"/>
+      <c r="AF96" s="7"/>
       <c r="AG96" s="8"/>
       <c r="AH96" s="8"/>
       <c r="AI96" s="8"/>
@@ -12681,14 +12744,16 @@
       <c r="AW96" s="8"/>
       <c r="AX96" s="8"/>
       <c r="AY96" s="8"/>
-      <c r="AZ96" s="8"/>
+      <c r="AZ96" s="9"/>
       <c r="BA96" s="8"/>
       <c r="BB96" s="9"/>
       <c r="BC96" s="8"/>
     </row>
     <row r="97" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
+      <c r="C97" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -12715,19 +12780,21 @@
       <c r="AA97" s="8"/>
       <c r="AB97" s="8"/>
       <c r="AE97" s="7"/>
-      <c r="AF97" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG97" s="3"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="AH97" s="8"/>
       <c r="AI97" s="8"/>
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
-      <c r="AL97" s="8"/>
-      <c r="AM97" s="8"/>
-      <c r="AN97" s="8"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="2"/>
+      <c r="AN97" s="3"/>
       <c r="AO97" s="8"/>
-      <c r="AP97" s="8"/>
+      <c r="AP97" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="AQ97" s="8"/>
       <c r="AR97" s="8"/>
       <c r="AS97" s="8"/>
@@ -12737,7 +12804,7 @@
       <c r="AW97" s="8"/>
       <c r="AX97" s="8"/>
       <c r="AY97" s="8"/>
-      <c r="AZ97" s="8"/>
+      <c r="AZ97" s="9"/>
       <c r="BA97" s="8"/>
       <c r="BB97" s="9"/>
       <c r="BC97" s="8"/>
@@ -12770,14 +12837,16 @@
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
-      <c r="AE98" s="10"/>
-      <c r="AF98" s="11"/>
+      <c r="AE98" s="7"/>
+      <c r="AF98" s="10"/>
       <c r="AG98" s="11"/>
       <c r="AH98" s="11"/>
       <c r="AI98" s="11"/>
       <c r="AJ98" s="11"/>
       <c r="AK98" s="11"/>
-      <c r="AL98" s="11"/>
+      <c r="AL98" s="11" t="s">
+        <v>314</v>
+      </c>
       <c r="AM98" s="11"/>
       <c r="AN98" s="11"/>
       <c r="AO98" s="11"/>
@@ -12791,9 +12860,10 @@
       <c r="AW98" s="11"/>
       <c r="AX98" s="11"/>
       <c r="AY98" s="11"/>
-      <c r="AZ98" s="11"/>
-      <c r="BA98" s="11"/>
-      <c r="BB98" s="12"/>
+      <c r="AZ98" s="12"/>
+      <c r="BA98" s="8"/>
+      <c r="BB98" s="9"/>
+      <c r="BC98" s="8"/>
     </row>
     <row r="99" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
@@ -12823,6 +12893,1310 @@
       <c r="Z99" s="8"/>
       <c r="AA99" s="8"/>
       <c r="AB99" s="8"/>
+      <c r="AE99" s="7"/>
+      <c r="AF99" s="8"/>
+      <c r="AG99" s="8"/>
+      <c r="AH99" s="8"/>
+      <c r="AI99" s="8"/>
+      <c r="AJ99" s="8"/>
+      <c r="AK99" s="8"/>
+      <c r="AL99" s="8"/>
+      <c r="AM99" s="8"/>
+      <c r="AN99" s="8"/>
+      <c r="AO99" s="8"/>
+      <c r="AP99" s="8"/>
+      <c r="AQ99" s="8"/>
+      <c r="AR99" s="8"/>
+      <c r="AS99" s="8"/>
+      <c r="AT99" s="8"/>
+      <c r="AU99" s="8"/>
+      <c r="AV99" s="8"/>
+      <c r="AW99" s="8"/>
+      <c r="AX99" s="8"/>
+      <c r="AY99" s="8"/>
+      <c r="AZ99" s="8"/>
+      <c r="BA99" s="8"/>
+      <c r="BB99" s="9"/>
+      <c r="BC99" s="8"/>
+    </row>
+    <row r="100" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="8"/>
+      <c r="X100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="8"/>
+      <c r="AB100" s="8"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG100" s="3"/>
+      <c r="AH100" s="8"/>
+      <c r="AI100" s="8"/>
+      <c r="AJ100" s="8"/>
+      <c r="AK100" s="8"/>
+      <c r="AL100" s="8"/>
+      <c r="AM100" s="8"/>
+      <c r="AN100" s="8"/>
+      <c r="AO100" s="8"/>
+      <c r="AP100" s="8"/>
+      <c r="AQ100" s="8"/>
+      <c r="AR100" s="8"/>
+      <c r="AS100" s="8"/>
+      <c r="AT100" s="8"/>
+      <c r="AU100" s="8"/>
+      <c r="AV100" s="8"/>
+      <c r="AW100" s="8"/>
+      <c r="AX100" s="8"/>
+      <c r="AY100" s="8"/>
+      <c r="AZ100" s="8"/>
+      <c r="BA100" s="8"/>
+      <c r="BB100" s="9"/>
+      <c r="BC100" s="8"/>
+    </row>
+    <row r="101" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+      <c r="AB101" s="8"/>
+      <c r="AE101" s="10"/>
+      <c r="AF101" s="11"/>
+      <c r="AG101" s="11"/>
+      <c r="AH101" s="11"/>
+      <c r="AI101" s="11"/>
+      <c r="AJ101" s="11"/>
+      <c r="AK101" s="11"/>
+      <c r="AL101" s="11"/>
+      <c r="AM101" s="11"/>
+      <c r="AN101" s="11"/>
+      <c r="AO101" s="11"/>
+      <c r="AP101" s="11"/>
+      <c r="AQ101" s="11"/>
+      <c r="AR101" s="11"/>
+      <c r="AS101" s="11"/>
+      <c r="AT101" s="11"/>
+      <c r="AU101" s="11"/>
+      <c r="AV101" s="11"/>
+      <c r="AW101" s="11"/>
+      <c r="AX101" s="11"/>
+      <c r="AY101" s="11"/>
+      <c r="AZ101" s="11"/>
+      <c r="BA101" s="11"/>
+      <c r="BB101" s="12"/>
+    </row>
+    <row r="102" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8"/>
+      <c r="AB102" s="8"/>
+    </row>
+    <row r="106" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="C106" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="6"/>
+      <c r="AE106" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF106" s="5"/>
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM106" s="5"/>
+      <c r="AN106" s="5"/>
+      <c r="AO106" s="5"/>
+      <c r="AP106" s="5"/>
+      <c r="AQ106" s="5"/>
+      <c r="AR106" s="5"/>
+      <c r="AS106" s="5"/>
+      <c r="AT106" s="5"/>
+      <c r="AU106" s="5"/>
+      <c r="AV106" s="5"/>
+      <c r="AW106" s="5"/>
+      <c r="AX106" s="5"/>
+      <c r="AY106" s="5"/>
+      <c r="AZ106" s="5"/>
+      <c r="BA106" s="5"/>
+      <c r="BB106" s="6"/>
+    </row>
+    <row r="107" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="8"/>
+      <c r="Y107" s="8"/>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+      <c r="AB107" s="9"/>
+      <c r="AE107" s="7"/>
+      <c r="AF107" s="8"/>
+      <c r="AG107" s="8"/>
+      <c r="AH107" s="8"/>
+      <c r="AI107" s="8"/>
+      <c r="AJ107" s="8"/>
+      <c r="AK107" s="8"/>
+      <c r="AL107" s="8"/>
+      <c r="AM107" s="8"/>
+      <c r="AN107" s="8"/>
+      <c r="AO107" s="8"/>
+      <c r="AP107" s="8"/>
+      <c r="AQ107" s="8"/>
+      <c r="AR107" s="8"/>
+      <c r="AS107" s="8"/>
+      <c r="AT107" s="4"/>
+      <c r="AU107" s="5"/>
+      <c r="AV107" s="5"/>
+      <c r="AW107" s="5"/>
+      <c r="AX107" s="6"/>
+      <c r="AY107" s="8"/>
+      <c r="AZ107" s="8"/>
+      <c r="BA107" s="8"/>
+      <c r="BB107" s="9"/>
+    </row>
+    <row r="108" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="8"/>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8"/>
+      <c r="AB108" s="9"/>
+      <c r="AE108" s="7"/>
+      <c r="AF108" s="8"/>
+      <c r="AG108" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="2"/>
+      <c r="AK108" s="3"/>
+      <c r="AL108" s="8"/>
+      <c r="AM108" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN108" s="8"/>
+      <c r="AO108" s="8"/>
+      <c r="AP108" s="8"/>
+      <c r="AQ108" s="8"/>
+      <c r="AR108" s="8"/>
+      <c r="AS108" s="8"/>
+      <c r="AT108" s="7"/>
+      <c r="AU108" s="8"/>
+      <c r="AV108" s="8"/>
+      <c r="AW108" s="8"/>
+      <c r="AX108" s="9"/>
+      <c r="AY108" s="8"/>
+      <c r="AZ108" s="8"/>
+      <c r="BA108" s="8"/>
+      <c r="BB108" s="9"/>
+    </row>
+    <row r="109" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K109" s="2"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+      <c r="AB109" s="9"/>
+      <c r="AE109" s="7"/>
+      <c r="AF109" s="8"/>
+      <c r="AG109" s="8"/>
+      <c r="AH109" s="8"/>
+      <c r="AI109" s="8"/>
+      <c r="AJ109" s="8"/>
+      <c r="AK109" s="8"/>
+      <c r="AL109" s="8"/>
+      <c r="AM109" s="8"/>
+      <c r="AN109" s="8"/>
+      <c r="AO109" s="8"/>
+      <c r="AP109" s="8"/>
+      <c r="AQ109" s="8"/>
+      <c r="AR109" s="8"/>
+      <c r="AS109" s="8"/>
+      <c r="AT109" s="7"/>
+      <c r="AU109" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV109" s="8"/>
+      <c r="AW109" s="8"/>
+      <c r="AX109" s="9"/>
+      <c r="AY109" s="8"/>
+      <c r="AZ109" s="8"/>
+      <c r="BA109" s="8"/>
+      <c r="BB109" s="9"/>
+    </row>
+    <row r="110" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="8"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+      <c r="AB110" s="9"/>
+      <c r="AE110" s="7"/>
+      <c r="AF110" s="8"/>
+      <c r="AG110" s="8"/>
+      <c r="AH110" s="8"/>
+      <c r="AI110" s="8"/>
+      <c r="AJ110" s="8"/>
+      <c r="AK110" s="8"/>
+      <c r="AL110" s="8"/>
+      <c r="AM110" s="8"/>
+      <c r="AN110" s="8"/>
+      <c r="AO110" s="8"/>
+      <c r="AP110" s="8"/>
+      <c r="AQ110" s="8"/>
+      <c r="AR110" s="8"/>
+      <c r="AS110" s="8"/>
+      <c r="AT110" s="7"/>
+      <c r="AU110" s="8"/>
+      <c r="AV110" s="8"/>
+      <c r="AW110" s="8"/>
+      <c r="AX110" s="9"/>
+      <c r="AY110" s="8"/>
+      <c r="AZ110" s="8"/>
+      <c r="BA110" s="8"/>
+      <c r="BB110" s="9"/>
+    </row>
+    <row r="111" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="8"/>
+      <c r="X111" s="8"/>
+      <c r="Y111" s="8"/>
+      <c r="Z111" s="8"/>
+      <c r="AA111" s="8"/>
+      <c r="AB111" s="9"/>
+      <c r="AE111" s="7"/>
+      <c r="AF111" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG111" s="8"/>
+      <c r="AH111" s="8"/>
+      <c r="AI111" s="8"/>
+      <c r="AJ111" s="8"/>
+      <c r="AK111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL111" s="2"/>
+      <c r="AM111" s="2"/>
+      <c r="AN111" s="2"/>
+      <c r="AO111" s="2"/>
+      <c r="AP111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ111" s="8"/>
+      <c r="AR111" s="8"/>
+      <c r="AS111" s="8"/>
+      <c r="AT111" s="10"/>
+      <c r="AU111" s="11"/>
+      <c r="AV111" s="11"/>
+      <c r="AW111" s="11"/>
+      <c r="AX111" s="12"/>
+      <c r="AY111" s="8"/>
+      <c r="AZ111" s="8"/>
+      <c r="BA111" s="8"/>
+      <c r="BB111" s="9"/>
+    </row>
+    <row r="112" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B112" s="7"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="8"/>
+      <c r="X112" s="8"/>
+      <c r="Y112" s="8"/>
+      <c r="Z112" s="8"/>
+      <c r="AA112" s="8"/>
+      <c r="AB112" s="9"/>
+      <c r="AE112" s="7"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="8"/>
+      <c r="AH112" s="8"/>
+      <c r="AI112" s="8"/>
+      <c r="AJ112" s="8"/>
+      <c r="AK112" s="8"/>
+      <c r="AL112" s="8"/>
+      <c r="AM112" s="8"/>
+      <c r="AN112" s="8"/>
+      <c r="AO112" s="8"/>
+      <c r="AP112" s="8"/>
+      <c r="AQ112" s="8"/>
+      <c r="AR112" s="8"/>
+      <c r="AS112" s="8"/>
+      <c r="AT112" s="8"/>
+      <c r="AU112" s="8"/>
+      <c r="AV112" s="8"/>
+      <c r="AW112" s="8"/>
+      <c r="AX112" s="8"/>
+      <c r="AY112" s="8"/>
+      <c r="AZ112" s="8"/>
+      <c r="BA112" s="8"/>
+      <c r="BB112" s="9"/>
+    </row>
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="8"/>
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8"/>
+      <c r="AB113" s="9"/>
+      <c r="AE113" s="7"/>
+      <c r="AF113" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG113" s="8"/>
+      <c r="AH113" s="8"/>
+      <c r="AI113" s="8"/>
+      <c r="AJ113" s="8"/>
+      <c r="AK113" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL113" s="2"/>
+      <c r="AM113" s="2"/>
+      <c r="AN113" s="2"/>
+      <c r="AO113" s="3"/>
+      <c r="AP113" s="8"/>
+      <c r="AQ113" s="8"/>
+      <c r="AR113" s="8"/>
+      <c r="AS113" s="8"/>
+      <c r="AT113" s="8"/>
+      <c r="AU113" s="8"/>
+      <c r="AV113" s="8"/>
+      <c r="AW113" s="8"/>
+      <c r="AX113" s="8"/>
+      <c r="AY113" s="8"/>
+      <c r="AZ113" s="8"/>
+      <c r="BA113" s="8"/>
+      <c r="BB113" s="9"/>
+    </row>
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B114" s="7"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="8"/>
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="8"/>
+      <c r="AB114" s="9"/>
+      <c r="AE114" s="7"/>
+      <c r="AF114" s="8"/>
+      <c r="AG114" s="8"/>
+      <c r="AH114" s="8"/>
+      <c r="AI114" s="8"/>
+      <c r="AJ114" s="8"/>
+      <c r="AK114" s="8"/>
+      <c r="AL114" s="8"/>
+      <c r="AM114" s="8"/>
+      <c r="AN114" s="8"/>
+      <c r="AO114" s="8"/>
+      <c r="AP114" s="8"/>
+      <c r="AQ114" s="8"/>
+      <c r="AR114" s="8"/>
+      <c r="AS114" s="8"/>
+      <c r="AT114" s="8"/>
+      <c r="AU114" s="8"/>
+      <c r="AV114" s="8"/>
+      <c r="AW114" s="8"/>
+      <c r="AX114" s="8"/>
+      <c r="AY114" s="8"/>
+      <c r="AZ114" s="8"/>
+      <c r="BA114" s="8"/>
+      <c r="BB114" s="9"/>
+    </row>
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B115" s="7"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="31"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="8"/>
+      <c r="X115" s="8"/>
+      <c r="Y115" s="8"/>
+      <c r="Z115" s="8"/>
+      <c r="AA115" s="8"/>
+      <c r="AB115" s="9"/>
+      <c r="AE115" s="7"/>
+      <c r="AF115" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG115" s="8"/>
+      <c r="AH115" s="8"/>
+      <c r="AI115" s="8"/>
+      <c r="AJ115" s="8"/>
+      <c r="AK115" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL115" s="3"/>
+      <c r="AM115" s="8"/>
+      <c r="AN115" s="8"/>
+      <c r="AO115" s="8"/>
+      <c r="AP115" s="8"/>
+      <c r="AQ115" s="8"/>
+      <c r="AR115" s="8"/>
+      <c r="AS115" s="8"/>
+      <c r="AT115" s="8"/>
+      <c r="AU115" s="8"/>
+      <c r="AV115" s="8"/>
+      <c r="AW115" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX115" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AY115" s="3"/>
+      <c r="AZ115" s="8"/>
+      <c r="BA115" s="8"/>
+      <c r="BB115" s="9"/>
+    </row>
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+      <c r="AB116" s="9"/>
+      <c r="AE116" s="7"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="8"/>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="8"/>
+      <c r="AK116" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL116" s="8"/>
+      <c r="AM116" s="8"/>
+      <c r="AN116" s="8"/>
+      <c r="AO116" s="8"/>
+      <c r="AP116" s="8"/>
+      <c r="AQ116" s="8"/>
+      <c r="AR116" s="8"/>
+      <c r="AS116" s="8"/>
+      <c r="AT116" s="8"/>
+      <c r="AU116" s="8"/>
+      <c r="AV116" s="8"/>
+      <c r="AW116" s="8"/>
+      <c r="AX116" s="8"/>
+      <c r="AY116" s="8"/>
+      <c r="AZ116" s="8"/>
+      <c r="BA116" s="8"/>
+      <c r="BB116" s="9"/>
+    </row>
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="31"/>
+      <c r="V117" s="8"/>
+      <c r="W117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="8"/>
+      <c r="Z117" s="8"/>
+      <c r="AA117" s="8"/>
+      <c r="AB117" s="9"/>
+      <c r="AE117" s="7"/>
+      <c r="AF117" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG117" s="8"/>
+      <c r="AH117" s="8"/>
+      <c r="AI117" s="8"/>
+      <c r="AJ117" s="8"/>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="2"/>
+      <c r="AM117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN117" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO117" s="8"/>
+      <c r="AP117" s="8"/>
+      <c r="AQ117" s="8"/>
+      <c r="AR117" s="8"/>
+      <c r="AS117" s="8"/>
+      <c r="AT117" s="8"/>
+      <c r="AU117" s="8"/>
+      <c r="AV117" s="8"/>
+      <c r="AW117" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX117" s="1"/>
+      <c r="AY117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ117" s="8"/>
+      <c r="BA117" s="8"/>
+      <c r="BB117" s="9"/>
+    </row>
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="11"/>
+      <c r="V118" s="11"/>
+      <c r="W118" s="11"/>
+      <c r="X118" s="11"/>
+      <c r="Y118" s="11"/>
+      <c r="Z118" s="11"/>
+      <c r="AA118" s="11"/>
+      <c r="AB118" s="12"/>
+      <c r="AE118" s="7"/>
+      <c r="AF118" s="8"/>
+      <c r="AG118" s="8"/>
+      <c r="AH118" s="8"/>
+      <c r="AI118" s="8"/>
+      <c r="AJ118" s="8"/>
+      <c r="AK118" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL118" s="8"/>
+      <c r="AM118" s="8"/>
+      <c r="AN118" s="8"/>
+      <c r="AO118" s="8"/>
+      <c r="AP118" s="8"/>
+      <c r="AQ118" s="8"/>
+      <c r="AR118" s="8"/>
+      <c r="AS118" s="8"/>
+      <c r="AT118" s="8"/>
+      <c r="AU118" s="8"/>
+      <c r="AV118" s="8"/>
+      <c r="AW118" s="8"/>
+      <c r="AX118" s="8"/>
+      <c r="AY118" s="8"/>
+      <c r="AZ118" s="8"/>
+      <c r="BA118" s="8"/>
+      <c r="BB118" s="9"/>
+    </row>
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE119" s="7"/>
+      <c r="AF119" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG119" s="8"/>
+      <c r="AH119" s="8"/>
+      <c r="AI119" s="8"/>
+      <c r="AJ119" s="8"/>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM119" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN119" s="8"/>
+      <c r="AO119" s="8"/>
+      <c r="AP119" s="8"/>
+      <c r="AQ119" s="8"/>
+      <c r="AR119" s="8"/>
+      <c r="AS119" s="8"/>
+      <c r="AT119" s="8"/>
+      <c r="AU119" s="8"/>
+      <c r="AV119" s="8"/>
+      <c r="AW119" s="8"/>
+      <c r="AX119" s="8"/>
+      <c r="AY119" s="8"/>
+      <c r="AZ119" s="8"/>
+      <c r="BA119" s="8"/>
+      <c r="BB119" s="9"/>
+    </row>
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE120" s="7"/>
+      <c r="AF120" s="8"/>
+      <c r="AG120" s="8"/>
+      <c r="AH120" s="8"/>
+      <c r="AI120" s="8"/>
+      <c r="AJ120" s="8"/>
+      <c r="AK120" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL120" s="8"/>
+      <c r="AM120" s="8"/>
+      <c r="AN120" s="8"/>
+      <c r="AO120" s="8"/>
+      <c r="AP120" s="8"/>
+      <c r="AQ120" s="8"/>
+      <c r="AR120" s="8"/>
+      <c r="AS120" s="8"/>
+      <c r="AT120" s="8"/>
+      <c r="AU120" s="8"/>
+      <c r="AV120" s="8"/>
+      <c r="AW120" s="8"/>
+      <c r="AX120" s="8"/>
+      <c r="AY120" s="8"/>
+      <c r="AZ120" s="8"/>
+      <c r="BA120" s="8"/>
+      <c r="BB120" s="9"/>
+    </row>
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE121" s="7"/>
+      <c r="AF121" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG121" s="8"/>
+      <c r="AH121" s="8"/>
+      <c r="AI121" s="8"/>
+      <c r="AJ121" s="8"/>
+      <c r="AK121" s="1"/>
+      <c r="AL121" s="2"/>
+      <c r="AM121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN121" s="8"/>
+      <c r="AO121" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP121" s="8"/>
+      <c r="AQ121" s="8"/>
+      <c r="AR121" s="8"/>
+      <c r="AS121" s="8"/>
+      <c r="AT121" s="8"/>
+      <c r="AU121" s="8"/>
+      <c r="AV121" s="8"/>
+      <c r="AW121" s="8"/>
+      <c r="AX121" s="8"/>
+      <c r="AY121" s="8"/>
+      <c r="AZ121" s="8"/>
+      <c r="BA121" s="8"/>
+      <c r="BB121" s="9"/>
+    </row>
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE122" s="7"/>
+      <c r="AF122" s="8"/>
+      <c r="AG122" s="8"/>
+      <c r="AH122" s="8"/>
+      <c r="AI122" s="8"/>
+      <c r="AJ122" s="8"/>
+      <c r="AK122" s="8"/>
+      <c r="AL122" s="8"/>
+      <c r="AM122" s="8"/>
+      <c r="AN122" s="8"/>
+      <c r="AO122" s="8"/>
+      <c r="AP122" s="8"/>
+      <c r="AQ122" s="8"/>
+      <c r="AR122" s="8"/>
+      <c r="AS122" s="8"/>
+      <c r="AT122" s="8"/>
+      <c r="AU122" s="8"/>
+      <c r="AV122" s="8"/>
+      <c r="AW122" s="8"/>
+      <c r="AX122" s="8"/>
+      <c r="AY122" s="8"/>
+      <c r="AZ122" s="8"/>
+      <c r="BA122" s="8"/>
+      <c r="BB122" s="9"/>
+    </row>
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE123" s="7"/>
+      <c r="AF123" s="8"/>
+      <c r="AG123" s="8"/>
+      <c r="AH123" s="8"/>
+      <c r="AI123" s="8"/>
+      <c r="AJ123" s="8"/>
+      <c r="AK123" s="8"/>
+      <c r="AL123" s="8"/>
+      <c r="AM123" s="8"/>
+      <c r="AN123" s="8"/>
+      <c r="AO123" s="8"/>
+      <c r="AP123" s="8"/>
+      <c r="AQ123" s="8"/>
+      <c r="AR123" s="8"/>
+      <c r="AS123" s="8"/>
+      <c r="AT123" s="8"/>
+      <c r="AU123" s="8"/>
+      <c r="AV123" s="8"/>
+      <c r="AW123" s="8"/>
+      <c r="AX123" s="8"/>
+      <c r="AY123" s="8"/>
+      <c r="AZ123" s="8"/>
+      <c r="BA123" s="8"/>
+      <c r="BB123" s="9"/>
+    </row>
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE124" s="7"/>
+      <c r="AF124" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG124" s="8"/>
+      <c r="AH124" s="8"/>
+      <c r="AI124" s="8"/>
+      <c r="AJ124" s="8"/>
+      <c r="AK124" s="1"/>
+      <c r="AL124" s="3"/>
+      <c r="AM124" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN124" s="8"/>
+      <c r="AO124" s="8"/>
+      <c r="AP124" s="8"/>
+      <c r="AQ124" s="8"/>
+      <c r="AR124" s="8"/>
+      <c r="AS124" s="8"/>
+      <c r="AT124" s="8"/>
+      <c r="AU124" s="8"/>
+      <c r="AV124" s="8"/>
+      <c r="AW124" s="8"/>
+      <c r="AX124" s="8"/>
+      <c r="AY124" s="8"/>
+      <c r="AZ124" s="8"/>
+      <c r="BA124" s="8"/>
+      <c r="BB124" s="9"/>
+    </row>
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE125" s="7"/>
+      <c r="AF125" s="8"/>
+      <c r="AG125" s="8"/>
+      <c r="AH125" s="8"/>
+      <c r="AI125" s="8"/>
+      <c r="AJ125" s="8"/>
+      <c r="AK125" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL125" s="8"/>
+      <c r="AM125" s="8"/>
+      <c r="AN125" s="8"/>
+      <c r="AO125" s="8"/>
+      <c r="AP125" s="8"/>
+      <c r="AQ125" s="8"/>
+      <c r="AR125" s="8"/>
+      <c r="AS125" s="8"/>
+      <c r="AT125" s="8"/>
+      <c r="AU125" s="8"/>
+      <c r="AV125" s="8"/>
+      <c r="AW125" s="8"/>
+      <c r="AX125" s="8"/>
+      <c r="AY125" s="8"/>
+      <c r="AZ125" s="8"/>
+      <c r="BA125" s="8"/>
+      <c r="BB125" s="9"/>
+    </row>
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE126" s="7"/>
+      <c r="AF126" s="8"/>
+      <c r="AG126" s="8"/>
+      <c r="AH126" s="8"/>
+      <c r="AI126" s="8"/>
+      <c r="AJ126" s="8"/>
+      <c r="AK126" s="8"/>
+      <c r="AL126" s="8"/>
+      <c r="AM126" s="8"/>
+      <c r="AN126" s="8"/>
+      <c r="AO126" s="8"/>
+      <c r="AP126" s="8"/>
+      <c r="AQ126" s="8"/>
+      <c r="AR126" s="8"/>
+      <c r="AS126" s="8"/>
+      <c r="AT126" s="8"/>
+      <c r="AU126" s="8"/>
+      <c r="AV126" s="8"/>
+      <c r="AW126" s="8"/>
+      <c r="AX126" s="8"/>
+      <c r="AY126" s="8"/>
+      <c r="AZ126" s="8"/>
+      <c r="BA126" s="8"/>
+      <c r="BB126" s="9"/>
+    </row>
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE127" s="7"/>
+      <c r="AF127" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG127" s="8"/>
+      <c r="AH127" s="8"/>
+      <c r="AI127" s="8"/>
+      <c r="AJ127" s="8"/>
+      <c r="AK127" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL127" s="5"/>
+      <c r="AM127" s="5"/>
+      <c r="AN127" s="5"/>
+      <c r="AO127" s="5"/>
+      <c r="AP127" s="5"/>
+      <c r="AQ127" s="5"/>
+      <c r="AR127" s="5"/>
+      <c r="AS127" s="5"/>
+      <c r="AT127" s="5"/>
+      <c r="AU127" s="5"/>
+      <c r="AV127" s="5"/>
+      <c r="AW127" s="6"/>
+      <c r="AX127" s="8"/>
+      <c r="AY127" s="8"/>
+      <c r="AZ127" s="8"/>
+      <c r="BA127" s="8"/>
+      <c r="BB127" s="9"/>
+    </row>
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE128" s="7"/>
+      <c r="AF128" s="8"/>
+      <c r="AG128" s="8"/>
+      <c r="AH128" s="8"/>
+      <c r="AI128" s="8"/>
+      <c r="AJ128" s="8"/>
+      <c r="AK128" s="7"/>
+      <c r="AL128" s="8"/>
+      <c r="AM128" s="8"/>
+      <c r="AN128" s="8"/>
+      <c r="AO128" s="8"/>
+      <c r="AP128" s="8"/>
+      <c r="AQ128" s="8"/>
+      <c r="AR128" s="8"/>
+      <c r="AS128" s="8"/>
+      <c r="AT128" s="8"/>
+      <c r="AU128" s="8"/>
+      <c r="AV128" s="8"/>
+      <c r="AW128" s="9"/>
+      <c r="AX128" s="8"/>
+      <c r="AY128" s="8"/>
+      <c r="AZ128" s="8"/>
+      <c r="BA128" s="8"/>
+      <c r="BB128" s="9"/>
+    </row>
+    <row r="129" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE129" s="7"/>
+      <c r="AF129" s="8"/>
+      <c r="AG129" s="8"/>
+      <c r="AH129" s="8"/>
+      <c r="AI129" s="8"/>
+      <c r="AJ129" s="8"/>
+      <c r="AK129" s="10"/>
+      <c r="AL129" s="11"/>
+      <c r="AM129" s="11"/>
+      <c r="AN129" s="11"/>
+      <c r="AO129" s="11"/>
+      <c r="AP129" s="11"/>
+      <c r="AQ129" s="11"/>
+      <c r="AR129" s="11"/>
+      <c r="AS129" s="11"/>
+      <c r="AT129" s="11"/>
+      <c r="AU129" s="11"/>
+      <c r="AV129" s="11"/>
+      <c r="AW129" s="12"/>
+      <c r="AX129" s="8"/>
+      <c r="AY129" s="8"/>
+      <c r="AZ129" s="8"/>
+      <c r="BA129" s="8"/>
+      <c r="BB129" s="9"/>
+    </row>
+    <row r="130" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE130" s="7"/>
+      <c r="AF130" s="8"/>
+      <c r="AG130" s="8"/>
+      <c r="AH130" s="8"/>
+      <c r="AI130" s="8"/>
+      <c r="AJ130" s="8"/>
+      <c r="AK130" s="8"/>
+      <c r="AL130" s="8"/>
+      <c r="AM130" s="8"/>
+      <c r="AN130" s="8"/>
+      <c r="AO130" s="8"/>
+      <c r="AP130" s="8"/>
+      <c r="AQ130" s="8"/>
+      <c r="AR130" s="8"/>
+      <c r="AS130" s="8"/>
+      <c r="AT130" s="8"/>
+      <c r="AU130" s="8"/>
+      <c r="AV130" s="8"/>
+      <c r="AW130" s="8"/>
+      <c r="AX130" s="8"/>
+      <c r="AY130" s="8"/>
+      <c r="AZ130" s="8"/>
+      <c r="BA130" s="8"/>
+      <c r="BB130" s="9"/>
+    </row>
+    <row r="131" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE131" s="7"/>
+      <c r="AF131" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG131" s="3"/>
+      <c r="AH131" s="8"/>
+      <c r="AI131" s="8"/>
+      <c r="AJ131" s="8"/>
+      <c r="AK131" s="8"/>
+      <c r="AL131" s="8"/>
+      <c r="AM131" s="8"/>
+      <c r="AN131" s="8"/>
+      <c r="AO131" s="8"/>
+      <c r="AP131" s="8"/>
+      <c r="AQ131" s="8"/>
+      <c r="AR131" s="8"/>
+      <c r="AS131" s="8"/>
+      <c r="AT131" s="8"/>
+      <c r="AU131" s="8"/>
+      <c r="AV131" s="8"/>
+      <c r="AW131" s="8"/>
+      <c r="AX131" s="8"/>
+      <c r="AY131" s="8"/>
+      <c r="AZ131" s="8"/>
+      <c r="BA131" s="8"/>
+      <c r="BB131" s="9"/>
+    </row>
+    <row r="132" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE132" s="10"/>
+      <c r="AF132" s="11"/>
+      <c r="AG132" s="11"/>
+      <c r="AH132" s="11"/>
+      <c r="AI132" s="11"/>
+      <c r="AJ132" s="11"/>
+      <c r="AK132" s="11"/>
+      <c r="AL132" s="11"/>
+      <c r="AM132" s="11"/>
+      <c r="AN132" s="11"/>
+      <c r="AO132" s="11"/>
+      <c r="AP132" s="11"/>
+      <c r="AQ132" s="11"/>
+      <c r="AR132" s="11"/>
+      <c r="AS132" s="11"/>
+      <c r="AT132" s="11"/>
+      <c r="AU132" s="11"/>
+      <c r="AV132" s="11"/>
+      <c r="AW132" s="11"/>
+      <c r="AX132" s="11"/>
+      <c r="AY132" s="11"/>
+      <c r="AZ132" s="11"/>
+      <c r="BA132" s="11"/>
+      <c r="BB132" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="331">
   <si>
     <t>Agent Register</t>
   </si>
@@ -185,12 +185,6 @@
     <t>Valuta</t>
   </si>
   <si>
-    <t>Cancellation Policy</t>
-  </si>
-  <si>
-    <t>bla bla bla</t>
-  </si>
-  <si>
     <t>Payment Detail</t>
   </si>
   <si>
@@ -314,21 +308,12 @@
     <t>trx011.day</t>
   </si>
   <si>
-    <t>trx011.type_room</t>
-  </si>
-  <si>
     <t>trx011.type</t>
   </si>
   <si>
     <t>pantek idr</t>
   </si>
   <si>
-    <t>trx011.gross_value_day</t>
-  </si>
-  <si>
-    <t>trx011.tot_value</t>
-  </si>
-  <si>
     <t>trx011.guest_first_name</t>
   </si>
   <si>
@@ -365,12 +350,6 @@
     <t>trx011.note</t>
   </si>
   <si>
-    <t>trx011.cancel_policy</t>
-  </si>
-  <si>
-    <t>trx011.photo</t>
-  </si>
-  <si>
     <t>spesifikasi</t>
   </si>
   <si>
@@ -452,39 +431,9 @@
     <t>trx011.star</t>
   </si>
   <si>
-    <t>base_value</t>
-  </si>
-  <si>
-    <t>gross_value</t>
-  </si>
-  <si>
-    <t>dpp_value</t>
-  </si>
-  <si>
-    <t>dari api</t>
-  </si>
-  <si>
-    <t>gross_value_day * day</t>
-  </si>
-  <si>
     <t>sementara 0</t>
   </si>
   <si>
-    <t>gross_value - disc_value</t>
-  </si>
-  <si>
-    <t>tot_value</t>
-  </si>
-  <si>
-    <t>dpp_value+ppn_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grosss_value_day </t>
-  </si>
-  <si>
-    <t>(10% X base_value)+base_value</t>
-  </si>
-  <si>
     <t>confirm isi ke table trx012</t>
   </si>
   <si>
@@ -984,6 +933,84 @@
   </si>
   <si>
     <t>Bed Type</t>
+  </si>
+  <si>
+    <t>mst020.photo</t>
+  </si>
+  <si>
+    <t>trx011.room_name</t>
+  </si>
+  <si>
+    <t>trx011.gross_price_day</t>
+  </si>
+  <si>
+    <t>trx011.tot_payment</t>
+  </si>
+  <si>
+    <t>tot_base_price</t>
+  </si>
+  <si>
+    <t>dari master room rate</t>
+  </si>
+  <si>
+    <t>gross_price_day</t>
+  </si>
+  <si>
+    <t>gross_price</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>tax_base_price</t>
+  </si>
+  <si>
+    <t>tax_value</t>
+  </si>
+  <si>
+    <t>tot_payment</t>
+  </si>
+  <si>
+    <t>gross_price - disc</t>
+  </si>
+  <si>
+    <t>tax_base_price+tax_value</t>
+  </si>
+  <si>
+    <t>Jika di room rate rate_type = nett maka = daily_price + (10%*daily_price)</t>
+  </si>
+  <si>
+    <t>Jika di room rate rate_type = commision maka = daily_price</t>
+  </si>
+  <si>
+    <t>commision_value</t>
+  </si>
+  <si>
+    <t>tot_base_price - gross_price (jika rate_tpe = nett)</t>
+  </si>
+  <si>
+    <t>gross_price +(%komisi *gross_price) jika tipe rate komisi dan tipe komisi = %</t>
+  </si>
+  <si>
+    <t>gross_price + (nilai komisi*hari) jika tipe rate komisi dan tipe komisi nilai</t>
+  </si>
+  <si>
+    <t>validasi:</t>
+  </si>
+  <si>
+    <t>cek allotmentnya dulu</t>
+  </si>
+  <si>
+    <t>jika di room rate allotmentnya = 0 maka error room sudah tidak tersedia, silahkan cek kembali available roomnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update allotmentnya </t>
+  </si>
+  <si>
+    <t>daily_price * day * room_num</t>
+  </si>
+  <si>
+    <t>gross_price_day * day *room_num</t>
   </si>
 </sst>
 </file>
@@ -2397,7 +2424,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="6"/>
       <c r="AA2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
@@ -2426,7 +2453,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
       <c r="AA3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
@@ -2457,7 +2484,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="9"/>
       <c r="AA4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -3138,12 +3165,12 @@
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3168,7 +3195,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="6"/>
       <c r="AA33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
@@ -3196,14 +3223,14 @@
       <c r="W34" s="8"/>
       <c r="X34" s="9"/>
       <c r="AA34" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -3226,7 +3253,7 @@
       <c r="W35" s="8"/>
       <c r="X35" s="9"/>
       <c r="AA35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
@@ -3254,7 +3281,7 @@
       <c r="W36" s="8"/>
       <c r="X36" s="9"/>
       <c r="AA36" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -3273,7 +3300,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="3"/>
       <c r="N37" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="2"/>
@@ -3315,7 +3342,7 @@
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -3368,20 +3395,20 @@
       <c r="C41" s="21"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="3"/>
       <c r="J41" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
       <c r="M41" s="4"/>
       <c r="N41" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -3390,7 +3417,7 @@
       <c r="S41" s="6"/>
       <c r="T41" s="4"/>
       <c r="U41" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="6"/>
@@ -3400,12 +3427,12 @@
       <c r="B42" s="7"/>
       <c r="C42" s="22"/>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
       <c r="G42" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="12"/>
@@ -3428,7 +3455,7 @@
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
@@ -3448,7 +3475,7 @@
       <c r="S43" s="9"/>
       <c r="T43" s="7"/>
       <c r="U43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="9"/>
@@ -3637,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AM80"/>
+  <dimension ref="B2:AM75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,7 +3706,7 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="6"/>
       <c r="AD2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
@@ -3714,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
@@ -3751,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
@@ -3759,7 +3786,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -3786,7 +3813,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="9"/>
       <c r="AE5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
@@ -3804,7 +3831,7 @@
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -3816,7 +3843,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8" t="s">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -3827,13 +3854,13 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="9"/>
       <c r="AE6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI6" t="s">
         <v>35</v>
       </c>
       <c r="AJ6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
@@ -3866,13 +3893,13 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="9"/>
       <c r="AE7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AI7" t="s">
         <v>35</v>
       </c>
       <c r="AJ7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
@@ -3893,7 +3920,7 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -3913,13 +3940,13 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="9"/>
       <c r="AE8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AI8" t="s">
         <v>35</v>
       </c>
       <c r="AJ8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
@@ -3940,7 +3967,7 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -3962,13 +3989,13 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="9"/>
       <c r="AE9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AI9" t="s">
         <v>35</v>
       </c>
       <c r="AJ9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
@@ -3989,7 +4016,7 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -4009,13 +4036,13 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="9"/>
       <c r="AE10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="AI10" t="s">
         <v>35</v>
       </c>
       <c r="AJ10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
@@ -4048,13 +4075,13 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="9"/>
       <c r="AE11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AI11" t="s">
         <v>35</v>
       </c>
       <c r="AJ11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
@@ -4077,7 +4104,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -4095,13 +4122,13 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="9"/>
       <c r="AE12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AI12" t="s">
         <v>35</v>
       </c>
       <c r="AJ12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
@@ -4134,13 +4161,13 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="9"/>
       <c r="AE13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AI13" t="s">
         <v>35</v>
       </c>
       <c r="AJ13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.25">
@@ -4163,7 +4190,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -4181,13 +4208,13 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="9"/>
       <c r="AE14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AI14" t="s">
         <v>35</v>
       </c>
       <c r="AJ14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.25">
@@ -4220,13 +4247,13 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="9"/>
       <c r="AE15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AI15" t="s">
         <v>35</v>
       </c>
       <c r="AJ15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.25">
@@ -4249,7 +4276,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -4267,7 +4294,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4287,7 +4314,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="19" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -4305,10 +4332,10 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="9"/>
       <c r="AE17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4328,7 +4355,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="19" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -4346,16 +4373,16 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="9"/>
       <c r="AE18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI18" t="s">
         <v>35</v>
       </c>
-      <c r="AI18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="10"/>
@@ -4385,16 +4412,16 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="9"/>
       <c r="AE19" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI19" t="s">
         <v>35</v>
       </c>
-      <c r="AI19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
@@ -4424,20 +4451,20 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="9"/>
       <c r="AE20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH20" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI20" t="s">
         <v>35</v>
       </c>
-      <c r="AI20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="7"/>
       <c r="D21" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -4464,17 +4491,11 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="9"/>
-      <c r="AE21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4483,7 +4504,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -4506,31 +4527,31 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="9"/>
       <c r="AE22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH22" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI22" t="s">
         <v>35</v>
       </c>
-      <c r="AI22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" s="8"/>
       <c r="I23" s="21"/>
       <c r="J23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -4550,22 +4571,22 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="9"/>
       <c r="AE23" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH23" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI23" t="s">
         <v>35</v>
       </c>
-      <c r="AI23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -4573,7 +4594,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -4593,22 +4614,22 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="9"/>
       <c r="AE24" t="s">
-        <v>153</v>
+        <v>314</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>35</v>
       </c>
       <c r="AJ24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -4616,7 +4637,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -4635,8 +4656,17 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AE25" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
       <c r="D26" s="10"/>
@@ -4665,8 +4695,17 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="9"/>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AE26" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -4695,8 +4734,17 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="9"/>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AE27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="7"/>
       <c r="D28" s="15" t="s">
@@ -4727,8 +4775,11 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="9"/>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -4757,10 +4808,13 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="9"/>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -4779,7 +4833,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -4796,9 +4850,9 @@
       <c r="AB30" s="8"/>
       <c r="AC30" s="9"/>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -4817,7 +4871,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -4833,10 +4887,13 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="9"/>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AE31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -4858,7 +4915,7 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
@@ -4871,8 +4928,14 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="9"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
@@ -4903,14 +4966,17 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="9"/>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -4935,8 +5001,14 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="9"/>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD34">
+        <v>2</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="s">
@@ -4968,7 +5040,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="9"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="7"/>
       <c r="D36" s="4"/>
@@ -4998,7 +5070,7 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -5028,7 +5100,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -5040,7 +5112,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -5060,7 +5132,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="9"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
@@ -5089,7 +5161,7 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="9"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
@@ -5118,7 +5190,7 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="9"/>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -5147,19 +5219,15 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="9"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
-      <c r="D42" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -5180,7 +5248,7 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -5199,9 +5267,11 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
+      <c r="U43" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43" s="2"/>
+      <c r="W43" s="3"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
@@ -5209,97 +5279,76 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="9"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="9"/>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="9"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="9"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="12"/>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="6"/>
+      <c r="AF46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -5325,117 +5374,183 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
-      <c r="AC47" s="9"/>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="V48" s="2"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="9"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="9"/>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U48" s="2"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="9"/>
+      <c r="AG48" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="49" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="12"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AF49">
+        <v>2</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AF50">
+        <v>3</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="51" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="6"/>
-      <c r="AF51" t="s">
-        <v>88</v>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AF51">
+        <v>4</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
-      <c r="C52" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
@@ -5443,119 +5558,110 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="7"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="7"/>
       <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
+      <c r="Y52" s="9"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
+      <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
-      <c r="AF52">
-        <v>1</v>
-      </c>
       <c r="AG52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U53" s="2"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="3"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
+      <c r="AF53">
+        <v>5</v>
+      </c>
       <c r="AG53" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="12"/>
       <c r="AD54" s="9"/>
-      <c r="AF54">
-        <v>2</v>
-      </c>
       <c r="AG54" t="s">
-        <v>91</v>
+        <v>139</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="7"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
@@ -5563,36 +5669,33 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="7"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
       <c r="U55" s="8"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="7"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
       <c r="X55" s="8"/>
-      <c r="Y55" s="9"/>
+      <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
-      <c r="AC55" s="9"/>
+      <c r="AC55" s="8"/>
       <c r="AD55" s="9"/>
-      <c r="AF55">
-        <v>3</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>92</v>
+      <c r="AM55" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="7"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
@@ -5600,36 +5703,48 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="7"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="7"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
       <c r="X56" s="8"/>
-      <c r="Y56" s="9"/>
+      <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
-      <c r="AC56" s="9"/>
+      <c r="AC56" s="8"/>
       <c r="AD56" s="9"/>
       <c r="AF56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG56" t="s">
-        <v>93</v>
+        <v>143</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="7"/>
+      <c r="G57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
@@ -5637,33 +5752,33 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="7"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="7"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
       <c r="X57" s="8"/>
-      <c r="Y57" s="9"/>
+      <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
-      <c r="AC57" s="9"/>
+      <c r="AC57" s="8"/>
       <c r="AD57" s="9"/>
-      <c r="AG57" t="s">
-        <v>94</v>
+      <c r="AK57" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="7"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
@@ -5671,64 +5786,65 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="7"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="7"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
       <c r="X58" s="8"/>
-      <c r="Y58" s="9"/>
+      <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
-      <c r="AC58" s="9"/>
+      <c r="AC58" s="8"/>
       <c r="AD58" s="9"/>
       <c r="AF58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG58" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="12"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
       <c r="AD59" s="9"/>
-      <c r="AG59" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="60" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
@@ -5760,16 +5876,27 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
       <c r="AD60" s="9"/>
-      <c r="AM60" t="s">
-        <v>158</v>
+      <c r="AF60">
+        <v>8</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -5794,33 +5921,17 @@
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
       <c r="AD61" s="9"/>
-      <c r="AF61">
-        <v>6</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="62" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
-      <c r="C62" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="F62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -5843,8 +5954,17 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
       <c r="AD62" s="9"/>
+      <c r="AF62">
+        <v>9</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>148</v>
+      </c>
       <c r="AK62" t="s">
-        <v>162</v>
+        <v>35</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="2:39" x14ac:dyDescent="0.25">
@@ -5852,7 +5972,9 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -5877,34 +5999,18 @@
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
       <c r="AD63" s="9"/>
-      <c r="AF63">
-        <v>7</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="64" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="13"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K64" s="3"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
@@ -5925,12 +6031,14 @@
       <c r="AC64" s="8"/>
       <c r="AD64" s="9"/>
     </row>
-    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
+      <c r="F65" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -5955,26 +6063,14 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
       <c r="AD65" s="9"/>
-      <c r="AF65">
-        <v>8</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="13"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
-        <v>69</v>
+      <c r="F66" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -6001,31 +6097,19 @@
       <c r="AC66" s="8"/>
       <c r="AD66" s="9"/>
     </row>
-    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
+      <c r="G67" s="13"/>
+      <c r="H67" t="s">
+        <v>153</v>
+      </c>
+      <c r="K67" s="13"/>
+      <c r="L67" t="s">
+        <v>154</v>
+      </c>
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
@@ -6033,27 +6117,13 @@
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
       <c r="AD67" s="9"/>
-      <c r="AF67">
-        <v>9</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="19" t="s">
-        <v>159</v>
-      </c>
+      <c r="F68" s="19"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -6079,29 +6149,33 @@
       <c r="AC68" s="8"/>
       <c r="AD68" s="9"/>
     </row>
-    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="3"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
+      <c r="O69" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="3"/>
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
@@ -6110,28 +6184,30 @@
       <c r="AC69" s="8"/>
       <c r="AD69" s="9"/>
     </row>
-    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
-        <v>70</v>
+      <c r="F70" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
+      <c r="O70" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="3"/>
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
       <c r="W70" s="8"/>
@@ -6143,14 +6219,12 @@
       <c r="AC70" s="8"/>
       <c r="AD70" s="9"/>
     </row>
-    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="19" t="s">
-        <v>167</v>
-      </c>
+      <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -6176,19 +6250,31 @@
       <c r="AC71" s="8"/>
       <c r="AD71" s="9"/>
     </row>
-    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="G72" s="13"/>
-      <c r="H72" t="s">
-        <v>170</v>
-      </c>
-      <c r="K72" s="13"/>
-      <c r="L72" t="s">
-        <v>171</v>
-      </c>
+      <c r="D72" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
@@ -6197,12 +6283,12 @@
       <c r="AC72" s="8"/>
       <c r="AD72" s="9"/>
     </row>
-    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="19"/>
+      <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -6228,33 +6314,29 @@
       <c r="AC73" s="8"/>
       <c r="AD73" s="9"/>
     </row>
-    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="19" t="s">
-        <v>168</v>
-      </c>
+      <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="3"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
-      <c r="O74" s="8" t="s">
-        <v>169</v>
-      </c>
+      <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="3"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
@@ -6263,197 +6345,36 @@
       <c r="AC74" s="8"/>
       <c r="AD74" s="9"/>
     </row>
-    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="9"/>
-    </row>
-    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="8"/>
-      <c r="AB76" s="8"/>
-      <c r="AC76" s="8"/>
-      <c r="AD76" s="9"/>
-    </row>
-    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8"/>
-      <c r="AB77" s="8"/>
-      <c r="AC77" s="8"/>
-      <c r="AD77" s="9"/>
-    </row>
-    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="8"/>
-      <c r="AB78" s="8"/>
-      <c r="AC78" s="8"/>
-      <c r="AD78" s="9"/>
-    </row>
-    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="8"/>
-      <c r="AB79" s="8"/>
-      <c r="AC79" s="8"/>
-      <c r="AD79" s="9"/>
-    </row>
-    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="11"/>
-      <c r="AA80" s="11"/>
-      <c r="AB80" s="11"/>
-      <c r="AC80" s="11"/>
-      <c r="AD80" s="12"/>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="11"/>
+      <c r="AC75" s="11"/>
+      <c r="AD75" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6472,18 +6393,18 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="D4" s="25" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6509,7 +6430,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="6"/>
       <c r="AC4" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -6543,7 +6464,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -6605,13 +6526,13 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
       <c r="M8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -6621,13 +6542,13 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="3"/>
       <c r="W8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
@@ -6692,7 +6613,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="8"/>
@@ -6748,7 +6669,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6764,20 +6685,20 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
       <c r="X13" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="3"/>
@@ -6787,7 +6708,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -7032,7 +6953,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -7086,13 +7007,13 @@
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="25" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -7117,7 +7038,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="6"/>
       <c r="AC28" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.25">
@@ -7146,7 +7067,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="9"/>
       <c r="AC29" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.25">
@@ -7154,7 +7075,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -7168,7 +7089,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
@@ -7179,7 +7100,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="9"/>
       <c r="AC30" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.25">
@@ -7208,7 +7129,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="9"/>
       <c r="AC31" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.25">
@@ -7216,7 +7137,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -7224,13 +7145,13 @@
       <c r="J32" s="8"/>
       <c r="K32" s="13"/>
       <c r="L32" s="8" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -7274,7 +7195,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -7294,7 +7215,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="9"/>
@@ -7387,7 +7308,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -7396,7 +7317,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
@@ -7412,25 +7333,25 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="3"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -7472,7 +7393,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -7484,7 +7405,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
@@ -7528,7 +7449,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -7544,7 +7465,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -7591,7 +7512,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -7600,11 +7521,11 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="S45" s="8"/>
       <c r="T45" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -7644,14 +7565,14 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -7700,14 +7621,14 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -7756,7 +7677,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -7765,11 +7686,11 @@
       <c r="K51" s="1"/>
       <c r="L51" s="3"/>
       <c r="M51" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
@@ -7814,14 +7735,14 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -7830,12 +7751,12 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -7900,7 +7821,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="18" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -7956,14 +7877,14 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8012,14 +7933,14 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8068,14 +7989,14 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8251,13 +8172,13 @@
     </row>
     <row r="71" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C71" s="24" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C72" s="4"/>
       <c r="D72" s="25" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -8314,7 +8235,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -8376,13 +8297,13 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="3"/>
       <c r="M76" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
@@ -8392,13 +8313,13 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
       <c r="S76" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="3"/>
       <c r="W76" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
@@ -8463,7 +8384,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="8"/>
@@ -8519,7 +8440,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="13"/>
       <c r="E81" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -8535,20 +8456,20 @@
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="3"/>
       <c r="X81" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" s="3"/>
@@ -8558,7 +8479,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="22"/>
       <c r="E82" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
@@ -8803,7 +8724,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
       <c r="E91" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -8865,7 +8786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
+    <sheetView topLeftCell="F64" workbookViewId="0">
       <selection activeCell="AY69" sqref="AY69"/>
     </sheetView>
   </sheetViews>
@@ -8877,19 +8798,19 @@
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="27" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -8965,7 +8886,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -8979,7 +8900,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -9021,7 +8942,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -9029,13 +8950,13 @@
       <c r="I7" s="8"/>
       <c r="J7" s="13"/>
       <c r="K7" s="8" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -9079,7 +9000,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -9099,7 +9020,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
@@ -9192,7 +9113,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -9201,7 +9122,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -9217,25 +9138,25 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -9277,7 +9198,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -9289,7 +9210,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -9333,7 +9254,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -9349,7 +9270,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
@@ -9396,7 +9317,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -9405,11 +9326,11 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -9449,14 +9370,14 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -9505,14 +9426,14 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -9561,7 +9482,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -9570,11 +9491,11 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
       <c r="L26" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -9619,14 +9540,14 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -9635,12 +9556,12 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -9703,25 +9624,25 @@
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="28" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="3"/>
       <c r="K34" s="14" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="3"/>
       <c r="O34" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
@@ -9805,7 +9726,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="4"/>
@@ -9815,7 +9736,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="6" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="4"/>
@@ -9825,7 +9746,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="6" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="AA37" s="8"/>
       <c r="AB37" s="9"/>
@@ -9979,7 +9900,7 @@
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="4" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -9989,7 +9910,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="8"/>
       <c r="L43" s="4" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -9999,7 +9920,7 @@
       <c r="R43" s="6"/>
       <c r="S43" s="8"/>
       <c r="T43" s="4" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -10165,7 +10086,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="8"/>
       <c r="J49" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="3"/>
@@ -10219,7 +10140,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="14" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
@@ -10335,7 +10256,7 @@
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="AE55" s="18" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
@@ -10344,7 +10265,7 @@
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
       <c r="AL55" s="5" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -10392,25 +10313,25 @@
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="28" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="30" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="3"/>
       <c r="K57" s="30" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="3"/>
       <c r="O57" s="14" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="3"/>
@@ -10506,7 +10427,7 @@
     <row r="59" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -10562,25 +10483,25 @@
     <row r="60" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="13" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="3"/>
       <c r="M60" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -10599,14 +10520,14 @@
       <c r="AB60" s="9"/>
       <c r="AE60" s="7"/>
       <c r="AF60" s="8" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AG60" s="8"/>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="8"/>
       <c r="AK60" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="AL60" s="2"/>
       <c r="AM60" s="2"/>
@@ -10664,14 +10585,14 @@
       <c r="AI61" s="8"/>
       <c r="AJ61" s="8"/>
       <c r="AK61" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="8"/>
       <c r="AO61" s="8"/>
       <c r="AP61" s="8" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
@@ -10717,7 +10638,7 @@
       <c r="AB62" s="9"/>
       <c r="AE62" s="7"/>
       <c r="AF62" s="8" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="AG62" s="8"/>
       <c r="AH62" s="8"/>
@@ -10728,7 +10649,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="8" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="13"/>
@@ -10829,20 +10750,20 @@
       <c r="AB64" s="9"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="8" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AG64" s="8"/>
       <c r="AH64" s="8"/>
       <c r="AI64" s="8"/>
       <c r="AJ64" s="8"/>
       <c r="AK64" s="1" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
       <c r="AO64" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -10943,14 +10864,14 @@
       <c r="AB66" s="9"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="8" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="AG66" s="8"/>
       <c r="AH66" s="8"/>
       <c r="AI66" s="8"/>
       <c r="AJ66" s="8"/>
       <c r="AK66" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AL66" s="3"/>
       <c r="AM66" s="8"/>
@@ -10964,10 +10885,10 @@
       <c r="AU66" s="8"/>
       <c r="AV66" s="8"/>
       <c r="AW66" s="31" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AX66" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AY66" s="3"/>
       <c r="AZ66" s="8"/>
@@ -11010,7 +10931,7 @@
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8"/>
       <c r="AK67" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
@@ -11061,7 +10982,7 @@
       <c r="AB68" s="9"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AG68" s="8"/>
       <c r="AH68" s="8"/>
@@ -11070,10 +10991,10 @@
       <c r="AK68" s="1"/>
       <c r="AL68" s="2"/>
       <c r="AM68" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN68" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
@@ -11084,11 +11005,11 @@
       <c r="AU68" s="8"/>
       <c r="AV68" s="8"/>
       <c r="AW68" s="31" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="AX68" s="1"/>
       <c r="AY68" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AZ68" s="8"/>
       <c r="BA68" s="8"/>
@@ -11130,7 +11051,7 @@
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8"/>
       <c r="AK69" s="19" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AL69" s="8"/>
       <c r="AM69" s="8"/>
@@ -11181,7 +11102,7 @@
       <c r="AB70" s="8"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="AG70" s="8"/>
       <c r="AH70" s="8"/>
@@ -11189,10 +11110,10 @@
       <c r="AJ70" s="8"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AM70" s="8" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
@@ -11248,7 +11169,7 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="8"/>
       <c r="AK71" s="8" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AL71" s="8"/>
       <c r="AM71" s="8"/>
@@ -11274,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -11303,7 +11224,7 @@
       <c r="AB72" s="8"/>
       <c r="AE72" s="7"/>
       <c r="AF72" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="AG72" s="8"/>
       <c r="AH72" s="8"/>
@@ -11316,7 +11237,7 @@
       </c>
       <c r="AN72" s="8"/>
       <c r="AO72" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
@@ -11338,7 +11259,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -11372,7 +11293,7 @@
       <c r="AI73" s="8"/>
       <c r="AJ73" s="8"/>
       <c r="AK73" s="8" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="AL73" s="8"/>
       <c r="AM73" s="8"/>
@@ -11387,7 +11308,7 @@
       <c r="AV73" s="8"/>
       <c r="AW73" s="8"/>
       <c r="AX73" s="8" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="AY73" s="8"/>
       <c r="AZ73" s="8"/>
@@ -11398,7 +11319,7 @@
     <row r="74" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -11427,7 +11348,7 @@
       <c r="AB74" s="8"/>
       <c r="AE74" s="7"/>
       <c r="AF74" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="AG74" s="8"/>
       <c r="AH74" s="8"/>
@@ -11436,7 +11357,7 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="3"/>
       <c r="AM74" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
@@ -11448,7 +11369,7 @@
       <c r="AU74" s="8"/>
       <c r="AV74" s="8"/>
       <c r="AW74" s="31" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="AX74" s="1"/>
       <c r="AY74" s="3"/>
@@ -11460,12 +11381,12 @@
     <row r="75" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="19" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -11518,12 +11439,12 @@
     <row r="76" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="32" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -11549,7 +11470,7 @@
       <c r="AB76" s="8"/>
       <c r="AE76" s="7"/>
       <c r="AF76" s="8" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AG76" s="8"/>
       <c r="AH76" s="8"/>
@@ -11558,7 +11479,7 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="3"/>
       <c r="AM76" s="8" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="AN76" s="8"/>
       <c r="AO76" s="8"/>
@@ -11580,12 +11501,12 @@
     <row r="77" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="34" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="33" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -11616,7 +11537,7 @@
       <c r="AI77" s="8"/>
       <c r="AJ77" s="8"/>
       <c r="AK77" s="8" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AL77" s="8"/>
       <c r="AM77" s="8"/>
@@ -11694,14 +11615,14 @@
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="19" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -11727,14 +11648,14 @@
       <c r="AB79" s="8"/>
       <c r="AE79" s="7"/>
       <c r="AF79" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AG79" s="8"/>
       <c r="AH79" s="8"/>
       <c r="AI79" s="8"/>
       <c r="AJ79" s="8"/>
       <c r="AK79" s="4" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AL79" s="5"/>
       <c r="AM79" s="5"/>
@@ -11761,7 +11682,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="19" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -11769,7 +11690,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
@@ -11870,7 +11791,7 @@
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -11926,7 +11847,7 @@
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="8"/>
@@ -11955,7 +11876,7 @@
       <c r="AB83" s="8"/>
       <c r="AE83" s="7"/>
       <c r="AF83" s="18" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
@@ -11984,7 +11905,7 @@
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="19" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -12018,7 +11939,7 @@
       <c r="AI84" s="8"/>
       <c r="AJ84" s="8"/>
       <c r="AK84" s="8" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AL84" s="8"/>
       <c r="AM84" s="8"/>
@@ -12077,10 +11998,10 @@
       <c r="AJ85" s="8"/>
       <c r="AK85" s="1"/>
       <c r="AL85" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AM85" s="8" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AN85" s="8"/>
       <c r="AO85" s="8"/>
@@ -12102,7 +12023,7 @@
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" s="19" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -12158,7 +12079,7 @@
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="19" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -12188,17 +12109,17 @@
       <c r="AE87" s="7"/>
       <c r="AF87" s="7"/>
       <c r="AG87" s="8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AH87" s="8"/>
       <c r="AI87" s="8"/>
       <c r="AJ87" s="8"/>
       <c r="AK87" s="8"/>
       <c r="AL87" s="8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AM87" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
@@ -12253,7 +12174,7 @@
       <c r="AJ88" s="8"/>
       <c r="AK88" s="8"/>
       <c r="AL88" s="8" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AM88" s="8"/>
       <c r="AN88" s="8"/>
@@ -12278,7 +12199,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -12308,7 +12229,7 @@
       <c r="AE89" s="7"/>
       <c r="AF89" s="7"/>
       <c r="AG89" s="8" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AH89" s="8"/>
       <c r="AI89" s="8"/>
@@ -12316,15 +12237,15 @@
       <c r="AK89" s="8"/>
       <c r="AL89" s="1"/>
       <c r="AM89" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN89" s="8" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AO89" s="8"/>
       <c r="AP89" s="8"/>
       <c r="AQ89" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AR89" s="8"/>
       <c r="AS89" s="8"/>
@@ -12342,7 +12263,7 @@
     <row r="90" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="8" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -12377,14 +12298,14 @@
       <c r="AJ90" s="8"/>
       <c r="AK90" s="8"/>
       <c r="AL90" s="8" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="AM90" s="8"/>
       <c r="AN90" s="8"/>
       <c r="AO90" s="8"/>
       <c r="AP90" s="8"/>
       <c r="AQ90" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="AR90" s="8"/>
       <c r="AS90" s="8"/>
@@ -12402,7 +12323,7 @@
     <row r="91" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -12432,7 +12353,7 @@
       <c r="AE91" s="7"/>
       <c r="AF91" s="7"/>
       <c r="AG91" s="8" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="AH91" s="8"/>
       <c r="AI91" s="8"/>
@@ -12443,7 +12364,7 @@
       <c r="AN91" s="8"/>
       <c r="AO91" s="8"/>
       <c r="AP91" s="8" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="AQ91" s="8"/>
       <c r="AR91" s="8"/>
@@ -12462,7 +12383,7 @@
     <row r="92" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="8" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -12497,7 +12418,7 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
       <c r="AL92" s="8" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AM92" s="8"/>
       <c r="AN92" s="8"/>
@@ -12520,7 +12441,7 @@
     <row r="93" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -12550,7 +12471,7 @@
       <c r="AE93" s="7"/>
       <c r="AF93" s="7"/>
       <c r="AG93" s="8" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AH93" s="8"/>
       <c r="AI93" s="8"/>
@@ -12561,7 +12482,7 @@
       <c r="AN93" s="8"/>
       <c r="AO93" s="8"/>
       <c r="AP93" s="8" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AQ93" s="8"/>
       <c r="AR93" s="8"/>
@@ -12580,7 +12501,7 @@
     <row r="94" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -12636,7 +12557,7 @@
     <row r="95" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -12666,7 +12587,7 @@
       <c r="AE95" s="7"/>
       <c r="AF95" s="7"/>
       <c r="AG95" s="8" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="AH95" s="8"/>
       <c r="AI95" s="8"/>
@@ -12674,7 +12595,7 @@
       <c r="AK95" s="8"/>
       <c r="AL95" s="13"/>
       <c r="AM95" s="8" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="AN95" s="8"/>
       <c r="AO95" s="8"/>
@@ -12696,7 +12617,7 @@
     <row r="96" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -12752,7 +12673,7 @@
     <row r="97" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" s="19" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -12782,7 +12703,7 @@
       <c r="AE97" s="7"/>
       <c r="AF97" s="7"/>
       <c r="AG97" s="8" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="AH97" s="8"/>
       <c r="AI97" s="8"/>
@@ -12793,7 +12714,7 @@
       <c r="AN97" s="3"/>
       <c r="AO97" s="8"/>
       <c r="AP97" s="8" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="AQ97" s="8"/>
       <c r="AR97" s="8"/>
@@ -12845,7 +12766,7 @@
       <c r="AJ98" s="11"/>
       <c r="AK98" s="11"/>
       <c r="AL98" s="11" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="AM98" s="11"/>
       <c r="AN98" s="11"/>
@@ -12949,7 +12870,7 @@
       <c r="AB100" s="8"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="AG100" s="3"/>
       <c r="AH100" s="8"/>
@@ -13060,25 +12981,25 @@
     <row r="106" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="28" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
       <c r="G106" s="14" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="3"/>
       <c r="K106" s="30" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="3"/>
       <c r="O106" s="30" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="3"/>
@@ -13094,7 +13015,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="6"/>
       <c r="AE106" s="18" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
@@ -13103,7 +13024,7 @@
       <c r="AJ106" s="5"/>
       <c r="AK106" s="5"/>
       <c r="AL106" s="5" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="AM106" s="5"/>
       <c r="AN106" s="5"/>
@@ -13178,7 +13099,7 @@
     <row r="108" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -13208,7 +13129,7 @@
       <c r="AE108" s="7"/>
       <c r="AF108" s="8"/>
       <c r="AG108" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
@@ -13216,7 +13137,7 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="8"/>
       <c r="AM108" s="8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AN108" s="8"/>
       <c r="AO108" s="8"/>
@@ -13237,25 +13158,25 @@
     <row r="109" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="13" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="3"/>
       <c r="J109" s="1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="3"/>
       <c r="M109" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13289,7 +13210,7 @@
       <c r="AS109" s="8"/>
       <c r="AT109" s="7"/>
       <c r="AU109" s="8" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="AV109" s="8"/>
       <c r="AW109" s="8"/>
@@ -13382,14 +13303,14 @@
       <c r="AB111" s="9"/>
       <c r="AE111" s="7"/>
       <c r="AF111" s="8" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="8"/>
       <c r="AJ111" s="8"/>
       <c r="AK111" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="AL111" s="2"/>
       <c r="AM111" s="2"/>
@@ -13494,14 +13415,14 @@
       <c r="AB113" s="9"/>
       <c r="AE113" s="7"/>
       <c r="AF113" s="8" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="8"/>
       <c r="AJ113" s="8"/>
       <c r="AK113" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="AL113" s="2"/>
       <c r="AM113" s="2"/>
@@ -13604,14 +13525,14 @@
       <c r="AB115" s="9"/>
       <c r="AE115" s="7"/>
       <c r="AF115" s="8" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
       <c r="AI115" s="8"/>
       <c r="AJ115" s="8"/>
       <c r="AK115" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AL115" s="3"/>
       <c r="AM115" s="8"/>
@@ -13625,10 +13546,10 @@
       <c r="AU115" s="8"/>
       <c r="AV115" s="8"/>
       <c r="AW115" s="31" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AX115" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AY115" s="3"/>
       <c r="AZ115" s="8"/>
@@ -13670,7 +13591,7 @@
       <c r="AI116" s="8"/>
       <c r="AJ116" s="8"/>
       <c r="AK116" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AL116" s="8"/>
       <c r="AM116" s="8"/>
@@ -13720,7 +13641,7 @@
       <c r="AB117" s="9"/>
       <c r="AE117" s="7"/>
       <c r="AF117" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
@@ -13729,10 +13650,10 @@
       <c r="AK117" s="1"/>
       <c r="AL117" s="2"/>
       <c r="AM117" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN117" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AO117" s="8"/>
       <c r="AP117" s="8"/>
@@ -13743,11 +13664,11 @@
       <c r="AU117" s="8"/>
       <c r="AV117" s="8"/>
       <c r="AW117" s="31" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="AX117" s="1"/>
       <c r="AY117" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AZ117" s="8"/>
       <c r="BA117" s="8"/>
@@ -13788,7 +13709,7 @@
       <c r="AI118" s="8"/>
       <c r="AJ118" s="8"/>
       <c r="AK118" s="19" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AL118" s="8"/>
       <c r="AM118" s="8"/>
@@ -13811,7 +13732,7 @@
     <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE119" s="7"/>
       <c r="AF119" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
@@ -13819,10 +13740,10 @@
       <c r="AJ119" s="8"/>
       <c r="AK119" s="1"/>
       <c r="AL119" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AM119" s="8" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="AN119" s="8"/>
       <c r="AO119" s="8"/>
@@ -13848,7 +13769,7 @@
       <c r="AI120" s="8"/>
       <c r="AJ120" s="8"/>
       <c r="AK120" s="8" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AL120" s="8"/>
       <c r="AM120" s="8"/>
@@ -13871,7 +13792,7 @@
     <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE121" s="7"/>
       <c r="AF121" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
@@ -13884,7 +13805,7 @@
       </c>
       <c r="AN121" s="8"/>
       <c r="AO121" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AP121" s="8"/>
       <c r="AQ121" s="8"/>
@@ -13955,7 +13876,7 @@
     <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE124" s="7"/>
       <c r="AF124" s="8" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
@@ -13964,7 +13885,7 @@
       <c r="AK124" s="1"/>
       <c r="AL124" s="3"/>
       <c r="AM124" s="8" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="AN124" s="8"/>
       <c r="AO124" s="8"/>
@@ -13990,7 +13911,7 @@
       <c r="AI125" s="8"/>
       <c r="AJ125" s="8"/>
       <c r="AK125" s="8" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AL125" s="8"/>
       <c r="AM125" s="8"/>
@@ -14039,14 +13960,14 @@
     <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE127" s="7"/>
       <c r="AF127" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
       <c r="AI127" s="8"/>
       <c r="AJ127" s="8"/>
       <c r="AK127" s="4" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
@@ -14147,7 +14068,7 @@
     <row r="131" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE131" s="7"/>
       <c r="AF131" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="AG131" s="3"/>
       <c r="AH131" s="8"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="order hotel" sheetId="4" r:id="rId3"/>
     <sheet name="Hotel Register" sheetId="5" r:id="rId4"/>
     <sheet name="Detail Hotel register" sheetId="6" r:id="rId5"/>
+    <sheet name="List Hotel" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="354">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1011,6 +1012,75 @@
   </si>
   <si>
     <t>gross_price_day * day *room_num</t>
+  </si>
+  <si>
+    <t>Check in Date</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>max 2</t>
+  </si>
+  <si>
+    <t>max 4</t>
+  </si>
+  <si>
+    <t>max 10</t>
+  </si>
+  <si>
+    <t>List yang muncul</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>rate from</t>
+  </si>
+  <si>
+    <t>cancelation policy</t>
+  </si>
+  <si>
+    <t>querynya:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select </t>
+  </si>
+  <si>
+    <t>from mst020 a</t>
+  </si>
+  <si>
+    <t>inner join mst022 c on c.mst020_id = a.id</t>
+  </si>
+  <si>
+    <t>where a.mst002_id = countryid</t>
+  </si>
+  <si>
+    <t>and a.mst003_id = cityid</t>
+  </si>
+  <si>
+    <t>and b.line_number = 1</t>
+  </si>
+  <si>
+    <t>left join mst021 b on b.mst020_id = a.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and </t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1278,6 +1348,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1291,6 +1362,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="4114800"/>
+          <a:ext cx="3467100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3666,7 +3789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
@@ -8786,7 +8909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC132"/>
   <sheetViews>
-    <sheetView topLeftCell="F64" workbookViewId="0">
+    <sheetView topLeftCell="F58" workbookViewId="0">
       <selection activeCell="AY69" sqref="AY69"/>
     </sheetView>
   </sheetViews>
@@ -14123,4 +14246,1359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AP45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="6"/>
+      <c r="AB2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="9"/>
+      <c r="AC3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
+      <c r="AC4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="9"/>
+      <c r="AC5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="9"/>
+      <c r="AC6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="9"/>
+      <c r="AC7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="9"/>
+      <c r="AC8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9"/>
+      <c r="AC9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="9"/>
+      <c r="AC10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="9"/>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="9"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="6"/>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="9"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="9"/>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="9"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="9"/>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="9"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="9"/>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="9"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="9"/>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="9"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="9"/>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="9"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="9"/>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="12"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="9"/>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="9"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="12"/>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="9"/>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="9"/>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="9"/>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="9"/>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="9"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="9"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="9"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="9"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="9"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="9"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="357">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1081,6 +1081,15 @@
   </si>
   <si>
     <t xml:space="preserve">and </t>
+  </si>
+  <si>
+    <t>and  b.num_adult &gt;= adult</t>
+  </si>
+  <si>
+    <t>and b.line_number &gt;=1</t>
+  </si>
+  <si>
+    <t>and b.allotment &gt;= room</t>
   </si>
 </sst>
 </file>
@@ -14252,8 +14261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14556,7 +14565,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="9"/>
       <c r="AC10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
@@ -14585,6 +14594,9 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="9"/>
+      <c r="AC11" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
@@ -14614,6 +14626,9 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="9"/>
+      <c r="AC12" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
@@ -14641,6 +14656,9 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
+      <c r="AC13" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -14768,12 +14786,12 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="6"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="9"/>
       <c r="AC19" s="7"/>
@@ -14811,12 +14829,12 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="12"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="9"/>
       <c r="AC20" s="7"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="359">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1090,6 +1090,12 @@
   </si>
   <si>
     <t>and b.allotment &gt;= room</t>
+  </si>
+  <si>
+    <t>isi ke table blnc001-blnc003</t>
+  </si>
+  <si>
+    <t>sama persis ma transaksinya cm beda ada stts_flg di table blnc001</t>
   </si>
 </sst>
 </file>
@@ -3798,8 +3804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AF36" sqref="AF36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5231,6 +5237,9 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
+      <c r="AE37" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
@@ -5263,6 +5272,9 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="9"/>
+      <c r="AE38" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
@@ -14261,8 +14273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AU10" sqref="AU10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="361">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1080,9 +1080,6 @@
     <t>left join mst021 b on b.mst020_id = a.id</t>
   </si>
   <si>
-    <t xml:space="preserve">and </t>
-  </si>
-  <si>
     <t>and  b.num_adult &gt;= adult</t>
   </si>
   <si>
@@ -1096,6 +1093,15 @@
   </si>
   <si>
     <t>sama persis ma transaksinya cm beda ada stts_flg di table blnc001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   and b.line_number =1</t>
+  </si>
+  <si>
+    <t>and  c.from_date &gt;= checkindate</t>
+  </si>
+  <si>
+    <t>and c.end_date &gt;= checkoutDate</t>
   </si>
 </sst>
 </file>
@@ -3804,7 +3810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
@@ -5238,7 +5244,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
       <c r="AE37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
@@ -5273,7 +5279,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="9"/>
       <c r="AE38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.25">
@@ -14273,8 +14279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14472,7 +14478,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="9"/>
       <c r="AC7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.25">
@@ -14509,7 +14515,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
       <c r="AC8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
@@ -14542,7 +14548,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="9"/>
       <c r="AC9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
@@ -14577,7 +14583,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="9"/>
       <c r="AC10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
@@ -14607,7 +14613,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="9"/>
       <c r="AC11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
@@ -14639,7 +14645,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="9"/>
       <c r="AC12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
@@ -14669,12 +14675,20 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
       <c r="AC13" t="s">
-        <v>353</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>337</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
@@ -15629,6 +15643,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="360">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1074,18 +1074,9 @@
     <t>and a.mst003_id = cityid</t>
   </si>
   <si>
-    <t>and b.line_number = 1</t>
-  </si>
-  <si>
-    <t>left join mst021 b on b.mst020_id = a.id</t>
-  </si>
-  <si>
     <t>and  b.num_adult &gt;= adult</t>
   </si>
   <si>
-    <t>and b.line_number &gt;=1</t>
-  </si>
-  <si>
     <t>and b.allotment &gt;= room</t>
   </si>
   <si>
@@ -1102,6 +1093,12 @@
   </si>
   <si>
     <t>and c.end_date &gt;= checkoutDate</t>
+  </si>
+  <si>
+    <t>left join (select e.pict as pict from mst021 e where e.line_number = (select max(f.line_number) from mst021 f where f.mst020_id = a.id)</t>
+  </si>
+  <si>
+    <t>and e.mst020_id = a.id) j</t>
   </si>
 </sst>
 </file>
@@ -5244,7 +5241,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
       <c r="AE37" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
@@ -5279,7 +5276,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="9"/>
       <c r="AE38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.25">
@@ -14279,13 +14276,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>82</v>
@@ -14317,7 +14314,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -14347,7 +14344,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
@@ -14385,7 +14382,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -14415,7 +14412,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>331</v>
@@ -14448,10 +14445,10 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="9"/>
       <c r="AC6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -14478,10 +14475,13 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="9"/>
       <c r="AC7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>332</v>
@@ -14518,7 +14518,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -14551,7 +14551,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
         <v>188</v>
@@ -14582,11 +14582,8 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="9"/>
-      <c r="AC10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -14613,10 +14610,10 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="9"/>
       <c r="AC11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>82</v>
@@ -14644,11 +14641,8 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="9"/>
-      <c r="AC12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -14675,23 +14669,23 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
       <c r="AC13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AC14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>337</v>
       </c>
       <c r="AC15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Hotel Register" sheetId="5" r:id="rId4"/>
     <sheet name="Detail Hotel register" sheetId="6" r:id="rId5"/>
     <sheet name="List Hotel" sheetId="7" r:id="rId6"/>
+    <sheet name="Detail Hotel" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="401">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1099,6 +1100,129 @@
   </si>
   <si>
     <t>and e.mst020_id = a.id) j</t>
+  </si>
+  <si>
+    <t>Nama Hotel</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Lihat semua</t>
+  </si>
+  <si>
+    <t>Kamar untuk x malam</t>
+  </si>
+  <si>
+    <t>tgl check in -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tgl check out</t>
+  </si>
+  <si>
+    <t>Choose the room</t>
+  </si>
+  <si>
+    <t>Nama Kamar</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>included breakfast</t>
+  </si>
+  <si>
+    <t>2 adult</t>
+  </si>
+  <si>
+    <t>1 children</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>1 room available</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Hotel Facility</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>kamar mandi</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>Additional Info Hotel</t>
+  </si>
+  <si>
+    <t>hapus</t>
+  </si>
+  <si>
+    <t>input digrid</t>
+  </si>
+  <si>
+    <t>add facility</t>
+  </si>
+  <si>
+    <t>mst024</t>
+  </si>
+  <si>
+    <t>Input digrid</t>
+  </si>
+  <si>
+    <t>add facilty</t>
+  </si>
+  <si>
+    <t>MST025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanya jones tapilan foto mau brp gede </t>
+  </si>
+  <si>
+    <t>dialog</t>
+  </si>
+  <si>
+    <t>expandable</t>
+  </si>
+  <si>
+    <t>mst024 by mst020_id</t>
+  </si>
+  <si>
+    <t>mst021</t>
+  </si>
+  <si>
+    <t>mst022</t>
+  </si>
+  <si>
+    <t>RP.xxx</t>
+  </si>
+  <si>
+    <t>mst022.description</t>
+  </si>
+  <si>
+    <t>mst025</t>
   </si>
 </sst>
 </file>
@@ -1138,12 +1262,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -1328,7 +1458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1367,6 +1497,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1406,6 +1559,58 @@
         <a:xfrm>
           <a:off x="3295650" y="4114800"/>
           <a:ext cx="3467100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="2428875"/>
+          <a:ext cx="1209675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6532,7 +6737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:Z54"/>
     </sheetView>
   </sheetViews>
@@ -8931,10 +9136,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BC132"/>
+  <dimension ref="B2:BE138"/>
   <sheetViews>
-    <sheetView topLeftCell="F58" workbookViewId="0">
-      <selection activeCell="AY69" sqref="AY69"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8942,7 +9147,7 @@
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="27" t="s">
         <v>187</v>
@@ -8962,19 +9167,60 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="O2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="6"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="54"/>
+    </row>
+    <row r="3" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -9000,8 +9246,37 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="40"/>
+    </row>
+    <row r="4" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -9027,8 +9302,37 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="8"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="40"/>
+    </row>
+    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -9057,8 +9361,41 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="9"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG5" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="40"/>
+    </row>
+    <row r="6" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -9083,8 +9420,37 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="40"/>
+    </row>
+    <row r="7" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -9115,8 +9481,35 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="9"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="39"/>
+      <c r="BE7" s="40"/>
+    </row>
+    <row r="8" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -9141,8 +9534,35 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="9"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="40"/>
+    </row>
+    <row r="9" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -9171,8 +9591,35 @@
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="40"/>
+    </row>
+    <row r="10" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -9197,8 +9644,35 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="39"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="40"/>
+    </row>
+    <row r="11" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -9223,8 +9697,35 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="56"/>
+      <c r="AY11" s="39"/>
+      <c r="AZ11" s="39"/>
+      <c r="BA11" s="39"/>
+      <c r="BB11" s="39"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="39"/>
+      <c r="BE11" s="40"/>
+    </row>
+    <row r="12" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -9249,8 +9750,35 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="40"/>
+    </row>
+    <row r="13" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -9279,8 +9807,35 @@
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="9"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="40"/>
+    </row>
+    <row r="14" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -9313,8 +9868,35 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="9"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
+      <c r="BB14" s="49"/>
+      <c r="BC14" s="49"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="48"/>
+    </row>
+    <row r="15" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -9340,7 +9922,7 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -9793,9 +10375,11 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
+      <c r="R34" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="3"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
@@ -10482,9 +11066,11 @@
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
+      <c r="R57" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57" s="3"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
@@ -14213,58 +14799,228 @@
       <c r="BB130" s="9"/>
     </row>
     <row r="131" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE131" s="7"/>
-      <c r="AF131" s="1" t="s">
+      <c r="AE131" s="38"/>
+      <c r="AF131" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG131" s="39"/>
+      <c r="AH131" s="39"/>
+      <c r="AI131" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ131" s="39"/>
+      <c r="AK131" s="39"/>
+      <c r="AL131" s="39"/>
+      <c r="AM131" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="AN131" s="39"/>
+      <c r="AO131" s="39"/>
+      <c r="AP131" s="39"/>
+      <c r="AQ131" s="39"/>
+      <c r="AR131" s="39"/>
+      <c r="AS131" s="39"/>
+      <c r="AT131" s="39"/>
+      <c r="AU131" s="39"/>
+      <c r="AV131" s="39"/>
+      <c r="AW131" s="39"/>
+      <c r="AX131" s="39"/>
+      <c r="AY131" s="39"/>
+      <c r="AZ131" s="39"/>
+      <c r="BA131" s="39"/>
+      <c r="BB131" s="40"/>
+    </row>
+    <row r="132" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE132" s="38"/>
+      <c r="AF132" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG132" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH132" s="43"/>
+      <c r="AI132" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ132" s="44"/>
+      <c r="AK132" s="44"/>
+      <c r="AL132" s="44"/>
+      <c r="AM132" s="44"/>
+      <c r="AN132" s="44"/>
+      <c r="AO132" s="44"/>
+      <c r="AP132" s="44"/>
+      <c r="AQ132" s="44"/>
+      <c r="AR132" s="44"/>
+      <c r="AS132" s="44"/>
+      <c r="AT132" s="44"/>
+      <c r="AU132" s="44"/>
+      <c r="AV132" s="43"/>
+      <c r="AW132" s="39"/>
+      <c r="AX132" s="39"/>
+      <c r="AY132" s="39"/>
+      <c r="AZ132" s="39"/>
+      <c r="BA132" s="39"/>
+      <c r="BB132" s="40"/>
+    </row>
+    <row r="133" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE133" s="38"/>
+      <c r="AF133" s="45"/>
+      <c r="AG133" s="38"/>
+      <c r="AH133" s="40"/>
+      <c r="AI133" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ133" s="39"/>
+      <c r="AK133" s="39"/>
+      <c r="AL133" s="39"/>
+      <c r="AM133" s="39"/>
+      <c r="AN133" s="39"/>
+      <c r="AO133" s="39"/>
+      <c r="AP133" s="39"/>
+      <c r="AQ133" s="39"/>
+      <c r="AR133" s="39"/>
+      <c r="AS133" s="39"/>
+      <c r="AT133" s="39"/>
+      <c r="AU133" s="39"/>
+      <c r="AV133" s="40"/>
+      <c r="AW133" s="39"/>
+      <c r="AX133" s="39"/>
+      <c r="AY133" s="39"/>
+      <c r="AZ133" s="39"/>
+      <c r="BA133" s="39"/>
+      <c r="BB133" s="40"/>
+    </row>
+    <row r="134" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE134" s="38"/>
+      <c r="AF134" s="45"/>
+      <c r="AG134" s="38"/>
+      <c r="AH134" s="40"/>
+      <c r="AI134" s="39"/>
+      <c r="AJ134" s="39"/>
+      <c r="AK134" s="39"/>
+      <c r="AL134" s="39"/>
+      <c r="AM134" s="39"/>
+      <c r="AN134" s="39"/>
+      <c r="AO134" s="39"/>
+      <c r="AP134" s="39"/>
+      <c r="AQ134" s="39"/>
+      <c r="AR134" s="39"/>
+      <c r="AS134" s="39"/>
+      <c r="AT134" s="39"/>
+      <c r="AU134" s="39"/>
+      <c r="AV134" s="40"/>
+      <c r="AW134" s="39"/>
+      <c r="AX134" s="39"/>
+      <c r="AY134" s="39"/>
+      <c r="AZ134" s="39"/>
+      <c r="BA134" s="39"/>
+      <c r="BB134" s="40"/>
+    </row>
+    <row r="135" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE135" s="38"/>
+      <c r="AF135" s="46"/>
+      <c r="AG135" s="47"/>
+      <c r="AH135" s="48"/>
+      <c r="AI135" s="49"/>
+      <c r="AJ135" s="49"/>
+      <c r="AK135" s="49"/>
+      <c r="AL135" s="49"/>
+      <c r="AM135" s="49"/>
+      <c r="AN135" s="49"/>
+      <c r="AO135" s="49"/>
+      <c r="AP135" s="49"/>
+      <c r="AQ135" s="49"/>
+      <c r="AR135" s="49"/>
+      <c r="AS135" s="49"/>
+      <c r="AT135" s="49"/>
+      <c r="AU135" s="49"/>
+      <c r="AV135" s="48"/>
+      <c r="AW135" s="39"/>
+      <c r="AX135" s="39"/>
+      <c r="AY135" s="39"/>
+      <c r="AZ135" s="39"/>
+      <c r="BA135" s="39"/>
+      <c r="BB135" s="40"/>
+    </row>
+    <row r="136" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE136" s="38"/>
+      <c r="AF136" s="39"/>
+      <c r="AG136" s="39"/>
+      <c r="AH136" s="39"/>
+      <c r="AI136" s="39"/>
+      <c r="AJ136" s="39"/>
+      <c r="AK136" s="39"/>
+      <c r="AL136" s="39"/>
+      <c r="AM136" s="39"/>
+      <c r="AN136" s="39"/>
+      <c r="AO136" s="39"/>
+      <c r="AP136" s="39"/>
+      <c r="AQ136" s="39"/>
+      <c r="AR136" s="39"/>
+      <c r="AS136" s="39"/>
+      <c r="AT136" s="39"/>
+      <c r="AU136" s="39"/>
+      <c r="AV136" s="39"/>
+      <c r="AW136" s="39"/>
+      <c r="AX136" s="39"/>
+      <c r="AY136" s="39"/>
+      <c r="AZ136" s="39"/>
+      <c r="BA136" s="39"/>
+      <c r="BB136" s="40"/>
+    </row>
+    <row r="137" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE137" s="7"/>
+      <c r="AF137" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AG131" s="3"/>
-      <c r="AH131" s="8"/>
-      <c r="AI131" s="8"/>
-      <c r="AJ131" s="8"/>
-      <c r="AK131" s="8"/>
-      <c r="AL131" s="8"/>
-      <c r="AM131" s="8"/>
-      <c r="AN131" s="8"/>
-      <c r="AO131" s="8"/>
-      <c r="AP131" s="8"/>
-      <c r="AQ131" s="8"/>
-      <c r="AR131" s="8"/>
-      <c r="AS131" s="8"/>
-      <c r="AT131" s="8"/>
-      <c r="AU131" s="8"/>
-      <c r="AV131" s="8"/>
-      <c r="AW131" s="8"/>
-      <c r="AX131" s="8"/>
-      <c r="AY131" s="8"/>
-      <c r="AZ131" s="8"/>
-      <c r="BA131" s="8"/>
-      <c r="BB131" s="9"/>
-    </row>
-    <row r="132" spans="31:54" x14ac:dyDescent="0.25">
-      <c r="AE132" s="10"/>
-      <c r="AF132" s="11"/>
-      <c r="AG132" s="11"/>
-      <c r="AH132" s="11"/>
-      <c r="AI132" s="11"/>
-      <c r="AJ132" s="11"/>
-      <c r="AK132" s="11"/>
-      <c r="AL132" s="11"/>
-      <c r="AM132" s="11"/>
-      <c r="AN132" s="11"/>
-      <c r="AO132" s="11"/>
-      <c r="AP132" s="11"/>
-      <c r="AQ132" s="11"/>
-      <c r="AR132" s="11"/>
-      <c r="AS132" s="11"/>
-      <c r="AT132" s="11"/>
-      <c r="AU132" s="11"/>
-      <c r="AV132" s="11"/>
-      <c r="AW132" s="11"/>
-      <c r="AX132" s="11"/>
-      <c r="AY132" s="11"/>
-      <c r="AZ132" s="11"/>
-      <c r="BA132" s="11"/>
-      <c r="BB132" s="12"/>
+      <c r="AG137" s="3"/>
+      <c r="AH137" s="8"/>
+      <c r="AI137" s="8"/>
+      <c r="AJ137" s="8"/>
+      <c r="AK137" s="8"/>
+      <c r="AL137" s="8"/>
+      <c r="AM137" s="8"/>
+      <c r="AN137" s="8"/>
+      <c r="AO137" s="8"/>
+      <c r="AP137" s="8"/>
+      <c r="AQ137" s="8"/>
+      <c r="AR137" s="8"/>
+      <c r="AS137" s="8"/>
+      <c r="AT137" s="8"/>
+      <c r="AU137" s="8"/>
+      <c r="AV137" s="8"/>
+      <c r="AW137" s="8"/>
+      <c r="AX137" s="8"/>
+      <c r="AY137" s="8"/>
+      <c r="AZ137" s="8"/>
+      <c r="BA137" s="8"/>
+      <c r="BB137" s="9"/>
+    </row>
+    <row r="138" spans="31:54" x14ac:dyDescent="0.25">
+      <c r="AE138" s="10"/>
+      <c r="AF138" s="11"/>
+      <c r="AG138" s="11"/>
+      <c r="AH138" s="11"/>
+      <c r="AI138" s="11"/>
+      <c r="AJ138" s="11"/>
+      <c r="AK138" s="11"/>
+      <c r="AL138" s="11"/>
+      <c r="AM138" s="11"/>
+      <c r="AN138" s="11"/>
+      <c r="AO138" s="11"/>
+      <c r="AP138" s="11"/>
+      <c r="AQ138" s="11"/>
+      <c r="AR138" s="11"/>
+      <c r="AS138" s="11"/>
+      <c r="AT138" s="11"/>
+      <c r="AU138" s="11"/>
+      <c r="AV138" s="11"/>
+      <c r="AW138" s="11"/>
+      <c r="AX138" s="11"/>
+      <c r="AY138" s="11"/>
+      <c r="AZ138" s="11"/>
+      <c r="BA138" s="11"/>
+      <c r="BB138" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14276,8 +15032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AN10"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15640,4 +16396,2175 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:BB64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="6"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+    </row>
+    <row r="6" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="9"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+    </row>
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="12"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="12"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+    </row>
+    <row r="8" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+    </row>
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="6"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+    </row>
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="9"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="9"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+    </row>
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="12"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="12"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+    </row>
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="AD12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+    </row>
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="6"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+    </row>
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="9"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="9"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+    </row>
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="12"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="12"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+    </row>
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="6"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="9"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="9"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="9"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="9"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="9"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="9"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="9"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="9"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="12"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="6"/>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="9"/>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="9"/>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="9"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="9"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="9"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="12"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="6"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="9"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="9"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="9"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="9"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="9"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="12"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="6"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="9"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="9"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="9"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="9"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="9"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="12"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="6"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="9"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="9"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="9"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="9"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="9"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="12"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="9"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="9"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="9"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="9"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Detail Hotel register" sheetId="6" r:id="rId5"/>
     <sheet name="List Hotel" sheetId="7" r:id="rId6"/>
     <sheet name="Detail Hotel" sheetId="8" r:id="rId7"/>
+    <sheet name="Cancel Booking" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="409">
   <si>
     <t>Agent Register</t>
   </si>
@@ -490,9 +491,6 @@
     <t>expired date</t>
   </si>
   <si>
-    <t>Search dari trx001 yang statusnya pending dan cancel</t>
-  </si>
-  <si>
     <t>Ubah Status payment</t>
   </si>
   <si>
@@ -1138,15 +1136,6 @@
     <t>1 children</t>
   </si>
   <si>
-    <t>harga</t>
-  </si>
-  <si>
-    <t>1 room available</t>
-  </si>
-  <si>
-    <t>booking</t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
@@ -1216,13 +1205,49 @@
     <t>mst022</t>
   </si>
   <si>
-    <t>RP.xxx</t>
-  </si>
-  <si>
     <t>mst022.description</t>
   </si>
   <si>
     <t>mst025</t>
+  </si>
+  <si>
+    <t>Search dari BLNC001 yang statusnya pending dan cancel</t>
+  </si>
+  <si>
+    <t>Search Order</t>
+  </si>
+  <si>
+    <t>Tanggal check in</t>
+  </si>
+  <si>
+    <t>Order Number</t>
+  </si>
+  <si>
+    <t>Hotel Hot Deals XXX (nama kotanya)</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Rp.  Total 3 malam</t>
+  </si>
+  <si>
+    <t>Detail price</t>
+  </si>
+  <si>
+    <t>nett value ambil dari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rate_type ='Nett' then h.daily_price+(h.daily_price*0.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(h.rate_type ='Commision' and h.comm_type = '%') then h.daily_price + (h.daily_price * h.comm_pct) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(h.rate_type ='Commision' and h.comm_type = 'Value') then h.daily_price + h.comm_value </t>
+  </si>
+  <si>
+    <t>used_allotment</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1520,6 +1545,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2736,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,7 +3538,7 @@
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
@@ -3569,7 +3596,7 @@
       <c r="W34" s="8"/>
       <c r="X34" s="9"/>
       <c r="AA34" t="s">
-        <v>156</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
@@ -3627,7 +3654,7 @@
       <c r="W36" s="8"/>
       <c r="X36" s="9"/>
       <c r="AA36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -4010,10 +4037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AM75"/>
+  <dimension ref="B2:AN75"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AE39" sqref="AE39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39:AN40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,7 +4216,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -4536,7 +4563,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -4660,7 +4687,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -4701,7 +4728,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -4719,13 +4746,13 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="9"/>
       <c r="AE18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI18" t="s">
         <v>35</v>
       </c>
       <c r="AJ18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.25">
@@ -4758,13 +4785,13 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="9"/>
       <c r="AE19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI19" t="s">
         <v>35</v>
       </c>
       <c r="AJ19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.25">
@@ -4797,13 +4824,13 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="9"/>
       <c r="AE20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI20" t="s">
         <v>35</v>
       </c>
       <c r="AJ20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
@@ -4838,7 +4865,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="9"/>
       <c r="AJ21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
@@ -4873,13 +4900,13 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="9"/>
       <c r="AE22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AI22" t="s">
         <v>35</v>
       </c>
       <c r="AJ22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.25">
@@ -4917,7 +4944,7 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="9"/>
       <c r="AE23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI23" t="s">
         <v>35</v>
@@ -4960,13 +4987,13 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="9"/>
       <c r="AE24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AI24" t="s">
         <v>35</v>
       </c>
       <c r="AJ24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
@@ -5003,7 +5030,7 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
       <c r="AE25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AI25" t="s">
         <v>35</v>
@@ -5042,13 +5069,13 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="9"/>
       <c r="AE26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AI26" t="s">
         <v>35</v>
       </c>
       <c r="AJ26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.25">
@@ -5081,13 +5108,13 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="9"/>
       <c r="AE27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI27" t="s">
         <v>35</v>
       </c>
       <c r="AJ27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.25">
@@ -5122,7 +5149,7 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="9"/>
       <c r="AJ28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.25">
@@ -5155,7 +5182,7 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="9"/>
       <c r="AJ29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.25">
@@ -5234,7 +5261,7 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="9"/>
       <c r="AE31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.25">
@@ -5278,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="AE32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
@@ -5313,10 +5340,10 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="9"/>
       <c r="AE33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
@@ -5351,10 +5378,10 @@
         <v>2</v>
       </c>
       <c r="AE34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="s">
@@ -5386,7 +5413,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="9"/>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="7"/>
       <c r="D36" s="4"/>
@@ -5416,7 +5443,7 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -5446,10 +5473,10 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
       <c r="AE37" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -5481,10 +5508,10 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="9"/>
       <c r="AE38" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
@@ -5512,8 +5539,18 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="9"/>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AE39" s="57"/>
+      <c r="AF39" s="57"/>
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="57"/>
+      <c r="AJ39" s="57"/>
+      <c r="AK39" s="57"/>
+      <c r="AL39" s="57"/>
+      <c r="AM39" s="57"/>
+      <c r="AN39" s="57"/>
+    </row>
+    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
@@ -5541,8 +5578,18 @@
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="9"/>
-    </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57"/>
+      <c r="AH40" s="57"/>
+      <c r="AI40" s="57"/>
+      <c r="AJ40" s="57"/>
+      <c r="AK40" s="57"/>
+      <c r="AL40" s="57"/>
+      <c r="AM40" s="57"/>
+      <c r="AN40" s="57"/>
+    </row>
+    <row r="41" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -5571,7 +5618,7 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="9"/>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -5600,7 +5647,7 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -5631,7 +5678,7 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="9"/>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -5660,7 +5707,7 @@
       <c r="AB44" s="11"/>
       <c r="AC44" s="12"/>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>52</v>
       </c>
@@ -5696,7 +5743,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="15" t="s">
         <v>55</v>
@@ -5735,7 +5782,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -6745,18 +6792,18 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="D4" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6782,7 +6829,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="6"/>
       <c r="AC4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -6816,7 +6863,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -6878,7 +6925,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -6894,7 +6941,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -7021,7 +7068,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -7037,20 +7084,20 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
       <c r="X13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="3"/>
@@ -7305,7 +7352,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -7359,13 +7406,13 @@
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -7390,7 +7437,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="6"/>
       <c r="AC28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.25">
@@ -7419,7 +7466,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="9"/>
       <c r="AC29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.25">
@@ -7427,7 +7474,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -7441,7 +7488,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
@@ -7452,7 +7499,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="9"/>
       <c r="AC30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.25">
@@ -7481,7 +7528,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="9"/>
       <c r="AC31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.25">
@@ -7489,7 +7536,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -7497,13 +7544,13 @@
       <c r="J32" s="8"/>
       <c r="K32" s="13"/>
       <c r="L32" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -7547,7 +7594,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -7567,7 +7614,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="9"/>
@@ -7660,7 +7707,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -7669,7 +7716,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
@@ -7685,7 +7732,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -7699,7 +7746,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="1" t="s">
@@ -7745,7 +7792,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -7757,7 +7804,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
@@ -7801,7 +7848,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -7817,7 +7864,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -7864,7 +7911,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -7873,11 +7920,11 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S45" s="8"/>
       <c r="T45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -7917,14 +7964,14 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -7973,14 +8020,14 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -8029,7 +8076,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -8042,7 +8089,7 @@
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
@@ -8087,14 +8134,14 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -8103,12 +8150,12 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -8173,7 +8220,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -8229,14 +8276,14 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8285,14 +8332,14 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8341,14 +8388,14 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8524,13 +8571,13 @@
     </row>
     <row r="71" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C71" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C72" s="4"/>
       <c r="D72" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -8587,7 +8634,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -8649,7 +8696,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -8665,7 +8712,7 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
       <c r="S76" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
@@ -8792,7 +8839,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="13"/>
       <c r="E81" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -8808,20 +8855,20 @@
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="3"/>
       <c r="X81" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" s="3"/>
@@ -9138,8 +9185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BE138"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="S92" sqref="S92:S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9150,30 +9197,30 @@
     <row r="2" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="3"/>
@@ -9184,30 +9231,30 @@
       <c r="Y2" s="6"/>
       <c r="AE2" s="42"/>
       <c r="AF2" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG2" s="44"/>
       <c r="AH2" s="44"/>
       <c r="AI2" s="43"/>
       <c r="AJ2" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK2" s="44"/>
       <c r="AL2" s="44"/>
       <c r="AM2" s="43"/>
       <c r="AN2" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO2" s="44"/>
       <c r="AP2" s="44"/>
       <c r="AQ2" s="43"/>
       <c r="AR2" s="51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AS2" s="44"/>
       <c r="AT2" s="43"/>
       <c r="AU2" s="52" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AV2" s="44"/>
       <c r="AW2" s="43"/>
@@ -9253,7 +9300,7 @@
       <c r="AI3" s="39"/>
       <c r="AJ3" s="39"/>
       <c r="AK3" s="39" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AL3" s="39"/>
       <c r="AM3" s="39"/>
@@ -9304,7 +9351,7 @@
       <c r="Z4" s="8"/>
       <c r="AE4" s="38"/>
       <c r="AF4" s="39" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG4" s="39"/>
       <c r="AH4" s="39"/>
@@ -9337,7 +9384,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -9351,7 +9398,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -9363,14 +9410,14 @@
       <c r="Y5" s="9"/>
       <c r="AE5" s="38"/>
       <c r="AF5" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG5" s="42" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AH5" s="43"/>
       <c r="AI5" s="42" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AJ5" s="44"/>
       <c r="AK5" s="44"/>
@@ -9426,7 +9473,7 @@
       <c r="AH6" s="40"/>
       <c r="AI6" s="55"/>
       <c r="AJ6" s="53" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AK6" s="53"/>
       <c r="AL6" s="53"/>
@@ -9455,7 +9502,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -9463,13 +9510,13 @@
       <c r="I7" s="8"/>
       <c r="J7" s="13"/>
       <c r="K7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -9567,7 +9614,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -9587,7 +9634,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
@@ -9788,7 +9835,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -9797,7 +9844,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -9840,7 +9887,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -9854,7 +9901,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="1" t="s">
@@ -9927,7 +9974,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -9939,7 +9986,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -9983,7 +10030,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -9999,7 +10046,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
@@ -10046,7 +10093,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -10055,11 +10102,11 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -10099,14 +10146,14 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -10155,14 +10202,14 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -10211,7 +10258,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -10224,7 +10271,7 @@
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -10269,14 +10316,14 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -10285,12 +10332,12 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -10353,30 +10400,30 @@
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="3"/>
       <c r="K34" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="3"/>
       <c r="O34" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="3"/>
@@ -10457,7 +10504,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="4"/>
@@ -10467,7 +10514,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="4"/>
@@ -10477,7 +10524,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA37" s="8"/>
       <c r="AB37" s="9"/>
@@ -10631,7 +10678,7 @@
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -10641,7 +10688,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="8"/>
       <c r="L43" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -10651,7 +10698,7 @@
       <c r="R43" s="6"/>
       <c r="S43" s="8"/>
       <c r="T43" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -10817,7 +10864,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="8"/>
       <c r="J49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="3"/>
@@ -10871,7 +10918,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
@@ -10987,7 +11034,7 @@
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="AE55" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
@@ -10996,7 +11043,7 @@
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
       <c r="AL55" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -11044,30 +11091,30 @@
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="3"/>
       <c r="K57" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="3"/>
       <c r="O57" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="3"/>
@@ -11160,7 +11207,7 @@
     <row r="59" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -11216,25 +11263,25 @@
     <row r="60" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="3"/>
       <c r="M60" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -11253,14 +11300,14 @@
       <c r="AB60" s="9"/>
       <c r="AE60" s="7"/>
       <c r="AF60" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG60" s="8"/>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="8"/>
       <c r="AK60" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL60" s="2"/>
       <c r="AM60" s="2"/>
@@ -11318,14 +11365,14 @@
       <c r="AI61" s="8"/>
       <c r="AJ61" s="8"/>
       <c r="AK61" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="8"/>
       <c r="AO61" s="8"/>
       <c r="AP61" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
@@ -11371,7 +11418,7 @@
       <c r="AB62" s="9"/>
       <c r="AE62" s="7"/>
       <c r="AF62" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG62" s="8"/>
       <c r="AH62" s="8"/>
@@ -11382,7 +11429,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="13"/>
@@ -11483,14 +11530,14 @@
       <c r="AB64" s="9"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG64" s="8"/>
       <c r="AH64" s="8"/>
       <c r="AI64" s="8"/>
       <c r="AJ64" s="8"/>
       <c r="AK64" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
@@ -11597,14 +11644,14 @@
       <c r="AB66" s="9"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG66" s="8"/>
       <c r="AH66" s="8"/>
       <c r="AI66" s="8"/>
       <c r="AJ66" s="8"/>
       <c r="AK66" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL66" s="3"/>
       <c r="AM66" s="8"/>
@@ -11618,10 +11665,10 @@
       <c r="AU66" s="8"/>
       <c r="AV66" s="8"/>
       <c r="AW66" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AX66" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AY66" s="3"/>
       <c r="AZ66" s="8"/>
@@ -11664,7 +11711,7 @@
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8"/>
       <c r="AK67" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
@@ -11715,7 +11762,7 @@
       <c r="AB68" s="9"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG68" s="8"/>
       <c r="AH68" s="8"/>
@@ -11727,7 +11774,7 @@
         <v>81</v>
       </c>
       <c r="AN68" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
@@ -11738,7 +11785,7 @@
       <c r="AU68" s="8"/>
       <c r="AV68" s="8"/>
       <c r="AW68" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AX68" s="1"/>
       <c r="AY68" s="3" t="s">
@@ -11784,7 +11831,7 @@
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8"/>
       <c r="AK69" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL69" s="8"/>
       <c r="AM69" s="8"/>
@@ -11835,7 +11882,7 @@
       <c r="AB70" s="8"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG70" s="8"/>
       <c r="AH70" s="8"/>
@@ -11846,7 +11893,7 @@
         <v>81</v>
       </c>
       <c r="AM70" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
@@ -11902,7 +11949,7 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="8"/>
       <c r="AK71" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL71" s="8"/>
       <c r="AM71" s="8"/>
@@ -11928,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -11957,7 +12004,7 @@
       <c r="AB72" s="8"/>
       <c r="AE72" s="7"/>
       <c r="AF72" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG72" s="8"/>
       <c r="AH72" s="8"/>
@@ -11970,7 +12017,7 @@
       </c>
       <c r="AN72" s="8"/>
       <c r="AO72" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
@@ -11992,7 +12039,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -12026,7 +12073,7 @@
       <c r="AI73" s="8"/>
       <c r="AJ73" s="8"/>
       <c r="AK73" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL73" s="8"/>
       <c r="AM73" s="8"/>
@@ -12041,7 +12088,7 @@
       <c r="AV73" s="8"/>
       <c r="AW73" s="8"/>
       <c r="AX73" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AY73" s="8"/>
       <c r="AZ73" s="8"/>
@@ -12052,7 +12099,7 @@
     <row r="74" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -12081,7 +12128,7 @@
       <c r="AB74" s="8"/>
       <c r="AE74" s="7"/>
       <c r="AF74" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG74" s="8"/>
       <c r="AH74" s="8"/>
@@ -12090,7 +12137,7 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="3"/>
       <c r="AM74" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
@@ -12102,7 +12149,7 @@
       <c r="AU74" s="8"/>
       <c r="AV74" s="8"/>
       <c r="AW74" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AX74" s="1"/>
       <c r="AY74" s="3"/>
@@ -12114,12 +12161,12 @@
     <row r="75" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -12172,12 +12219,12 @@
     <row r="76" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -12203,7 +12250,7 @@
       <c r="AB76" s="8"/>
       <c r="AE76" s="7"/>
       <c r="AF76" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG76" s="8"/>
       <c r="AH76" s="8"/>
@@ -12212,7 +12259,7 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="3"/>
       <c r="AM76" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AN76" s="8"/>
       <c r="AO76" s="8"/>
@@ -12234,12 +12281,12 @@
     <row r="77" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -12270,7 +12317,7 @@
       <c r="AI77" s="8"/>
       <c r="AJ77" s="8"/>
       <c r="AK77" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL77" s="8"/>
       <c r="AM77" s="8"/>
@@ -12348,14 +12395,14 @@
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -12381,14 +12428,14 @@
       <c r="AB79" s="8"/>
       <c r="AE79" s="7"/>
       <c r="AF79" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG79" s="8"/>
       <c r="AH79" s="8"/>
       <c r="AI79" s="8"/>
       <c r="AJ79" s="8"/>
       <c r="AK79" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL79" s="5"/>
       <c r="AM79" s="5"/>
@@ -12415,7 +12462,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -12423,7 +12470,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
@@ -12524,7 +12571,7 @@
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -12580,7 +12627,7 @@
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="8"/>
@@ -12609,7 +12656,7 @@
       <c r="AB83" s="8"/>
       <c r="AE83" s="7"/>
       <c r="AF83" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
@@ -12638,7 +12685,7 @@
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -12672,7 +12719,7 @@
       <c r="AI84" s="8"/>
       <c r="AJ84" s="8"/>
       <c r="AK84" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL84" s="8"/>
       <c r="AM84" s="8"/>
@@ -12734,7 +12781,7 @@
         <v>81</v>
       </c>
       <c r="AM85" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AN85" s="8"/>
       <c r="AO85" s="8"/>
@@ -12756,7 +12803,7 @@
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -12812,7 +12859,7 @@
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -12842,17 +12889,17 @@
       <c r="AE87" s="7"/>
       <c r="AF87" s="7"/>
       <c r="AG87" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH87" s="8"/>
       <c r="AI87" s="8"/>
       <c r="AJ87" s="8"/>
       <c r="AK87" s="8"/>
       <c r="AL87" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM87" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
@@ -12907,7 +12954,7 @@
       <c r="AJ88" s="8"/>
       <c r="AK88" s="8"/>
       <c r="AL88" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM88" s="8"/>
       <c r="AN88" s="8"/>
@@ -12932,7 +12979,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -12962,7 +13009,7 @@
       <c r="AE89" s="7"/>
       <c r="AF89" s="7"/>
       <c r="AG89" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH89" s="8"/>
       <c r="AI89" s="8"/>
@@ -12973,12 +13020,12 @@
         <v>81</v>
       </c>
       <c r="AN89" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AO89" s="8"/>
       <c r="AP89" s="8"/>
       <c r="AQ89" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AR89" s="8"/>
       <c r="AS89" s="8"/>
@@ -12996,7 +13043,7 @@
     <row r="90" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -13031,14 +13078,14 @@
       <c r="AJ90" s="8"/>
       <c r="AK90" s="8"/>
       <c r="AL90" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM90" s="8"/>
       <c r="AN90" s="8"/>
       <c r="AO90" s="8"/>
       <c r="AP90" s="8"/>
       <c r="AQ90" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AR90" s="8"/>
       <c r="AS90" s="8"/>
@@ -13056,7 +13103,7 @@
     <row r="91" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -13086,7 +13133,7 @@
       <c r="AE91" s="7"/>
       <c r="AF91" s="7"/>
       <c r="AG91" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH91" s="8"/>
       <c r="AI91" s="8"/>
@@ -13097,7 +13144,7 @@
       <c r="AN91" s="8"/>
       <c r="AO91" s="8"/>
       <c r="AP91" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AQ91" s="8"/>
       <c r="AR91" s="8"/>
@@ -13116,7 +13163,7 @@
     <row r="92" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -13151,7 +13198,7 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
       <c r="AL92" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM92" s="8"/>
       <c r="AN92" s="8"/>
@@ -13174,7 +13221,7 @@
     <row r="93" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -13204,7 +13251,7 @@
       <c r="AE93" s="7"/>
       <c r="AF93" s="7"/>
       <c r="AG93" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH93" s="8"/>
       <c r="AI93" s="8"/>
@@ -13215,7 +13262,7 @@
       <c r="AN93" s="8"/>
       <c r="AO93" s="8"/>
       <c r="AP93" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AQ93" s="8"/>
       <c r="AR93" s="8"/>
@@ -13234,7 +13281,7 @@
     <row r="94" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -13290,7 +13337,7 @@
     <row r="95" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -13320,7 +13367,7 @@
       <c r="AE95" s="7"/>
       <c r="AF95" s="7"/>
       <c r="AG95" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH95" s="8"/>
       <c r="AI95" s="8"/>
@@ -13328,7 +13375,7 @@
       <c r="AK95" s="8"/>
       <c r="AL95" s="13"/>
       <c r="AM95" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AN95" s="8"/>
       <c r="AO95" s="8"/>
@@ -13350,7 +13397,7 @@
     <row r="96" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -13406,7 +13453,7 @@
     <row r="97" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -13436,7 +13483,7 @@
       <c r="AE97" s="7"/>
       <c r="AF97" s="7"/>
       <c r="AG97" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH97" s="8"/>
       <c r="AI97" s="8"/>
@@ -13447,7 +13494,7 @@
       <c r="AN97" s="3"/>
       <c r="AO97" s="8"/>
       <c r="AP97" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AQ97" s="8"/>
       <c r="AR97" s="8"/>
@@ -13464,32 +13511,36 @@
       <c r="BC97" s="8"/>
     </row>
     <row r="98" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
-      <c r="X98" s="8"/>
-      <c r="Y98" s="8"/>
-      <c r="Z98" s="8"/>
-      <c r="AA98" s="8"/>
+      <c r="B98" s="39">
+        <v>3</v>
+      </c>
+      <c r="C98" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="39"/>
+      <c r="X98" s="39"/>
+      <c r="Y98" s="39"/>
+      <c r="Z98" s="39"/>
+      <c r="AA98" s="39"/>
       <c r="AB98" s="8"/>
       <c r="AE98" s="7"/>
       <c r="AF98" s="10"/>
@@ -13499,7 +13550,7 @@
       <c r="AJ98" s="11"/>
       <c r="AK98" s="11"/>
       <c r="AL98" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM98" s="11"/>
       <c r="AN98" s="11"/>
@@ -13520,32 +13571,34 @@
       <c r="BC98" s="8"/>
     </row>
     <row r="99" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
-      <c r="X99" s="8"/>
-      <c r="Y99" s="8"/>
-      <c r="Z99" s="8"/>
-      <c r="AA99" s="8"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="39"/>
+      <c r="Y99" s="39"/>
+      <c r="Z99" s="39"/>
+      <c r="AA99" s="39"/>
       <c r="AB99" s="8"/>
       <c r="AE99" s="7"/>
       <c r="AF99" s="8"/>
@@ -13574,36 +13627,38 @@
       <c r="BC99" s="8"/>
     </row>
     <row r="100" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="8"/>
-      <c r="X100" s="8"/>
-      <c r="Y100" s="8"/>
-      <c r="Z100" s="8"/>
-      <c r="AA100" s="8"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="39"/>
+      <c r="Y100" s="39"/>
+      <c r="Z100" s="39"/>
+      <c r="AA100" s="39"/>
       <c r="AB100" s="8"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG100" s="3"/>
       <c r="AH100" s="8"/>
@@ -13630,32 +13685,34 @@
       <c r="BC100" s="8"/>
     </row>
     <row r="101" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
-      <c r="AA101" s="8"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="39"/>
+      <c r="T101" s="39"/>
+      <c r="U101" s="39"/>
+      <c r="V101" s="39"/>
+      <c r="W101" s="39"/>
+      <c r="X101" s="39"/>
+      <c r="Y101" s="39"/>
+      <c r="Z101" s="39"/>
+      <c r="AA101" s="39"/>
       <c r="AB101" s="8"/>
       <c r="AE101" s="10"/>
       <c r="AF101" s="11"/>
@@ -13683,13 +13740,20 @@
       <c r="BB101" s="12"/>
     </row>
     <row r="102" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
+      <c r="B102" s="8">
+        <v>4</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39">
+        <f xml:space="preserve"> 0</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="39"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -13714,25 +13778,25 @@
     <row r="106" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
       <c r="G106" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="3"/>
       <c r="K106" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="3"/>
       <c r="O106" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="3"/>
@@ -13748,7 +13812,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="6"/>
       <c r="AE106" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
@@ -13757,7 +13821,7 @@
       <c r="AJ106" s="5"/>
       <c r="AK106" s="5"/>
       <c r="AL106" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM106" s="5"/>
       <c r="AN106" s="5"/>
@@ -13832,7 +13896,7 @@
     <row r="108" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -13862,7 +13926,7 @@
       <c r="AE108" s="7"/>
       <c r="AF108" s="8"/>
       <c r="AG108" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
@@ -13870,7 +13934,7 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="8"/>
       <c r="AM108" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AN108" s="8"/>
       <c r="AO108" s="8"/>
@@ -13891,25 +13955,25 @@
     <row r="109" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="3"/>
       <c r="J109" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="3"/>
       <c r="M109" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13943,7 +14007,7 @@
       <c r="AS109" s="8"/>
       <c r="AT109" s="7"/>
       <c r="AU109" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AV109" s="8"/>
       <c r="AW109" s="8"/>
@@ -14036,14 +14100,14 @@
       <c r="AB111" s="9"/>
       <c r="AE111" s="7"/>
       <c r="AF111" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="8"/>
       <c r="AJ111" s="8"/>
       <c r="AK111" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL111" s="2"/>
       <c r="AM111" s="2"/>
@@ -14148,14 +14212,14 @@
       <c r="AB113" s="9"/>
       <c r="AE113" s="7"/>
       <c r="AF113" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="8"/>
       <c r="AJ113" s="8"/>
       <c r="AK113" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL113" s="2"/>
       <c r="AM113" s="2"/>
@@ -14258,14 +14322,14 @@
       <c r="AB115" s="9"/>
       <c r="AE115" s="7"/>
       <c r="AF115" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
       <c r="AI115" s="8"/>
       <c r="AJ115" s="8"/>
       <c r="AK115" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL115" s="3"/>
       <c r="AM115" s="8"/>
@@ -14279,10 +14343,10 @@
       <c r="AU115" s="8"/>
       <c r="AV115" s="8"/>
       <c r="AW115" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AX115" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AY115" s="3"/>
       <c r="AZ115" s="8"/>
@@ -14324,7 +14388,7 @@
       <c r="AI116" s="8"/>
       <c r="AJ116" s="8"/>
       <c r="AK116" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL116" s="8"/>
       <c r="AM116" s="8"/>
@@ -14374,7 +14438,7 @@
       <c r="AB117" s="9"/>
       <c r="AE117" s="7"/>
       <c r="AF117" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
@@ -14386,7 +14450,7 @@
         <v>81</v>
       </c>
       <c r="AN117" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AO117" s="8"/>
       <c r="AP117" s="8"/>
@@ -14397,7 +14461,7 @@
       <c r="AU117" s="8"/>
       <c r="AV117" s="8"/>
       <c r="AW117" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AX117" s="1"/>
       <c r="AY117" s="3" t="s">
@@ -14442,7 +14506,7 @@
       <c r="AI118" s="8"/>
       <c r="AJ118" s="8"/>
       <c r="AK118" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL118" s="8"/>
       <c r="AM118" s="8"/>
@@ -14465,7 +14529,7 @@
     <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE119" s="7"/>
       <c r="AF119" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
@@ -14476,7 +14540,7 @@
         <v>81</v>
       </c>
       <c r="AM119" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN119" s="8"/>
       <c r="AO119" s="8"/>
@@ -14502,7 +14566,7 @@
       <c r="AI120" s="8"/>
       <c r="AJ120" s="8"/>
       <c r="AK120" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL120" s="8"/>
       <c r="AM120" s="8"/>
@@ -14525,7 +14589,7 @@
     <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE121" s="7"/>
       <c r="AF121" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
@@ -14538,7 +14602,7 @@
       </c>
       <c r="AN121" s="8"/>
       <c r="AO121" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AP121" s="8"/>
       <c r="AQ121" s="8"/>
@@ -14609,7 +14673,7 @@
     <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE124" s="7"/>
       <c r="AF124" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
@@ -14618,7 +14682,7 @@
       <c r="AK124" s="1"/>
       <c r="AL124" s="3"/>
       <c r="AM124" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AN124" s="8"/>
       <c r="AO124" s="8"/>
@@ -14644,7 +14708,7 @@
       <c r="AI125" s="8"/>
       <c r="AJ125" s="8"/>
       <c r="AK125" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL125" s="8"/>
       <c r="AM125" s="8"/>
@@ -14693,14 +14757,14 @@
     <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE127" s="7"/>
       <c r="AF127" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
       <c r="AI127" s="8"/>
       <c r="AJ127" s="8"/>
       <c r="AK127" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
@@ -14801,18 +14865,18 @@
     <row r="131" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE131" s="38"/>
       <c r="AF131" s="39" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG131" s="39"/>
       <c r="AH131" s="39"/>
       <c r="AI131" s="39" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AJ131" s="39"/>
       <c r="AK131" s="39"/>
       <c r="AL131" s="39"/>
       <c r="AM131" s="39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AN131" s="39"/>
       <c r="AO131" s="39"/>
@@ -14833,14 +14897,14 @@
     <row r="132" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE132" s="38"/>
       <c r="AF132" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG132" s="42" t="s">
         <v>248</v>
-      </c>
-      <c r="AG132" s="42" t="s">
-        <v>249</v>
       </c>
       <c r="AH132" s="43"/>
       <c r="AI132" s="44" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AJ132" s="44"/>
       <c r="AK132" s="44"/>
@@ -14868,7 +14932,7 @@
       <c r="AG133" s="38"/>
       <c r="AH133" s="40"/>
       <c r="AI133" s="39" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AJ133" s="39"/>
       <c r="AK133" s="39"/>
@@ -14971,7 +15035,7 @@
     <row r="137" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE137" s="7"/>
       <c r="AF137" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG137" s="3"/>
       <c r="AH137" s="8"/>
@@ -15032,8 +15096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:R10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AO12" sqref="AO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15067,7 +15131,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
       <c r="AB2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
@@ -15097,7 +15161,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="9"/>
       <c r="AC3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
@@ -15135,7 +15199,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="9"/>
       <c r="AC4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
@@ -15165,13 +15229,13 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="9"/>
       <c r="AC5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -15201,7 +15265,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="9"/>
       <c r="AC6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.25">
@@ -15231,16 +15295,16 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="9"/>
       <c r="AC7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AE7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -15253,7 +15317,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -15271,7 +15335,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
       <c r="AC8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
@@ -15280,7 +15344,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -15292,7 +15356,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -15304,13 +15368,13 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="9"/>
       <c r="AC9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -15319,7 +15383,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -15366,7 +15430,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="9"/>
       <c r="AC11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
@@ -15425,20 +15489,20 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
       <c r="AC13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AC14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
@@ -15477,13 +15541,13 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -15508,7 +15572,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -15520,7 +15584,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
@@ -15594,7 +15658,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -15632,7 +15696,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -15680,7 +15744,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
       <c r="I22" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -16400,25 +16464,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BB64"/>
+  <dimension ref="A2:BB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF47" sqref="AF47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" t="s">
         <v>360</v>
-      </c>
-      <c r="F2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="2:54" x14ac:dyDescent="0.25">
@@ -16757,7 +16821,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
       <c r="AD12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
@@ -16849,7 +16913,7 @@
       <c r="V14" s="9"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
@@ -16941,7 +17005,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -16949,12 +17013,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -16979,7 +17043,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
       <c r="AO17" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -17023,7 +17087,7 @@
       <c r="AA18" s="9"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
@@ -17046,7 +17110,7 @@
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -17146,7 +17210,7 @@
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -17159,7 +17223,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -17203,7 +17267,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -17215,7 +17279,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -17250,7 +17314,7 @@
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -17259,7 +17323,7 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -17426,7 +17490,7 @@
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
@@ -17468,18 +17532,18 @@
       <c r="E30" s="6"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -17512,24 +17576,20 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="8" t="s">
-        <v>368</v>
-      </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="8" t="s">
-        <v>398</v>
-      </c>
+      <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z31" s="5"/>
+      <c r="X31" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="9"/>
@@ -17542,7 +17602,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -17551,22 +17611,20 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P32" s="8"/>
+      <c r="P32" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
-      <c r="T32" s="8" t="s">
-        <v>373</v>
-      </c>
+      <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="11"/>
+      <c r="X32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z32" s="10"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="9"/>
@@ -17579,30 +17637,33 @@
       <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
+      <c r="P33" s="58" t="s">
+        <v>403</v>
+      </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
+      <c r="S33" s="8" t="s">
+        <v>390</v>
+      </c>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
@@ -17616,14 +17677,14 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -17667,7 +17728,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -17717,18 +17778,18 @@
       <c r="E38" s="6"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
@@ -17761,24 +17822,21 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="8" t="s">
-        <v>368</v>
-      </c>
+      <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
-      <c r="T39" s="8" t="s">
-        <v>372</v>
-      </c>
+      <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z39" s="5"/>
+      <c r="X39" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="AA39" s="5"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="9"/>
@@ -17791,7 +17849,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -17800,20 +17858,21 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
-      <c r="T40" s="8" t="s">
-        <v>373</v>
-      </c>
+      <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="11"/>
+      <c r="X40" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z40" s="10"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="12"/>
       <c r="AC40" s="9"/>
@@ -17826,10 +17885,10 @@
       <c r="E41" s="12"/>
       <c r="F41" s="8"/>
       <c r="G41" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -17838,16 +17897,19 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
+      <c r="P41" s="58" t="s">
+        <v>403</v>
+      </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
+      <c r="S41" s="8" t="s">
+        <v>390</v>
+      </c>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
@@ -17861,11 +17923,11 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -17958,18 +18020,18 @@
       <c r="E46" s="6"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -18002,24 +18064,21 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="8" t="s">
-        <v>368</v>
-      </c>
+      <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
-      <c r="T47" s="8" t="s">
-        <v>372</v>
-      </c>
+      <c r="T47" s="8"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z47" s="5"/>
+      <c r="X47" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="AA47" s="5"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="9"/>
@@ -18032,7 +18091,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -18041,20 +18100,21 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
-      <c r="T48" s="8" t="s">
-        <v>373</v>
-      </c>
+      <c r="T48" s="8"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="11"/>
+      <c r="X48" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z48" s="10"/>
       <c r="AA48" s="11"/>
       <c r="AB48" s="12"/>
       <c r="AC48" s="9"/>
@@ -18067,30 +18127,33 @@
       <c r="E49" s="12"/>
       <c r="F49" s="8"/>
       <c r="G49" s="36" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
+      <c r="P49" s="58" t="s">
+        <v>403</v>
+      </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
+      <c r="S49" s="8" t="s">
+        <v>390</v>
+      </c>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
@@ -18104,14 +18167,14 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -18166,7 +18229,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -18200,15 +18263,15 @@
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -18237,10 +18300,10 @@
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -18272,10 +18335,10 @@
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>381</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -18307,10 +18370,10 @@
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="19" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -18342,10 +18405,10 @@
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="19" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -18407,7 +18470,7 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -18562,9 +18625,384 @@
       <c r="AB64" s="11"/>
       <c r="AC64" s="12"/>
     </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="6"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="9"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="9"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="9"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="9"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="9"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="401">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1058,48 +1058,12 @@
     <t>querynya:</t>
   </si>
   <si>
-    <t xml:space="preserve">select </t>
-  </si>
-  <si>
-    <t>from mst020 a</t>
-  </si>
-  <si>
-    <t>inner join mst022 c on c.mst020_id = a.id</t>
-  </si>
-  <si>
-    <t>where a.mst002_id = countryid</t>
-  </si>
-  <si>
-    <t>and a.mst003_id = cityid</t>
-  </si>
-  <si>
-    <t>and  b.num_adult &gt;= adult</t>
-  </si>
-  <si>
-    <t>and b.allotment &gt;= room</t>
-  </si>
-  <si>
     <t>isi ke table blnc001-blnc003</t>
   </si>
   <si>
     <t>sama persis ma transaksinya cm beda ada stts_flg di table blnc001</t>
   </si>
   <si>
-    <t xml:space="preserve">                   and b.line_number =1</t>
-  </si>
-  <si>
-    <t>and  c.from_date &gt;= checkindate</t>
-  </si>
-  <si>
-    <t>and c.end_date &gt;= checkoutDate</t>
-  </si>
-  <si>
-    <t>left join (select e.pict as pict from mst021 e where e.line_number = (select max(f.line_number) from mst021 f where f.mst020_id = a.id)</t>
-  </si>
-  <si>
-    <t>and e.mst020_id = a.id) j</t>
-  </si>
-  <si>
     <t>Nama Hotel</t>
   </si>
   <si>
@@ -1248,6 +1212,18 @@
   </si>
   <si>
     <t>used_allotment</t>
+  </si>
+  <si>
+    <t>Lihat detail query di file searchListHotel.sql</t>
+  </si>
+  <si>
+    <t>combo room tu muncul sesuai jumlah allotment dari query tp ada maxnya</t>
+  </si>
+  <si>
+    <t>klo jumlah allotmentnya &gt; 10 yg muncul di combo 10</t>
+  </si>
+  <si>
+    <t>bs ga gini?</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1547,6 +1523,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3596,7 +3573,7 @@
       <c r="W34" s="8"/>
       <c r="X34" s="9"/>
       <c r="AA34" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
@@ -5473,7 +5450,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
       <c r="AE37" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.25">
@@ -5508,7 +5485,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="9"/>
       <c r="AE38" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.25">
@@ -6784,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:Z54"/>
     </sheetView>
   </sheetViews>
@@ -9185,7 +9162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BE138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="S92" sqref="S92:S93"/>
     </sheetView>
   </sheetViews>
@@ -9220,7 +9197,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="3"/>
@@ -9254,7 +9231,7 @@
       <c r="AS2" s="44"/>
       <c r="AT2" s="43"/>
       <c r="AU2" s="52" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AV2" s="44"/>
       <c r="AW2" s="43"/>
@@ -9300,7 +9277,7 @@
       <c r="AI3" s="39"/>
       <c r="AJ3" s="39"/>
       <c r="AK3" s="39" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AL3" s="39"/>
       <c r="AM3" s="39"/>
@@ -9351,7 +9328,7 @@
       <c r="Z4" s="8"/>
       <c r="AE4" s="38"/>
       <c r="AF4" s="39" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AG4" s="39"/>
       <c r="AH4" s="39"/>
@@ -9413,11 +9390,11 @@
         <v>247</v>
       </c>
       <c r="AG5" s="42" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AH5" s="43"/>
       <c r="AI5" s="42" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AJ5" s="44"/>
       <c r="AK5" s="44"/>
@@ -9473,7 +9450,7 @@
       <c r="AH6" s="40"/>
       <c r="AI6" s="55"/>
       <c r="AJ6" s="53" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AK6" s="53"/>
       <c r="AL6" s="53"/>
@@ -10423,7 +10400,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="3"/>
@@ -11114,7 +11091,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="3"/>
@@ -13515,7 +13492,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="39"/>
@@ -13573,7 +13550,7 @@
     <row r="99" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B99" s="39"/>
       <c r="C99" s="39" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
@@ -13629,7 +13606,7 @@
     <row r="100" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B100" s="39"/>
       <c r="C100" s="39" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
@@ -13687,7 +13664,7 @@
     <row r="101" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B101" s="39"/>
       <c r="C101" s="39" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
@@ -13744,7 +13721,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -14865,18 +14842,18 @@
     <row r="131" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE131" s="38"/>
       <c r="AF131" s="39" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AG131" s="39"/>
       <c r="AH131" s="39"/>
       <c r="AI131" s="39" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="AJ131" s="39"/>
       <c r="AK131" s="39"/>
       <c r="AL131" s="39"/>
       <c r="AM131" s="39" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="AN131" s="39"/>
       <c r="AO131" s="39"/>
@@ -14904,7 +14881,7 @@
       </c>
       <c r="AH132" s="43"/>
       <c r="AI132" s="44" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AJ132" s="44"/>
       <c r="AK132" s="44"/>
@@ -14932,7 +14909,7 @@
       <c r="AG133" s="38"/>
       <c r="AH133" s="40"/>
       <c r="AI133" s="39" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AJ133" s="39"/>
       <c r="AK133" s="39"/>
@@ -15096,13 +15073,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>82</v>
@@ -15134,7 +15111,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -15161,10 +15138,10 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="9"/>
       <c r="AC3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
@@ -15198,11 +15175,8 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="9"/>
-      <c r="AC4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -15228,11 +15202,8 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="9"/>
-      <c r="AC5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>330</v>
@@ -15264,11 +15235,8 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="9"/>
-      <c r="AC6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -15294,14 +15262,8 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="9"/>
-      <c r="AC7" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>331</v>
@@ -15334,11 +15296,8 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
-      <c r="AC8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -15367,11 +15326,8 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="9"/>
-      <c r="AC9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
         <v>187</v>
@@ -15403,7 +15359,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -15429,11 +15385,8 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="9"/>
-      <c r="AC11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>82</v>
@@ -15462,7 +15415,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -15488,24 +15441,13 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
-      <c r="AC13" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AC14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>336</v>
       </c>
-      <c r="AC15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -16466,18 +16408,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BB71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF47" sqref="AF47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="2:54" x14ac:dyDescent="0.25">
@@ -16821,7 +16763,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
       <c r="AD12" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
@@ -16913,7 +16855,7 @@
       <c r="V14" s="9"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="8" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
@@ -17005,7 +16947,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -17013,12 +16955,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -17043,7 +16985,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
       <c r="AO17" s="8" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -17087,7 +17029,7 @@
       <c r="AA18" s="9"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="8" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
@@ -17490,7 +17432,7 @@
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
@@ -17523,6 +17465,26 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="6"/>
+      <c r="AE29" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="59"/>
+      <c r="AV29" s="59"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -17532,18 +17494,18 @@
       <c r="E30" s="6"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -17560,6 +17522,26 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="9"/>
+      <c r="AE30" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="59"/>
+      <c r="AS30" s="59"/>
+      <c r="AT30" s="59"/>
+      <c r="AU30" s="59"/>
+      <c r="AV30" s="59"/>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -17585,14 +17567,34 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="9"/>
+      <c r="AE31" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="59"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="59"/>
+      <c r="AU31" s="59"/>
+      <c r="AV31" s="59"/>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -17602,7 +17604,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -17612,7 +17614,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="P32" s="8" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -17637,14 +17639,14 @@
       <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="36" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -17652,12 +17654,12 @@
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="58" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
@@ -17677,14 +17679,14 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="37" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -17728,7 +17730,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -17778,18 +17780,18 @@
       <c r="E38" s="6"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
@@ -17832,10 +17834,10 @@
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
       <c r="X39" s="8" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AA39" s="5"/>
       <c r="AB39" s="6"/>
@@ -17849,7 +17851,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -17860,7 +17862,7 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
@@ -17885,10 +17887,10 @@
       <c r="E41" s="12"/>
       <c r="F41" s="8"/>
       <c r="G41" s="36" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -17898,12 +17900,12 @@
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="58" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
@@ -17923,11 +17925,11 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="37" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -18020,18 +18022,18 @@
       <c r="E46" s="6"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -18074,10 +18076,10 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="8" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AA47" s="5"/>
       <c r="AB47" s="6"/>
@@ -18091,7 +18093,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -18102,7 +18104,7 @@
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
@@ -18127,14 +18129,14 @@
       <c r="E49" s="12"/>
       <c r="F49" s="8"/>
       <c r="G49" s="36" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -18142,12 +18144,12 @@
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="58" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
@@ -18167,14 +18169,14 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="37" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -18229,7 +18231,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -18263,15 +18265,15 @@
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -18300,10 +18302,10 @@
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -18335,10 +18337,10 @@
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -18370,10 +18372,10 @@
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="19" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -18405,10 +18407,10 @@
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="19" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -18470,7 +18472,7 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -18627,7 +18629,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -18863,12 +18865,12 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -18878,7 +18880,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
@@ -18888,7 +18890,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="399">
   <si>
     <t>Agent Register</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Confirm</t>
   </si>
   <si>
-    <t>Use Deposit</t>
-  </si>
-  <si>
     <t>Transfer</t>
   </si>
   <si>
@@ -326,30 +323,6 @@
     <t>trx011.title</t>
   </si>
   <si>
-    <t>mr/mrs</t>
-  </si>
-  <si>
-    <t>trx011.interconnetion_flag</t>
-  </si>
-  <si>
-    <t>trx011.early_check_in_flag</t>
-  </si>
-  <si>
-    <t>trx011.late_check_in_flag</t>
-  </si>
-  <si>
-    <t>trx011.high_floor_flag</t>
-  </si>
-  <si>
-    <t>trx011.low_floor_flag</t>
-  </si>
-  <si>
-    <t>trx011.twin_flag</t>
-  </si>
-  <si>
-    <t>trx011.non_smoking_flag</t>
-  </si>
-  <si>
     <t>trx011.note</t>
   </si>
   <si>
@@ -359,9 +332,6 @@
     <t>data diambil dari table temp table api (menyusul)</t>
   </si>
   <si>
-    <t>waktu payment isi ke table trx010,trx011</t>
-  </si>
-  <si>
     <t>trx010</t>
   </si>
   <si>
@@ -383,24 +353,12 @@
     <t>sysdate</t>
   </si>
   <si>
-    <t>tot_base_value</t>
-  </si>
-  <si>
     <t>tot_gross_value</t>
   </si>
   <si>
     <t>disc_value</t>
   </si>
   <si>
-    <t>tot_dpp_value</t>
-  </si>
-  <si>
-    <t>ppn_value</t>
-  </si>
-  <si>
-    <t>tot_nett_value</t>
-  </si>
-  <si>
     <t>status_flg</t>
   </si>
   <si>
@@ -410,30 +368,15 @@
     <t>dari total trx011.base_value</t>
   </si>
   <si>
-    <t>dari total trx011.disc_value</t>
-  </si>
-  <si>
     <t>dari total trx011.gross_value</t>
   </si>
   <si>
-    <t>dari total trx011.ppn_value</t>
-  </si>
-  <si>
-    <t>dari total trx011.tot_value</t>
-  </si>
-  <si>
-    <t>dari total trx011.dpp_value</t>
-  </si>
-  <si>
     <t>trx011</t>
   </si>
   <si>
     <t>trx011.hotel_name</t>
   </si>
   <si>
-    <t>trx011.star</t>
-  </si>
-  <si>
     <t>sementara 0</t>
   </si>
   <si>
@@ -1224,6 +1167,57 @@
   </si>
   <si>
     <t>bs ga gini?</t>
+  </si>
+  <si>
+    <t>waktu payment isi ke table trx010,trx011,trx013</t>
+  </si>
+  <si>
+    <t>mr/mrs/ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tot_commision_val </t>
+  </si>
+  <si>
+    <t>dari total trx011.tot_commision_value</t>
+  </si>
+  <si>
+    <t>tot_tax_base_price</t>
+  </si>
+  <si>
+    <t>dari total trx011.tot_disc_value</t>
+  </si>
+  <si>
+    <t>dari total trx011.tot_tax_base_price</t>
+  </si>
+  <si>
+    <t>dari total trx011.tot_tax_value</t>
+  </si>
+  <si>
+    <t>dari total trx011.tot_payment</t>
+  </si>
+  <si>
+    <t>trx013.high_floor_flag</t>
+  </si>
+  <si>
+    <t>trx013.low_floor_flag</t>
+  </si>
+  <si>
+    <t>trx013.twin_flag</t>
+  </si>
+  <si>
+    <t>trx013.interconnetion_flag</t>
+  </si>
+  <si>
+    <t>trx013.non_smoking_flag</t>
+  </si>
+  <si>
+    <t>trx013.early_check_in_flag</t>
+  </si>
+  <si>
+    <t>trx013.late_check_in_flag</t>
+  </si>
+  <si>
+    <t>tambahin filter hotel namenya pake like</t>
   </si>
 </sst>
 </file>
@@ -1545,13 +1539,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2774,7 +2768,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="6"/>
       <c r="AA2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
@@ -2803,7 +2797,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
       <c r="AA3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
@@ -2834,7 +2828,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="9"/>
       <c r="AA4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -3515,12 +3509,12 @@
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3545,7 +3539,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="6"/>
       <c r="AA33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
@@ -3573,14 +3567,14 @@
       <c r="W34" s="8"/>
       <c r="X34" s="9"/>
       <c r="AA34" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -3603,7 +3597,7 @@
       <c r="W35" s="8"/>
       <c r="X35" s="9"/>
       <c r="AA35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
@@ -3631,7 +3625,7 @@
       <c r="W36" s="8"/>
       <c r="X36" s="9"/>
       <c r="AA36" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -3650,7 +3644,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="3"/>
       <c r="N37" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="2"/>
@@ -3692,7 +3686,7 @@
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="8"/>
@@ -3745,20 +3739,20 @@
       <c r="C41" s="21"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="3"/>
       <c r="J41" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
       <c r="M41" s="4"/>
       <c r="N41" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -3767,7 +3761,7 @@
       <c r="S41" s="6"/>
       <c r="T41" s="4"/>
       <c r="U41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="6"/>
@@ -3777,12 +3771,12 @@
       <c r="B42" s="7"/>
       <c r="C42" s="22"/>
       <c r="D42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
       <c r="G42" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="12"/>
@@ -3805,7 +3799,7 @@
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
@@ -3825,7 +3819,7 @@
       <c r="S43" s="9"/>
       <c r="T43" s="7"/>
       <c r="U43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="9"/>
@@ -4017,7 +4011,7 @@
   <dimension ref="B2:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE39" sqref="AE39:AN40"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4025,7 +4019,7 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C2" s="18" t="s">
         <v>53</v>
       </c>
@@ -4056,10 +4050,10 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="6"/>
       <c r="AD2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -4091,10 +4085,10 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="18" t="s">
         <v>29</v>
@@ -4128,15 +4122,15 @@
         <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -4163,10 +4157,10 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="9"/>
       <c r="AE5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4181,7 +4175,7 @@
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -4193,7 +4187,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -4204,16 +4198,16 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="9"/>
       <c r="AE6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>35</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4243,16 +4237,16 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="9"/>
       <c r="AE7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>35</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4270,7 +4264,7 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -4290,16 +4284,16 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="9"/>
       <c r="AE8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>35</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4317,7 +4311,7 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -4339,16 +4333,16 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="9"/>
       <c r="AE9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>35</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -4366,7 +4360,7 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -4386,16 +4380,16 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="9"/>
       <c r="AE10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI10" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>35</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4425,16 +4419,16 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="9"/>
       <c r="AE11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>35</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4454,7 +4448,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -4472,16 +4466,16 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="9"/>
       <c r="AE12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>35</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4511,16 +4505,16 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="9"/>
       <c r="AE13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>35</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4540,7 +4534,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -4558,16 +4552,16 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="9"/>
       <c r="AE14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI14" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>35</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4597,16 +4591,16 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="9"/>
       <c r="AE15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>35</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4626,7 +4620,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -4643,6 +4637,15 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="9"/>
+      <c r="AE16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -4664,7 +4667,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="19" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -4681,9 +4684,6 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="9"/>
-      <c r="AE17" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -4705,7 +4705,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="19" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -4723,13 +4723,7 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="9"/>
       <c r="AE18" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>309</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.25">
@@ -4762,13 +4756,13 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="9"/>
       <c r="AE19" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="AI19" t="s">
         <v>35</v>
       </c>
       <c r="AJ19" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.25">
@@ -4801,13 +4795,13 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="9"/>
       <c r="AE20" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="AI20" t="s">
         <v>35</v>
       </c>
       <c r="AJ20" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
@@ -4841,8 +4835,14 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="9"/>
+      <c r="AE21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>35</v>
+      </c>
       <c r="AJ21" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
@@ -4854,7 +4854,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>101</v>
+        <v>383</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -4876,14 +4876,8 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="9"/>
-      <c r="AE22" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>35</v>
-      </c>
       <c r="AJ22" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.25">
@@ -4897,11 +4891,11 @@
       <c r="G23" s="8"/>
       <c r="I23" s="21"/>
       <c r="J23" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -4921,13 +4915,13 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="9"/>
       <c r="AE23" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="AI23" t="s">
         <v>35</v>
       </c>
       <c r="AJ23" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.25">
@@ -4944,7 +4938,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -4964,13 +4958,13 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="9"/>
       <c r="AE24" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="AI24" t="s">
         <v>35</v>
       </c>
       <c r="AJ24" t="s">
-        <v>316</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
@@ -4987,7 +4981,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -5007,13 +5001,13 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
       <c r="AE25" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="AI25" t="s">
         <v>35</v>
       </c>
       <c r="AJ25" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.25">
@@ -5046,13 +5040,13 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="9"/>
       <c r="AE26" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="AI26" t="s">
         <v>35</v>
       </c>
       <c r="AJ26" t="s">
-        <v>317</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.25">
@@ -5085,13 +5079,13 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="9"/>
       <c r="AE27" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AI27" t="s">
         <v>35</v>
       </c>
       <c r="AJ27" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.25">
@@ -5125,8 +5119,14 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="9"/>
+      <c r="AE28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>35</v>
+      </c>
       <c r="AJ28" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.25">
@@ -5159,12 +5159,12 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="9"/>
       <c r="AJ29" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>102</v>
+        <v>394</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -5183,7 +5183,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8" t="s">
-        <v>105</v>
+        <v>391</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -5199,10 +5199,13 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="9"/>
+      <c r="AJ30" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>108</v>
+        <v>395</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -5221,7 +5224,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8" t="s">
-        <v>106</v>
+        <v>392</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -5237,13 +5240,10 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="9"/>
-      <c r="AE31" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -5265,7 +5265,7 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>107</v>
+        <v>393</v>
       </c>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
@@ -5278,12 +5278,6 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="9"/>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
@@ -5316,9 +5310,6 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="9"/>
-      <c r="AE33" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
@@ -5326,7 +5317,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="19" t="s">
-        <v>104</v>
+        <v>397</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -5351,12 +5342,6 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="9"/>
-      <c r="AD34">
-        <v>2</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="35" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
@@ -5389,6 +5374,9 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="9"/>
+      <c r="AE35" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="36" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
@@ -5419,6 +5407,12 @@
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="9"/>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
@@ -5450,7 +5444,7 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
       <c r="AE37" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.25">
@@ -5465,7 +5459,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -5484,8 +5478,11 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="9"/>
+      <c r="AD38">
+        <v>2</v>
+      </c>
       <c r="AE38" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.25">
@@ -5516,16 +5513,6 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="9"/>
-      <c r="AE39" s="57"/>
-      <c r="AF39" s="57"/>
-      <c r="AG39" s="57"/>
-      <c r="AH39" s="57"/>
-      <c r="AI39" s="57"/>
-      <c r="AJ39" s="57"/>
-      <c r="AK39" s="57"/>
-      <c r="AL39" s="57"/>
-      <c r="AM39" s="57"/>
-      <c r="AN39" s="57"/>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
@@ -5555,11 +5542,6 @@
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="9"/>
-      <c r="AE40" s="57"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57"/>
-      <c r="AH40" s="57"/>
-      <c r="AI40" s="57"/>
       <c r="AJ40" s="57"/>
       <c r="AK40" s="57"/>
       <c r="AL40" s="57"/>
@@ -5594,6 +5576,14 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="9"/>
+      <c r="AE41" t="s">
+        <v>326</v>
+      </c>
+      <c r="AJ41" s="57"/>
+      <c r="AK41" s="57"/>
+      <c r="AL41" s="57"/>
+      <c r="AM41" s="57"/>
+      <c r="AN41" s="57"/>
     </row>
     <row r="42" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
@@ -5623,6 +5613,9 @@
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="9"/>
+      <c r="AE42" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="43" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
@@ -5716,9 +5709,6 @@
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="6"/>
-      <c r="AF46" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="47" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
@@ -5752,11 +5742,8 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
       <c r="AD47" s="9"/>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>87</v>
+      <c r="AF47" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:40" x14ac:dyDescent="0.25">
@@ -5801,8 +5788,11 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="9"/>
+      <c r="AF48">
+        <v>1</v>
+      </c>
       <c r="AG48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:39" x14ac:dyDescent="0.25">
@@ -5835,11 +5825,8 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="9"/>
       <c r="AD49" s="9"/>
-      <c r="AF49">
-        <v>2</v>
-      </c>
       <c r="AG49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="2:39" x14ac:dyDescent="0.25">
@@ -5873,10 +5860,10 @@
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
       <c r="AF50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="2:39" x14ac:dyDescent="0.25">
@@ -5910,10 +5897,10 @@
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
       <c r="AF51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:39" x14ac:dyDescent="0.25">
@@ -5946,8 +5933,11 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
+      <c r="AF52">
+        <v>4</v>
+      </c>
       <c r="AG52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="2:39" x14ac:dyDescent="0.25">
@@ -5980,11 +5970,8 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
-      <c r="AF53">
-        <v>5</v>
-      </c>
       <c r="AG53" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:39" x14ac:dyDescent="0.25">
@@ -6017,14 +6004,11 @@
       <c r="AB54" s="11"/>
       <c r="AC54" s="12"/>
       <c r="AD54" s="9"/>
+      <c r="AF54">
+        <v>5</v>
+      </c>
       <c r="AG54" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="2:39" x14ac:dyDescent="0.25">
@@ -6057,8 +6041,14 @@
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
       <c r="AD55" s="9"/>
+      <c r="AG55" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>35</v>
+      </c>
       <c r="AM55" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="2:39" x14ac:dyDescent="0.25">
@@ -6091,17 +6081,8 @@
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
       <c r="AD56" s="9"/>
-      <c r="AF56">
-        <v>6</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>144</v>
+      <c r="AM56" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="2:39" x14ac:dyDescent="0.25">
@@ -6140,8 +6121,17 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
       <c r="AD57" s="9"/>
+      <c r="AF57">
+        <v>6</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>35</v>
+      </c>
       <c r="AK57" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:39" x14ac:dyDescent="0.25">
@@ -6174,34 +6164,21 @@
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
       <c r="AD58" s="9"/>
-      <c r="AF58">
-        <v>7</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>146</v>
-      </c>
       <c r="AK58" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL58" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K59" s="3"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
@@ -6221,6 +6198,18 @@
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
       <c r="AD59" s="9"/>
+      <c r="AF59">
+        <v>7</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="60" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
@@ -6252,18 +6241,6 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
       <c r="AD60" s="9"/>
-      <c r="AF60">
-        <v>8</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="61" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
@@ -6271,7 +6248,7 @@
       <c r="D61" s="13"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -6297,6 +6274,18 @@
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
       <c r="AD61" s="9"/>
+      <c r="AF61">
+        <v>8</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="62" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
@@ -6304,7 +6293,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -6330,18 +6319,6 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
       <c r="AD62" s="9"/>
-      <c r="AF62">
-        <v>9</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="63" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -6349,7 +6326,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="19" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -6375,6 +6352,18 @@
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
       <c r="AD63" s="9"/>
+      <c r="AF63">
+        <v>9</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="64" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
@@ -6413,7 +6402,7 @@
       <c r="D65" s="13"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -6446,7 +6435,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="19" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -6480,11 +6469,11 @@
       <c r="E67" s="8"/>
       <c r="G67" s="13"/>
       <c r="H67" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
@@ -6531,7 +6520,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="19" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -6542,7 +6531,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
       <c r="O69" s="8" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
@@ -6566,7 +6555,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="19" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -6577,7 +6566,7 @@
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
@@ -6769,18 +6758,18 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="D4" s="25" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6806,7 +6795,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="6"/>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -6840,7 +6829,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -6902,13 +6891,13 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
       <c r="M8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -6918,13 +6907,13 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="3"/>
       <c r="W8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
@@ -6989,7 +6978,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="8"/>
@@ -7045,7 +7034,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -7061,20 +7050,20 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
       <c r="X13" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="3"/>
@@ -7329,7 +7318,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -7383,13 +7372,13 @@
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="25" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -7414,7 +7403,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="6"/>
       <c r="AC28" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.25">
@@ -7443,7 +7432,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="9"/>
       <c r="AC29" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.25">
@@ -7451,7 +7440,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -7465,7 +7454,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
@@ -7476,7 +7465,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="9"/>
       <c r="AC30" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.25">
@@ -7505,7 +7494,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="9"/>
       <c r="AC31" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.25">
@@ -7513,7 +7502,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -7521,13 +7510,13 @@
       <c r="J32" s="8"/>
       <c r="K32" s="13"/>
       <c r="L32" s="8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -7571,7 +7560,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -7591,7 +7580,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="9"/>
@@ -7684,7 +7673,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -7693,7 +7682,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
@@ -7709,25 +7698,25 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="3"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -7769,7 +7758,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -7781,7 +7770,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
@@ -7825,7 +7814,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -7841,7 +7830,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -7888,7 +7877,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -7897,11 +7886,11 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="S45" s="8"/>
       <c r="T45" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -7941,14 +7930,14 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -7997,14 +7986,14 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -8053,7 +8042,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -8062,11 +8051,11 @@
       <c r="K51" s="1"/>
       <c r="L51" s="3"/>
       <c r="M51" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="8" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
@@ -8111,14 +8100,14 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -8127,12 +8116,12 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -8197,7 +8186,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="18" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -8253,14 +8242,14 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8309,14 +8298,14 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8365,14 +8354,14 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8548,13 +8537,13 @@
     </row>
     <row r="71" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C71" s="24" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C72" s="4"/>
       <c r="D72" s="25" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -8611,7 +8600,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -8673,13 +8662,13 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="3"/>
       <c r="M76" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
@@ -8689,13 +8678,13 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
       <c r="S76" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="3"/>
       <c r="W76" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
@@ -8760,7 +8749,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="8"/>
@@ -8816,7 +8805,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="13"/>
       <c r="E81" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -8832,20 +8821,20 @@
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="3"/>
       <c r="X81" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" s="3"/>
@@ -9100,7 +9089,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
       <c r="E91" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -9174,30 +9163,30 @@
     <row r="2" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="27" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="3"/>
@@ -9208,30 +9197,30 @@
       <c r="Y2" s="6"/>
       <c r="AE2" s="42"/>
       <c r="AF2" s="50" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="AG2" s="44"/>
       <c r="AH2" s="44"/>
       <c r="AI2" s="43"/>
       <c r="AJ2" s="51" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AK2" s="44"/>
       <c r="AL2" s="44"/>
       <c r="AM2" s="43"/>
       <c r="AN2" s="51" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AO2" s="44"/>
       <c r="AP2" s="44"/>
       <c r="AQ2" s="43"/>
       <c r="AR2" s="51" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="AS2" s="44"/>
       <c r="AT2" s="43"/>
       <c r="AU2" s="52" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="AV2" s="44"/>
       <c r="AW2" s="43"/>
@@ -9277,7 +9266,7 @@
       <c r="AI3" s="39"/>
       <c r="AJ3" s="39"/>
       <c r="AK3" s="39" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="AL3" s="39"/>
       <c r="AM3" s="39"/>
@@ -9328,7 +9317,7 @@
       <c r="Z4" s="8"/>
       <c r="AE4" s="38"/>
       <c r="AF4" s="39" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="AG4" s="39"/>
       <c r="AH4" s="39"/>
@@ -9361,7 +9350,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -9375,7 +9364,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -9387,14 +9376,14 @@
       <c r="Y5" s="9"/>
       <c r="AE5" s="38"/>
       <c r="AF5" s="42" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="AG5" s="42" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="AH5" s="43"/>
       <c r="AI5" s="42" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="AJ5" s="44"/>
       <c r="AK5" s="44"/>
@@ -9450,7 +9439,7 @@
       <c r="AH6" s="40"/>
       <c r="AI6" s="55"/>
       <c r="AJ6" s="53" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="AK6" s="53"/>
       <c r="AL6" s="53"/>
@@ -9479,7 +9468,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -9487,13 +9476,13 @@
       <c r="I7" s="8"/>
       <c r="J7" s="13"/>
       <c r="K7" s="8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -9591,7 +9580,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -9611,7 +9600,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
@@ -9812,7 +9801,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -9821,7 +9810,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -9864,25 +9853,25 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -9951,7 +9940,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -9963,7 +9952,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -10007,7 +9996,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -10023,7 +10012,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
@@ -10070,7 +10059,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -10079,11 +10068,11 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -10123,14 +10112,14 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -10179,14 +10168,14 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -10235,7 +10224,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -10244,11 +10233,11 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
       <c r="L26" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -10293,14 +10282,14 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -10309,12 +10298,12 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -10377,30 +10366,30 @@
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="28" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="3"/>
       <c r="K34" s="14" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="3"/>
       <c r="O34" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="1" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="3"/>
@@ -10481,7 +10470,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="4"/>
@@ -10491,7 +10480,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="6" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="4"/>
@@ -10501,7 +10490,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="6" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="AA37" s="8"/>
       <c r="AB37" s="9"/>
@@ -10655,7 +10644,7 @@
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -10665,7 +10654,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="8"/>
       <c r="L43" s="4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -10675,7 +10664,7 @@
       <c r="R43" s="6"/>
       <c r="S43" s="8"/>
       <c r="T43" s="4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -10841,7 +10830,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="8"/>
       <c r="J49" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="3"/>
@@ -10895,7 +10884,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="14" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
@@ -11011,7 +11000,7 @@
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="AE55" s="18" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
@@ -11020,7 +11009,7 @@
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
       <c r="AL55" s="5" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -11068,30 +11057,30 @@
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="28" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="3"/>
       <c r="K57" s="30" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="3"/>
       <c r="O57" s="14" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="1" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="3"/>
@@ -11184,7 +11173,7 @@
     <row r="59" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -11240,25 +11229,25 @@
     <row r="60" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="13" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="3"/>
       <c r="M60" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -11277,14 +11266,14 @@
       <c r="AB60" s="9"/>
       <c r="AE60" s="7"/>
       <c r="AF60" s="8" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="AG60" s="8"/>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="8"/>
       <c r="AK60" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="AL60" s="2"/>
       <c r="AM60" s="2"/>
@@ -11342,14 +11331,14 @@
       <c r="AI61" s="8"/>
       <c r="AJ61" s="8"/>
       <c r="AK61" s="8" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="8"/>
       <c r="AO61" s="8"/>
       <c r="AP61" s="8" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
@@ -11395,7 +11384,7 @@
       <c r="AB62" s="9"/>
       <c r="AE62" s="7"/>
       <c r="AF62" s="8" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="AG62" s="8"/>
       <c r="AH62" s="8"/>
@@ -11406,7 +11395,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="8" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="13"/>
@@ -11507,20 +11496,20 @@
       <c r="AB64" s="9"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="8" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="AG64" s="8"/>
       <c r="AH64" s="8"/>
       <c r="AI64" s="8"/>
       <c r="AJ64" s="8"/>
       <c r="AK64" s="1" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
       <c r="AO64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -11621,14 +11610,14 @@
       <c r="AB66" s="9"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="8" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="AG66" s="8"/>
       <c r="AH66" s="8"/>
       <c r="AI66" s="8"/>
       <c r="AJ66" s="8"/>
       <c r="AK66" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="AL66" s="3"/>
       <c r="AM66" s="8"/>
@@ -11642,10 +11631,10 @@
       <c r="AU66" s="8"/>
       <c r="AV66" s="8"/>
       <c r="AW66" s="31" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="AX66" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="AY66" s="3"/>
       <c r="AZ66" s="8"/>
@@ -11688,7 +11677,7 @@
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8"/>
       <c r="AK67" s="8" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
@@ -11739,7 +11728,7 @@
       <c r="AB68" s="9"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="8" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="AG68" s="8"/>
       <c r="AH68" s="8"/>
@@ -11748,10 +11737,10 @@
       <c r="AK68" s="1"/>
       <c r="AL68" s="2"/>
       <c r="AM68" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN68" s="8" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
@@ -11762,11 +11751,11 @@
       <c r="AU68" s="8"/>
       <c r="AV68" s="8"/>
       <c r="AW68" s="31" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="AX68" s="1"/>
       <c r="AY68" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AZ68" s="8"/>
       <c r="BA68" s="8"/>
@@ -11808,7 +11797,7 @@
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8"/>
       <c r="AK69" s="19" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AL69" s="8"/>
       <c r="AM69" s="8"/>
@@ -11859,7 +11848,7 @@
       <c r="AB70" s="8"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="8" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="AG70" s="8"/>
       <c r="AH70" s="8"/>
@@ -11867,10 +11856,10 @@
       <c r="AJ70" s="8"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM70" s="8" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
@@ -11926,7 +11915,7 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="8"/>
       <c r="AK71" s="8" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="AL71" s="8"/>
       <c r="AM71" s="8"/>
@@ -11952,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -11981,7 +11970,7 @@
       <c r="AB72" s="8"/>
       <c r="AE72" s="7"/>
       <c r="AF72" s="8" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="AG72" s="8"/>
       <c r="AH72" s="8"/>
@@ -11994,7 +11983,7 @@
       </c>
       <c r="AN72" s="8"/>
       <c r="AO72" s="8" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
@@ -12016,7 +12005,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -12050,7 +12039,7 @@
       <c r="AI73" s="8"/>
       <c r="AJ73" s="8"/>
       <c r="AK73" s="8" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="AL73" s="8"/>
       <c r="AM73" s="8"/>
@@ -12065,7 +12054,7 @@
       <c r="AV73" s="8"/>
       <c r="AW73" s="8"/>
       <c r="AX73" s="8" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AY73" s="8"/>
       <c r="AZ73" s="8"/>
@@ -12076,7 +12065,7 @@
     <row r="74" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -12105,7 +12094,7 @@
       <c r="AB74" s="8"/>
       <c r="AE74" s="7"/>
       <c r="AF74" s="8" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="AG74" s="8"/>
       <c r="AH74" s="8"/>
@@ -12114,7 +12103,7 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="3"/>
       <c r="AM74" s="8" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
@@ -12126,7 +12115,7 @@
       <c r="AU74" s="8"/>
       <c r="AV74" s="8"/>
       <c r="AW74" s="31" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="AX74" s="1"/>
       <c r="AY74" s="3"/>
@@ -12138,12 +12127,12 @@
     <row r="75" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="19" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -12196,12 +12185,12 @@
     <row r="76" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="32" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -12227,7 +12216,7 @@
       <c r="AB76" s="8"/>
       <c r="AE76" s="7"/>
       <c r="AF76" s="8" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="AG76" s="8"/>
       <c r="AH76" s="8"/>
@@ -12236,7 +12225,7 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="3"/>
       <c r="AM76" s="8" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="AN76" s="8"/>
       <c r="AO76" s="8"/>
@@ -12258,12 +12247,12 @@
     <row r="77" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="34" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="33" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -12294,7 +12283,7 @@
       <c r="AI77" s="8"/>
       <c r="AJ77" s="8"/>
       <c r="AK77" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AL77" s="8"/>
       <c r="AM77" s="8"/>
@@ -12372,14 +12361,14 @@
     <row r="79" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="19" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -12405,14 +12394,14 @@
       <c r="AB79" s="8"/>
       <c r="AE79" s="7"/>
       <c r="AF79" s="8" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="AG79" s="8"/>
       <c r="AH79" s="8"/>
       <c r="AI79" s="8"/>
       <c r="AJ79" s="8"/>
       <c r="AK79" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="AL79" s="5"/>
       <c r="AM79" s="5"/>
@@ -12439,7 +12428,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="19" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -12447,7 +12436,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
@@ -12548,7 +12537,7 @@
     <row r="82" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -12604,7 +12593,7 @@
     <row r="83" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="8"/>
@@ -12633,7 +12622,7 @@
       <c r="AB83" s="8"/>
       <c r="AE83" s="7"/>
       <c r="AF83" s="18" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
@@ -12662,7 +12651,7 @@
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="19" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -12696,7 +12685,7 @@
       <c r="AI84" s="8"/>
       <c r="AJ84" s="8"/>
       <c r="AK84" s="8" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="AL84" s="8"/>
       <c r="AM84" s="8"/>
@@ -12755,10 +12744,10 @@
       <c r="AJ85" s="8"/>
       <c r="AK85" s="1"/>
       <c r="AL85" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM85" s="8" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="AN85" s="8"/>
       <c r="AO85" s="8"/>
@@ -12780,7 +12769,7 @@
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" s="19" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -12836,7 +12825,7 @@
     <row r="87" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="19" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -12866,17 +12855,17 @@
       <c r="AE87" s="7"/>
       <c r="AF87" s="7"/>
       <c r="AG87" s="8" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="AH87" s="8"/>
       <c r="AI87" s="8"/>
       <c r="AJ87" s="8"/>
       <c r="AK87" s="8"/>
       <c r="AL87" s="8" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="AM87" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
@@ -12931,7 +12920,7 @@
       <c r="AJ88" s="8"/>
       <c r="AK88" s="8"/>
       <c r="AL88" s="8" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AM88" s="8"/>
       <c r="AN88" s="8"/>
@@ -12956,7 +12945,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -12986,7 +12975,7 @@
       <c r="AE89" s="7"/>
       <c r="AF89" s="7"/>
       <c r="AG89" s="8" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="AH89" s="8"/>
       <c r="AI89" s="8"/>
@@ -12994,15 +12983,15 @@
       <c r="AK89" s="8"/>
       <c r="AL89" s="1"/>
       <c r="AM89" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN89" s="8" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="AO89" s="8"/>
       <c r="AP89" s="8"/>
       <c r="AQ89" s="8" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="AR89" s="8"/>
       <c r="AS89" s="8"/>
@@ -13020,7 +13009,7 @@
     <row r="90" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="8" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -13055,14 +13044,14 @@
       <c r="AJ90" s="8"/>
       <c r="AK90" s="8"/>
       <c r="AL90" s="8" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AM90" s="8"/>
       <c r="AN90" s="8"/>
       <c r="AO90" s="8"/>
       <c r="AP90" s="8"/>
       <c r="AQ90" s="8" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="AR90" s="8"/>
       <c r="AS90" s="8"/>
@@ -13080,7 +13069,7 @@
     <row r="91" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -13110,7 +13099,7 @@
       <c r="AE91" s="7"/>
       <c r="AF91" s="7"/>
       <c r="AG91" s="8" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="AH91" s="8"/>
       <c r="AI91" s="8"/>
@@ -13121,7 +13110,7 @@
       <c r="AN91" s="8"/>
       <c r="AO91" s="8"/>
       <c r="AP91" s="8" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="AQ91" s="8"/>
       <c r="AR91" s="8"/>
@@ -13140,7 +13129,7 @@
     <row r="92" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="8" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -13175,7 +13164,7 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
       <c r="AL92" s="8" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AM92" s="8"/>
       <c r="AN92" s="8"/>
@@ -13198,7 +13187,7 @@
     <row r="93" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="8" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -13228,7 +13217,7 @@
       <c r="AE93" s="7"/>
       <c r="AF93" s="7"/>
       <c r="AG93" s="8" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="AH93" s="8"/>
       <c r="AI93" s="8"/>
@@ -13239,7 +13228,7 @@
       <c r="AN93" s="8"/>
       <c r="AO93" s="8"/>
       <c r="AP93" s="8" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="AQ93" s="8"/>
       <c r="AR93" s="8"/>
@@ -13258,7 +13247,7 @@
     <row r="94" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" s="8" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -13314,7 +13303,7 @@
     <row r="95" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -13344,7 +13333,7 @@
       <c r="AE95" s="7"/>
       <c r="AF95" s="7"/>
       <c r="AG95" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="AH95" s="8"/>
       <c r="AI95" s="8"/>
@@ -13352,7 +13341,7 @@
       <c r="AK95" s="8"/>
       <c r="AL95" s="13"/>
       <c r="AM95" s="8" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="AN95" s="8"/>
       <c r="AO95" s="8"/>
@@ -13374,7 +13363,7 @@
     <row r="96" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -13430,7 +13419,7 @@
     <row r="97" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" s="19" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -13460,7 +13449,7 @@
       <c r="AE97" s="7"/>
       <c r="AF97" s="7"/>
       <c r="AG97" s="8" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="AH97" s="8"/>
       <c r="AI97" s="8"/>
@@ -13471,7 +13460,7 @@
       <c r="AN97" s="3"/>
       <c r="AO97" s="8"/>
       <c r="AP97" s="8" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AQ97" s="8"/>
       <c r="AR97" s="8"/>
@@ -13492,7 +13481,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="39"/>
@@ -13527,7 +13516,7 @@
       <c r="AJ98" s="11"/>
       <c r="AK98" s="11"/>
       <c r="AL98" s="11" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AM98" s="11"/>
       <c r="AN98" s="11"/>
@@ -13550,7 +13539,7 @@
     <row r="99" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B99" s="39"/>
       <c r="C99" s="39" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
@@ -13606,7 +13595,7 @@
     <row r="100" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B100" s="39"/>
       <c r="C100" s="39" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
@@ -13635,7 +13624,7 @@
       <c r="AB100" s="8"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="AG100" s="3"/>
       <c r="AH100" s="8"/>
@@ -13664,7 +13653,7 @@
     <row r="101" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B101" s="39"/>
       <c r="C101" s="39" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
@@ -13721,7 +13710,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -13755,25 +13744,25 @@
     <row r="106" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="28" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
       <c r="G106" s="14" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="3"/>
       <c r="K106" s="30" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="3"/>
       <c r="O106" s="30" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="3"/>
@@ -13789,7 +13778,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="6"/>
       <c r="AE106" s="18" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
@@ -13798,7 +13787,7 @@
       <c r="AJ106" s="5"/>
       <c r="AK106" s="5"/>
       <c r="AL106" s="5" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="AM106" s="5"/>
       <c r="AN106" s="5"/>
@@ -13873,7 +13862,7 @@
     <row r="108" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="8" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -13903,7 +13892,7 @@
       <c r="AE108" s="7"/>
       <c r="AF108" s="8"/>
       <c r="AG108" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
@@ -13911,7 +13900,7 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="8"/>
       <c r="AM108" s="8" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="AN108" s="8"/>
       <c r="AO108" s="8"/>
@@ -13932,25 +13921,25 @@
     <row r="109" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="13" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="3"/>
       <c r="J109" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="3"/>
       <c r="M109" s="2" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13984,7 +13973,7 @@
       <c r="AS109" s="8"/>
       <c r="AT109" s="7"/>
       <c r="AU109" s="8" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="AV109" s="8"/>
       <c r="AW109" s="8"/>
@@ -14077,14 +14066,14 @@
       <c r="AB111" s="9"/>
       <c r="AE111" s="7"/>
       <c r="AF111" s="8" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="8"/>
       <c r="AJ111" s="8"/>
       <c r="AK111" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="AL111" s="2"/>
       <c r="AM111" s="2"/>
@@ -14189,14 +14178,14 @@
       <c r="AB113" s="9"/>
       <c r="AE113" s="7"/>
       <c r="AF113" s="8" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="8"/>
       <c r="AJ113" s="8"/>
       <c r="AK113" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AL113" s="2"/>
       <c r="AM113" s="2"/>
@@ -14299,14 +14288,14 @@
       <c r="AB115" s="9"/>
       <c r="AE115" s="7"/>
       <c r="AF115" s="8" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
       <c r="AI115" s="8"/>
       <c r="AJ115" s="8"/>
       <c r="AK115" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="AL115" s="3"/>
       <c r="AM115" s="8"/>
@@ -14320,10 +14309,10 @@
       <c r="AU115" s="8"/>
       <c r="AV115" s="8"/>
       <c r="AW115" s="31" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="AX115" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="AY115" s="3"/>
       <c r="AZ115" s="8"/>
@@ -14365,7 +14354,7 @@
       <c r="AI116" s="8"/>
       <c r="AJ116" s="8"/>
       <c r="AK116" s="8" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AL116" s="8"/>
       <c r="AM116" s="8"/>
@@ -14415,7 +14404,7 @@
       <c r="AB117" s="9"/>
       <c r="AE117" s="7"/>
       <c r="AF117" s="8" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
@@ -14424,10 +14413,10 @@
       <c r="AK117" s="1"/>
       <c r="AL117" s="2"/>
       <c r="AM117" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN117" s="8" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="AO117" s="8"/>
       <c r="AP117" s="8"/>
@@ -14438,11 +14427,11 @@
       <c r="AU117" s="8"/>
       <c r="AV117" s="8"/>
       <c r="AW117" s="31" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="AX117" s="1"/>
       <c r="AY117" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AZ117" s="8"/>
       <c r="BA117" s="8"/>
@@ -14483,7 +14472,7 @@
       <c r="AI118" s="8"/>
       <c r="AJ118" s="8"/>
       <c r="AK118" s="19" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AL118" s="8"/>
       <c r="AM118" s="8"/>
@@ -14506,7 +14495,7 @@
     <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE119" s="7"/>
       <c r="AF119" s="8" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
@@ -14514,10 +14503,10 @@
       <c r="AJ119" s="8"/>
       <c r="AK119" s="1"/>
       <c r="AL119" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM119" s="8" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="AN119" s="8"/>
       <c r="AO119" s="8"/>
@@ -14543,7 +14532,7 @@
       <c r="AI120" s="8"/>
       <c r="AJ120" s="8"/>
       <c r="AK120" s="8" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="AL120" s="8"/>
       <c r="AM120" s="8"/>
@@ -14566,7 +14555,7 @@
     <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE121" s="7"/>
       <c r="AF121" s="8" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
@@ -14579,7 +14568,7 @@
       </c>
       <c r="AN121" s="8"/>
       <c r="AO121" s="8" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="AP121" s="8"/>
       <c r="AQ121" s="8"/>
@@ -14650,7 +14639,7 @@
     <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE124" s="7"/>
       <c r="AF124" s="8" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
@@ -14659,7 +14648,7 @@
       <c r="AK124" s="1"/>
       <c r="AL124" s="3"/>
       <c r="AM124" s="8" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="AN124" s="8"/>
       <c r="AO124" s="8"/>
@@ -14685,7 +14674,7 @@
       <c r="AI125" s="8"/>
       <c r="AJ125" s="8"/>
       <c r="AK125" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AL125" s="8"/>
       <c r="AM125" s="8"/>
@@ -14734,14 +14723,14 @@
     <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE127" s="7"/>
       <c r="AF127" s="8" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
       <c r="AI127" s="8"/>
       <c r="AJ127" s="8"/>
       <c r="AK127" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
@@ -14842,18 +14831,18 @@
     <row r="131" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE131" s="38"/>
       <c r="AF131" s="39" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="AG131" s="39"/>
       <c r="AH131" s="39"/>
       <c r="AI131" s="39" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="AJ131" s="39"/>
       <c r="AK131" s="39"/>
       <c r="AL131" s="39"/>
       <c r="AM131" s="39" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="AN131" s="39"/>
       <c r="AO131" s="39"/>
@@ -14874,14 +14863,14 @@
     <row r="132" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE132" s="38"/>
       <c r="AF132" s="41" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="AG132" s="42" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="AH132" s="43"/>
       <c r="AI132" s="44" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="AJ132" s="44"/>
       <c r="AK132" s="44"/>
@@ -14909,7 +14898,7 @@
       <c r="AG133" s="38"/>
       <c r="AH133" s="40"/>
       <c r="AI133" s="39" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AJ133" s="39"/>
       <c r="AK133" s="39"/>
@@ -15012,7 +15001,7 @@
     <row r="137" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE137" s="7"/>
       <c r="AF137" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="AG137" s="3"/>
       <c r="AH137" s="8"/>
@@ -15071,18 +15060,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AP45"/>
+  <dimension ref="B2:AP47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -15108,10 +15097,10 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
       <c r="AB2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -15138,10 +15127,10 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="9"/>
       <c r="AC3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
@@ -15150,7 +15139,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -15165,7 +15154,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -15175,8 +15164,19 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="9"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC4" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -15203,40 +15203,36 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="3"/>
+      <c r="C6" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="3"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -15263,48 +15259,46 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="G8" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" s="3"/>
+      <c r="Q8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="3"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>334</v>
-      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -15314,9 +15308,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="8" t="s">
-        <v>333</v>
-      </c>
+      <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -15327,29 +15319,31 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="G10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="8" t="s">
-        <v>335</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="M10" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="Q10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="3"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
@@ -15359,13 +15353,14 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -15375,7 +15370,9 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="8" t="s">
+        <v>314</v>
+      </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -15386,17 +15383,20 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -15415,192 +15415,162 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6"/>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="9"/>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="9"/>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="12"/>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="9"/>
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="18" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="9"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="M19" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="6"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="9"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="9"/>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -15611,35 +15581,35 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="12"/>
+      <c r="S20" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="9"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="9"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="6"/>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
-        <v>337</v>
-      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
@@ -15654,12 +15624,12 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="6"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="9"/>
       <c r="AC21" s="7"/>
@@ -15685,24 +15655,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="I22" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="12"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="9"/>
       <c r="AC22" s="7"/>
@@ -15722,11 +15692,13 @@
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -15763,17 +15735,19 @@
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="I24" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
@@ -15803,31 +15777,31 @@
       <c r="AP24" s="9"/>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="9"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
@@ -15869,47 +15843,61 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="9"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="12"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="9"/>
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="12"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="9"/>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
@@ -15937,6 +15925,20 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="9"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="12"/>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
@@ -16371,31 +16373,85 @@
       <c r="Z44" s="9"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="12"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="9"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="9"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16408,23 +16464,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AI37" sqref="AI37"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AN36" sqref="AN36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="2:54" x14ac:dyDescent="0.25">
@@ -16763,7 +16819,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
       <c r="AD12" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
@@ -16855,7 +16911,7 @@
       <c r="V14" s="9"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="8" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
@@ -16947,7 +17003,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -16955,12 +17011,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -16985,7 +17041,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
       <c r="AO17" s="8" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -17029,7 +17085,7 @@
       <c r="AA18" s="9"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="8" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
@@ -17052,7 +17108,7 @@
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -17152,12 +17208,12 @@
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="G21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -17165,13 +17221,13 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="8"/>
@@ -17209,7 +17265,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -17221,7 +17277,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -17256,16 +17312,16 @@
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="8" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -17354,7 +17410,7 @@
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
@@ -17432,7 +17488,7 @@
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
@@ -17466,7 +17522,7 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="6"/>
       <c r="AE29" s="59" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="AF29" s="59"/>
       <c r="AG29" s="59"/>
@@ -17494,18 +17550,18 @@
       <c r="E30" s="6"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -17523,7 +17579,7 @@
       <c r="AB30" s="8"/>
       <c r="AC30" s="9"/>
       <c r="AE30" s="59" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="AF30" s="59"/>
       <c r="AG30" s="59"/>
@@ -17567,16 +17623,16 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="9"/>
       <c r="AE31" s="59" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="AF31" s="59"/>
       <c r="AG31" s="59"/>
@@ -17604,7 +17660,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -17614,7 +17670,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="P32" s="8" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -17624,7 +17680,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z32" s="10"/>
       <c r="AA32" s="11"/>
@@ -17639,14 +17695,14 @@
       <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="36" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -17654,12 +17710,12 @@
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="58" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
@@ -17679,14 +17735,14 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="37" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -17730,7 +17786,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -17780,18 +17836,18 @@
       <c r="E38" s="6"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
@@ -17834,10 +17890,10 @@
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
       <c r="X39" s="8" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="AA39" s="5"/>
       <c r="AB39" s="6"/>
@@ -17851,7 +17907,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -17862,7 +17918,7 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
@@ -17872,7 +17928,7 @@
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
       <c r="X40" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z40" s="10"/>
       <c r="AA40" s="11"/>
@@ -17887,10 +17943,10 @@
       <c r="E41" s="12"/>
       <c r="F41" s="8"/>
       <c r="G41" s="36" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -17900,12 +17956,12 @@
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="58" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
@@ -17925,11 +17981,11 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="37" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -18022,18 +18078,18 @@
       <c r="E46" s="6"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -18076,10 +18132,10 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="8" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="AA47" s="5"/>
       <c r="AB47" s="6"/>
@@ -18093,7 +18149,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -18104,7 +18160,7 @@
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
@@ -18114,7 +18170,7 @@
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
       <c r="X48" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z48" s="10"/>
       <c r="AA48" s="11"/>
@@ -18129,14 +18185,14 @@
       <c r="E49" s="12"/>
       <c r="F49" s="8"/>
       <c r="G49" s="36" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -18144,12 +18200,12 @@
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="58" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
@@ -18169,14 +18225,14 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="37" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -18231,7 +18287,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -18265,15 +18321,15 @@
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -18302,10 +18358,10 @@
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -18337,10 +18393,10 @@
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -18372,10 +18428,10 @@
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="19" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -18407,10 +18463,10 @@
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="19" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -18472,7 +18528,7 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -18629,7 +18685,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -18865,12 +18921,12 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -18880,7 +18936,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
@@ -18890,7 +18946,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
@@ -18901,7 +18957,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -18909,7 +18965,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -18921,13 +18977,13 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="405">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1218,6 +1218,24 @@
   </si>
   <si>
     <t>tambahin filter hotel namenya pake like</t>
+  </si>
+  <si>
+    <t>type hotel*</t>
+  </si>
+  <si>
+    <t>combo type</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>villa</t>
+  </si>
+  <si>
+    <t>apartment</t>
   </si>
 </sst>
 </file>
@@ -4010,7 +4028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -6748,10 +6766,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC92"/>
+  <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:Z54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AR44" sqref="AR44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7501,23 +7519,21 @@
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="F32" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32" s="39"/>
+      <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -7529,7 +7545,7 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="9"/>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -7555,37 +7571,42 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="9"/>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="6"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
       <c r="W34" s="8"/>
-      <c r="X34" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="9"/>
-    </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AC34" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -7594,7 +7615,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="7"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -7605,39 +7626,49 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="9"/>
+      <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="9"/>
-    </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AC35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="9"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="6"/>
       <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
+      <c r="X36" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="9"/>
-    </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AC36" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -7646,24 +7677,27 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="12"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="9"/>
-    </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AC37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -7672,62 +7706,53 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="8" t="s">
-        <v>178</v>
-      </c>
+      <c r="K38" s="7"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-      <c r="R38" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="9"/>
-    </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AC38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>149</v>
-      </c>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="3"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="12"/>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="9"/>
     </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -7736,14 +7761,18 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="K40" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
+      <c r="R40" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
@@ -7753,37 +7782,41 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="9"/>
     </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="3"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
+      <c r="R41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="3"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="9"/>
     </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -7809,12 +7842,12 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="9"/>
     </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -7823,15 +7856,15 @@
       <c r="K43" s="1"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
       <c r="S43" s="8"/>
-      <c r="T43" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="T43" s="8"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
@@ -7839,7 +7872,7 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="9"/>
     </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -7865,41 +7898,37 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="9"/>
     </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="K45" s="1"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8" t="s">
-        <v>152</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="3"/>
       <c r="S45" s="8"/>
-      <c r="T45" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="3"/>
+      <c r="T45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="9"/>
     </row>
-    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -7925,19 +7954,19 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="9"/>
     </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -7945,17 +7974,21 @@
       <c r="O47" s="3"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
+      <c r="R47" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
+      <c r="T47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="3"/>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="9"/>
     </row>
-    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -7986,14 +8019,14 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -8042,21 +8075,19 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="K51" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="3"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
@@ -8100,32 +8131,30 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="3"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
-      <c r="R53" s="8" t="s">
-        <v>158</v>
-      </c>
+      <c r="R53" s="8"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
-      <c r="U53" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="3"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
       <c r="Z53" s="9"/>
     </row>
@@ -8159,25 +8188,33 @@
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
+      <c r="K55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="3"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
+      <c r="R55" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
+      <c r="U55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="3"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="9"/>
     </row>
@@ -8185,25 +8222,23 @@
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="6"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
@@ -8213,7 +8248,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -8229,7 +8264,7 @@
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="9"/>
+      <c r="V57" s="8"/>
       <c r="W57" s="8"/>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
@@ -8239,27 +8274,25 @@
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="9"/>
+      <c r="F58" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="6"/>
       <c r="W58" s="8"/>
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
@@ -8298,7 +8331,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -8354,7 +8387,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -8381,23 +8414,23 @@
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="12"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="9"/>
       <c r="W63" s="8"/>
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
@@ -8407,23 +8440,27 @@
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="H64" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
+      <c r="M64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="3"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
+      <c r="V64" s="9"/>
       <c r="W64" s="8"/>
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
@@ -8433,23 +8470,23 @@
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="12"/>
       <c r="W65" s="8"/>
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
@@ -8459,11 +8496,9 @@
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -8510,120 +8545,118 @@
       <c r="Z67" s="9"/>
     </row>
     <row r="68" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="12"/>
-    </row>
-    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C71" s="24" t="s">
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="9"/>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="9"/>
+    </row>
+    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="12"/>
+    </row>
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C73" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C72" s="4"/>
-      <c r="D72" s="25" t="s">
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C74" s="4"/>
+      <c r="D74" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="6"/>
-    </row>
-    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="9"/>
-    </row>
-    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="9"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="6"/>
     </row>
     <row r="75" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
@@ -8656,36 +8689,26 @@
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="I76" s="1"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
-      <c r="S76" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
@@ -8721,25 +8744,37 @@
     <row r="78" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
+      <c r="I78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
+      <c r="P78" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
+      <c r="S78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
@@ -8748,10 +8783,8 @@
     <row r="79" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="3"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -8803,103 +8836,105 @@
     </row>
     <row r="81" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
-      <c r="D81" s="13"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="2"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N81" s="3"/>
-      <c r="O81" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
       <c r="AA81" s="9"/>
     </row>
     <row r="82" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="29" t="s">
-        <v>64</v>
-      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="7"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="8"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="7"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
       <c r="M82" s="8"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="7"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
       <c r="P82" s="8"/>
-      <c r="Q82" s="9"/>
+      <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="13"/>
-      <c r="Z82" s="6"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="8"/>
       <c r="AA82" s="9"/>
     </row>
     <row r="83" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="9"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N83" s="3"/>
+      <c r="O83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="3"/>
       <c r="AA83" s="9"/>
     </row>
     <row r="84" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
       <c r="D84" s="22"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
@@ -8918,9 +8953,9 @@
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
       <c r="W84" s="9"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="9"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="6"/>
       <c r="AA84" s="9"/>
     </row>
     <row r="85" spans="3:27" x14ac:dyDescent="0.25">
@@ -9033,113 +9068,167 @@
     </row>
     <row r="89" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="12"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
     <row r="90" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="7"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="7"/>
       <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="7"/>
       <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="7"/>
       <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
+      <c r="Q90" s="9"/>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="7"/>
       <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
+      <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
     </row>
     <row r="91" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="1" t="s">
+      <c r="D91" s="23"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="9"/>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="9"/>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
-      <c r="X91" s="8"/>
-      <c r="Y91" s="8"/>
-      <c r="Z91" s="8"/>
-      <c r="AA91" s="9"/>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C92" s="10"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
-      <c r="AA92" s="12"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="9"/>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C94" s="10"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+      <c r="AA94" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15062,7 +15151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
@@ -2026,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,13 +2853,15 @@
       <c r="W33" s="8"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="24" t="s">
         <v>405</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -2902,9 +2904,6 @@
       <c r="W35" s="8"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>406</v>
-      </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -4515,7 +4514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="710"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="710" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Agent Register" sheetId="2" r:id="rId1"/>
+    <sheet name="Agent Menu" sheetId="2" r:id="rId1"/>
     <sheet name="Confirmation Payment" sheetId="3" r:id="rId2"/>
-    <sheet name="order hotel" sheetId="4" r:id="rId3"/>
-    <sheet name="Hotel Register" sheetId="5" r:id="rId4"/>
-    <sheet name="Detail Hotel register" sheetId="6" r:id="rId5"/>
-    <sheet name="List Hotel" sheetId="7" r:id="rId6"/>
-    <sheet name="Detail Hotel" sheetId="8" r:id="rId7"/>
+    <sheet name="Hotel Register" sheetId="5" r:id="rId3"/>
+    <sheet name="Detail Hotel register" sheetId="6" r:id="rId4"/>
+    <sheet name="List Hotel" sheetId="7" r:id="rId5"/>
+    <sheet name="Detail Hotel" sheetId="8" r:id="rId6"/>
+    <sheet name="order hotel" sheetId="4" r:id="rId7"/>
     <sheet name="Cancel Booking" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="473">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1305,6 +1305,141 @@
   </si>
   <si>
     <t>trx011.market</t>
+  </si>
+  <si>
+    <t>News Letter</t>
+  </si>
+  <si>
+    <t>Booking Number</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Status Pesanan</t>
+  </si>
+  <si>
+    <t>cancel/done/pending</t>
+  </si>
+  <si>
+    <t>Cari</t>
+  </si>
+  <si>
+    <t>No Booking</t>
+  </si>
+  <si>
+    <t>Tamu</t>
+  </si>
+  <si>
+    <t>Konfirmasi Pembayaran</t>
+  </si>
+  <si>
+    <t>Biaya Pembatalan</t>
+  </si>
+  <si>
+    <t>Total Pembayaran</t>
+  </si>
+  <si>
+    <t>Check In</t>
+  </si>
+  <si>
+    <t>Check Out</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Order Detail</t>
+  </si>
+  <si>
+    <t>Layout Order Detail</t>
+  </si>
+  <si>
+    <t>Detail Order</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Hotel ABC</t>
+  </si>
+  <si>
+    <t>Jalan abc</t>
+  </si>
+  <si>
+    <t>2 Rooms</t>
+  </si>
+  <si>
+    <t>2 Adults</t>
+  </si>
+  <si>
+    <t>0 Child</t>
+  </si>
+  <si>
+    <t>Send Email</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>Hotel Voucher</t>
+  </si>
+  <si>
+    <t>Booking Date</t>
+  </si>
+  <si>
+    <t>Detail Booking</t>
+  </si>
+  <si>
+    <t>Kamar</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Guest Name</t>
+  </si>
+  <si>
+    <t>Cancelation Policy</t>
+  </si>
+  <si>
+    <t>Detail Pembayaran</t>
+  </si>
+  <si>
+    <t>Number Booking</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>Hotel Names</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Childs</t>
+  </si>
+  <si>
+    <t>Total Payment</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Print Voucher For Agent</t>
+  </si>
+  <si>
+    <t>Print Voucher For Cust</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Remaining Deposit</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1618,6 +1753,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1634,6 +1770,58 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="20650200"/>
+          <a:ext cx="4419600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1685,7 +1873,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2024,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA49"/>
+  <dimension ref="B1:BC141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,34 +3041,33 @@
       <c r="W33" s="8"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="6"/>
       <c r="W34" s="8"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2900,33 +3087,37 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
+      <c r="V35" s="9"/>
       <c r="W35" s="8"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="3"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
+      <c r="V36" s="9"/>
       <c r="W36" s="8"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2946,33 +3137,37 @@
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="8"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="6"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="8"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2980,22 +3175,23 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
+      <c r="V39" s="9"/>
       <c r="W39" s="8"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3003,22 +3199,23 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
+      <c r="V40" s="9"/>
       <c r="W40" s="8"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3038,20 +3235,23 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
+      <c r="V41" s="9"/>
       <c r="W41" s="8"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="3"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -3061,10 +3261,11 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
+      <c r="V42" s="9"/>
       <c r="W42" s="8"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -3084,33 +3285,43 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
+      <c r="V43" s="9"/>
       <c r="W43" s="8"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="J44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="3"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
+      <c r="O44" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
+      <c r="Q44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="3"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
+      <c r="V44" s="9"/>
       <c r="W44" s="8"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3130,22 +3341,25 @@
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
+      <c r="V45" s="9"/>
       <c r="W45" s="8"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="3"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
@@ -3153,10 +3367,11 @@
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
+      <c r="V46" s="9"/>
       <c r="W46" s="8"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3176,22 +3391,25 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
+      <c r="V47" s="9"/>
       <c r="W47" s="8"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="3"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
@@ -3199,10 +3417,11 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
+      <c r="V48" s="9"/>
       <c r="W48" s="8"/>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3222,8 +3441,3280 @@
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
+      <c r="V49" s="9"/>
       <c r="W49" s="8"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="9"/>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="9"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="9"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="9"/>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="9"/>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="9"/>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="9"/>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="9"/>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="9"/>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="9"/>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="9"/>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="9"/>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="12"/>
+    </row>
+    <row r="65" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B65" s="24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>429</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="69" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="3"/>
+      <c r="P69" t="s">
+        <v>34</v>
+      </c>
+      <c r="U69" s="1"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="71" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="3"/>
+      <c r="P71" t="s">
+        <v>430</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="3"/>
+    </row>
+    <row r="73" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="3"/>
+      <c r="M73" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C76" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="3"/>
+    </row>
+    <row r="79" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="8"/>
+      <c r="AE79" s="9"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="9"/>
+      <c r="AK79" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL79" s="2"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="9"/>
+    </row>
+    <row r="80" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="8"/>
+      <c r="AE80" s="9"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="8"/>
+      <c r="AH80" s="8"/>
+      <c r="AI80" s="8"/>
+      <c r="AJ80" s="9"/>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="8"/>
+      <c r="AM80" s="8"/>
+      <c r="AN80" s="9"/>
+    </row>
+    <row r="81" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="8"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="8"/>
+      <c r="AH81" s="8"/>
+      <c r="AI81" s="8"/>
+      <c r="AJ81" s="9"/>
+      <c r="AK81" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL81" s="2"/>
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="9"/>
+    </row>
+    <row r="82" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C82" s="10"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82" s="11"/>
+      <c r="AD82" s="11"/>
+      <c r="AE82" s="12"/>
+      <c r="AF82" s="11"/>
+      <c r="AG82" s="11"/>
+      <c r="AH82" s="11"/>
+      <c r="AI82" s="11"/>
+      <c r="AJ82" s="12"/>
+      <c r="AK82" s="10"/>
+      <c r="AL82" s="11"/>
+      <c r="AM82" s="11"/>
+      <c r="AN82" s="12"/>
+    </row>
+    <row r="83" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="8"/>
+      <c r="AD83" s="8"/>
+      <c r="AE83" s="9"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="8"/>
+      <c r="AH83" s="8"/>
+      <c r="AI83" s="8"/>
+      <c r="AJ83" s="9"/>
+      <c r="AK83" s="7"/>
+      <c r="AL83" s="8"/>
+      <c r="AM83" s="8"/>
+      <c r="AN83" s="9"/>
+    </row>
+    <row r="84" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="8"/>
+      <c r="AD84" s="8"/>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="8"/>
+      <c r="AG84" s="8"/>
+      <c r="AH84" s="8"/>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="9"/>
+      <c r="AK84" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL84" s="2"/>
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="9"/>
+    </row>
+    <row r="85" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="9"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="8"/>
+      <c r="AD85" s="8"/>
+      <c r="AE85" s="9"/>
+      <c r="AF85" s="8"/>
+      <c r="AG85" s="8"/>
+      <c r="AH85" s="8"/>
+      <c r="AI85" s="8"/>
+      <c r="AJ85" s="9"/>
+      <c r="AK85" s="7"/>
+      <c r="AL85" s="8"/>
+      <c r="AM85" s="8"/>
+      <c r="AN85" s="9"/>
+    </row>
+    <row r="86" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+      <c r="AE86" s="9"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+      <c r="AI86" s="8"/>
+      <c r="AJ86" s="9"/>
+      <c r="AK86" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL86" s="2"/>
+      <c r="AM86" s="3"/>
+      <c r="AN86" s="9"/>
+    </row>
+    <row r="87" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C87" s="10"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="11"/>
+      <c r="AD87" s="11"/>
+      <c r="AE87" s="12"/>
+      <c r="AF87" s="11"/>
+      <c r="AG87" s="11"/>
+      <c r="AH87" s="11"/>
+      <c r="AI87" s="11"/>
+      <c r="AJ87" s="12"/>
+      <c r="AK87" s="10"/>
+      <c r="AL87" s="11"/>
+      <c r="AM87" s="11"/>
+      <c r="AN87" s="12"/>
+    </row>
+    <row r="88" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="11"/>
+      <c r="AD88" s="11"/>
+      <c r="AE88" s="12"/>
+      <c r="AF88" s="11"/>
+      <c r="AG88" s="11"/>
+      <c r="AH88" s="11"/>
+      <c r="AI88" s="11"/>
+      <c r="AJ88" s="12"/>
+      <c r="AK88" s="10"/>
+      <c r="AL88" s="11"/>
+      <c r="AM88" s="11"/>
+      <c r="AN88" s="12"/>
+    </row>
+    <row r="91" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C91" s="24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C92" s="4"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="6"/>
+      <c r="AF92" s="4"/>
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+      <c r="AK92" s="5"/>
+      <c r="AL92" s="5"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="5"/>
+      <c r="AO92" s="5"/>
+      <c r="AP92" s="5"/>
+      <c r="AQ92" s="5"/>
+      <c r="AR92" s="5"/>
+      <c r="AS92" s="5"/>
+      <c r="AT92" s="5"/>
+      <c r="AU92" s="5"/>
+      <c r="AV92" s="5"/>
+      <c r="AW92" s="5"/>
+      <c r="AX92" s="5"/>
+      <c r="AY92" s="5"/>
+      <c r="AZ92" s="5"/>
+      <c r="BA92" s="5"/>
+      <c r="BB92" s="5"/>
+      <c r="BC92" s="6"/>
+    </row>
+    <row r="93" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C93" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="8"/>
+      <c r="AC93" s="9"/>
+      <c r="AF93" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG93" s="8"/>
+      <c r="AH93" s="8"/>
+      <c r="AI93" s="8"/>
+      <c r="AJ93" s="8"/>
+      <c r="AK93" s="8"/>
+      <c r="AL93" s="8"/>
+      <c r="AM93" s="8"/>
+      <c r="AN93" s="8"/>
+      <c r="AO93" s="8"/>
+      <c r="AP93" s="8"/>
+      <c r="AQ93" s="8"/>
+      <c r="AR93" s="8"/>
+      <c r="AS93" s="8"/>
+      <c r="AT93" s="8"/>
+      <c r="AU93" s="8"/>
+      <c r="AV93" s="8"/>
+      <c r="AW93" s="8"/>
+      <c r="AX93" s="8"/>
+      <c r="AY93" s="8"/>
+      <c r="AZ93" s="8"/>
+      <c r="BA93" s="8"/>
+      <c r="BB93" s="8"/>
+      <c r="BC93" s="9"/>
+    </row>
+    <row r="94" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="9"/>
+      <c r="AB94" s="8"/>
+      <c r="AC94" s="9"/>
+      <c r="AF94" s="10"/>
+      <c r="AG94" s="11"/>
+      <c r="AH94" s="11"/>
+      <c r="AI94" s="11"/>
+      <c r="AJ94" s="11"/>
+      <c r="AK94" s="11"/>
+      <c r="AL94" s="11"/>
+      <c r="AM94" s="11"/>
+      <c r="AN94" s="11"/>
+      <c r="AO94" s="11"/>
+      <c r="AP94" s="11"/>
+      <c r="AQ94" s="11"/>
+      <c r="AR94" s="11"/>
+      <c r="AS94" s="11"/>
+      <c r="AT94" s="11"/>
+      <c r="AU94" s="11"/>
+      <c r="AV94" s="11"/>
+      <c r="AW94" s="11"/>
+      <c r="AX94" s="11"/>
+      <c r="AY94" s="11"/>
+      <c r="AZ94" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="BA94" s="11"/>
+      <c r="BB94" s="11"/>
+      <c r="BC94" s="12"/>
+    </row>
+    <row r="95" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C95" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="9"/>
+      <c r="AB95" s="8"/>
+      <c r="AC95" s="9"/>
+      <c r="AF95" s="4"/>
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="5"/>
+      <c r="AO95" s="5"/>
+      <c r="AP95" s="5"/>
+      <c r="AQ95" s="5"/>
+      <c r="AR95" s="5"/>
+      <c r="AS95" s="5"/>
+      <c r="AT95" s="5"/>
+      <c r="AU95" s="5"/>
+      <c r="AV95" s="5"/>
+      <c r="AW95" s="5"/>
+      <c r="AX95" s="5"/>
+      <c r="AY95" s="5"/>
+      <c r="AZ95" s="5"/>
+      <c r="BA95" s="5"/>
+      <c r="BB95" s="5"/>
+      <c r="BC95" s="6"/>
+    </row>
+    <row r="96" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="9"/>
+      <c r="AB96" s="8"/>
+      <c r="AC96" s="9"/>
+      <c r="AF96" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG96" s="8"/>
+      <c r="AH96" s="8"/>
+      <c r="AI96" s="8"/>
+      <c r="AJ96" s="8"/>
+      <c r="AK96" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL96" s="8"/>
+      <c r="AM96" s="8"/>
+      <c r="AN96" s="8"/>
+      <c r="AO96" s="8"/>
+      <c r="AP96" s="8"/>
+      <c r="AQ96" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="AR96" s="8"/>
+      <c r="AS96" s="8"/>
+      <c r="AT96" s="8"/>
+      <c r="AU96" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV96" s="8"/>
+      <c r="AW96" s="8"/>
+      <c r="AX96" s="8"/>
+      <c r="AY96" s="8"/>
+      <c r="AZ96" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA96" s="8"/>
+      <c r="BB96" s="8"/>
+      <c r="BC96" s="9"/>
+    </row>
+    <row r="97" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C97" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="9"/>
+      <c r="AB97" s="8"/>
+      <c r="AC97" s="9"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="8"/>
+      <c r="AH97" s="8"/>
+      <c r="AI97" s="8"/>
+      <c r="AJ97" s="8"/>
+      <c r="AK97" s="8"/>
+      <c r="AL97" s="8"/>
+      <c r="AM97" s="8"/>
+      <c r="AN97" s="8"/>
+      <c r="AO97" s="8"/>
+      <c r="AP97" s="8"/>
+      <c r="AQ97" s="8"/>
+      <c r="AR97" s="8"/>
+      <c r="AS97" s="8"/>
+      <c r="AT97" s="8"/>
+      <c r="AU97" s="8"/>
+      <c r="AV97" s="8"/>
+      <c r="AW97" s="8"/>
+      <c r="AX97" s="8"/>
+      <c r="AY97" s="8"/>
+      <c r="AZ97" s="8"/>
+      <c r="BA97" s="8"/>
+      <c r="BB97" s="8"/>
+      <c r="BC97" s="9"/>
+    </row>
+    <row r="98" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="9"/>
+      <c r="AB98" s="8"/>
+      <c r="AC98" s="9"/>
+      <c r="AF98" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="AG98" s="8"/>
+      <c r="AH98" s="8"/>
+      <c r="AI98" s="8"/>
+      <c r="AJ98" s="8"/>
+      <c r="AK98" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL98" s="8"/>
+      <c r="AM98" s="8"/>
+      <c r="AN98" s="8"/>
+      <c r="AO98" s="8"/>
+      <c r="AP98" s="8"/>
+      <c r="AQ98" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR98" s="8"/>
+      <c r="AS98" s="8"/>
+      <c r="AT98" s="8"/>
+      <c r="AU98" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV98" s="8"/>
+      <c r="AW98" s="8"/>
+      <c r="AX98" s="8"/>
+      <c r="AY98" s="8"/>
+      <c r="AZ98" s="8"/>
+      <c r="BA98" s="8"/>
+      <c r="BB98" s="8"/>
+      <c r="BC98" s="9"/>
+    </row>
+    <row r="99" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C99" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="11"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="8"/>
+      <c r="AC99" s="9"/>
+      <c r="AF99" s="10"/>
+      <c r="AG99" s="11"/>
+      <c r="AH99" s="11"/>
+      <c r="AI99" s="11"/>
+      <c r="AJ99" s="11"/>
+      <c r="AK99" s="11"/>
+      <c r="AL99" s="11"/>
+      <c r="AM99" s="11"/>
+      <c r="AN99" s="11"/>
+      <c r="AO99" s="11"/>
+      <c r="AP99" s="11"/>
+      <c r="AQ99" s="11"/>
+      <c r="AR99" s="11"/>
+      <c r="AS99" s="11"/>
+      <c r="AT99" s="11"/>
+      <c r="AU99" s="11"/>
+      <c r="AV99" s="11"/>
+      <c r="AW99" s="11"/>
+      <c r="AX99" s="11"/>
+      <c r="AY99" s="11"/>
+      <c r="AZ99" s="11"/>
+      <c r="BA99" s="11"/>
+      <c r="BB99" s="11"/>
+      <c r="BC99" s="12"/>
+    </row>
+    <row r="100" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="8"/>
+      <c r="X100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="8"/>
+      <c r="AB100" s="8"/>
+      <c r="AC100" s="9"/>
+      <c r="AF100" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="AG100" s="5"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+      <c r="AJ100" s="5"/>
+      <c r="AK100" s="5"/>
+      <c r="AL100" s="5"/>
+      <c r="AM100" s="5"/>
+      <c r="AN100" s="5"/>
+      <c r="AO100" s="5"/>
+      <c r="AP100" s="5"/>
+      <c r="AQ100" s="5"/>
+      <c r="AR100" s="5"/>
+      <c r="AS100" s="5"/>
+      <c r="AT100" s="5"/>
+      <c r="AU100" s="5"/>
+      <c r="AV100" s="5"/>
+      <c r="AW100" s="5"/>
+      <c r="AX100" s="5"/>
+      <c r="AY100" s="5"/>
+      <c r="AZ100" s="5"/>
+      <c r="BA100" s="5"/>
+      <c r="BB100" s="5"/>
+      <c r="BC100" s="6"/>
+    </row>
+    <row r="101" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+      <c r="AB101" s="8"/>
+      <c r="AC101" s="9"/>
+      <c r="AF101" s="10"/>
+      <c r="AG101" s="11"/>
+      <c r="AH101" s="11"/>
+      <c r="AI101" s="11"/>
+      <c r="AJ101" s="11"/>
+      <c r="AK101" s="11"/>
+      <c r="AL101" s="11"/>
+      <c r="AM101" s="11"/>
+      <c r="AN101" s="11"/>
+      <c r="AO101" s="11"/>
+      <c r="AP101" s="11"/>
+      <c r="AQ101" s="11"/>
+      <c r="AR101" s="11"/>
+      <c r="AS101" s="11"/>
+      <c r="AT101" s="11"/>
+      <c r="AU101" s="11"/>
+      <c r="AV101" s="11"/>
+      <c r="AW101" s="11"/>
+      <c r="AX101" s="11"/>
+      <c r="AY101" s="11"/>
+      <c r="AZ101" s="11"/>
+      <c r="BA101" s="11"/>
+      <c r="BB101" s="11"/>
+      <c r="BC101" s="12"/>
+    </row>
+    <row r="102" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8"/>
+      <c r="AB102" s="8"/>
+      <c r="AC102" s="9"/>
+      <c r="AF102" s="4"/>
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+      <c r="AK102" s="5"/>
+      <c r="AL102" s="5"/>
+      <c r="AM102" s="5"/>
+      <c r="AN102" s="5"/>
+      <c r="AO102" s="5"/>
+      <c r="AP102" s="5"/>
+      <c r="AQ102" s="5"/>
+      <c r="AR102" s="5"/>
+      <c r="AS102" s="5"/>
+      <c r="AT102" s="5"/>
+      <c r="AU102" s="5"/>
+      <c r="AV102" s="5"/>
+      <c r="AW102" s="5"/>
+      <c r="AX102" s="5"/>
+      <c r="AY102" s="5"/>
+      <c r="AZ102" s="5"/>
+      <c r="BA102" s="5"/>
+      <c r="BB102" s="5"/>
+      <c r="BC102" s="6"/>
+    </row>
+    <row r="103" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C103" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="8"/>
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="8"/>
+      <c r="AB103" s="8"/>
+      <c r="AC103" s="9"/>
+      <c r="AF103" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG103" s="8"/>
+      <c r="AH103" s="8"/>
+      <c r="AI103" s="8"/>
+      <c r="AJ103" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK103" s="8"/>
+      <c r="AL103" s="8"/>
+      <c r="AM103" s="8"/>
+      <c r="AN103" s="8"/>
+      <c r="AO103" s="8"/>
+      <c r="AP103" s="8"/>
+      <c r="AQ103" s="8"/>
+      <c r="AR103" s="8"/>
+      <c r="AS103" s="8"/>
+      <c r="AT103" s="8"/>
+      <c r="AU103" s="8"/>
+      <c r="AV103" s="8"/>
+      <c r="AW103" s="8"/>
+      <c r="AX103" s="8"/>
+      <c r="AY103" s="8"/>
+      <c r="AZ103" s="8"/>
+      <c r="BA103" s="8"/>
+      <c r="BB103" s="8"/>
+      <c r="BC103" s="9"/>
+    </row>
+    <row r="104" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C104" s="7"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="8"/>
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="8"/>
+      <c r="AB104" s="8"/>
+      <c r="AC104" s="9"/>
+      <c r="AF104" s="7"/>
+      <c r="AG104" s="8"/>
+      <c r="AH104" s="8"/>
+      <c r="AI104" s="8"/>
+      <c r="AJ104" s="8"/>
+      <c r="AK104" s="8"/>
+      <c r="AL104" s="8"/>
+      <c r="AM104" s="8"/>
+      <c r="AN104" s="8"/>
+      <c r="AO104" s="8"/>
+      <c r="AP104" s="8"/>
+      <c r="AQ104" s="8"/>
+      <c r="AR104" s="8"/>
+      <c r="AS104" s="8"/>
+      <c r="AT104" s="8"/>
+      <c r="AU104" s="8"/>
+      <c r="AV104" s="8"/>
+      <c r="AW104" s="8"/>
+      <c r="AX104" s="8"/>
+      <c r="AY104" s="8"/>
+      <c r="AZ104" s="8"/>
+      <c r="BA104" s="8"/>
+      <c r="BB104" s="8"/>
+      <c r="BC104" s="9"/>
+    </row>
+    <row r="105" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C105" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="V105" s="8"/>
+      <c r="W105" s="8"/>
+      <c r="X105" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB105" s="8"/>
+      <c r="AC105" s="9"/>
+      <c r="AF105" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG105" s="8"/>
+      <c r="AH105" s="8"/>
+      <c r="AI105" s="8"/>
+      <c r="AJ105" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK105" s="8"/>
+      <c r="AL105" s="8"/>
+      <c r="AM105" s="8"/>
+      <c r="AN105" s="8"/>
+      <c r="AO105" s="8"/>
+      <c r="AP105" s="8"/>
+      <c r="AQ105" s="8"/>
+      <c r="AR105" s="8"/>
+      <c r="AS105" s="8"/>
+      <c r="AT105" s="8"/>
+      <c r="AU105" s="8"/>
+      <c r="AV105" s="8"/>
+      <c r="AW105" s="8"/>
+      <c r="AX105" s="8"/>
+      <c r="AY105" s="8"/>
+      <c r="AZ105" s="8"/>
+      <c r="BA105" s="8"/>
+      <c r="BB105" s="8"/>
+      <c r="BC105" s="9"/>
+    </row>
+    <row r="106" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C106" s="7"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="8"/>
+      <c r="X106" s="8"/>
+      <c r="Y106" s="8"/>
+      <c r="Z106" s="8"/>
+      <c r="AA106" s="8"/>
+      <c r="AB106" s="8"/>
+      <c r="AC106" s="9"/>
+      <c r="AF106" s="7"/>
+      <c r="AG106" s="8"/>
+      <c r="AH106" s="8"/>
+      <c r="AI106" s="8"/>
+      <c r="AJ106" s="8"/>
+      <c r="AK106" s="8"/>
+      <c r="AL106" s="8"/>
+      <c r="AM106" s="8"/>
+      <c r="AN106" s="8"/>
+      <c r="AO106" s="8"/>
+      <c r="AP106" s="8"/>
+      <c r="AQ106" s="8"/>
+      <c r="AR106" s="8"/>
+      <c r="AS106" s="8"/>
+      <c r="AT106" s="8"/>
+      <c r="AU106" s="8"/>
+      <c r="AV106" s="8"/>
+      <c r="AW106" s="8"/>
+      <c r="AX106" s="8"/>
+      <c r="AY106" s="8"/>
+      <c r="AZ106" s="8"/>
+      <c r="BA106" s="8"/>
+      <c r="BB106" s="8"/>
+      <c r="BC106" s="9"/>
+    </row>
+    <row r="107" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C107" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="8"/>
+      <c r="Y107" s="8"/>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+      <c r="AB107" s="8"/>
+      <c r="AC107" s="9"/>
+      <c r="AF107" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG107" s="8"/>
+      <c r="AH107" s="8"/>
+      <c r="AI107" s="8"/>
+      <c r="AJ107" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK107" s="8"/>
+      <c r="AL107" s="8"/>
+      <c r="AM107" s="8"/>
+      <c r="AN107" s="8"/>
+      <c r="AO107" s="8"/>
+      <c r="AP107" s="8"/>
+      <c r="AQ107" s="8"/>
+      <c r="AR107" s="8"/>
+      <c r="AS107" s="8"/>
+      <c r="AT107" s="8"/>
+      <c r="AU107" s="8"/>
+      <c r="AV107" s="8"/>
+      <c r="AW107" s="8"/>
+      <c r="AX107" s="8"/>
+      <c r="AY107" s="8"/>
+      <c r="AZ107" s="8"/>
+      <c r="BA107" s="8"/>
+      <c r="BB107" s="8"/>
+      <c r="BC107" s="9"/>
+    </row>
+    <row r="108" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="8"/>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8"/>
+      <c r="AB108" s="8"/>
+      <c r="AC108" s="9"/>
+      <c r="AF108" s="7"/>
+      <c r="AG108" s="8"/>
+      <c r="AH108" s="8"/>
+      <c r="AI108" s="8"/>
+      <c r="AJ108" s="8"/>
+      <c r="AK108" s="8"/>
+      <c r="AL108" s="8"/>
+      <c r="AM108" s="8"/>
+      <c r="AN108" s="8"/>
+      <c r="AO108" s="8"/>
+      <c r="AP108" s="8"/>
+      <c r="AQ108" s="8"/>
+      <c r="AR108" s="8"/>
+      <c r="AS108" s="8"/>
+      <c r="AT108" s="8"/>
+      <c r="AU108" s="8"/>
+      <c r="AV108" s="8"/>
+      <c r="AW108" s="8"/>
+      <c r="AX108" s="8"/>
+      <c r="AY108" s="8"/>
+      <c r="AZ108" s="8"/>
+      <c r="BA108" s="8"/>
+      <c r="BB108" s="8"/>
+      <c r="BC108" s="9"/>
+    </row>
+    <row r="109" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+      <c r="AB109" s="8"/>
+      <c r="AC109" s="9"/>
+      <c r="AF109" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG109" s="8"/>
+      <c r="AH109" s="8"/>
+      <c r="AI109" s="8"/>
+      <c r="AJ109" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK109" s="8"/>
+      <c r="AL109" s="8"/>
+      <c r="AM109" s="8"/>
+      <c r="AN109" s="8"/>
+      <c r="AO109" s="8"/>
+      <c r="AP109" s="8"/>
+      <c r="AQ109" s="8"/>
+      <c r="AR109" s="8"/>
+      <c r="AS109" s="8"/>
+      <c r="AT109" s="8"/>
+      <c r="AU109" s="8"/>
+      <c r="AV109" s="8"/>
+      <c r="AW109" s="8"/>
+      <c r="AX109" s="8"/>
+      <c r="AY109" s="8"/>
+      <c r="AZ109" s="8"/>
+      <c r="BA109" s="8"/>
+      <c r="BB109" s="8"/>
+      <c r="BC109" s="9"/>
+    </row>
+    <row r="110" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="8"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+      <c r="AB110" s="8"/>
+      <c r="AC110" s="9"/>
+      <c r="AF110" s="7"/>
+      <c r="AG110" s="8"/>
+      <c r="AH110" s="8"/>
+      <c r="AI110" s="8"/>
+      <c r="AJ110" s="8"/>
+      <c r="AK110" s="8"/>
+      <c r="AL110" s="8"/>
+      <c r="AM110" s="8"/>
+      <c r="AN110" s="8"/>
+      <c r="AO110" s="8"/>
+      <c r="AP110" s="8"/>
+      <c r="AQ110" s="8"/>
+      <c r="AR110" s="8"/>
+      <c r="AS110" s="8"/>
+      <c r="AT110" s="8"/>
+      <c r="AU110" s="8"/>
+      <c r="AV110" s="8"/>
+      <c r="AW110" s="8"/>
+      <c r="AX110" s="8"/>
+      <c r="AY110" s="8"/>
+      <c r="AZ110" s="8"/>
+      <c r="BA110" s="8"/>
+      <c r="BB110" s="8"/>
+      <c r="BC110" s="9"/>
+    </row>
+    <row r="111" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="8"/>
+      <c r="X111" s="8"/>
+      <c r="Y111" s="8"/>
+      <c r="Z111" s="8"/>
+      <c r="AA111" s="8"/>
+      <c r="AB111" s="8"/>
+      <c r="AC111" s="9"/>
+      <c r="AF111" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG111" s="8"/>
+      <c r="AH111" s="8"/>
+      <c r="AI111" s="8"/>
+      <c r="AJ111" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK111" s="8"/>
+      <c r="AL111" s="8"/>
+      <c r="AM111" s="8"/>
+      <c r="AN111" s="8"/>
+      <c r="AO111" s="8"/>
+      <c r="AP111" s="8"/>
+      <c r="AQ111" s="8"/>
+      <c r="AR111" s="8"/>
+      <c r="AS111" s="8"/>
+      <c r="AT111" s="8"/>
+      <c r="AU111" s="8"/>
+      <c r="AV111" s="8"/>
+      <c r="AW111" s="8"/>
+      <c r="AX111" s="8"/>
+      <c r="AY111" s="8"/>
+      <c r="AZ111" s="8"/>
+      <c r="BA111" s="8"/>
+      <c r="BB111" s="8"/>
+      <c r="BC111" s="9"/>
+    </row>
+    <row r="112" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C112" s="10"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="11"/>
+      <c r="U112" s="11"/>
+      <c r="V112" s="11"/>
+      <c r="W112" s="11"/>
+      <c r="X112" s="11"/>
+      <c r="Y112" s="11"/>
+      <c r="Z112" s="11"/>
+      <c r="AA112" s="11"/>
+      <c r="AB112" s="11"/>
+      <c r="AC112" s="12"/>
+      <c r="AF112" s="7"/>
+      <c r="AG112" s="8"/>
+      <c r="AH112" s="8"/>
+      <c r="AI112" s="8"/>
+      <c r="AJ112" s="8"/>
+      <c r="AK112" s="8"/>
+      <c r="AL112" s="8"/>
+      <c r="AM112" s="8"/>
+      <c r="AN112" s="8"/>
+      <c r="AO112" s="8"/>
+      <c r="AP112" s="8"/>
+      <c r="AQ112" s="8"/>
+      <c r="AR112" s="8"/>
+      <c r="AS112" s="8"/>
+      <c r="AT112" s="8"/>
+      <c r="AU112" s="8"/>
+      <c r="AV112" s="8"/>
+      <c r="AW112" s="8"/>
+      <c r="AX112" s="8"/>
+      <c r="AY112" s="8"/>
+      <c r="AZ112" s="8"/>
+      <c r="BA112" s="8"/>
+      <c r="BB112" s="8"/>
+      <c r="BC112" s="9"/>
+    </row>
+    <row r="113" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AF113" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG113" s="8"/>
+      <c r="AH113" s="8"/>
+      <c r="AI113" s="8"/>
+      <c r="AJ113" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK113" s="8"/>
+      <c r="AL113" s="8"/>
+      <c r="AM113" s="8"/>
+      <c r="AN113" s="8"/>
+      <c r="AO113" s="8"/>
+      <c r="AP113" s="8"/>
+      <c r="AQ113" s="8"/>
+      <c r="AR113" s="8"/>
+      <c r="AS113" s="8"/>
+      <c r="AT113" s="8"/>
+      <c r="AU113" s="8"/>
+      <c r="AV113" s="8"/>
+      <c r="AW113" s="8"/>
+      <c r="AX113" s="8"/>
+      <c r="AY113" s="8"/>
+      <c r="AZ113" s="8"/>
+      <c r="BA113" s="8"/>
+      <c r="BB113" s="8"/>
+      <c r="BC113" s="9"/>
+    </row>
+    <row r="114" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AF114" s="7"/>
+      <c r="AG114" s="8"/>
+      <c r="AH114" s="8"/>
+      <c r="AI114" s="8"/>
+      <c r="AJ114" s="8"/>
+      <c r="AK114" s="8"/>
+      <c r="AL114" s="8"/>
+      <c r="AM114" s="8"/>
+      <c r="AN114" s="8"/>
+      <c r="AO114" s="8"/>
+      <c r="AP114" s="8"/>
+      <c r="AQ114" s="8"/>
+      <c r="AR114" s="8"/>
+      <c r="AS114" s="8"/>
+      <c r="AT114" s="8"/>
+      <c r="AU114" s="8"/>
+      <c r="AV114" s="8"/>
+      <c r="AW114" s="8"/>
+      <c r="AX114" s="8"/>
+      <c r="AY114" s="8"/>
+      <c r="AZ114" s="8"/>
+      <c r="BA114" s="8"/>
+      <c r="BB114" s="8"/>
+      <c r="BC114" s="9"/>
+    </row>
+    <row r="115" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AF115" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="AG115" s="8"/>
+      <c r="AH115" s="8"/>
+      <c r="AI115" s="8"/>
+      <c r="AJ115" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK115" s="8"/>
+      <c r="AL115" s="8"/>
+      <c r="AM115" s="8"/>
+      <c r="AN115" s="8"/>
+      <c r="AO115" s="8"/>
+      <c r="AP115" s="8"/>
+      <c r="AQ115" s="8"/>
+      <c r="AR115" s="8"/>
+      <c r="AS115" s="8"/>
+      <c r="AT115" s="8"/>
+      <c r="AU115" s="8"/>
+      <c r="AV115" s="8"/>
+      <c r="AW115" s="8"/>
+      <c r="AX115" s="8"/>
+      <c r="AY115" s="8"/>
+      <c r="AZ115" s="8"/>
+      <c r="BA115" s="8"/>
+      <c r="BB115" s="8"/>
+      <c r="BC115" s="9"/>
+    </row>
+    <row r="116" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+      <c r="Y116" s="6"/>
+      <c r="AF116" s="7"/>
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="8"/>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="8"/>
+      <c r="AK116" s="8"/>
+      <c r="AL116" s="8"/>
+      <c r="AM116" s="8"/>
+      <c r="AN116" s="8"/>
+      <c r="AO116" s="8"/>
+      <c r="AP116" s="8"/>
+      <c r="AQ116" s="8"/>
+      <c r="AR116" s="8"/>
+      <c r="AS116" s="8"/>
+      <c r="AT116" s="8"/>
+      <c r="AU116" s="8"/>
+      <c r="AV116" s="8"/>
+      <c r="AW116" s="8"/>
+      <c r="AX116" s="8"/>
+      <c r="AY116" s="8"/>
+      <c r="AZ116" s="8"/>
+      <c r="BA116" s="8"/>
+      <c r="BB116" s="8"/>
+      <c r="BC116" s="9"/>
+    </row>
+    <row r="117" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B117" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="8"/>
+      <c r="V117" s="8"/>
+      <c r="W117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="9"/>
+      <c r="AF117" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG117" s="8"/>
+      <c r="AH117" s="8"/>
+      <c r="AI117" s="8"/>
+      <c r="AJ117" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK117" s="8"/>
+      <c r="AL117" s="8"/>
+      <c r="AM117" s="8"/>
+      <c r="AN117" s="8"/>
+      <c r="AO117" s="8"/>
+      <c r="AP117" s="8"/>
+      <c r="AQ117" s="8"/>
+      <c r="AR117" s="8"/>
+      <c r="AS117" s="8"/>
+      <c r="AT117" s="8"/>
+      <c r="AU117" s="8"/>
+      <c r="AV117" s="8"/>
+      <c r="AW117" s="8"/>
+      <c r="AX117" s="8"/>
+      <c r="AY117" s="8"/>
+      <c r="AZ117" s="8"/>
+      <c r="BA117" s="8"/>
+      <c r="BB117" s="8"/>
+      <c r="BC117" s="9"/>
+    </row>
+    <row r="118" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="11"/>
+      <c r="V118" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="W118" s="11"/>
+      <c r="X118" s="11"/>
+      <c r="Y118" s="12"/>
+      <c r="AF118" s="7"/>
+      <c r="AG118" s="8"/>
+      <c r="AH118" s="8"/>
+      <c r="AI118" s="8"/>
+      <c r="AJ118" s="8"/>
+      <c r="AK118" s="8"/>
+      <c r="AL118" s="8"/>
+      <c r="AM118" s="8"/>
+      <c r="AN118" s="8"/>
+      <c r="AO118" s="8"/>
+      <c r="AP118" s="8"/>
+      <c r="AQ118" s="8"/>
+      <c r="AR118" s="8"/>
+      <c r="AS118" s="8"/>
+      <c r="AT118" s="8"/>
+      <c r="AU118" s="8"/>
+      <c r="AV118" s="8"/>
+      <c r="AW118" s="8"/>
+      <c r="AX118" s="8"/>
+      <c r="AY118" s="8"/>
+      <c r="AZ118" s="8"/>
+      <c r="BA118" s="8"/>
+      <c r="BB118" s="8"/>
+      <c r="BC118" s="9"/>
+    </row>
+    <row r="119" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B119" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
+      <c r="Y119" s="6"/>
+      <c r="AF119" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG119" s="8"/>
+      <c r="AH119" s="8"/>
+      <c r="AI119" s="8"/>
+      <c r="AJ119" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK119" s="8"/>
+      <c r="AL119" s="8"/>
+      <c r="AM119" s="8"/>
+      <c r="AN119" s="8"/>
+      <c r="AO119" s="8"/>
+      <c r="AP119" s="8"/>
+      <c r="AQ119" s="8"/>
+      <c r="AR119" s="8"/>
+      <c r="AS119" s="8"/>
+      <c r="AT119" s="8"/>
+      <c r="AU119" s="8"/>
+      <c r="AV119" s="8"/>
+      <c r="AW119" s="8"/>
+      <c r="AX119" s="8"/>
+      <c r="AY119" s="8"/>
+      <c r="AZ119" s="8"/>
+      <c r="BA119" s="8"/>
+      <c r="BB119" s="8"/>
+      <c r="BC119" s="9"/>
+    </row>
+    <row r="120" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B120" s="10"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="11"/>
+      <c r="T120" s="11"/>
+      <c r="U120" s="11"/>
+      <c r="V120" s="11"/>
+      <c r="W120" s="11"/>
+      <c r="X120" s="11"/>
+      <c r="Y120" s="12"/>
+      <c r="AF120" s="7"/>
+      <c r="AG120" s="8"/>
+      <c r="AH120" s="8"/>
+      <c r="AI120" s="8"/>
+      <c r="AJ120" s="8"/>
+      <c r="AK120" s="8"/>
+      <c r="AL120" s="8"/>
+      <c r="AM120" s="8"/>
+      <c r="AN120" s="8"/>
+      <c r="AO120" s="8"/>
+      <c r="AP120" s="8"/>
+      <c r="AQ120" s="8"/>
+      <c r="AR120" s="8"/>
+      <c r="AS120" s="8"/>
+      <c r="AT120" s="8"/>
+      <c r="AU120" s="8"/>
+      <c r="AV120" s="8"/>
+      <c r="AW120" s="8"/>
+      <c r="AX120" s="8"/>
+      <c r="AY120" s="8"/>
+      <c r="AZ120" s="8"/>
+      <c r="BA120" s="8"/>
+      <c r="BB120" s="8"/>
+      <c r="BC120" s="9"/>
+    </row>
+    <row r="121" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="8"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="9"/>
+      <c r="AF121" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG121" s="8"/>
+      <c r="AH121" s="8"/>
+      <c r="AI121" s="8"/>
+      <c r="AJ121" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK121" s="8"/>
+      <c r="AL121" s="8"/>
+      <c r="AM121" s="8"/>
+      <c r="AN121" s="8"/>
+      <c r="AO121" s="8"/>
+      <c r="AP121" s="8"/>
+      <c r="AQ121" s="8"/>
+      <c r="AR121" s="8"/>
+      <c r="AS121" s="8"/>
+      <c r="AT121" s="8"/>
+      <c r="AU121" s="8"/>
+      <c r="AV121" s="8"/>
+      <c r="AW121" s="8"/>
+      <c r="AX121" s="8"/>
+      <c r="AY121" s="8"/>
+      <c r="AZ121" s="8"/>
+      <c r="BA121" s="8"/>
+      <c r="BB121" s="8"/>
+      <c r="BC121" s="9"/>
+    </row>
+    <row r="122" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B122" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="8"/>
+      <c r="V122" s="8"/>
+      <c r="W122" s="8"/>
+      <c r="X122" s="8"/>
+      <c r="Y122" s="9"/>
+      <c r="AF122" s="7"/>
+      <c r="AG122" s="8"/>
+      <c r="AH122" s="8"/>
+      <c r="AI122" s="8"/>
+      <c r="AJ122" s="8"/>
+      <c r="AK122" s="8"/>
+      <c r="AL122" s="8"/>
+      <c r="AM122" s="8"/>
+      <c r="AN122" s="8"/>
+      <c r="AO122" s="8"/>
+      <c r="AP122" s="8"/>
+      <c r="AQ122" s="8"/>
+      <c r="AR122" s="8"/>
+      <c r="AS122" s="8"/>
+      <c r="AT122" s="8"/>
+      <c r="AU122" s="8"/>
+      <c r="AV122" s="8"/>
+      <c r="AW122" s="8"/>
+      <c r="AX122" s="8"/>
+      <c r="AY122" s="8"/>
+      <c r="AZ122" s="8"/>
+      <c r="BA122" s="8"/>
+      <c r="BB122" s="8"/>
+      <c r="BC122" s="9"/>
+    </row>
+    <row r="123" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="8"/>
+      <c r="W123" s="8"/>
+      <c r="X123" s="8"/>
+      <c r="Y123" s="9"/>
+      <c r="AF123" s="7"/>
+      <c r="AG123" s="8"/>
+      <c r="AH123" s="8"/>
+      <c r="AI123" s="8"/>
+      <c r="AJ123" s="8"/>
+      <c r="AK123" s="8"/>
+      <c r="AL123" s="8"/>
+      <c r="AM123" s="8"/>
+      <c r="AN123" s="8"/>
+      <c r="AO123" s="8"/>
+      <c r="AP123" s="8"/>
+      <c r="AQ123" s="8"/>
+      <c r="AR123" s="8"/>
+      <c r="AS123" s="8"/>
+      <c r="AT123" s="8"/>
+      <c r="AU123" s="8"/>
+      <c r="AV123" s="8"/>
+      <c r="AW123" s="8"/>
+      <c r="AX123" s="8"/>
+      <c r="AY123" s="8"/>
+      <c r="AZ123" s="8"/>
+      <c r="BA123" s="8"/>
+      <c r="BB123" s="8"/>
+      <c r="BC123" s="9"/>
+    </row>
+    <row r="124" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S124" s="8"/>
+      <c r="T124" s="8"/>
+      <c r="U124" s="8"/>
+      <c r="V124" s="8"/>
+      <c r="W124" s="8"/>
+      <c r="X124" s="8"/>
+      <c r="Y124" s="9"/>
+      <c r="AF124" s="7"/>
+      <c r="AG124" s="8"/>
+      <c r="AH124" s="8"/>
+      <c r="AI124" s="8"/>
+      <c r="AJ124" s="8"/>
+      <c r="AK124" s="8"/>
+      <c r="AL124" s="8"/>
+      <c r="AM124" s="8"/>
+      <c r="AN124" s="8"/>
+      <c r="AO124" s="8"/>
+      <c r="AP124" s="8"/>
+      <c r="AQ124" s="8"/>
+      <c r="AR124" s="8"/>
+      <c r="AS124" s="8"/>
+      <c r="AT124" s="8"/>
+      <c r="AU124" s="8"/>
+      <c r="AV124" s="8"/>
+      <c r="AW124" s="8"/>
+      <c r="AX124" s="8"/>
+      <c r="AY124" s="8"/>
+      <c r="AZ124" s="8"/>
+      <c r="BA124" s="8"/>
+      <c r="BB124" s="8"/>
+      <c r="BC124" s="9"/>
+    </row>
+    <row r="125" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="8"/>
+      <c r="U125" s="8"/>
+      <c r="V125" s="8"/>
+      <c r="W125" s="8"/>
+      <c r="X125" s="8"/>
+      <c r="Y125" s="9"/>
+      <c r="AF125" s="10"/>
+      <c r="AG125" s="11"/>
+      <c r="AH125" s="11"/>
+      <c r="AI125" s="11"/>
+      <c r="AJ125" s="11"/>
+      <c r="AK125" s="11"/>
+      <c r="AL125" s="11"/>
+      <c r="AM125" s="11"/>
+      <c r="AN125" s="11"/>
+      <c r="AO125" s="11"/>
+      <c r="AP125" s="11"/>
+      <c r="AQ125" s="11"/>
+      <c r="AR125" s="11"/>
+      <c r="AS125" s="11"/>
+      <c r="AT125" s="11"/>
+      <c r="AU125" s="11"/>
+      <c r="AV125" s="11"/>
+      <c r="AW125" s="11"/>
+      <c r="AX125" s="11"/>
+      <c r="AY125" s="11"/>
+      <c r="AZ125" s="11"/>
+      <c r="BA125" s="11"/>
+      <c r="BB125" s="11"/>
+      <c r="BC125" s="12"/>
+    </row>
+    <row r="126" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
+      <c r="U126" s="8"/>
+      <c r="V126" s="8"/>
+      <c r="W126" s="8"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="9"/>
+      <c r="AF126" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG126" s="5"/>
+      <c r="AH126" s="5"/>
+      <c r="AI126" s="5"/>
+      <c r="AJ126" s="5"/>
+      <c r="AK126" s="5"/>
+      <c r="AL126" s="5"/>
+      <c r="AM126" s="5"/>
+      <c r="AN126" s="5"/>
+      <c r="AO126" s="5"/>
+      <c r="AP126" s="5"/>
+      <c r="AQ126" s="5"/>
+      <c r="AR126" s="5"/>
+      <c r="AS126" s="5"/>
+      <c r="AT126" s="5"/>
+      <c r="AU126" s="5"/>
+      <c r="AV126" s="5"/>
+      <c r="AW126" s="5"/>
+      <c r="AX126" s="5"/>
+      <c r="AY126" s="5"/>
+      <c r="AZ126" s="5"/>
+      <c r="BA126" s="5"/>
+      <c r="BB126" s="5"/>
+      <c r="BC126" s="6"/>
+    </row>
+    <row r="127" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
+      <c r="U127" s="8"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="9"/>
+      <c r="AF127" s="7"/>
+      <c r="AG127" s="8"/>
+      <c r="AH127" s="8"/>
+      <c r="AI127" s="8"/>
+      <c r="AJ127" s="8"/>
+      <c r="AK127" s="8"/>
+      <c r="AL127" s="8"/>
+      <c r="AM127" s="8"/>
+      <c r="AN127" s="8"/>
+      <c r="AO127" s="8"/>
+      <c r="AP127" s="8"/>
+      <c r="AQ127" s="8"/>
+      <c r="AR127" s="8"/>
+      <c r="AS127" s="8"/>
+      <c r="AT127" s="8"/>
+      <c r="AU127" s="8"/>
+      <c r="AV127" s="8"/>
+      <c r="AW127" s="8"/>
+      <c r="AX127" s="8"/>
+      <c r="AY127" s="8"/>
+      <c r="AZ127" s="8"/>
+      <c r="BA127" s="8"/>
+      <c r="BB127" s="8"/>
+      <c r="BC127" s="9"/>
+    </row>
+    <row r="128" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B128" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S128" s="8"/>
+      <c r="T128" s="8"/>
+      <c r="U128" s="8"/>
+      <c r="V128" s="8"/>
+      <c r="W128" s="8"/>
+      <c r="X128" s="8"/>
+      <c r="Y128" s="9"/>
+      <c r="AF128" s="7"/>
+      <c r="AG128" s="8"/>
+      <c r="AH128" s="8"/>
+      <c r="AI128" s="8"/>
+      <c r="AJ128" s="8"/>
+      <c r="AK128" s="8"/>
+      <c r="AL128" s="8"/>
+      <c r="AM128" s="8"/>
+      <c r="AN128" s="8"/>
+      <c r="AO128" s="8"/>
+      <c r="AP128" s="8"/>
+      <c r="AQ128" s="8"/>
+      <c r="AR128" s="8"/>
+      <c r="AS128" s="8"/>
+      <c r="AT128" s="8"/>
+      <c r="AU128" s="8"/>
+      <c r="AV128" s="8"/>
+      <c r="AW128" s="8"/>
+      <c r="AX128" s="8"/>
+      <c r="AY128" s="8"/>
+      <c r="AZ128" s="8"/>
+      <c r="BA128" s="8"/>
+      <c r="BB128" s="8"/>
+      <c r="BC128" s="9"/>
+    </row>
+    <row r="129" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B129" s="7"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
+      <c r="R129" s="8"/>
+      <c r="S129" s="8"/>
+      <c r="T129" s="8"/>
+      <c r="U129" s="8"/>
+      <c r="V129" s="8"/>
+      <c r="W129" s="8"/>
+      <c r="X129" s="8"/>
+      <c r="Y129" s="9"/>
+      <c r="AF129" s="7"/>
+      <c r="AG129" s="8"/>
+      <c r="AH129" s="8"/>
+      <c r="AI129" s="8"/>
+      <c r="AJ129" s="8"/>
+      <c r="AK129" s="8"/>
+      <c r="AL129" s="8"/>
+      <c r="AM129" s="8"/>
+      <c r="AN129" s="8"/>
+      <c r="AO129" s="8"/>
+      <c r="AP129" s="8"/>
+      <c r="AQ129" s="8"/>
+      <c r="AR129" s="8"/>
+      <c r="AS129" s="8"/>
+      <c r="AT129" s="8"/>
+      <c r="AU129" s="8"/>
+      <c r="AV129" s="8"/>
+      <c r="AW129" s="8"/>
+      <c r="AX129" s="8"/>
+      <c r="AY129" s="8"/>
+      <c r="AZ129" s="8"/>
+      <c r="BA129" s="8"/>
+      <c r="BB129" s="8"/>
+      <c r="BC129" s="9"/>
+    </row>
+    <row r="130" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K130" s="3"/>
+      <c r="L130" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M130" s="3"/>
+      <c r="N130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O130" s="3"/>
+      <c r="P130" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="8"/>
+      <c r="S130" s="8"/>
+      <c r="T130" s="8"/>
+      <c r="U130" s="8"/>
+      <c r="V130" s="8"/>
+      <c r="W130" s="8"/>
+      <c r="X130" s="8"/>
+      <c r="Y130" s="9"/>
+      <c r="AF130" s="10"/>
+      <c r="AG130" s="11"/>
+      <c r="AH130" s="11"/>
+      <c r="AI130" s="11"/>
+      <c r="AJ130" s="11"/>
+      <c r="AK130" s="11"/>
+      <c r="AL130" s="11"/>
+      <c r="AM130" s="11"/>
+      <c r="AN130" s="11"/>
+      <c r="AO130" s="11"/>
+      <c r="AP130" s="11"/>
+      <c r="AQ130" s="11"/>
+      <c r="AR130" s="11"/>
+      <c r="AS130" s="11"/>
+      <c r="AT130" s="11"/>
+      <c r="AU130" s="11"/>
+      <c r="AV130" s="11"/>
+      <c r="AW130" s="11"/>
+      <c r="AX130" s="11"/>
+      <c r="AY130" s="11"/>
+      <c r="AZ130" s="11"/>
+      <c r="BA130" s="11"/>
+      <c r="BB130" s="11"/>
+      <c r="BC130" s="12"/>
+    </row>
+    <row r="131" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B131" s="7"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="8"/>
+      <c r="S131" s="8"/>
+      <c r="T131" s="8"/>
+      <c r="U131" s="8"/>
+      <c r="V131" s="8"/>
+      <c r="W131" s="8"/>
+      <c r="X131" s="8"/>
+      <c r="Y131" s="9"/>
+    </row>
+    <row r="132" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="8"/>
+      <c r="S132" s="8"/>
+      <c r="T132" s="8"/>
+      <c r="U132" s="8"/>
+      <c r="V132" s="8"/>
+      <c r="W132" s="8"/>
+      <c r="X132" s="8"/>
+      <c r="Y132" s="9"/>
+      <c r="AF132" s="8"/>
+      <c r="AG132" s="8"/>
+      <c r="AH132" s="8"/>
+      <c r="AI132" s="8"/>
+      <c r="AJ132" s="8"/>
+      <c r="AK132" s="8"/>
+      <c r="AL132" s="8"/>
+      <c r="AM132" s="8"/>
+      <c r="AN132" s="8"/>
+      <c r="AO132" s="8"/>
+      <c r="AP132" s="8"/>
+      <c r="AQ132" s="8"/>
+      <c r="AR132" s="8"/>
+      <c r="AS132" s="8"/>
+      <c r="AT132" s="8"/>
+      <c r="AU132" s="8"/>
+      <c r="AV132" s="8"/>
+      <c r="AW132" s="8"/>
+      <c r="AX132" s="8"/>
+      <c r="AY132" s="8"/>
+      <c r="AZ132" s="8"/>
+      <c r="BA132" s="8"/>
+      <c r="BB132" s="8"/>
+      <c r="BC132" s="8"/>
+    </row>
+    <row r="133" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B133" s="7"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="8"/>
+      <c r="S133" s="8"/>
+      <c r="T133" s="8"/>
+      <c r="U133" s="8"/>
+      <c r="V133" s="8"/>
+      <c r="W133" s="8"/>
+      <c r="X133" s="8"/>
+      <c r="Y133" s="9"/>
+    </row>
+    <row r="134" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="8"/>
+      <c r="S134" s="8"/>
+      <c r="T134" s="8"/>
+      <c r="U134" s="8"/>
+      <c r="V134" s="8"/>
+      <c r="W134" s="8"/>
+      <c r="X134" s="8"/>
+      <c r="Y134" s="9"/>
+    </row>
+    <row r="135" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="10"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="8"/>
+      <c r="S135" s="8"/>
+      <c r="T135" s="8"/>
+      <c r="U135" s="8"/>
+      <c r="V135" s="8"/>
+      <c r="W135" s="8"/>
+      <c r="X135" s="8"/>
+      <c r="Y135" s="9"/>
+    </row>
+    <row r="136" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="8"/>
+      <c r="U136" s="8"/>
+      <c r="V136" s="8"/>
+      <c r="W136" s="8"/>
+      <c r="X136" s="8"/>
+      <c r="Y136" s="9"/>
+    </row>
+    <row r="137" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="8"/>
+      <c r="U137" s="8"/>
+      <c r="V137" s="8"/>
+      <c r="W137" s="8"/>
+      <c r="X137" s="8"/>
+      <c r="Y137" s="9"/>
+    </row>
+    <row r="138" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="8"/>
+      <c r="U138" s="8"/>
+      <c r="V138" s="8"/>
+      <c r="W138" s="8"/>
+      <c r="X138" s="8"/>
+      <c r="Y138" s="9"/>
+    </row>
+    <row r="139" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+      <c r="Q139" s="8"/>
+      <c r="R139" s="8"/>
+      <c r="S139" s="8"/>
+      <c r="T139" s="8"/>
+      <c r="U139" s="8"/>
+      <c r="V139" s="8"/>
+      <c r="W139" s="8"/>
+      <c r="X139" s="8"/>
+      <c r="Y139" s="9"/>
+    </row>
+    <row r="140" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="8"/>
+      <c r="U140" s="8"/>
+      <c r="V140" s="8"/>
+      <c r="W140" s="8"/>
+      <c r="X140" s="8"/>
+      <c r="Y140" s="9"/>
+    </row>
+    <row r="141" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B141" s="10"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="11"/>
+      <c r="U141" s="11"/>
+      <c r="V141" s="11"/>
+      <c r="W141" s="11"/>
+      <c r="X141" s="11"/>
+      <c r="Y141" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3231,6 +6722,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3238,7 +6730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
@@ -4512,2817 +8004,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AN77"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-      <c r="D4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="9"/>
-      <c r="AE5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="9"/>
-      <c r="AE6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="9"/>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="9"/>
-      <c r="AE8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="20">
-        <v>42325</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="9"/>
-      <c r="AE9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="20">
-        <v>42326</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="9"/>
-      <c r="AE10" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="9"/>
-      <c r="AE11" t="s">
-        <v>383</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="60" t="s">
-        <v>418</v>
-      </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>426</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="9"/>
-    </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="9"/>
-      <c r="AE13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="9"/>
-      <c r="AE14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="9"/>
-      <c r="AE15" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="9"/>
-      <c r="AE16" t="s">
-        <v>294</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="9"/>
-      <c r="AE17" t="s">
-        <v>295</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="9"/>
-      <c r="AE18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="9"/>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="9"/>
-      <c r="AE20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="9"/>
-      <c r="AE21" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="9"/>
-      <c r="AE22" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="9"/>
-      <c r="AE23" t="s">
-        <v>290</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="9"/>
-      <c r="AJ24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="9"/>
-      <c r="AE25" t="s">
-        <v>291</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="9"/>
-      <c r="AE26" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="9"/>
-      <c r="AE27" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="9"/>
-      <c r="AE28" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="9"/>
-      <c r="AE29" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="9"/>
-      <c r="AE30" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="9"/>
-      <c r="AJ31" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="9"/>
-      <c r="AJ32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="9"/>
-    </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="9"/>
-    </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="9"/>
-    </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="9"/>
-    </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="9"/>
-      <c r="AE37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38">
-        <v>1</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="9"/>
-      <c r="AE39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40">
-        <v>2</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="9"/>
-    </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="9"/>
-      <c r="AJ42" s="57"/>
-      <c r="AK42" s="57"/>
-      <c r="AL42" s="57"/>
-      <c r="AM42" s="57"/>
-      <c r="AN42" s="57"/>
-    </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="9"/>
-      <c r="AE43" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ43" s="57"/>
-      <c r="AK43" s="57"/>
-      <c r="AL43" s="57"/>
-      <c r="AM43" s="57"/>
-      <c r="AN43" s="57"/>
-    </row>
-    <row r="44" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="9"/>
-      <c r="AE44" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="V45" s="2"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="9"/>
-    </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="12"/>
-    </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="6"/>
-    </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="9"/>
-      <c r="AF49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="9"/>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AG51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AF52">
-        <v>2</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AF53">
-        <v>3</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AF54">
-        <v>4</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9"/>
-      <c r="AG55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="9"/>
-      <c r="AF56">
-        <v>5</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="8"/>
-      <c r="AD57" s="9"/>
-      <c r="AG57" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="8"/>
-      <c r="AB58" s="8"/>
-      <c r="AC58" s="8"/>
-      <c r="AD58" s="9"/>
-      <c r="AM58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="C59" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="8"/>
-      <c r="AB59" s="8"/>
-      <c r="AC59" s="8"/>
-      <c r="AD59" s="9"/>
-      <c r="AF59">
-        <v>6</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="8"/>
-      <c r="AD60" s="9"/>
-      <c r="AK60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="8"/>
-      <c r="AD61" s="9"/>
-      <c r="AF61">
-        <v>7</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-      <c r="AC62" s="8"/>
-      <c r="AD62" s="9"/>
-    </row>
-    <row r="63" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63" s="8"/>
-      <c r="AD63" s="9"/>
-      <c r="AF63">
-        <v>8</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="8"/>
-      <c r="AD64" s="9"/>
-    </row>
-    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="8"/>
-      <c r="AB65" s="8"/>
-      <c r="AC65" s="8"/>
-      <c r="AD65" s="9"/>
-      <c r="AF65">
-        <v>9</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="8"/>
-      <c r="AD66" s="9"/>
-    </row>
-    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="9"/>
-    </row>
-    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="8"/>
-      <c r="AC68" s="8"/>
-      <c r="AD68" s="9"/>
-    </row>
-    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="G69" s="13"/>
-      <c r="H69" t="s">
-        <v>134</v>
-      </c>
-      <c r="K69" s="13"/>
-      <c r="L69" t="s">
-        <v>135</v>
-      </c>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="8"/>
-      <c r="AB69" s="8"/>
-      <c r="AC69" s="8"/>
-      <c r="AD69" s="9"/>
-    </row>
-    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="8"/>
-      <c r="AB70" s="8"/>
-      <c r="AC70" s="8"/>
-      <c r="AD70" s="9"/>
-    </row>
-    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="8"/>
-      <c r="AB71" s="8"/>
-      <c r="AC71" s="8"/>
-      <c r="AD71" s="9"/>
-    </row>
-    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="8"/>
-      <c r="AB72" s="8"/>
-      <c r="AC72" s="8"/>
-      <c r="AD72" s="9"/>
-    </row>
-    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="8"/>
-      <c r="AB73" s="8"/>
-      <c r="AC73" s="8"/>
-      <c r="AD73" s="9"/>
-    </row>
-    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="8"/>
-      <c r="AB74" s="8"/>
-      <c r="AC74" s="8"/>
-      <c r="AD74" s="9"/>
-    </row>
-    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="9"/>
-    </row>
-    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="8"/>
-      <c r="AB76" s="8"/>
-      <c r="AC76" s="8"/>
-      <c r="AD76" s="9"/>
-    </row>
-    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="11"/>
-      <c r="AC77" s="11"/>
-      <c r="AD77" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="AR44" sqref="AR44"/>
     </sheetView>
   </sheetViews>
@@ -9790,7 +10474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BE141"/>
   <sheetViews>
@@ -16013,11 +16697,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
@@ -17533,7 +18217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BB73"/>
   <sheetViews>
@@ -20104,11 +20788,2947 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AN81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="9"/>
+      <c r="AE5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="9"/>
+      <c r="AE6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="9"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="9"/>
+      <c r="AE8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="20">
+        <v>42325</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="9"/>
+      <c r="AE9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="20">
+        <v>42326</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="9"/>
+      <c r="AE10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="9"/>
+      <c r="AE11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="60" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="9"/>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="9"/>
+      <c r="AE13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="9"/>
+      <c r="AE14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="9"/>
+      <c r="AE15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="9"/>
+      <c r="AE16" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="9"/>
+      <c r="AE17" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="9"/>
+      <c r="AE18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="9"/>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="9"/>
+      <c r="AE20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="9"/>
+      <c r="AE21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="9"/>
+      <c r="AE22" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="9"/>
+      <c r="AE23" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="9"/>
+      <c r="AJ24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="9"/>
+      <c r="AE25" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="9"/>
+      <c r="AE26" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="9"/>
+      <c r="AE27" t="s">
+        <v>293</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="9"/>
+      <c r="AE28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="9"/>
+      <c r="AE29" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="9"/>
+      <c r="AE30" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="9"/>
+      <c r="AJ31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="9"/>
+      <c r="AJ32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="9"/>
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="9"/>
+    </row>
+    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="9"/>
+    </row>
+    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="9"/>
+    </row>
+    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="9"/>
+      <c r="AE37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="9"/>
+      <c r="AE39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40">
+        <v>2</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="9"/>
+    </row>
+    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="9"/>
+      <c r="AJ42" s="57"/>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="57"/>
+      <c r="AM42" s="57"/>
+      <c r="AN42" s="57"/>
+    </row>
+    <row r="43" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="9"/>
+      <c r="AE43" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="57"/>
+      <c r="AL43" s="57"/>
+      <c r="AM43" s="57"/>
+      <c r="AN43" s="57"/>
+    </row>
+    <row r="44" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="9"/>
+      <c r="AE44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V45" s="2"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="9"/>
+    </row>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="12"/>
+    </row>
+    <row r="48" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="6"/>
+    </row>
+    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="9"/>
+      <c r="AF49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U50" s="2"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="9"/>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AG51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AF52">
+        <v>2</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AF53">
+        <v>3</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AF54">
+        <v>4</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AG55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="9"/>
+      <c r="AF56">
+        <v>5</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="9"/>
+      <c r="AG57" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="9"/>
+      <c r="AM58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="9"/>
+      <c r="AF59">
+        <v>6</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="9"/>
+      <c r="AK60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="9"/>
+      <c r="AF61">
+        <v>7</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="9"/>
+    </row>
+    <row r="63" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="9"/>
+      <c r="AF63">
+        <v>8</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="9"/>
+    </row>
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="9"/>
+      <c r="AF65">
+        <v>9</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="9"/>
+    </row>
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="9"/>
+    </row>
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="9"/>
+    </row>
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="G69" s="13"/>
+      <c r="H69" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69" s="13"/>
+      <c r="L69" t="s">
+        <v>135</v>
+      </c>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="9"/>
+    </row>
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="9"/>
+    </row>
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="9"/>
+    </row>
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="9"/>
+    </row>
+    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="9"/>
+    </row>
+    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="9"/>
+    </row>
+    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="9"/>
+    </row>
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="9"/>
+    </row>
+    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="9"/>
+    </row>
+    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="9"/>
+    </row>
+    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="9"/>
+    </row>
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="9"/>
+    </row>
+    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+      <c r="AB81" s="11"/>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="710" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Menu" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="480">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1331,12 +1331,6 @@
     <t>Tamu</t>
   </si>
   <si>
-    <t>Konfirmasi Pembayaran</t>
-  </si>
-  <si>
-    <t>Biaya Pembatalan</t>
-  </si>
-  <si>
     <t>Total Pembayaran</t>
   </si>
   <si>
@@ -1358,9 +1352,6 @@
     <t>Detail Order</t>
   </si>
   <si>
-    <t>Alamat</t>
-  </si>
-  <si>
     <t>Hotel ABC</t>
   </si>
   <si>
@@ -1391,9 +1382,6 @@
     <t>Detail Booking</t>
   </si>
   <si>
-    <t>Kamar</t>
-  </si>
-  <si>
     <t>Rooms</t>
   </si>
   <si>
@@ -1440,6 +1428,39 @@
   </si>
   <si>
     <t>Remaining Deposit</t>
+  </si>
+  <si>
+    <t>Tanggal Pembayaran</t>
+  </si>
+  <si>
+    <t>bisa kosong semua</t>
+  </si>
+  <si>
+    <t>Room Only/Inc Breakfast (type)</t>
+  </si>
+  <si>
+    <t>Total Room</t>
+  </si>
+  <si>
+    <t>Room/IncBreakFast</t>
+  </si>
+  <si>
+    <t>dibuat tulisannya jd</t>
+  </si>
+  <si>
+    <t>Room Only / Include Breakfast</t>
+  </si>
+  <si>
+    <t>Part of Group</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Kalau part of grup dicentang</t>
+  </si>
+  <si>
+    <t>grup name harus diisi,klo ga sebaliknya</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1495,6 +1516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,7 +1708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1754,6 +1781,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2212,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BC141"/>
+  <dimension ref="B1:BC145"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="N115" sqref="N115"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,7 +3578,7 @@
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -3618,7 +3652,7 @@
       <c r="C57" s="8"/>
       <c r="D57" s="7"/>
       <c r="E57" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
@@ -3757,12 +3791,12 @@
       <c r="U62" s="11"/>
       <c r="V62" s="12"/>
     </row>
-    <row r="65" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="24" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="67" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>429</v>
       </c>
@@ -3772,7 +3806,12 @@
       <c r="L67" s="2"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="69" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AD68" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>33</v>
       </c>
@@ -3790,7 +3829,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="71" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -3809,7 +3848,7 @@
       <c r="W71" s="2"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="73" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>431</v>
       </c>
@@ -3823,12 +3862,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="76" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C76" s="13" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>434</v>
       </c>
@@ -3836,12 +3875,12 @@
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="3"/>
       <c r="J78" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="3"/>
@@ -3851,7 +3890,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
       <c r="P78" s="1" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
@@ -3860,31 +3899,23 @@
       <c r="U78" s="3"/>
       <c r="V78" s="1"/>
       <c r="W78" s="2" t="s">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2"/>
-      <c r="AI78" s="2"/>
-      <c r="AJ78" s="3"/>
-      <c r="AK78" s="4"/>
-      <c r="AL78" s="5"/>
-      <c r="AM78" s="5"/>
-      <c r="AN78" s="3"/>
-    </row>
-    <row r="79" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="3"/>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3907,26 +3938,20 @@
       <c r="V79" s="7"/>
       <c r="W79" s="8"/>
       <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
+      <c r="Y79" s="9"/>
       <c r="Z79" s="8"/>
-      <c r="AA79" s="9"/>
-      <c r="AB79" s="7"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="8"/>
       <c r="AC79" s="8"/>
-      <c r="AD79" s="8"/>
-      <c r="AE79" s="9"/>
-      <c r="AF79" s="8"/>
-      <c r="AG79" s="8"/>
-      <c r="AH79" s="8"/>
-      <c r="AI79" s="8"/>
-      <c r="AJ79" s="9"/>
-      <c r="AK79" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL79" s="2"/>
-      <c r="AM79" s="3"/>
-      <c r="AN79" s="9"/>
-    </row>
-    <row r="80" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AD79" s="9"/>
+      <c r="AE79" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="9"/>
+    </row>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3949,22 +3974,16 @@
       <c r="V80" s="7"/>
       <c r="W80" s="8"/>
       <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
+      <c r="Y80" s="9"/>
       <c r="Z80" s="8"/>
-      <c r="AA80" s="9"/>
-      <c r="AB80" s="7"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
       <c r="AC80" s="8"/>
-      <c r="AD80" s="8"/>
-      <c r="AE80" s="9"/>
+      <c r="AD80" s="9"/>
+      <c r="AE80" s="7"/>
       <c r="AF80" s="8"/>
       <c r="AG80" s="8"/>
-      <c r="AH80" s="8"/>
-      <c r="AI80" s="8"/>
-      <c r="AJ80" s="9"/>
-      <c r="AK80" s="7"/>
-      <c r="AL80" s="8"/>
-      <c r="AM80" s="8"/>
-      <c r="AN80" s="9"/>
+      <c r="AH80" s="9"/>
     </row>
     <row r="81" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
@@ -3989,24 +4008,18 @@
       <c r="V81" s="7"/>
       <c r="W81" s="8"/>
       <c r="X81" s="8"/>
-      <c r="Y81" s="8"/>
+      <c r="Y81" s="9"/>
       <c r="Z81" s="8"/>
-      <c r="AA81" s="9"/>
-      <c r="AB81" s="7"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="8"/>
       <c r="AC81" s="8"/>
-      <c r="AD81" s="8"/>
-      <c r="AE81" s="9"/>
-      <c r="AF81" s="8"/>
-      <c r="AG81" s="8"/>
-      <c r="AH81" s="8"/>
-      <c r="AI81" s="8"/>
-      <c r="AJ81" s="9"/>
-      <c r="AK81" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AL81" s="2"/>
-      <c r="AM81" s="3"/>
-      <c r="AN81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="9"/>
     </row>
     <row r="82" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C82" s="10"/>
@@ -4031,22 +4044,16 @@
       <c r="V82" s="10"/>
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
-      <c r="Y82" s="11"/>
+      <c r="Y82" s="12"/>
       <c r="Z82" s="11"/>
-      <c r="AA82" s="12"/>
-      <c r="AB82" s="10"/>
+      <c r="AA82" s="11"/>
+      <c r="AB82" s="11"/>
       <c r="AC82" s="11"/>
-      <c r="AD82" s="11"/>
-      <c r="AE82" s="12"/>
+      <c r="AD82" s="12"/>
+      <c r="AE82" s="10"/>
       <c r="AF82" s="11"/>
       <c r="AG82" s="11"/>
-      <c r="AH82" s="11"/>
-      <c r="AI82" s="11"/>
-      <c r="AJ82" s="12"/>
-      <c r="AK82" s="10"/>
-      <c r="AL82" s="11"/>
-      <c r="AM82" s="11"/>
-      <c r="AN82" s="12"/>
+      <c r="AH82" s="12"/>
     </row>
     <row r="83" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
@@ -4071,22 +4078,16 @@
       <c r="V83" s="7"/>
       <c r="W83" s="8"/>
       <c r="X83" s="8"/>
-      <c r="Y83" s="8"/>
+      <c r="Y83" s="9"/>
       <c r="Z83" s="8"/>
-      <c r="AA83" s="9"/>
-      <c r="AB83" s="7"/>
+      <c r="AA83" s="8"/>
+      <c r="AB83" s="8"/>
       <c r="AC83" s="8"/>
-      <c r="AD83" s="8"/>
-      <c r="AE83" s="9"/>
+      <c r="AD83" s="9"/>
+      <c r="AE83" s="7"/>
       <c r="AF83" s="8"/>
       <c r="AG83" s="8"/>
-      <c r="AH83" s="8"/>
-      <c r="AI83" s="8"/>
-      <c r="AJ83" s="9"/>
-      <c r="AK83" s="7"/>
-      <c r="AL83" s="8"/>
-      <c r="AM83" s="8"/>
-      <c r="AN83" s="9"/>
+      <c r="AH83" s="9"/>
     </row>
     <row r="84" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
@@ -4111,24 +4112,18 @@
       <c r="V84" s="7"/>
       <c r="W84" s="8"/>
       <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
+      <c r="Y84" s="9"/>
       <c r="Z84" s="8"/>
-      <c r="AA84" s="9"/>
-      <c r="AB84" s="7"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="8"/>
       <c r="AC84" s="8"/>
-      <c r="AD84" s="8"/>
-      <c r="AE84" s="9"/>
-      <c r="AF84" s="8"/>
-      <c r="AG84" s="8"/>
-      <c r="AH84" s="8"/>
-      <c r="AI84" s="8"/>
-      <c r="AJ84" s="9"/>
-      <c r="AK84" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL84" s="2"/>
-      <c r="AM84" s="3"/>
-      <c r="AN84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="9"/>
     </row>
     <row r="85" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
@@ -4153,22 +4148,16 @@
       <c r="V85" s="7"/>
       <c r="W85" s="8"/>
       <c r="X85" s="8"/>
-      <c r="Y85" s="8"/>
+      <c r="Y85" s="9"/>
       <c r="Z85" s="8"/>
-      <c r="AA85" s="9"/>
-      <c r="AB85" s="7"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="8"/>
       <c r="AC85" s="8"/>
-      <c r="AD85" s="8"/>
-      <c r="AE85" s="9"/>
+      <c r="AD85" s="9"/>
+      <c r="AE85" s="7"/>
       <c r="AF85" s="8"/>
       <c r="AG85" s="8"/>
-      <c r="AH85" s="8"/>
-      <c r="AI85" s="8"/>
-      <c r="AJ85" s="9"/>
-      <c r="AK85" s="7"/>
-      <c r="AL85" s="8"/>
-      <c r="AM85" s="8"/>
-      <c r="AN85" s="9"/>
+      <c r="AH85" s="9"/>
     </row>
     <row r="86" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
@@ -4193,24 +4182,18 @@
       <c r="V86" s="7"/>
       <c r="W86" s="8"/>
       <c r="X86" s="8"/>
-      <c r="Y86" s="8"/>
+      <c r="Y86" s="9"/>
       <c r="Z86" s="8"/>
-      <c r="AA86" s="9"/>
-      <c r="AB86" s="7"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
       <c r="AC86" s="8"/>
-      <c r="AD86" s="8"/>
-      <c r="AE86" s="9"/>
-      <c r="AF86" s="8"/>
-      <c r="AG86" s="8"/>
-      <c r="AH86" s="8"/>
-      <c r="AI86" s="8"/>
-      <c r="AJ86" s="9"/>
-      <c r="AK86" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AL86" s="2"/>
-      <c r="AM86" s="3"/>
-      <c r="AN86" s="9"/>
+      <c r="AD86" s="9"/>
+      <c r="AE86" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="3"/>
+      <c r="AH86" s="9"/>
     </row>
     <row r="87" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C87" s="10"/>
@@ -4235,22 +4218,16 @@
       <c r="V87" s="10"/>
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
-      <c r="Y87" s="11"/>
+      <c r="Y87" s="12"/>
       <c r="Z87" s="11"/>
-      <c r="AA87" s="12"/>
-      <c r="AB87" s="10"/>
+      <c r="AA87" s="11"/>
+      <c r="AB87" s="11"/>
       <c r="AC87" s="11"/>
-      <c r="AD87" s="11"/>
-      <c r="AE87" s="12"/>
+      <c r="AD87" s="12"/>
+      <c r="AE87" s="10"/>
       <c r="AF87" s="11"/>
       <c r="AG87" s="11"/>
-      <c r="AH87" s="11"/>
-      <c r="AI87" s="11"/>
-      <c r="AJ87" s="12"/>
-      <c r="AK87" s="10"/>
-      <c r="AL87" s="11"/>
-      <c r="AM87" s="11"/>
-      <c r="AN87" s="12"/>
+      <c r="AH87" s="12"/>
     </row>
     <row r="88" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C88" s="10"/>
@@ -4275,26 +4252,20 @@
       <c r="V88" s="10"/>
       <c r="W88" s="11"/>
       <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
+      <c r="Y88" s="12"/>
       <c r="Z88" s="11"/>
-      <c r="AA88" s="12"/>
-      <c r="AB88" s="10"/>
+      <c r="AA88" s="11"/>
+      <c r="AB88" s="11"/>
       <c r="AC88" s="11"/>
-      <c r="AD88" s="11"/>
-      <c r="AE88" s="12"/>
+      <c r="AD88" s="12"/>
+      <c r="AE88" s="10"/>
       <c r="AF88" s="11"/>
       <c r="AG88" s="11"/>
-      <c r="AH88" s="11"/>
-      <c r="AI88" s="11"/>
-      <c r="AJ88" s="12"/>
-      <c r="AK88" s="10"/>
-      <c r="AL88" s="11"/>
-      <c r="AM88" s="11"/>
-      <c r="AN88" s="12"/>
+      <c r="AH88" s="12"/>
     </row>
     <row r="91" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C91" s="24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="3:55" x14ac:dyDescent="0.25">
@@ -4352,7 +4323,7 @@
     </row>
     <row r="93" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C93" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4381,7 +4352,7 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="9"/>
       <c r="AF93" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AG93" s="8"/>
       <c r="AH93" s="8"/>
@@ -4456,7 +4427,7 @@
       <c r="AX94" s="11"/>
       <c r="AY94" s="11"/>
       <c r="AZ94" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="BA94" s="11"/>
       <c r="BB94" s="11"/>
@@ -4478,11 +4449,15 @@
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
+      <c r="N95" s="8" t="s">
+        <v>451</v>
+      </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
+      <c r="R95" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
       <c r="U95" s="7"/>
@@ -4565,7 +4540,7 @@
       <c r="AO96" s="8"/>
       <c r="AP96" s="8"/>
       <c r="AQ96" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AR96" s="8"/>
       <c r="AS96" s="8"/>
@@ -4600,11 +4575,15 @@
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
+      <c r="N97" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
+      <c r="R97" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
       <c r="U97" s="7"/>
@@ -4670,7 +4649,7 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="9"/>
       <c r="AF98" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AG98" s="8"/>
       <c r="AH98" s="8"/>
@@ -4697,10 +4676,14 @@
       <c r="AW98" s="8"/>
       <c r="AX98" s="8"/>
       <c r="AY98" s="8"/>
-      <c r="AZ98" s="8"/>
+      <c r="AZ98" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="BA98" s="8"/>
       <c r="BB98" s="8"/>
-      <c r="BC98" s="9"/>
+      <c r="BC98" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="99" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C99" s="7" t="s">
@@ -4788,7 +4771,7 @@
       <c r="AB100" s="8"/>
       <c r="AC100" s="9"/>
       <c r="AF100" s="18" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
@@ -4838,7 +4821,7 @@
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
       <c r="U101" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
@@ -4928,7 +4911,7 @@
     </row>
     <row r="103" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C103" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4950,7 +4933,7 @@
       <c r="S103" s="8"/>
       <c r="T103" s="8"/>
       <c r="U103" s="15" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
@@ -5044,7 +5027,7 @@
     </row>
     <row r="105" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C105" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5066,27 +5049,24 @@
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
       <c r="U105" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
       <c r="X105" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AB105" s="8"/>
       <c r="AC105" s="9"/>
       <c r="AF105" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="AG105" s="8"/>
-      <c r="AH105" s="8"/>
-      <c r="AI105" s="8"/>
-      <c r="AJ105" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ105" t="s">
         <v>35</v>
       </c>
       <c r="AK105" s="8"/>
@@ -5138,10 +5118,6 @@
       <c r="AB106" s="8"/>
       <c r="AC106" s="9"/>
       <c r="AF106" s="7"/>
-      <c r="AG106" s="8"/>
-      <c r="AH106" s="8"/>
-      <c r="AI106" s="8"/>
-      <c r="AJ106" s="8"/>
       <c r="AK106" s="8"/>
       <c r="AL106" s="8"/>
       <c r="AM106" s="8"/>
@@ -5185,8 +5161,12 @@
       <c r="R107" s="8"/>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="8"/>
+      <c r="U107" s="8">
+        <v>2</v>
+      </c>
+      <c r="V107" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="W107" s="8"/>
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
@@ -5195,7 +5175,7 @@
       <c r="AB107" s="8"/>
       <c r="AC107" s="9"/>
       <c r="AF107" s="7" t="s">
-        <v>445</v>
+        <v>143</v>
       </c>
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
@@ -5242,7 +5222,9 @@
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
-      <c r="U108" s="8"/>
+      <c r="U108" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
       <c r="X108" s="8"/>
@@ -5278,13 +5260,13 @@
     </row>
     <row r="109" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
       <c r="G109" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2"/>
@@ -5309,33 +5291,11 @@
       <c r="AB109" s="8"/>
       <c r="AC109" s="9"/>
       <c r="AF109" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG109" s="8"/>
-      <c r="AH109" s="8"/>
-      <c r="AI109" s="8"/>
-      <c r="AJ109" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ109" t="s">
         <v>35</v>
       </c>
-      <c r="AK109" s="8"/>
-      <c r="AL109" s="8"/>
-      <c r="AM109" s="8"/>
-      <c r="AN109" s="8"/>
-      <c r="AO109" s="8"/>
-      <c r="AP109" s="8"/>
-      <c r="AQ109" s="8"/>
-      <c r="AR109" s="8"/>
-      <c r="AS109" s="8"/>
-      <c r="AT109" s="8"/>
-      <c r="AU109" s="8"/>
-      <c r="AV109" s="8"/>
-      <c r="AW109" s="8"/>
-      <c r="AX109" s="8"/>
-      <c r="AY109" s="8"/>
-      <c r="AZ109" s="8"/>
-      <c r="BA109" s="8"/>
-      <c r="BB109" s="8"/>
-      <c r="BC109" s="9"/>
     </row>
     <row r="110" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
@@ -5366,29 +5326,6 @@
       <c r="AB110" s="8"/>
       <c r="AC110" s="9"/>
       <c r="AF110" s="7"/>
-      <c r="AG110" s="8"/>
-      <c r="AH110" s="8"/>
-      <c r="AI110" s="8"/>
-      <c r="AJ110" s="8"/>
-      <c r="AK110" s="8"/>
-      <c r="AL110" s="8"/>
-      <c r="AM110" s="8"/>
-      <c r="AN110" s="8"/>
-      <c r="AO110" s="8"/>
-      <c r="AP110" s="8"/>
-      <c r="AQ110" s="8"/>
-      <c r="AR110" s="8"/>
-      <c r="AS110" s="8"/>
-      <c r="AT110" s="8"/>
-      <c r="AU110" s="8"/>
-      <c r="AV110" s="8"/>
-      <c r="AW110" s="8"/>
-      <c r="AX110" s="8"/>
-      <c r="AY110" s="8"/>
-      <c r="AZ110" s="8"/>
-      <c r="BA110" s="8"/>
-      <c r="BB110" s="8"/>
-      <c r="BC110" s="9"/>
     </row>
     <row r="111" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C111" s="7"/>
@@ -5396,7 +5333,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2"/>
@@ -5421,7 +5358,7 @@
       <c r="AB111" s="8"/>
       <c r="AC111" s="9"/>
       <c r="AF111" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
@@ -5504,7 +5441,7 @@
     </row>
     <row r="113" spans="2:55" x14ac:dyDescent="0.25">
       <c r="AF113" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
@@ -5560,7 +5497,7 @@
     </row>
     <row r="115" spans="2:55" x14ac:dyDescent="0.25">
       <c r="AF115" s="7" t="s">
-        <v>457</v>
+        <v>50</v>
       </c>
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
@@ -5640,7 +5577,7 @@
     </row>
     <row r="117" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -5666,7 +5603,7 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="9"/>
       <c r="AF117" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
@@ -5715,8 +5652,8 @@
       <c r="S118" s="11"/>
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
-      <c r="V118" s="11" t="s">
-        <v>441</v>
+      <c r="V118" s="74" t="s">
+        <v>439</v>
       </c>
       <c r="W118" s="11"/>
       <c r="X118" s="11"/>
@@ -5748,7 +5685,7 @@
     </row>
     <row r="119" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B119" s="18" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -5774,7 +5711,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="6"/>
       <c r="AF119" s="7" t="s">
-        <v>312</v>
+        <v>454</v>
       </c>
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
@@ -5878,7 +5815,7 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="9"/>
       <c r="AF121" s="7" t="s">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
@@ -5908,37 +5845,11 @@
     </row>
     <row r="122" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G122" t="s">
         <v>35</v>
       </c>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-      <c r="V122" s="8"/>
-      <c r="W122" s="8"/>
-      <c r="X122" s="8"/>
-      <c r="Y122" s="9"/>
       <c r="AF122" s="7"/>
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
@@ -5966,34 +5877,15 @@
     </row>
     <row r="123" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-      <c r="S123" s="8"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
-      <c r="V123" s="8"/>
-      <c r="W123" s="8"/>
-      <c r="X123" s="8"/>
-      <c r="Y123" s="9"/>
-      <c r="AF123" s="7"/>
+      <c r="AF123" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="AG123" s="8"/>
       <c r="AH123" s="8"/>
       <c r="AI123" s="8"/>
-      <c r="AJ123" s="8"/>
+      <c r="AJ123" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="AK123" s="8"/>
       <c r="AL123" s="8"/>
       <c r="AM123" s="8"/>
@@ -6016,7 +5908,7 @@
     </row>
     <row r="124" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -6032,7 +5924,7 @@
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
       <c r="N124" s="8" t="s">
-        <v>311</v>
+        <v>451</v>
       </c>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
@@ -6124,7 +6016,7 @@
     </row>
     <row r="126" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -6140,7 +6032,7 @@
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8" t="s">
-        <v>466</v>
+        <v>311</v>
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
@@ -6156,7 +6048,7 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="9"/>
       <c r="AF126" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AG126" s="5"/>
       <c r="AH126" s="5"/>
@@ -6234,7 +6126,7 @@
     </row>
     <row r="128" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -6250,7 +6142,7 @@
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8" t="s">
-        <v>213</v>
+        <v>462</v>
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
@@ -6341,35 +6233,31 @@
       <c r="BC129" s="9"/>
     </row>
     <row r="130" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B130" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K130" s="3"/>
-      <c r="L130" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M130" s="3"/>
-      <c r="N130" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O130" s="3"/>
-      <c r="P130" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q130" s="3"/>
-      <c r="R130" s="8"/>
+      <c r="B130" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="8"/>
+      <c r="R130" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S130" s="8"/>
       <c r="T130" s="8"/>
       <c r="U130" s="8"/>
@@ -6406,19 +6294,19 @@
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
-      <c r="E131" s="9"/>
+      <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="9"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
       <c r="S131" s="8"/>
       <c r="T131" s="8"/>
@@ -6429,22 +6317,26 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B132" s="7"/>
+      <c r="B132" s="7" t="s">
+        <v>472</v>
+      </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
-      <c r="E132" s="9"/>
+      <c r="E132" s="8"/>
       <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
+      <c r="G132" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="7"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="9"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
       <c r="S132" s="8"/>
       <c r="T132" s="8"/>
@@ -6453,48 +6345,24 @@
       <c r="W132" s="8"/>
       <c r="X132" s="8"/>
       <c r="Y132" s="9"/>
-      <c r="AF132" s="8"/>
-      <c r="AG132" s="8"/>
-      <c r="AH132" s="8"/>
-      <c r="AI132" s="8"/>
-      <c r="AJ132" s="8"/>
-      <c r="AK132" s="8"/>
-      <c r="AL132" s="8"/>
-      <c r="AM132" s="8"/>
-      <c r="AN132" s="8"/>
-      <c r="AO132" s="8"/>
-      <c r="AP132" s="8"/>
-      <c r="AQ132" s="8"/>
-      <c r="AR132" s="8"/>
-      <c r="AS132" s="8"/>
-      <c r="AT132" s="8"/>
-      <c r="AU132" s="8"/>
-      <c r="AV132" s="8"/>
-      <c r="AW132" s="8"/>
-      <c r="AX132" s="8"/>
-      <c r="AY132" s="8"/>
-      <c r="AZ132" s="8"/>
-      <c r="BA132" s="8"/>
-      <c r="BB132" s="8"/>
-      <c r="BC132" s="8"/>
     </row>
     <row r="133" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="9"/>
+      <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="7"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="9"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+      <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
       <c r="S133" s="8"/>
       <c r="T133" s="8"/>
@@ -6505,23 +6373,35 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B134" s="7"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="9"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="8"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L134" s="3"/>
+      <c r="M134" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N134" s="3"/>
+      <c r="O134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R134" s="3"/>
       <c r="S134" s="8"/>
       <c r="T134" s="8"/>
       <c r="U134" s="8"/>
@@ -6531,23 +6411,23 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B135" s="10"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="12"/>
-      <c r="N135" s="10"/>
-      <c r="O135" s="12"/>
-      <c r="P135" s="10"/>
-      <c r="Q135" s="12"/>
-      <c r="R135" s="8"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="9"/>
       <c r="S135" s="8"/>
       <c r="T135" s="8"/>
       <c r="U135" s="8"/>
@@ -6557,23 +6437,23 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B136" s="7"/>
-      <c r="C136" s="8"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
+      <c r="F136" s="9"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="8"/>
-      <c r="P136" s="8"/>
-      <c r="Q136" s="8"/>
-      <c r="R136" s="8"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="9"/>
       <c r="S136" s="8"/>
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
@@ -6583,27 +6463,23 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B137" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="C137" s="8"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="F137" s="9"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-      <c r="Q137" s="8"/>
-      <c r="R137" s="8"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="9"/>
       <c r="S137" s="8"/>
       <c r="T137" s="8"/>
       <c r="U137" s="8"/>
@@ -6613,23 +6489,23 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B138" s="7"/>
-      <c r="C138" s="8"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
+      <c r="F138" s="9"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
-      <c r="N138" s="8"/>
-      <c r="O138" s="8"/>
-      <c r="P138" s="8"/>
-      <c r="Q138" s="8"/>
-      <c r="R138" s="8"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="9"/>
       <c r="S138" s="8"/>
       <c r="T138" s="8"/>
       <c r="U138" s="8"/>
@@ -6639,23 +6515,23 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B139" s="7"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="8"/>
-      <c r="O139" s="8"/>
-      <c r="P139" s="8"/>
-      <c r="Q139" s="8"/>
-      <c r="R139" s="8"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="10"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="12"/>
       <c r="S139" s="8"/>
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
@@ -6691,30 +6567,138 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B141" s="10"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11"/>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="11"/>
-      <c r="P141" s="11"/>
-      <c r="Q141" s="11"/>
-      <c r="R141" s="11"/>
-      <c r="S141" s="11"/>
-      <c r="T141" s="11"/>
-      <c r="U141" s="11"/>
-      <c r="V141" s="11"/>
-      <c r="W141" s="11"/>
-      <c r="X141" s="11"/>
-      <c r="Y141" s="12"/>
+      <c r="B141" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
+      <c r="U141" s="8"/>
+      <c r="V141" s="8"/>
+      <c r="W141" s="8"/>
+      <c r="X141" s="8"/>
+      <c r="Y141" s="9"/>
+    </row>
+    <row r="142" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="8"/>
+      <c r="R142" s="8"/>
+      <c r="S142" s="8"/>
+      <c r="T142" s="8"/>
+      <c r="U142" s="8"/>
+      <c r="V142" s="8"/>
+      <c r="W142" s="8"/>
+      <c r="X142" s="8"/>
+      <c r="Y142" s="9"/>
+    </row>
+    <row r="143" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B143" s="7"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+      <c r="Q143" s="8"/>
+      <c r="R143" s="8"/>
+      <c r="S143" s="8"/>
+      <c r="T143" s="8"/>
+      <c r="U143" s="8"/>
+      <c r="V143" s="8"/>
+      <c r="W143" s="8"/>
+      <c r="X143" s="8"/>
+      <c r="Y143" s="9"/>
+    </row>
+    <row r="144" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B144" s="7"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+      <c r="Q144" s="8"/>
+      <c r="R144" s="8"/>
+      <c r="S144" s="8"/>
+      <c r="T144" s="8"/>
+      <c r="U144" s="8"/>
+      <c r="V144" s="8"/>
+      <c r="W144" s="8"/>
+      <c r="X144" s="8"/>
+      <c r="Y144" s="9"/>
+    </row>
+    <row r="145" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B145" s="10"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="11"/>
+      <c r="U145" s="11"/>
+      <c r="V145" s="11"/>
+      <c r="W145" s="11"/>
+      <c r="X145" s="11"/>
+      <c r="Y145" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8006,7 +7990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="AR44" sqref="AR44"/>
     </sheetView>
   </sheetViews>
@@ -10476,10 +10460,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BE141"/>
+  <dimension ref="B2:BG141"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="AK102" sqref="AK102"/>
+    <sheetView topLeftCell="V89" workbookViewId="0">
+      <selection activeCell="AR81" sqref="AR81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12859,7 +12843,7 @@
       <c r="BB64" s="8"/>
       <c r="BC64" s="8"/>
     </row>
-    <row r="65" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" s="22"/>
       <c r="D65" s="7"/>
@@ -12913,7 +12897,7 @@
       <c r="BB65" s="8"/>
       <c r="BC65" s="8"/>
     </row>
-    <row r="66" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="23"/>
       <c r="D66" s="10"/>
@@ -12975,7 +12959,7 @@
       <c r="BB66" s="8"/>
       <c r="BC66" s="8"/>
     </row>
-    <row r="67" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -13031,7 +13015,7 @@
       <c r="BB67" s="8"/>
       <c r="BC67" s="8"/>
     </row>
-    <row r="68" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -13095,7 +13079,7 @@
       <c r="BB68" s="8"/>
       <c r="BC68" s="8"/>
     </row>
-    <row r="69" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -13151,7 +13135,7 @@
       <c r="BB69" s="8"/>
       <c r="BC69" s="8"/>
     </row>
-    <row r="70" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -13211,7 +13195,7 @@
       <c r="BB70" s="8"/>
       <c r="BC70" s="8"/>
     </row>
-    <row r="71" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>50</v>
       </c>
@@ -13269,7 +13253,7 @@
       <c r="BB71" s="8"/>
       <c r="BC71" s="8"/>
     </row>
-    <row r="72" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B72" s="8">
         <v>1</v>
       </c>
@@ -13333,7 +13317,7 @@
       <c r="BB72" s="8"/>
       <c r="BC72" s="8"/>
     </row>
-    <row r="73" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
         <v>2</v>
       </c>
@@ -13395,7 +13379,7 @@
       <c r="BB73" s="8"/>
       <c r="BC73" s="8"/>
     </row>
-    <row r="74" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
         <v>255</v>
@@ -13457,7 +13441,7 @@
       <c r="BB74" s="8"/>
       <c r="BC74" s="8"/>
     </row>
-    <row r="75" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="19" t="s">
         <v>256</v>
@@ -13515,7 +13499,7 @@
       <c r="BB75" s="8"/>
       <c r="BC75" s="8"/>
     </row>
-    <row r="76" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="32" t="s">
         <v>259</v>
@@ -13568,16 +13552,24 @@
       <c r="AS76" s="8"/>
       <c r="AT76" s="8"/>
       <c r="AU76" s="8"/>
-      <c r="AV76" s="8"/>
-      <c r="AW76" s="8"/>
-      <c r="AX76" s="8"/>
-      <c r="AY76" s="8"/>
-      <c r="AZ76" s="8"/>
-      <c r="BA76" s="8"/>
-      <c r="BB76" s="8"/>
-      <c r="BC76" s="8"/>
-    </row>
-    <row r="77" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AV76" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW76" s="68"/>
+      <c r="AX76" s="69"/>
+      <c r="AY76" s="70"/>
+      <c r="AZ76" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA76" s="68"/>
+      <c r="BB76" s="68"/>
+      <c r="BC76" s="68"/>
+      <c r="BD76" s="71"/>
+      <c r="BE76" s="71"/>
+      <c r="BF76" s="71"/>
+      <c r="BG76" s="71"/>
+    </row>
+    <row r="77" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="34" t="s">
         <v>260</v>
@@ -13628,16 +13620,22 @@
       <c r="AS77" s="8"/>
       <c r="AT77" s="8"/>
       <c r="AU77" s="8"/>
-      <c r="AV77" s="8"/>
-      <c r="AW77" s="8"/>
-      <c r="AX77" s="8"/>
-      <c r="AY77" s="8"/>
-      <c r="AZ77" s="8"/>
-      <c r="BA77" s="8"/>
-      <c r="BB77" s="8"/>
-      <c r="BC77" s="8"/>
-    </row>
-    <row r="78" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AV77" s="68"/>
+      <c r="AW77" s="68"/>
+      <c r="AX77" s="68"/>
+      <c r="AY77" s="68"/>
+      <c r="AZ77" s="68" t="s">
+        <v>473</v>
+      </c>
+      <c r="BA77" s="68"/>
+      <c r="BB77" s="68"/>
+      <c r="BC77" s="68"/>
+      <c r="BD77" s="71"/>
+      <c r="BE77" s="71"/>
+      <c r="BF77" s="71"/>
+      <c r="BG77" s="71"/>
+    </row>
+    <row r="78" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -13666,32 +13664,40 @@
       <c r="AA78" s="8"/>
       <c r="AB78" s="8"/>
       <c r="AE78" s="7"/>
-      <c r="AF78" s="8"/>
-      <c r="AG78" s="8"/>
-      <c r="AH78" s="8"/>
-      <c r="AI78" s="8"/>
-      <c r="AJ78" s="8"/>
-      <c r="AK78" s="8"/>
-      <c r="AL78" s="8"/>
-      <c r="AM78" s="8"/>
-      <c r="AN78" s="8"/>
-      <c r="AO78" s="8"/>
-      <c r="AP78" s="8"/>
-      <c r="AQ78" s="8"/>
+      <c r="AF78" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="AG78" s="68"/>
+      <c r="AH78" s="68"/>
+      <c r="AI78" s="68"/>
+      <c r="AJ78" s="68"/>
+      <c r="AK78" s="72"/>
+      <c r="AL78" s="68"/>
+      <c r="AM78" s="68"/>
+      <c r="AN78" s="68"/>
+      <c r="AO78" s="68"/>
+      <c r="AP78" s="68"/>
+      <c r="AQ78" s="68"/>
       <c r="AR78" s="8"/>
       <c r="AS78" s="8"/>
       <c r="AT78" s="8"/>
       <c r="AU78" s="8"/>
-      <c r="AV78" s="8"/>
-      <c r="AW78" s="8"/>
-      <c r="AX78" s="8"/>
-      <c r="AY78" s="8"/>
-      <c r="AZ78" s="8"/>
-      <c r="BA78" s="8"/>
-      <c r="BB78" s="8"/>
-      <c r="BC78" s="8"/>
-    </row>
-    <row r="79" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AV78" s="68"/>
+      <c r="AW78" s="68"/>
+      <c r="AX78" s="68"/>
+      <c r="AY78" s="68"/>
+      <c r="AZ78" s="68" t="s">
+        <v>474</v>
+      </c>
+      <c r="BA78" s="68"/>
+      <c r="BB78" s="68"/>
+      <c r="BC78" s="68"/>
+      <c r="BD78" s="71"/>
+      <c r="BE78" s="71"/>
+      <c r="BF78" s="71"/>
+      <c r="BG78" s="71"/>
+    </row>
+    <row r="79" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="19" t="s">
         <v>262</v>
@@ -13726,36 +13732,37 @@
       <c r="AA79" s="8"/>
       <c r="AB79" s="8"/>
       <c r="AE79" s="7"/>
-      <c r="AF79" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG79" s="8"/>
-      <c r="AH79" s="8"/>
-      <c r="AI79" s="8"/>
-      <c r="AJ79" s="8"/>
-      <c r="AK79" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AL79" s="5"/>
-      <c r="AM79" s="5"/>
-      <c r="AN79" s="5"/>
-      <c r="AO79" s="5"/>
-      <c r="AP79" s="5"/>
-      <c r="AQ79" s="5"/>
-      <c r="AR79" s="5"/>
-      <c r="AS79" s="5"/>
-      <c r="AT79" s="5"/>
-      <c r="AU79" s="5"/>
-      <c r="AV79" s="5"/>
-      <c r="AW79" s="6"/>
-      <c r="AX79" s="8"/>
-      <c r="AY79" s="8"/>
-      <c r="AZ79" s="8"/>
-      <c r="BA79" s="8"/>
-      <c r="BB79" s="8"/>
-      <c r="BC79" s="8"/>
-    </row>
-    <row r="80" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AF79" s="71"/>
+      <c r="AG79" s="71"/>
+      <c r="AH79" s="71"/>
+      <c r="AI79" s="71"/>
+      <c r="AJ79" s="71"/>
+      <c r="AK79" s="71"/>
+      <c r="AL79" s="71"/>
+      <c r="AM79" s="71"/>
+      <c r="AN79" s="71"/>
+      <c r="AO79" s="71"/>
+      <c r="AP79" s="71"/>
+      <c r="AQ79" s="71"/>
+      <c r="AR79" t="s">
+        <v>478</v>
+      </c>
+      <c r="AV79" s="71"/>
+      <c r="AW79" s="71"/>
+      <c r="AX79" s="71"/>
+      <c r="AY79" s="71"/>
+      <c r="AZ79" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="BA79" s="71"/>
+      <c r="BB79" s="71"/>
+      <c r="BC79" s="71"/>
+      <c r="BD79" s="71"/>
+      <c r="BE79" s="71"/>
+      <c r="BF79" s="71"/>
+      <c r="BG79" s="71"/>
+    </row>
+    <row r="80" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -13788,30 +13795,23 @@
       <c r="AA80" s="8"/>
       <c r="AB80" s="8"/>
       <c r="AE80" s="7"/>
-      <c r="AF80" s="8"/>
-      <c r="AG80" s="8"/>
-      <c r="AH80" s="8"/>
-      <c r="AI80" s="8"/>
-      <c r="AJ80" s="8"/>
-      <c r="AK80" s="7"/>
-      <c r="AL80" s="8"/>
-      <c r="AM80" s="8"/>
-      <c r="AN80" s="8"/>
-      <c r="AO80" s="8"/>
-      <c r="AP80" s="8"/>
-      <c r="AQ80" s="8"/>
-      <c r="AR80" s="8"/>
-      <c r="AS80" s="8"/>
-      <c r="AT80" s="8"/>
-      <c r="AU80" s="8"/>
-      <c r="AV80" s="8"/>
-      <c r="AW80" s="9"/>
-      <c r="AX80" s="8"/>
-      <c r="AY80" s="8"/>
-      <c r="AZ80" s="8"/>
-      <c r="BA80" s="8"/>
-      <c r="BB80" s="8"/>
-      <c r="BC80" s="8"/>
+      <c r="AF80" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG80" s="71"/>
+      <c r="AH80" s="71"/>
+      <c r="AI80" s="71"/>
+      <c r="AJ80" s="71"/>
+      <c r="AK80" s="69"/>
+      <c r="AL80" s="73"/>
+      <c r="AM80" s="73"/>
+      <c r="AN80" s="73"/>
+      <c r="AO80" s="73"/>
+      <c r="AP80" s="70"/>
+      <c r="AQ80" s="71"/>
+      <c r="AR80" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="81" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
@@ -13842,30 +13842,6 @@
       <c r="AA81" s="8"/>
       <c r="AB81" s="8"/>
       <c r="AE81" s="7"/>
-      <c r="AF81" s="8"/>
-      <c r="AG81" s="8"/>
-      <c r="AH81" s="8"/>
-      <c r="AI81" s="8"/>
-      <c r="AJ81" s="8"/>
-      <c r="AK81" s="10"/>
-      <c r="AL81" s="11"/>
-      <c r="AM81" s="11"/>
-      <c r="AN81" s="11"/>
-      <c r="AO81" s="11"/>
-      <c r="AP81" s="11"/>
-      <c r="AQ81" s="11"/>
-      <c r="AR81" s="11"/>
-      <c r="AS81" s="11"/>
-      <c r="AT81" s="11"/>
-      <c r="AU81" s="11"/>
-      <c r="AV81" s="11"/>
-      <c r="AW81" s="12"/>
-      <c r="AX81" s="8"/>
-      <c r="AY81" s="8"/>
-      <c r="AZ81" s="8"/>
-      <c r="BA81" s="8"/>
-      <c r="BB81" s="8"/>
-      <c r="BC81" s="8"/>
     </row>
     <row r="82" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
@@ -13898,27 +13874,30 @@
       <c r="AA82" s="8"/>
       <c r="AB82" s="8"/>
       <c r="AE82" s="7"/>
-      <c r="AF82" s="8"/>
+      <c r="AF82" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="AG82" s="8"/>
       <c r="AH82" s="8"/>
       <c r="AI82" s="8"/>
       <c r="AJ82" s="8"/>
-      <c r="AK82" s="8"/>
-      <c r="AL82" s="8"/>
-      <c r="AM82" s="8"/>
-      <c r="AN82" s="8"/>
-      <c r="AO82" s="8"/>
-      <c r="AP82" s="8"/>
-      <c r="AQ82" s="8"/>
-      <c r="AR82" s="8"/>
-      <c r="AS82" s="8"/>
-      <c r="AT82" s="8"/>
-      <c r="AU82" s="8"/>
-      <c r="AV82" s="8"/>
-      <c r="AW82" s="8"/>
+      <c r="AK82" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="5"/>
+      <c r="AS82" s="5"/>
+      <c r="AT82" s="5"/>
+      <c r="AU82" s="5"/>
+      <c r="AV82" s="5"/>
+      <c r="AW82" s="6"/>
       <c r="AX82" s="8"/>
       <c r="AY82" s="8"/>
-      <c r="AZ82" s="8"/>
       <c r="BA82" s="8"/>
       <c r="BB82" s="8"/>
       <c r="BC82" s="8"/>
@@ -13954,28 +13933,26 @@
       <c r="AA83" s="8"/>
       <c r="AB83" s="8"/>
       <c r="AE83" s="7"/>
-      <c r="AF83" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
-      <c r="AM83" s="5"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
-      <c r="AQ83" s="5"/>
-      <c r="AR83" s="5"/>
-      <c r="AS83" s="5"/>
-      <c r="AT83" s="5"/>
-      <c r="AU83" s="5"/>
-      <c r="AV83" s="5"/>
-      <c r="AW83" s="5"/>
-      <c r="AX83" s="5"/>
-      <c r="AY83" s="5"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="8"/>
+      <c r="AH83" s="8"/>
+      <c r="AI83" s="8"/>
+      <c r="AJ83" s="8"/>
+      <c r="AK83" s="7"/>
+      <c r="AL83" s="8"/>
+      <c r="AM83" s="8"/>
+      <c r="AN83" s="8"/>
+      <c r="AO83" s="8"/>
+      <c r="AP83" s="8"/>
+      <c r="AQ83" s="8"/>
+      <c r="AR83" s="8"/>
+      <c r="AS83" s="8"/>
+      <c r="AT83" s="8"/>
+      <c r="AU83" s="8"/>
+      <c r="AV83" s="8"/>
+      <c r="AW83" s="9"/>
+      <c r="AX83" s="8"/>
+      <c r="AY83" s="8"/>
       <c r="AZ83" s="8"/>
       <c r="BA83" s="8"/>
       <c r="BB83" s="8"/>
@@ -14012,26 +13989,24 @@
       <c r="AA84" s="8"/>
       <c r="AB84" s="8"/>
       <c r="AE84" s="7"/>
-      <c r="AF84" s="7"/>
+      <c r="AF84" s="8"/>
       <c r="AG84" s="8"/>
       <c r="AH84" s="8"/>
       <c r="AI84" s="8"/>
       <c r="AJ84" s="8"/>
-      <c r="AK84" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="AL84" s="8"/>
-      <c r="AM84" s="8"/>
-      <c r="AN84" s="8"/>
-      <c r="AO84" s="8"/>
-      <c r="AP84" s="8"/>
-      <c r="AQ84" s="8"/>
-      <c r="AR84" s="8"/>
-      <c r="AS84" s="8"/>
-      <c r="AT84" s="8"/>
-      <c r="AU84" s="8"/>
-      <c r="AV84" s="8"/>
-      <c r="AW84" s="8"/>
+      <c r="AK84" s="10"/>
+      <c r="AL84" s="11"/>
+      <c r="AM84" s="11"/>
+      <c r="AN84" s="11"/>
+      <c r="AO84" s="11"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="11"/>
+      <c r="AR84" s="11"/>
+      <c r="AS84" s="11"/>
+      <c r="AT84" s="11"/>
+      <c r="AU84" s="11"/>
+      <c r="AV84" s="11"/>
+      <c r="AW84" s="12"/>
       <c r="AX84" s="8"/>
       <c r="AY84" s="8"/>
       <c r="AZ84" s="8"/>
@@ -14068,20 +14043,14 @@
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
       <c r="AE85" s="7"/>
-      <c r="AF85" s="7"/>
-      <c r="AG85" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="AF85" s="8"/>
+      <c r="AG85" s="8"/>
       <c r="AH85" s="8"/>
       <c r="AI85" s="8"/>
       <c r="AJ85" s="8"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM85" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="AK85" s="8"/>
+      <c r="AL85" s="8"/>
+      <c r="AM85" s="8"/>
       <c r="AN85" s="8"/>
       <c r="AO85" s="8"/>
       <c r="AP85" s="8"/>
@@ -14130,26 +14099,28 @@
       <c r="AA86" s="8"/>
       <c r="AB86" s="8"/>
       <c r="AE86" s="7"/>
-      <c r="AF86" s="7"/>
-      <c r="AG86" s="8"/>
-      <c r="AH86" s="8"/>
-      <c r="AI86" s="8"/>
-      <c r="AJ86" s="8"/>
-      <c r="AK86" s="8"/>
-      <c r="AL86" s="8"/>
-      <c r="AM86" s="8"/>
-      <c r="AN86" s="8"/>
-      <c r="AO86" s="8"/>
-      <c r="AP86" s="8"/>
-      <c r="AQ86" s="8"/>
-      <c r="AR86" s="8"/>
-      <c r="AS86" s="8"/>
-      <c r="AT86" s="8"/>
-      <c r="AU86" s="8"/>
-      <c r="AV86" s="8"/>
-      <c r="AW86" s="8"/>
-      <c r="AX86" s="8"/>
-      <c r="AY86" s="8"/>
+      <c r="AF86" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="5"/>
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="5"/>
+      <c r="AO86" s="5"/>
+      <c r="AP86" s="5"/>
+      <c r="AQ86" s="5"/>
+      <c r="AR86" s="5"/>
+      <c r="AS86" s="5"/>
+      <c r="AT86" s="5"/>
+      <c r="AU86" s="5"/>
+      <c r="AV86" s="5"/>
+      <c r="AW86" s="5"/>
+      <c r="AX86" s="5"/>
+      <c r="AY86" s="5"/>
       <c r="AZ86" s="8"/>
       <c r="BA86" s="8"/>
       <c r="BB86" s="8"/>
@@ -14185,38 +14156,33 @@
       <c r="Z87" s="8"/>
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
-      <c r="AE87" s="22"/>
-      <c r="AG87" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="AH87" s="66"/>
-      <c r="AI87" s="66"/>
-      <c r="AJ87" s="66"/>
-      <c r="AK87" s="61"/>
-      <c r="AL87" s="66" t="s">
-        <v>411</v>
-      </c>
-      <c r="AM87" s="66"/>
-      <c r="AN87" s="66"/>
-      <c r="AO87" s="66"/>
-      <c r="AP87" s="66" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ87" s="66"/>
-      <c r="AR87" s="66"/>
-      <c r="AS87" s="66"/>
-      <c r="AT87" s="66"/>
-      <c r="AU87" s="66"/>
-      <c r="AV87" s="66"/>
-      <c r="AW87" s="66"/>
-      <c r="AX87" s="66"/>
-      <c r="AY87" s="66"/>
-      <c r="AZ87" s="66"/>
-      <c r="BA87" s="66"/>
-      <c r="BB87" s="66"/>
-      <c r="BC87" s="66"/>
-      <c r="BD87" s="66"/>
-      <c r="BE87" s="66"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="8"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="8"/>
+      <c r="AO87" s="8"/>
+      <c r="AP87" s="8"/>
+      <c r="AQ87" s="8"/>
+      <c r="AR87" s="8"/>
+      <c r="AS87" s="8"/>
+      <c r="AT87" s="8"/>
+      <c r="AU87" s="8"/>
+      <c r="AV87" s="8"/>
+      <c r="AW87" s="8"/>
+      <c r="AX87" s="8"/>
+      <c r="AY87" s="8"/>
+      <c r="AZ87" s="8"/>
+      <c r="BA87" s="8"/>
+      <c r="BB87" s="8"/>
+      <c r="BC87" s="8"/>
     </row>
     <row r="88" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
@@ -14246,34 +14212,37 @@
       <c r="Z88" s="8"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
-      <c r="AE88" s="22"/>
-      <c r="AG88" s="66"/>
-      <c r="AH88" s="66"/>
-      <c r="AI88" s="66"/>
-      <c r="AJ88" s="66"/>
-      <c r="AK88" s="66"/>
-      <c r="AL88" s="66"/>
-      <c r="AM88" s="66"/>
-      <c r="AN88" s="66"/>
-      <c r="AO88" s="66"/>
-      <c r="AP88" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="AQ88" s="66"/>
-      <c r="AR88" s="66"/>
-      <c r="AS88" s="66"/>
-      <c r="AT88" s="66"/>
-      <c r="AU88" s="66"/>
-      <c r="AV88" s="66"/>
-      <c r="AW88" s="66"/>
-      <c r="AX88" s="66"/>
-      <c r="AY88" s="66"/>
-      <c r="AZ88" s="66"/>
-      <c r="BA88" s="66"/>
-      <c r="BB88" s="66"/>
-      <c r="BC88" s="66"/>
-      <c r="BD88" s="66"/>
-      <c r="BE88" s="66"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH88" s="8"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM88" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN88" s="8"/>
+      <c r="AO88" s="8"/>
+      <c r="AP88" s="8"/>
+      <c r="AQ88" s="8"/>
+      <c r="AR88" s="8"/>
+      <c r="AS88" s="8"/>
+      <c r="AT88" s="8"/>
+      <c r="AU88" s="8"/>
+      <c r="AV88" s="8"/>
+      <c r="AW88" s="8"/>
+      <c r="AX88" s="8"/>
+      <c r="AY88" s="8"/>
+      <c r="AZ88" s="8"/>
+      <c r="BA88" s="8"/>
+      <c r="BB88" s="8"/>
+      <c r="BC88" s="8"/>
     </row>
     <row r="89" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B89" s="8">
@@ -14309,43 +14278,29 @@
       <c r="AB89" s="8"/>
       <c r="AE89" s="7"/>
       <c r="AF89" s="7"/>
-      <c r="AG89" s="60" t="s">
-        <v>407</v>
-      </c>
-      <c r="AH89" s="60"/>
-      <c r="AI89" s="60"/>
-      <c r="AJ89" s="60"/>
-      <c r="AK89" s="60"/>
-      <c r="AL89" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM89" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN89" s="63"/>
-      <c r="AO89" s="63"/>
-      <c r="AP89" s="64"/>
-      <c r="AQ89" s="60"/>
-      <c r="AR89" s="60"/>
-      <c r="AS89" s="60"/>
-      <c r="AT89" s="60" t="s">
-        <v>408</v>
-      </c>
-      <c r="AU89" s="60"/>
-      <c r="AV89" s="60"/>
-      <c r="AW89" s="60"/>
-      <c r="AX89" s="60"/>
-      <c r="AY89" s="60"/>
-      <c r="AZ89" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="BA89" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="BB89" s="63"/>
-      <c r="BC89" s="63"/>
-      <c r="BD89" s="64"/>
-      <c r="BE89" s="66"/>
+      <c r="AG89" s="8"/>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="8"/>
+      <c r="AM89" s="8"/>
+      <c r="AN89" s="8"/>
+      <c r="AO89" s="8"/>
+      <c r="AP89" s="8"/>
+      <c r="AQ89" s="8"/>
+      <c r="AR89" s="8"/>
+      <c r="AS89" s="8"/>
+      <c r="AT89" s="8"/>
+      <c r="AU89" s="8"/>
+      <c r="AV89" s="8"/>
+      <c r="AW89" s="8"/>
+      <c r="AX89" s="8"/>
+      <c r="AY89" s="8"/>
+      <c r="AZ89" s="8"/>
+      <c r="BA89" s="8"/>
+      <c r="BB89" s="8"/>
+      <c r="BC89" s="8"/>
     </row>
     <row r="90" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
@@ -14377,35 +14332,38 @@
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
       <c r="AB90" s="8"/>
-      <c r="AE90" s="7"/>
-      <c r="AF90" s="7"/>
-      <c r="AG90" s="8"/>
-      <c r="AH90" s="8"/>
-      <c r="AI90" s="8"/>
-      <c r="AJ90" s="8"/>
-      <c r="AK90" s="8"/>
-      <c r="AL90" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="AM90" s="8"/>
-      <c r="AN90" s="8"/>
-      <c r="AO90" s="8"/>
-      <c r="AP90" s="8"/>
-      <c r="AQ90" s="8"/>
-      <c r="AR90" s="8"/>
-      <c r="AS90" s="8"/>
-      <c r="AT90" s="8"/>
-      <c r="AU90" s="8"/>
-      <c r="AV90" s="8"/>
-      <c r="AW90" s="8"/>
-      <c r="AX90" s="8"/>
-      <c r="AY90" s="8"/>
-      <c r="AZ90" s="8"/>
-      <c r="BA90" s="8"/>
-      <c r="BB90" s="8"/>
-      <c r="BC90" s="8"/>
-      <c r="BD90" s="8"/>
-      <c r="BE90" s="8"/>
+      <c r="AE90" s="22"/>
+      <c r="AG90" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH90" s="66"/>
+      <c r="AI90" s="66"/>
+      <c r="AJ90" s="66"/>
+      <c r="AK90" s="61"/>
+      <c r="AL90" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM90" s="66"/>
+      <c r="AN90" s="66"/>
+      <c r="AO90" s="66"/>
+      <c r="AP90" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ90" s="66"/>
+      <c r="AR90" s="66"/>
+      <c r="AS90" s="66"/>
+      <c r="AT90" s="66"/>
+      <c r="AU90" s="66"/>
+      <c r="AV90" s="66"/>
+      <c r="AW90" s="66"/>
+      <c r="AX90" s="66"/>
+      <c r="AY90" s="66"/>
+      <c r="AZ90" s="66"/>
+      <c r="BA90" s="66"/>
+      <c r="BB90" s="66"/>
+      <c r="BC90" s="66"/>
+      <c r="BD90" s="66"/>
+      <c r="BE90" s="66"/>
     </row>
     <row r="91" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
@@ -14437,41 +14395,34 @@
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
-      <c r="AE91" s="7"/>
-      <c r="AF91" s="7"/>
-      <c r="AG91" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH91" s="8"/>
-      <c r="AI91" s="8"/>
-      <c r="AJ91" s="8"/>
-      <c r="AK91" s="8"/>
-      <c r="AL91" s="1"/>
-      <c r="AM91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN91" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO91" s="8"/>
-      <c r="AP91" s="8"/>
-      <c r="AQ91" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="AR91" s="8"/>
-      <c r="AS91" s="8"/>
-      <c r="AT91" s="8"/>
-      <c r="AU91" s="8"/>
-      <c r="AV91" s="8"/>
-      <c r="AW91" s="8"/>
-      <c r="AX91" s="8"/>
-      <c r="AY91" s="8"/>
-      <c r="AZ91" s="8"/>
-      <c r="BA91" s="8"/>
-      <c r="BB91" s="8"/>
-      <c r="BC91" s="8"/>
-      <c r="BD91" s="8"/>
-      <c r="BE91" s="8"/>
+      <c r="AE91" s="22"/>
+      <c r="AG91" s="66"/>
+      <c r="AH91" s="66"/>
+      <c r="AI91" s="66"/>
+      <c r="AJ91" s="66"/>
+      <c r="AK91" s="66"/>
+      <c r="AL91" s="66"/>
+      <c r="AM91" s="66"/>
+      <c r="AN91" s="66"/>
+      <c r="AO91" s="66"/>
+      <c r="AP91" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ91" s="66"/>
+      <c r="AR91" s="66"/>
+      <c r="AS91" s="66"/>
+      <c r="AT91" s="66"/>
+      <c r="AU91" s="66"/>
+      <c r="AV91" s="66"/>
+      <c r="AW91" s="66"/>
+      <c r="AX91" s="66"/>
+      <c r="AY91" s="66"/>
+      <c r="AZ91" s="66"/>
+      <c r="BA91" s="66"/>
+      <c r="BB91" s="66"/>
+      <c r="BC91" s="66"/>
+      <c r="BD91" s="66"/>
+      <c r="BE91" s="66"/>
     </row>
     <row r="92" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
@@ -14505,35 +14456,43 @@
       <c r="AB92" s="8"/>
       <c r="AE92" s="7"/>
       <c r="AF92" s="7"/>
-      <c r="AG92" s="8"/>
-      <c r="AH92" s="8"/>
-      <c r="AI92" s="8"/>
-      <c r="AJ92" s="8"/>
-      <c r="AK92" s="8"/>
-      <c r="AL92" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="AM92" s="8"/>
-      <c r="AN92" s="8"/>
-      <c r="AO92" s="8"/>
-      <c r="AP92" s="8"/>
-      <c r="AQ92" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR92" s="8"/>
-      <c r="AS92" s="8"/>
-      <c r="AT92" s="8"/>
-      <c r="AU92" s="8"/>
-      <c r="AV92" s="8"/>
-      <c r="AW92" s="8"/>
-      <c r="AX92" s="8"/>
-      <c r="AY92" s="8"/>
-      <c r="AZ92" s="8"/>
-      <c r="BA92" s="8"/>
-      <c r="BB92" s="8"/>
-      <c r="BC92" s="8"/>
-      <c r="BD92" s="8"/>
-      <c r="BE92" s="8"/>
+      <c r="AG92" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH92" s="60"/>
+      <c r="AI92" s="60"/>
+      <c r="AJ92" s="60"/>
+      <c r="AK92" s="60"/>
+      <c r="AL92" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM92" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN92" s="63"/>
+      <c r="AO92" s="63"/>
+      <c r="AP92" s="64"/>
+      <c r="AQ92" s="60"/>
+      <c r="AR92" s="60"/>
+      <c r="AS92" s="60"/>
+      <c r="AT92" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU92" s="60"/>
+      <c r="AV92" s="60"/>
+      <c r="AW92" s="60"/>
+      <c r="AX92" s="60"/>
+      <c r="AY92" s="60"/>
+      <c r="AZ92" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA92" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="BB92" s="63"/>
+      <c r="BC92" s="63"/>
+      <c r="BD92" s="64"/>
+      <c r="BE92" s="66"/>
     </row>
     <row r="93" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
@@ -14567,20 +14526,18 @@
       <c r="AB93" s="8"/>
       <c r="AE93" s="7"/>
       <c r="AF93" s="7"/>
-      <c r="AG93" s="8" t="s">
-        <v>220</v>
-      </c>
+      <c r="AG93" s="8"/>
       <c r="AH93" s="8"/>
       <c r="AI93" s="8"/>
       <c r="AJ93" s="8"/>
       <c r="AK93" s="8"/>
-      <c r="AL93" s="1"/>
-      <c r="AM93" s="3"/>
+      <c r="AL93" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM93" s="8"/>
       <c r="AN93" s="8"/>
       <c r="AO93" s="8"/>
-      <c r="AP93" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="AP93" s="8"/>
       <c r="AQ93" s="8"/>
       <c r="AR93" s="8"/>
       <c r="AS93" s="8"/>
@@ -14629,19 +14586,25 @@
       <c r="AB94" s="8"/>
       <c r="AE94" s="7"/>
       <c r="AF94" s="7"/>
-      <c r="AG94" s="8"/>
+      <c r="AG94" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="AH94" s="8"/>
       <c r="AI94" s="8"/>
       <c r="AJ94" s="8"/>
       <c r="AK94" s="8"/>
-      <c r="AL94" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM94" s="8"/>
-      <c r="AN94" s="8"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN94" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="AO94" s="8"/>
       <c r="AP94" s="8"/>
-      <c r="AQ94" s="8"/>
+      <c r="AQ94" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="AR94" s="8"/>
       <c r="AS94" s="8"/>
       <c r="AT94" s="8"/>
@@ -14689,21 +14652,21 @@
       <c r="AB95" s="8"/>
       <c r="AE95" s="7"/>
       <c r="AF95" s="7"/>
-      <c r="AG95" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="AG95" s="8"/>
       <c r="AH95" s="8"/>
       <c r="AI95" s="8"/>
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
-      <c r="AL95" s="1"/>
-      <c r="AM95" s="3"/>
+      <c r="AL95" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM95" s="8"/>
       <c r="AN95" s="8"/>
       <c r="AO95" s="8"/>
-      <c r="AP95" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AQ95" s="8"/>
+      <c r="AP95" s="8"/>
+      <c r="AQ95" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="AR95" s="8"/>
       <c r="AS95" s="8"/>
       <c r="AT95" s="8"/>
@@ -14751,16 +14714,20 @@
       <c r="AB96" s="8"/>
       <c r="AE96" s="7"/>
       <c r="AF96" s="7"/>
-      <c r="AG96" s="8"/>
+      <c r="AG96" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="AH96" s="8"/>
       <c r="AI96" s="8"/>
       <c r="AJ96" s="8"/>
       <c r="AK96" s="8"/>
-      <c r="AL96" s="8"/>
-      <c r="AM96" s="8"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="3"/>
       <c r="AN96" s="8"/>
       <c r="AO96" s="8"/>
-      <c r="AP96" s="8"/>
+      <c r="AP96" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="AQ96" s="8"/>
       <c r="AR96" s="8"/>
       <c r="AS96" s="8"/>
@@ -14809,27 +14776,25 @@
       <c r="AB97" s="8"/>
       <c r="AE97" s="7"/>
       <c r="AF97" s="7"/>
-      <c r="AG97" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="AH97" s="60"/>
-      <c r="AI97" s="60"/>
-      <c r="AJ97" s="60"/>
-      <c r="AK97" s="60"/>
-      <c r="AL97" s="61"/>
-      <c r="AM97" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN97" s="60"/>
-      <c r="AO97" s="60"/>
-      <c r="AP97" s="60"/>
-      <c r="AQ97" s="60"/>
-      <c r="AR97" s="60"/>
-      <c r="AS97" s="60"/>
-      <c r="AT97" s="60"/>
-      <c r="AU97" s="60"/>
-      <c r="AV97" s="60"/>
-      <c r="AW97" s="60"/>
+      <c r="AG97" s="8"/>
+      <c r="AH97" s="8"/>
+      <c r="AI97" s="8"/>
+      <c r="AJ97" s="8"/>
+      <c r="AK97" s="8"/>
+      <c r="AL97" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM97" s="8"/>
+      <c r="AN97" s="8"/>
+      <c r="AO97" s="8"/>
+      <c r="AP97" s="8"/>
+      <c r="AQ97" s="8"/>
+      <c r="AR97" s="8"/>
+      <c r="AS97" s="8"/>
+      <c r="AT97" s="8"/>
+      <c r="AU97" s="8"/>
+      <c r="AV97" s="8"/>
+      <c r="AW97" s="8"/>
       <c r="AX97" s="8"/>
       <c r="AY97" s="8"/>
       <c r="AZ97" s="8"/>
@@ -14873,23 +14838,27 @@
       <c r="AB98" s="8"/>
       <c r="AE98" s="7"/>
       <c r="AF98" s="7"/>
-      <c r="AG98" s="60"/>
-      <c r="AH98" s="60"/>
-      <c r="AI98" s="60"/>
-      <c r="AJ98" s="60"/>
-      <c r="AK98" s="60"/>
-      <c r="AL98" s="60"/>
-      <c r="AM98" s="60"/>
-      <c r="AN98" s="60"/>
-      <c r="AO98" s="60"/>
-      <c r="AP98" s="60"/>
-      <c r="AQ98" s="60"/>
-      <c r="AR98" s="60"/>
-      <c r="AS98" s="60"/>
-      <c r="AT98" s="60"/>
-      <c r="AU98" s="60"/>
-      <c r="AV98" s="60"/>
-      <c r="AW98" s="60"/>
+      <c r="AG98" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH98" s="8"/>
+      <c r="AI98" s="8"/>
+      <c r="AJ98" s="8"/>
+      <c r="AK98" s="8"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="3"/>
+      <c r="AN98" s="8"/>
+      <c r="AO98" s="8"/>
+      <c r="AP98" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ98" s="8"/>
+      <c r="AR98" s="8"/>
+      <c r="AS98" s="8"/>
+      <c r="AT98" s="8"/>
+      <c r="AU98" s="8"/>
+      <c r="AV98" s="8"/>
+      <c r="AW98" s="8"/>
       <c r="AX98" s="8"/>
       <c r="AY98" s="8"/>
       <c r="AZ98" s="8"/>
@@ -14931,27 +14900,23 @@
       <c r="AB99" s="8"/>
       <c r="AE99" s="7"/>
       <c r="AF99" s="7"/>
-      <c r="AG99" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH99" s="60"/>
-      <c r="AI99" s="60"/>
-      <c r="AJ99" s="60"/>
-      <c r="AK99" s="60"/>
-      <c r="AL99" s="62"/>
-      <c r="AM99" s="63"/>
-      <c r="AN99" s="64"/>
-      <c r="AO99" s="60"/>
-      <c r="AP99" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ99" s="60"/>
-      <c r="AR99" s="60"/>
-      <c r="AS99" s="60"/>
-      <c r="AT99" s="60"/>
-      <c r="AU99" s="60"/>
-      <c r="AV99" s="60"/>
-      <c r="AW99" s="60"/>
+      <c r="AG99" s="8"/>
+      <c r="AH99" s="8"/>
+      <c r="AI99" s="8"/>
+      <c r="AJ99" s="8"/>
+      <c r="AK99" s="8"/>
+      <c r="AL99" s="8"/>
+      <c r="AM99" s="8"/>
+      <c r="AN99" s="8"/>
+      <c r="AO99" s="8"/>
+      <c r="AP99" s="8"/>
+      <c r="AQ99" s="8"/>
+      <c r="AR99" s="8"/>
+      <c r="AS99" s="8"/>
+      <c r="AT99" s="8"/>
+      <c r="AU99" s="8"/>
+      <c r="AV99" s="8"/>
+      <c r="AW99" s="8"/>
       <c r="AX99" s="8"/>
       <c r="AY99" s="8"/>
       <c r="AZ99" s="8"/>
@@ -14992,28 +14957,30 @@
       <c r="AA100" s="39"/>
       <c r="AB100" s="8"/>
       <c r="AE100" s="7"/>
-      <c r="AF100" s="10"/>
-      <c r="AG100" s="65"/>
-      <c r="AH100" s="65"/>
-      <c r="AI100" s="65"/>
-      <c r="AJ100" s="65"/>
-      <c r="AK100" s="65"/>
-      <c r="AL100" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="AM100" s="65"/>
-      <c r="AN100" s="65"/>
-      <c r="AO100" s="65"/>
-      <c r="AP100" s="65"/>
-      <c r="AQ100" s="65"/>
-      <c r="AR100" s="65"/>
-      <c r="AS100" s="65"/>
-      <c r="AT100" s="65"/>
-      <c r="AU100" s="65"/>
-      <c r="AV100" s="65"/>
-      <c r="AW100" s="65"/>
-      <c r="AX100" s="11"/>
-      <c r="AY100" s="11"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH100" s="60"/>
+      <c r="AI100" s="60"/>
+      <c r="AJ100" s="60"/>
+      <c r="AK100" s="60"/>
+      <c r="AL100" s="61"/>
+      <c r="AM100" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN100" s="60"/>
+      <c r="AO100" s="60"/>
+      <c r="AP100" s="60"/>
+      <c r="AQ100" s="60"/>
+      <c r="AR100" s="60"/>
+      <c r="AS100" s="60"/>
+      <c r="AT100" s="60"/>
+      <c r="AU100" s="60"/>
+      <c r="AV100" s="60"/>
+      <c r="AW100" s="60"/>
+      <c r="AX100" s="8"/>
+      <c r="AY100" s="8"/>
       <c r="AZ100" s="8"/>
       <c r="BA100" s="8"/>
       <c r="BB100" s="8"/>
@@ -15052,24 +15019,24 @@
       <c r="AA101" s="39"/>
       <c r="AB101" s="8"/>
       <c r="AE101" s="7"/>
-      <c r="AF101" s="8"/>
-      <c r="AG101" s="8"/>
-      <c r="AH101" s="8"/>
-      <c r="AI101" s="8"/>
-      <c r="AJ101" s="8"/>
-      <c r="AK101" s="8"/>
-      <c r="AL101" s="8"/>
-      <c r="AM101" s="8"/>
-      <c r="AN101" s="8"/>
-      <c r="AO101" s="8"/>
-      <c r="AP101" s="8"/>
-      <c r="AQ101" s="8"/>
-      <c r="AR101" s="8"/>
-      <c r="AS101" s="8"/>
-      <c r="AT101" s="8"/>
-      <c r="AU101" s="8"/>
-      <c r="AV101" s="8"/>
-      <c r="AW101" s="8"/>
+      <c r="AF101" s="7"/>
+      <c r="AG101" s="60"/>
+      <c r="AH101" s="60"/>
+      <c r="AI101" s="60"/>
+      <c r="AJ101" s="60"/>
+      <c r="AK101" s="60"/>
+      <c r="AL101" s="60"/>
+      <c r="AM101" s="60"/>
+      <c r="AN101" s="60"/>
+      <c r="AO101" s="60"/>
+      <c r="AP101" s="60"/>
+      <c r="AQ101" s="60"/>
+      <c r="AR101" s="60"/>
+      <c r="AS101" s="60"/>
+      <c r="AT101" s="60"/>
+      <c r="AU101" s="60"/>
+      <c r="AV101" s="60"/>
+      <c r="AW101" s="60"/>
       <c r="AX101" s="8"/>
       <c r="AY101" s="8"/>
       <c r="AZ101" s="8"/>
@@ -15115,26 +15082,28 @@
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
       <c r="AE102" s="7"/>
-      <c r="AF102" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG102" s="3"/>
-      <c r="AH102" s="8"/>
-      <c r="AI102" s="8"/>
-      <c r="AJ102" s="8"/>
-      <c r="AK102" s="8"/>
-      <c r="AL102" s="8"/>
-      <c r="AM102" s="8"/>
-      <c r="AN102" s="8"/>
-      <c r="AO102" s="8"/>
-      <c r="AP102" s="8"/>
-      <c r="AQ102" s="8"/>
-      <c r="AR102" s="8"/>
-      <c r="AS102" s="8"/>
-      <c r="AT102" s="8"/>
-      <c r="AU102" s="8"/>
-      <c r="AV102" s="8"/>
-      <c r="AW102" s="8"/>
+      <c r="AF102" s="7"/>
+      <c r="AG102" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH102" s="60"/>
+      <c r="AI102" s="60"/>
+      <c r="AJ102" s="60"/>
+      <c r="AK102" s="60"/>
+      <c r="AL102" s="62"/>
+      <c r="AM102" s="63"/>
+      <c r="AN102" s="64"/>
+      <c r="AO102" s="60"/>
+      <c r="AP102" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ102" s="60"/>
+      <c r="AR102" s="60"/>
+      <c r="AS102" s="60"/>
+      <c r="AT102" s="60"/>
+      <c r="AU102" s="60"/>
+      <c r="AV102" s="60"/>
+      <c r="AW102" s="60"/>
       <c r="AX102" s="8"/>
       <c r="AY102" s="8"/>
       <c r="AZ102" s="8"/>
@@ -15145,25 +15114,27 @@
       <c r="BE102" s="8"/>
     </row>
     <row r="103" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="AE103" s="10"/>
-      <c r="AF103" s="11"/>
-      <c r="AG103" s="11"/>
-      <c r="AH103" s="11"/>
-      <c r="AI103" s="11"/>
-      <c r="AJ103" s="11"/>
-      <c r="AK103" s="11"/>
-      <c r="AL103" s="11"/>
-      <c r="AM103" s="11"/>
-      <c r="AN103" s="11"/>
-      <c r="AO103" s="11"/>
-      <c r="AP103" s="11"/>
-      <c r="AQ103" s="11"/>
-      <c r="AR103" s="11"/>
-      <c r="AS103" s="11"/>
-      <c r="AT103" s="11"/>
-      <c r="AU103" s="11"/>
-      <c r="AV103" s="11"/>
-      <c r="AW103" s="11"/>
+      <c r="AE103" s="7"/>
+      <c r="AF103" s="10"/>
+      <c r="AG103" s="65"/>
+      <c r="AH103" s="65"/>
+      <c r="AI103" s="65"/>
+      <c r="AJ103" s="65"/>
+      <c r="AK103" s="65"/>
+      <c r="AL103" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM103" s="65"/>
+      <c r="AN103" s="65"/>
+      <c r="AO103" s="65"/>
+      <c r="AP103" s="65"/>
+      <c r="AQ103" s="65"/>
+      <c r="AR103" s="65"/>
+      <c r="AS103" s="65"/>
+      <c r="AT103" s="65"/>
+      <c r="AU103" s="65"/>
+      <c r="AV103" s="65"/>
+      <c r="AW103" s="65"/>
       <c r="AX103" s="11"/>
       <c r="AY103" s="11"/>
       <c r="AZ103" s="8"/>
@@ -15205,7 +15176,7 @@
       <c r="Z104" s="66"/>
       <c r="AA104" s="66"/>
       <c r="AB104" s="66"/>
-      <c r="AE104" s="8"/>
+      <c r="AE104" s="7"/>
       <c r="AF104" s="8"/>
       <c r="AG104" s="8"/>
       <c r="AH104" s="8"/>
@@ -15263,9 +15234,11 @@
       <c r="Z105" s="66"/>
       <c r="AA105" s="66"/>
       <c r="AB105" s="66"/>
-      <c r="AE105" s="8"/>
-      <c r="AF105" s="8"/>
-      <c r="AG105" s="8"/>
+      <c r="AE105" s="7"/>
+      <c r="AF105" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG105" s="3"/>
       <c r="AH105" s="8"/>
       <c r="AI105" s="8"/>
       <c r="AJ105" s="8"/>
@@ -15321,27 +15294,27 @@
       <c r="Z106" s="66"/>
       <c r="AA106" s="66"/>
       <c r="AB106" s="66"/>
-      <c r="AE106" s="8"/>
-      <c r="AF106" s="8"/>
-      <c r="AG106" s="8"/>
-      <c r="AH106" s="8"/>
-      <c r="AI106" s="8"/>
-      <c r="AJ106" s="8"/>
-      <c r="AK106" s="8"/>
-      <c r="AL106" s="8"/>
-      <c r="AM106" s="8"/>
-      <c r="AN106" s="8"/>
-      <c r="AO106" s="8"/>
-      <c r="AP106" s="8"/>
-      <c r="AQ106" s="8"/>
-      <c r="AR106" s="8"/>
-      <c r="AS106" s="8"/>
-      <c r="AT106" s="8"/>
-      <c r="AU106" s="8"/>
-      <c r="AV106" s="8"/>
-      <c r="AW106" s="8"/>
-      <c r="AX106" s="8"/>
-      <c r="AY106" s="8"/>
+      <c r="AE106" s="10"/>
+      <c r="AF106" s="11"/>
+      <c r="AG106" s="11"/>
+      <c r="AH106" s="11"/>
+      <c r="AI106" s="11"/>
+      <c r="AJ106" s="11"/>
+      <c r="AK106" s="11"/>
+      <c r="AL106" s="11"/>
+      <c r="AM106" s="11"/>
+      <c r="AN106" s="11"/>
+      <c r="AO106" s="11"/>
+      <c r="AP106" s="11"/>
+      <c r="AQ106" s="11"/>
+      <c r="AR106" s="11"/>
+      <c r="AS106" s="11"/>
+      <c r="AT106" s="11"/>
+      <c r="AU106" s="11"/>
+      <c r="AV106" s="11"/>
+      <c r="AW106" s="11"/>
+      <c r="AX106" s="11"/>
+      <c r="AY106" s="11"/>
       <c r="AZ106" s="8"/>
       <c r="BA106" s="8"/>
       <c r="BB106" s="8"/>
@@ -15379,6 +15352,33 @@
       <c r="Z107" s="66"/>
       <c r="AA107" s="66"/>
       <c r="AB107" s="66"/>
+      <c r="AE107" s="8"/>
+      <c r="AF107" s="8"/>
+      <c r="AG107" s="8"/>
+      <c r="AH107" s="8"/>
+      <c r="AI107" s="8"/>
+      <c r="AJ107" s="8"/>
+      <c r="AK107" s="8"/>
+      <c r="AL107" s="8"/>
+      <c r="AM107" s="8"/>
+      <c r="AN107" s="8"/>
+      <c r="AO107" s="8"/>
+      <c r="AP107" s="8"/>
+      <c r="AQ107" s="8"/>
+      <c r="AR107" s="8"/>
+      <c r="AS107" s="8"/>
+      <c r="AT107" s="8"/>
+      <c r="AU107" s="8"/>
+      <c r="AV107" s="8"/>
+      <c r="AW107" s="8"/>
+      <c r="AX107" s="8"/>
+      <c r="AY107" s="8"/>
+      <c r="AZ107" s="8"/>
+      <c r="BA107" s="8"/>
+      <c r="BB107" s="8"/>
+      <c r="BC107" s="8"/>
+      <c r="BD107" s="8"/>
+      <c r="BE107" s="8"/>
     </row>
     <row r="109" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
@@ -18221,7 +18221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BB73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO41" sqref="AO41"/>
     </sheetView>
   </sheetViews>
@@ -20792,7 +20792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
@@ -23471,7 +23471,7 @@
       <c r="D74" s="13"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -23479,7 +23479,7 @@
       <c r="J74" s="13"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="710"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="710" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Menu" sheetId="2" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Detail Hotel" sheetId="8" r:id="rId6"/>
     <sheet name="order hotel" sheetId="4" r:id="rId7"/>
     <sheet name="Cancel Booking" sheetId="9" r:id="rId8"/>
+    <sheet name="hotel report" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="483">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1403,9 +1404,6 @@
     <t>Payment Date</t>
   </si>
   <si>
-    <t>Hotel Names</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1461,6 +1459,18 @@
   </si>
   <si>
     <t>grup name harus diisi,klo ga sebaliknya</t>
+  </si>
+  <si>
+    <t>Report Booking Per periode</t>
+  </si>
+  <si>
+    <t>DI BLNC002 ada no_cof_order dikosongin, ntar diisi ma admin ada menu sendiri</t>
+  </si>
+  <si>
+    <t>status_payment = pending</t>
+  </si>
+  <si>
+    <t>Confirmation Number</t>
   </si>
 </sst>
 </file>
@@ -2246,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BC145"/>
+  <dimension ref="B1:BC148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="P144" sqref="P144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3588,7 @@
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -3652,7 +3662,7 @@
       <c r="C57" s="8"/>
       <c r="D57" s="7"/>
       <c r="E57" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
@@ -3808,7 +3818,7 @@
     </row>
     <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="AD68" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.25">
@@ -3890,7 +3900,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
       <c r="P78" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
@@ -5223,7 +5233,7 @@
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
@@ -5266,7 +5276,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
       <c r="G109" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2"/>
@@ -5333,7 +5343,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2"/>
@@ -5845,11 +5855,12 @@
     </row>
     <row r="122" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>418</v>
+        <v>141</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
       </c>
+      <c r="Y122" s="9"/>
       <c r="AF122" s="7"/>
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
@@ -5877,6 +5888,7 @@
     </row>
     <row r="123" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
+      <c r="Y123" s="9"/>
       <c r="AF123" s="7" t="s">
         <v>213</v>
       </c>
@@ -5908,31 +5920,11 @@
     </row>
     <row r="124" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G124" t="s">
         <v>35</v>
       </c>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S124" s="8"/>
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
       <c r="V124" s="8"/>
@@ -5966,23 +5958,6 @@
     </row>
     <row r="125" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="8"/>
-      <c r="S125" s="8"/>
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
       <c r="V125" s="8"/>
@@ -6016,7 +5991,7 @@
     </row>
     <row r="126" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -6032,7 +6007,7 @@
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8" t="s">
-        <v>311</v>
+        <v>451</v>
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
@@ -6126,7 +6101,7 @@
     </row>
     <row r="128" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -6142,7 +6117,7 @@
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8" t="s">
-        <v>462</v>
+        <v>311</v>
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
@@ -6234,7 +6209,7 @@
     </row>
     <row r="130" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -6250,7 +6225,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
       <c r="N130" s="8" t="s">
-        <v>213</v>
+        <v>461</v>
       </c>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
@@ -6318,7 +6293,7 @@
     </row>
     <row r="132" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -6333,11 +6308,15 @@
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
+      <c r="N132" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
-      <c r="R132" s="8"/>
+      <c r="R132" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S132" s="8"/>
       <c r="T132" s="8"/>
       <c r="U132" s="8"/>
@@ -6373,36 +6352,28 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B134" s="22"/>
-      <c r="C134" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="1" t="s">
+      <c r="B134" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L134" s="3"/>
-      <c r="M134" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N134" s="3"/>
-      <c r="O134" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P134" s="3"/>
-      <c r="Q134" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="R134" s="3"/>
-      <c r="S134" s="8"/>
+      <c r="G134" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="8"/>
+      <c r="R134" s="8"/>
+      <c r="S134" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="T134" s="8"/>
       <c r="U134" s="8"/>
       <c r="V134" s="8"/>
@@ -6411,49 +6382,27 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B135" s="22"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="9"/>
-      <c r="S135" s="8"/>
-      <c r="T135" s="8"/>
-      <c r="U135" s="8"/>
-      <c r="V135" s="8"/>
-      <c r="W135" s="8"/>
-      <c r="X135" s="8"/>
+      <c r="B135" s="7"/>
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B136" s="22"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="9"/>
+      <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="7"/>
-      <c r="R136" s="9"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
       <c r="S136" s="8"/>
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
@@ -6464,22 +6413,18 @@
     </row>
     <row r="137" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B137" s="22"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="9"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="9"/>
+      <c r="C137" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H137" s="3"/>
       <c r="S137" s="8"/>
       <c r="T137" s="8"/>
       <c r="U137" s="8"/>
@@ -6491,21 +6436,11 @@
     <row r="138" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B138" s="22"/>
       <c r="C138" s="7"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="7"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="9"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="7"/>
-      <c r="R138" s="9"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="9"/>
       <c r="S138" s="8"/>
       <c r="T138" s="8"/>
       <c r="U138" s="8"/>
@@ -6516,22 +6451,12 @@
     </row>
     <row r="139" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B139" s="22"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="12"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="12"/>
-      <c r="O139" s="10"/>
-      <c r="P139" s="12"/>
-      <c r="Q139" s="10"/>
-      <c r="R139" s="12"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="9"/>
       <c r="S139" s="8"/>
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
@@ -6541,23 +6466,13 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B140" s="7"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="8"/>
-      <c r="O140" s="8"/>
-      <c r="P140" s="8"/>
-      <c r="Q140" s="8"/>
-      <c r="R140" s="8"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="9"/>
       <c r="S140" s="8"/>
       <c r="T140" s="8"/>
       <c r="U140" s="8"/>
@@ -6567,27 +6482,13 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
-      <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-      <c r="Q141" s="8"/>
-      <c r="R141" s="8"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="9"/>
       <c r="S141" s="8"/>
       <c r="T141" s="8"/>
       <c r="U141" s="8"/>
@@ -6597,23 +6498,13 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B142" s="7"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="12"/>
       <c r="S142" s="8"/>
       <c r="T142" s="8"/>
       <c r="U142" s="8"/>
@@ -6649,11 +6540,15 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B144" s="7"/>
+      <c r="B144" s="7" t="s">
+        <v>462</v>
+      </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
+      <c r="F144" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
@@ -6675,30 +6570,108 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B145" s="10"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-      <c r="L145" s="11"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="11"/>
-      <c r="P145" s="11"/>
-      <c r="Q145" s="11"/>
-      <c r="R145" s="11"/>
-      <c r="S145" s="11"/>
-      <c r="T145" s="11"/>
-      <c r="U145" s="11"/>
-      <c r="V145" s="11"/>
-      <c r="W145" s="11"/>
-      <c r="X145" s="11"/>
-      <c r="Y145" s="12"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="8"/>
+      <c r="R145" s="8"/>
+      <c r="S145" s="8"/>
+      <c r="T145" s="8"/>
+      <c r="U145" s="8"/>
+      <c r="V145" s="8"/>
+      <c r="W145" s="8"/>
+      <c r="X145" s="8"/>
+      <c r="Y145" s="9"/>
+    </row>
+    <row r="146" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B146" s="7"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="8"/>
+      <c r="V146" s="8"/>
+      <c r="W146" s="8"/>
+      <c r="X146" s="8"/>
+      <c r="Y146" s="9"/>
+    </row>
+    <row r="147" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B147" s="7"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="8"/>
+      <c r="W147" s="8"/>
+      <c r="X147" s="8"/>
+      <c r="Y147" s="9"/>
+    </row>
+    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B148" s="10"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="11"/>
+      <c r="U148" s="11"/>
+      <c r="V148" s="11"/>
+      <c r="W148" s="11"/>
+      <c r="X148" s="11"/>
+      <c r="Y148" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13625,7 +13598,7 @@
       <c r="AX77" s="68"/>
       <c r="AY77" s="68"/>
       <c r="AZ77" s="68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BA77" s="68"/>
       <c r="BB77" s="68"/>
@@ -13665,7 +13638,7 @@
       <c r="AB78" s="8"/>
       <c r="AE78" s="7"/>
       <c r="AF78" s="68" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG78" s="68"/>
       <c r="AH78" s="68"/>
@@ -13687,7 +13660,7 @@
       <c r="AX78" s="68"/>
       <c r="AY78" s="68"/>
       <c r="AZ78" s="68" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BA78" s="68"/>
       <c r="BB78" s="68"/>
@@ -13745,14 +13718,14 @@
       <c r="AP79" s="71"/>
       <c r="AQ79" s="71"/>
       <c r="AR79" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AV79" s="71"/>
       <c r="AW79" s="71"/>
       <c r="AX79" s="71"/>
       <c r="AY79" s="71"/>
       <c r="AZ79" s="68" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BA79" s="71"/>
       <c r="BB79" s="71"/>
@@ -13796,7 +13769,7 @@
       <c r="AB80" s="8"/>
       <c r="AE80" s="7"/>
       <c r="AF80" s="71" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG80" s="71"/>
       <c r="AH80" s="71"/>
@@ -13810,7 +13783,7 @@
       <c r="AP80" s="70"/>
       <c r="AQ80" s="71"/>
       <c r="AR80" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="2:57" x14ac:dyDescent="0.25">
@@ -20792,8 +20765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="W62" sqref="W62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23245,6 +23218,12 @@
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
       <c r="AD66" s="9"/>
+      <c r="AF66">
+        <v>10</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
@@ -23278,6 +23257,9 @@
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
       <c r="AD67" s="9"/>
+      <c r="AG67" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
@@ -23471,7 +23453,7 @@
       <c r="D74" s="13"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -23479,7 +23461,7 @@
       <c r="J74" s="13"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
@@ -23878,4 +23860,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>482</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="751" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="751" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Menu" sheetId="2" r:id="rId1"/>
@@ -15,15 +15,16 @@
     <sheet name="Detail Hotel" sheetId="8" r:id="rId6"/>
     <sheet name="by Request" sheetId="11" r:id="rId7"/>
     <sheet name="order hotel" sheetId="4" r:id="rId8"/>
-    <sheet name="menu admin" sheetId="9" r:id="rId9"/>
-    <sheet name="hotel report" sheetId="10" r:id="rId10"/>
+    <sheet name="Report Admin" sheetId="9" r:id="rId9"/>
+    <sheet name="admin menu" sheetId="12" r:id="rId10"/>
+    <sheet name="hotel report" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="530">
   <si>
     <t>Agent Register</t>
   </si>
@@ -238,27 +239,15 @@
     <t>transfer to combo sesuai bank yang kita punya (tanya jones ntar)</t>
   </si>
   <si>
-    <t>No Order</t>
-  </si>
-  <si>
     <t>S/D</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Agent</t>
   </si>
   <si>
-    <t>Total pembayaran</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -271,12 +260,6 @@
     <t>Save</t>
   </si>
   <si>
-    <t>Browse Payment</t>
-  </si>
-  <si>
-    <t>ada tombol save di grid</t>
-  </si>
-  <si>
     <t>spec</t>
   </si>
   <si>
@@ -415,12 +398,6 @@
     <t>expired date</t>
   </si>
   <si>
-    <t>Ubah Status payment</t>
-  </si>
-  <si>
-    <t>hanya bisa ubah dari pending or cancel ke done</t>
-  </si>
-  <si>
     <t>Hotel register</t>
   </si>
   <si>
@@ -1060,9 +1037,6 @@
     <t>mst025</t>
   </si>
   <si>
-    <t>Search dari BLNC001 yang statusnya pending dan cancel</t>
-  </si>
-  <si>
     <t>Hotel Hot Deals XXX (nama kotanya)</t>
   </si>
   <si>
@@ -1601,6 +1575,45 @@
   </si>
   <si>
     <t>booking hotel</t>
+  </si>
+  <si>
+    <t>auto complete klo bs</t>
+  </si>
+  <si>
+    <t>Agent Booking List</t>
+  </si>
+  <si>
+    <t>Email Agent</t>
+  </si>
+  <si>
+    <t>Jika cancel_flg = No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maka muncul tulisannya </t>
+  </si>
+  <si>
+    <t>tanya jones klo ga bs cancel blgnya apa?</t>
+  </si>
+  <si>
+    <t>jika cancel_flg = Yes</t>
+  </si>
+  <si>
+    <t>tulisannya</t>
+  </si>
+  <si>
+    <t>free cancelation before xxxx</t>
+  </si>
+  <si>
+    <t>setelah xxx akan dikenakan biaya Rp.xxx (tanya jones bhs inggrisnya)</t>
+  </si>
+  <si>
+    <t>muncul dialog untuk cancelation policy</t>
+  </si>
+  <si>
+    <t>Ubah Status Payment</t>
+  </si>
+  <si>
+    <t>Order Number</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1921,7 +1934,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2159,6 +2176,53 @@
         <a:xfrm>
           <a:off x="6962775" y="7753350"/>
           <a:ext cx="1057275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="9829800"/>
+          <a:ext cx="2905125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2476,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BC148"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="P144" sqref="P144"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67:AH87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,7 +3340,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -3304,7 +3368,7 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3806,7 +3870,7 @@
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -3820,7 +3884,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
@@ -3880,7 +3944,7 @@
       <c r="C57" s="8"/>
       <c r="D57" s="7"/>
       <c r="E57" s="8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
@@ -3933,7 +3997,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="13"/>
       <c r="J59" s="8" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -3975,7 +4039,7 @@
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="14" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -4021,12 +4085,12 @@
     </row>
     <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="24" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
@@ -4036,7 +4100,7 @@
     </row>
     <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="AD68" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.25">
@@ -4062,15 +4126,15 @@
         <v>3</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="P71" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
@@ -4078,47 +4142,47 @@
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="3"/>
       <c r="M73" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C76" s="13" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="3"/>
       <c r="J78" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="3"/>
       <c r="M78" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
       <c r="P78" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
@@ -4127,12 +4191,12 @@
       <c r="U78" s="3"/>
       <c r="V78" s="1"/>
       <c r="W78" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
@@ -4173,7 +4237,7 @@
       <c r="AC79" s="8"/>
       <c r="AD79" s="9"/>
       <c r="AE79" s="30" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AF79" s="2"/>
       <c r="AG79" s="3"/>
@@ -4243,7 +4307,7 @@
       <c r="AC81" s="8"/>
       <c r="AD81" s="9"/>
       <c r="AE81" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AF81" s="2"/>
       <c r="AG81" s="3"/>
@@ -4347,7 +4411,7 @@
       <c r="AC84" s="8"/>
       <c r="AD84" s="9"/>
       <c r="AE84" s="30" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AF84" s="2"/>
       <c r="AG84" s="3"/>
@@ -4417,7 +4481,7 @@
       <c r="AC86" s="8"/>
       <c r="AD86" s="9"/>
       <c r="AE86" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AF86" s="2"/>
       <c r="AG86" s="3"/>
@@ -4493,7 +4557,7 @@
     </row>
     <row r="91" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C91" s="24" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="3:55" x14ac:dyDescent="0.25">
@@ -4551,7 +4615,7 @@
     </row>
     <row r="93" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C93" s="17" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4580,7 +4644,7 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="9"/>
       <c r="AF93" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AG93" s="8"/>
       <c r="AH93" s="8"/>
@@ -4655,7 +4719,7 @@
       <c r="AX94" s="11"/>
       <c r="AY94" s="11"/>
       <c r="AZ94" s="11" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="BA94" s="11"/>
       <c r="BB94" s="11"/>
@@ -4663,7 +4727,7 @@
     </row>
     <row r="95" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C95" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4678,7 +4742,7 @@
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
       <c r="N95" s="8" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
@@ -4753,7 +4817,7 @@
       <c r="AB96" s="8"/>
       <c r="AC96" s="9"/>
       <c r="AF96" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AG96" s="8"/>
       <c r="AH96" s="8"/>
@@ -4768,7 +4832,7 @@
       <c r="AO96" s="8"/>
       <c r="AP96" s="8"/>
       <c r="AQ96" s="8" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AR96" s="8"/>
       <c r="AS96" s="8"/>
@@ -4781,7 +4845,7 @@
       <c r="AX96" s="8"/>
       <c r="AY96" s="8"/>
       <c r="AZ96" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BA96" s="8"/>
       <c r="BB96" s="8"/>
@@ -4804,7 +4868,7 @@
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
@@ -4877,7 +4941,7 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="9"/>
       <c r="AF98" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AG98" s="8"/>
       <c r="AH98" s="8"/>
@@ -4905,7 +4969,7 @@
       <c r="AX98" s="8"/>
       <c r="AY98" s="8"/>
       <c r="AZ98" s="8" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="BA98" s="8"/>
       <c r="BB98" s="8"/>
@@ -4999,7 +5063,7 @@
       <c r="AB100" s="8"/>
       <c r="AC100" s="9"/>
       <c r="AF100" s="18" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
@@ -5049,7 +5113,7 @@
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
       <c r="U101" s="15" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
@@ -5139,7 +5203,7 @@
     </row>
     <row r="103" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C103" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -5161,7 +5225,7 @@
       <c r="S103" s="8"/>
       <c r="T103" s="8"/>
       <c r="U103" s="15" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
@@ -5172,7 +5236,7 @@
       <c r="AB103" s="8"/>
       <c r="AC103" s="9"/>
       <c r="AF103" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
@@ -5255,7 +5319,7 @@
     </row>
     <row r="105" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C105" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5277,17 +5341,17 @@
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
       <c r="U105" s="8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
       <c r="X105" s="8" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AB105" s="8"/>
       <c r="AC105" s="9"/>
@@ -5368,7 +5432,7 @@
     </row>
     <row r="107" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C107" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5393,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="V107" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="W107" s="8"/>
       <c r="X107" s="8"/>
@@ -5403,7 +5467,7 @@
       <c r="AB107" s="8"/>
       <c r="AC107" s="9"/>
       <c r="AF107" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
@@ -5451,7 +5515,7 @@
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
@@ -5488,13 +5552,13 @@
     </row>
     <row r="109" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
       <c r="G109" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2"/>
@@ -5561,7 +5625,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2"/>
@@ -5805,7 +5869,7 @@
     </row>
     <row r="117" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -5831,7 +5895,7 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="9"/>
       <c r="AF117" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
@@ -5881,7 +5945,7 @@
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
       <c r="V118" s="57" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="W118" s="11"/>
       <c r="X118" s="11"/>
@@ -5913,7 +5977,7 @@
     </row>
     <row r="119" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B119" s="18" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -5939,7 +6003,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="6"/>
       <c r="AF119" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
@@ -6043,7 +6107,7 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="9"/>
       <c r="AF121" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
@@ -6073,7 +6137,7 @@
     </row>
     <row r="122" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -6108,7 +6172,7 @@
       <c r="B123" s="7"/>
       <c r="Y123" s="9"/>
       <c r="AF123" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AG123" s="8"/>
       <c r="AH123" s="8"/>
@@ -6138,7 +6202,7 @@
     </row>
     <row r="124" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G124" t="s">
         <v>35</v>
@@ -6209,7 +6273,7 @@
     </row>
     <row r="126" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -6225,7 +6289,7 @@
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
@@ -6241,7 +6305,7 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="9"/>
       <c r="AF126" s="4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AG126" s="5"/>
       <c r="AH126" s="5"/>
@@ -6319,7 +6383,7 @@
     </row>
     <row r="128" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -6335,7 +6399,7 @@
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
@@ -6427,7 +6491,7 @@
     </row>
     <row r="130" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -6443,7 +6507,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
       <c r="N130" s="8" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
@@ -6511,7 +6575,7 @@
     </row>
     <row r="132" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -6527,7 +6591,7 @@
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
@@ -6571,7 +6635,7 @@
     </row>
     <row r="134" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G134" t="s">
         <v>35</v>
@@ -6583,7 +6647,7 @@
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
       <c r="N134" s="8" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
@@ -6632,7 +6696,7 @@
     <row r="137" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B137" s="22"/>
       <c r="C137" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="1" t="s">
@@ -6640,7 +6704,7 @@
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H137" s="3"/>
       <c r="S137" s="8"/>
@@ -6759,7 +6823,7 @@
     </row>
     <row r="144" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -6903,22 +6967,50 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
@@ -6928,14 +7020,14 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="1"/>
       <c r="M5" s="3"/>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -6944,14 +7036,14 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
@@ -6963,7 +7055,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -6972,45 +7064,45 @@
         <v>6</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="3"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -7021,7 +7113,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -7029,7 +7121,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
       <c r="P16" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -7055,12 +7147,12 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -7320,10 +7412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA50"/>
+  <dimension ref="B2:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:AM50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8095,499 +8187,6 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="6"/>
-      <c r="AA33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="9"/>
-      <c r="AA34" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="9"/>
-      <c r="AA35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="9"/>
-      <c r="AA36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="9"/>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="9"/>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="9"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="9"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="V41" s="5"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="9"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="9"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V43" s="3"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="9"/>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="9"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="9"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8606,18 +8205,18 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="D4" s="25" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -8643,7 +8242,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="6"/>
       <c r="AC4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -8677,7 +8276,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -8739,13 +8338,13 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
       <c r="M8" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -8755,13 +8354,13 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="3"/>
       <c r="W8" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
@@ -8826,7 +8425,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="8"/>
@@ -8882,7 +8481,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -8898,20 +8497,20 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
       <c r="X13" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="3"/>
@@ -9166,7 +8765,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -9220,13 +8819,13 @@
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -9251,7 +8850,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="6"/>
       <c r="AC28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.25">
@@ -9280,7 +8879,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="9"/>
       <c r="AC29" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.25">
@@ -9288,7 +8887,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -9302,7 +8901,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
@@ -9313,7 +8912,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="9"/>
       <c r="AC30" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.25">
@@ -9342,7 +8941,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="9"/>
       <c r="AC31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.25">
@@ -9350,7 +8949,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="19" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -9360,7 +8959,7 @@
       <c r="L32" s="59"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O32" s="19"/>
       <c r="P32" s="8"/>
@@ -9406,7 +9005,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -9414,13 +9013,13 @@
       <c r="J34" s="8"/>
       <c r="K34" s="13"/>
       <c r="L34" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -9433,7 +9032,7 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="9"/>
       <c r="AC34" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="3:29" x14ac:dyDescent="0.25">
@@ -9462,7 +9061,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="9"/>
       <c r="AC35" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="3:29" x14ac:dyDescent="0.25">
@@ -9470,7 +9069,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -9490,12 +9089,12 @@
       <c r="V36" s="6"/>
       <c r="W36" s="8"/>
       <c r="X36" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="9"/>
       <c r="AC36" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="3:29" x14ac:dyDescent="0.25">
@@ -9524,7 +9123,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="9"/>
       <c r="AC37" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="3:29" x14ac:dyDescent="0.25">
@@ -9553,7 +9152,7 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="9"/>
       <c r="AC38" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="3:29" x14ac:dyDescent="0.25">
@@ -9592,7 +9191,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -9601,7 +9200,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
@@ -9617,25 +9216,25 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="3"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -9677,7 +9276,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -9689,7 +9288,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
@@ -9733,7 +9332,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -9749,7 +9348,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -9796,7 +9395,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -9805,11 +9404,11 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="S47" s="8"/>
       <c r="T47" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -9849,14 +9448,14 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -9905,14 +9504,14 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -9961,7 +9560,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -9970,11 +9569,11 @@
       <c r="K53" s="1"/>
       <c r="L53" s="3"/>
       <c r="M53" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -10019,14 +9618,14 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -10035,12 +9634,12 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
@@ -10079,7 +9678,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="62" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G57" s="62"/>
       <c r="H57" s="62"/>
@@ -10093,7 +9692,7 @@
       <c r="P57" s="62"/>
       <c r="Q57" s="62"/>
       <c r="R57" s="8" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
@@ -10119,7 +9718,7 @@
       <c r="P58" s="61"/>
       <c r="Q58" s="61"/>
       <c r="R58" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
@@ -10133,14 +9732,14 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="61" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G59" s="61"/>
       <c r="H59" s="61"/>
       <c r="I59" s="61"/>
       <c r="J59" s="61"/>
       <c r="K59" s="63" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L59" s="64"/>
       <c r="M59" s="64"/>
@@ -10149,7 +9748,7 @@
       <c r="P59" s="65"/>
       <c r="Q59" s="61"/>
       <c r="R59" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
@@ -10189,7 +9788,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -10245,14 +9844,14 @@
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10301,14 +9900,14 @@
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10357,14 +9956,14 @@
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10540,13 +10139,13 @@
     </row>
     <row r="76" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C76" s="24" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C77" s="4"/>
       <c r="D77" s="25" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -10603,7 +10202,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -10665,13 +10264,13 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="3"/>
       <c r="M81" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
@@ -10681,13 +10280,13 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
       <c r="S81" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="3"/>
       <c r="W81" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
@@ -10752,7 +10351,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
       <c r="E84" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="8"/>
@@ -10808,7 +10407,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="13"/>
       <c r="E86" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -10824,20 +10423,20 @@
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="3"/>
       <c r="X86" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" s="3"/>
@@ -11092,7 +10691,7 @@
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
       <c r="E96" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -11166,30 +10765,30 @@
     <row r="2" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="27" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="3"/>
@@ -11200,30 +10799,30 @@
       <c r="Y2" s="6"/>
       <c r="AE2" s="41"/>
       <c r="AF2" s="47" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AG2" s="43"/>
       <c r="AH2" s="43"/>
       <c r="AI2" s="42"/>
       <c r="AJ2" s="48" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
       <c r="AM2" s="42"/>
       <c r="AN2" s="48" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AO2" s="43"/>
       <c r="AP2" s="43"/>
       <c r="AQ2" s="42"/>
       <c r="AR2" s="48" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AS2" s="43"/>
       <c r="AT2" s="42"/>
       <c r="AU2" s="49" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AV2" s="43"/>
       <c r="AW2" s="42"/>
@@ -11269,7 +10868,7 @@
       <c r="AI3" s="39"/>
       <c r="AJ3" s="39"/>
       <c r="AK3" s="39" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AL3" s="39"/>
       <c r="AM3" s="39"/>
@@ -11320,7 +10919,7 @@
       <c r="Z4" s="8"/>
       <c r="AE4" s="38"/>
       <c r="AF4" s="39" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AG4" s="39"/>
       <c r="AH4" s="39"/>
@@ -11353,7 +10952,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -11367,7 +10966,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -11379,14 +10978,14 @@
       <c r="Y5" s="9"/>
       <c r="AE5" s="38"/>
       <c r="AF5" s="41" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AG5" s="41" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AH5" s="42"/>
       <c r="AI5" s="41" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AJ5" s="43"/>
       <c r="AK5" s="43"/>
@@ -11442,7 +11041,7 @@
       <c r="AH6" s="40"/>
       <c r="AI6" s="52"/>
       <c r="AJ6" s="50" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AK6" s="50"/>
       <c r="AL6" s="50"/>
@@ -11471,7 +11070,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -11479,13 +11078,13 @@
       <c r="I7" s="8"/>
       <c r="J7" s="13"/>
       <c r="K7" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -11583,7 +11182,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -11603,7 +11202,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
@@ -11804,7 +11403,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -11813,7 +11412,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -11856,25 +11455,25 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -11943,7 +11542,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -11955,7 +11554,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -11999,7 +11598,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -12015,7 +11614,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
@@ -12062,7 +11661,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -12071,11 +11670,11 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -12115,14 +11714,14 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -12171,14 +11770,14 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -12227,7 +11826,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -12236,11 +11835,11 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
       <c r="L26" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -12285,14 +11884,14 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -12301,12 +11900,12 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -12369,30 +11968,30 @@
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="3"/>
       <c r="K34" s="14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="3"/>
       <c r="O34" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="3"/>
@@ -12473,7 +12072,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="4"/>
@@ -12483,7 +12082,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="4"/>
@@ -12493,7 +12092,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AA37" s="8"/>
       <c r="AB37" s="9"/>
@@ -12647,7 +12246,7 @@
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -12657,7 +12256,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="8"/>
       <c r="L43" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -12667,7 +12266,7 @@
       <c r="R43" s="6"/>
       <c r="S43" s="8"/>
       <c r="T43" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -12833,7 +12432,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="8"/>
       <c r="J49" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="3"/>
@@ -12887,7 +12486,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="14" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
@@ -13005,7 +12604,7 @@
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="AE55" s="18" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
@@ -13014,7 +12613,7 @@
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
       <c r="AL55" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -13064,30 +12663,30 @@
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="30" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="3"/>
       <c r="K57" s="30" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="3"/>
       <c r="O57" s="14" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="3"/>
@@ -13182,7 +12781,7 @@
     <row r="59" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -13238,25 +12837,25 @@
     <row r="60" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="3"/>
       <c r="M60" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -13275,14 +12874,14 @@
       <c r="AB60" s="9"/>
       <c r="AE60" s="7"/>
       <c r="AF60" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG60" s="8"/>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="8"/>
       <c r="AK60" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AL60" s="2"/>
       <c r="AM60" s="2"/>
@@ -13340,14 +12939,14 @@
       <c r="AI61" s="8"/>
       <c r="AJ61" s="8"/>
       <c r="AK61" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="8"/>
       <c r="AO61" s="8"/>
       <c r="AP61" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
@@ -13393,7 +12992,7 @@
       <c r="AB62" s="9"/>
       <c r="AE62" s="7"/>
       <c r="AF62" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AG62" s="8"/>
       <c r="AH62" s="8"/>
@@ -13404,7 +13003,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="13"/>
@@ -13505,20 +13104,20 @@
       <c r="AB64" s="9"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AG64" s="8"/>
       <c r="AH64" s="8"/>
       <c r="AI64" s="8"/>
       <c r="AJ64" s="8"/>
       <c r="AK64" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
       <c r="AO64" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -13619,14 +13218,14 @@
       <c r="AB66" s="9"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AG66" s="8"/>
       <c r="AH66" s="8"/>
       <c r="AI66" s="8"/>
       <c r="AJ66" s="8"/>
       <c r="AK66" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AL66" s="3"/>
       <c r="AM66" s="8"/>
@@ -13640,10 +13239,10 @@
       <c r="AU66" s="8"/>
       <c r="AV66" s="8"/>
       <c r="AW66" s="31" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AX66" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AY66" s="3"/>
       <c r="AZ66" s="8"/>
@@ -13686,7 +13285,7 @@
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8"/>
       <c r="AK67" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
@@ -13737,7 +13336,7 @@
       <c r="AB68" s="9"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AG68" s="8"/>
       <c r="AH68" s="8"/>
@@ -13746,10 +13345,10 @@
       <c r="AK68" s="1"/>
       <c r="AL68" s="2"/>
       <c r="AM68" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AN68" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
@@ -13760,11 +13359,11 @@
       <c r="AU68" s="8"/>
       <c r="AV68" s="8"/>
       <c r="AW68" s="31" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AX68" s="1"/>
       <c r="AY68" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AZ68" s="8"/>
       <c r="BA68" s="8"/>
@@ -13806,7 +13405,7 @@
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8"/>
       <c r="AK69" s="19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL69" s="8"/>
       <c r="AM69" s="8"/>
@@ -13857,7 +13456,7 @@
       <c r="AB70" s="8"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AG70" s="8"/>
       <c r="AH70" s="8"/>
@@ -13865,10 +13464,10 @@
       <c r="AJ70" s="8"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AM70" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
@@ -13924,7 +13523,7 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="8"/>
       <c r="AK71" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AL71" s="8"/>
       <c r="AM71" s="8"/>
@@ -13950,7 +13549,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -13979,7 +13578,7 @@
       <c r="AB72" s="8"/>
       <c r="AE72" s="7"/>
       <c r="AF72" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AG72" s="8"/>
       <c r="AH72" s="8"/>
@@ -13992,7 +13591,7 @@
       </c>
       <c r="AN72" s="8"/>
       <c r="AO72" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
@@ -14014,7 +13613,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -14048,7 +13647,7 @@
       <c r="AI73" s="8"/>
       <c r="AJ73" s="8"/>
       <c r="AK73" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AL73" s="8"/>
       <c r="AM73" s="8"/>
@@ -14063,7 +13662,7 @@
       <c r="AV73" s="8"/>
       <c r="AW73" s="8"/>
       <c r="AX73" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AY73" s="8"/>
       <c r="AZ73" s="8"/>
@@ -14074,7 +13673,7 @@
     <row r="74" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -14103,7 +13702,7 @@
       <c r="AB74" s="8"/>
       <c r="AE74" s="7"/>
       <c r="AF74" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AG74" s="8"/>
       <c r="AH74" s="8"/>
@@ -14112,7 +13711,7 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="3"/>
       <c r="AM74" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
@@ -14124,7 +13723,7 @@
       <c r="AU74" s="8"/>
       <c r="AV74" s="8"/>
       <c r="AW74" s="31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AX74" s="1"/>
       <c r="AY74" s="3"/>
@@ -14136,12 +13735,12 @@
     <row r="75" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -14194,12 +13793,12 @@
     <row r="76" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -14225,7 +13824,7 @@
       <c r="AB76" s="8"/>
       <c r="AE76" s="7"/>
       <c r="AF76" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AG76" s="8"/>
       <c r="AH76" s="8"/>
@@ -14234,7 +13833,7 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="3"/>
       <c r="AM76" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AN76" s="8"/>
       <c r="AO76" s="8"/>
@@ -14251,11 +13850,11 @@
       <c r="AX76" s="63"/>
       <c r="AY76" s="65"/>
       <c r="AZ76" s="62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="BA76" s="62"/>
       <c r="BB76" s="62" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="BC76" s="62"/>
       <c r="BD76" s="61"/>
@@ -14266,12 +13865,12 @@
     <row r="77" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="34" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="33" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -14302,7 +13901,7 @@
       <c r="AI77" s="8"/>
       <c r="AJ77" s="8"/>
       <c r="AK77" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AL77" s="8"/>
       <c r="AM77" s="8"/>
@@ -14319,7 +13918,7 @@
       <c r="AX77" s="62"/>
       <c r="AY77" s="62"/>
       <c r="AZ77" s="62" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="BA77" s="62"/>
       <c r="BB77" s="62"/>
@@ -14366,7 +13965,7 @@
       <c r="AX78" s="62"/>
       <c r="AY78" s="62"/>
       <c r="AZ78" s="62" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="BA78" s="62"/>
       <c r="BB78" s="62"/>
@@ -14379,14 +13978,14 @@
     <row r="79" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="19" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -14416,7 +14015,7 @@
       <c r="AX79" s="61"/>
       <c r="AY79" s="61"/>
       <c r="AZ79" s="62" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="BA79" s="61"/>
       <c r="BB79" s="61"/>
@@ -14432,7 +14031,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="19" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -14440,7 +14039,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
@@ -14493,7 +14092,7 @@
     <row r="82" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -14522,14 +14121,14 @@
       <c r="AB82" s="8"/>
       <c r="AE82" s="7"/>
       <c r="AF82" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG82" s="8"/>
       <c r="AH82" s="8"/>
       <c r="AI82" s="8"/>
       <c r="AJ82" s="8"/>
       <c r="AK82" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AL82" s="5"/>
       <c r="AM82" s="5"/>
@@ -14552,7 +14151,7 @@
     <row r="83" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="8"/>
@@ -14608,7 +14207,7 @@
     <row r="84" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="19" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -14718,7 +14317,7 @@
     <row r="86" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" s="19" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -14747,7 +14346,7 @@
       <c r="AB86" s="8"/>
       <c r="AE86" s="7"/>
       <c r="AF86" s="18" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
@@ -14776,7 +14375,7 @@
     <row r="87" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="19" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -14810,7 +14409,7 @@
       <c r="AI87" s="8"/>
       <c r="AJ87" s="8"/>
       <c r="AK87" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AL87" s="8"/>
       <c r="AM87" s="8"/>
@@ -14869,10 +14468,10 @@
       <c r="AJ88" s="8"/>
       <c r="AK88" s="1"/>
       <c r="AL88" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AM88" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AN88" s="8"/>
       <c r="AO88" s="8"/>
@@ -14896,7 +14495,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -14952,7 +14551,7 @@
     <row r="90" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -14981,20 +14580,20 @@
       <c r="AB90" s="8"/>
       <c r="AE90" s="22"/>
       <c r="AG90" s="54" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AH90" s="54"/>
       <c r="AI90" s="54"/>
       <c r="AJ90" s="54"/>
       <c r="AK90" s="66"/>
       <c r="AL90" s="54" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AM90" s="54"/>
       <c r="AN90" s="54"/>
       <c r="AO90" s="54"/>
       <c r="AP90" s="54" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="AQ90" s="54"/>
       <c r="AR90" s="54"/>
@@ -15015,7 +14614,7 @@
     <row r="91" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -15053,7 +14652,7 @@
       <c r="AN91" s="54"/>
       <c r="AO91" s="54"/>
       <c r="AP91" s="54" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AQ91" s="54"/>
       <c r="AR91" s="54"/>
@@ -15074,7 +14673,7 @@
     <row r="92" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -15104,17 +14703,17 @@
       <c r="AE92" s="7"/>
       <c r="AF92" s="7"/>
       <c r="AG92" s="19" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AH92" s="19"/>
       <c r="AI92" s="19"/>
       <c r="AJ92" s="19"/>
       <c r="AK92" s="19"/>
       <c r="AL92" s="19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AM92" s="58" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AN92" s="59"/>
       <c r="AO92" s="59"/>
@@ -15123,7 +14722,7 @@
       <c r="AR92" s="19"/>
       <c r="AS92" s="19"/>
       <c r="AT92" s="19" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AU92" s="19"/>
       <c r="AV92" s="19"/>
@@ -15131,10 +14730,10 @@
       <c r="AX92" s="19"/>
       <c r="AY92" s="19"/>
       <c r="AZ92" s="19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="BA92" s="58" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="BB92" s="59"/>
       <c r="BC92" s="59"/>
@@ -15144,7 +14743,7 @@
     <row r="93" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -15179,7 +14778,7 @@
       <c r="AJ93" s="8"/>
       <c r="AK93" s="8"/>
       <c r="AL93" s="8" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AM93" s="8"/>
       <c r="AN93" s="8"/>
@@ -15204,7 +14803,7 @@
     <row r="94" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -15234,7 +14833,7 @@
       <c r="AE94" s="7"/>
       <c r="AF94" s="7"/>
       <c r="AG94" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AH94" s="8"/>
       <c r="AI94" s="8"/>
@@ -15242,15 +14841,15 @@
       <c r="AK94" s="8"/>
       <c r="AL94" s="1"/>
       <c r="AM94" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AN94" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AO94" s="8"/>
       <c r="AP94" s="8"/>
       <c r="AQ94" s="8" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AR94" s="8"/>
       <c r="AS94" s="8"/>
@@ -15270,7 +14869,7 @@
     <row r="95" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -15305,14 +14904,14 @@
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
       <c r="AL95" s="8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AM95" s="8"/>
       <c r="AN95" s="8"/>
       <c r="AO95" s="8"/>
       <c r="AP95" s="8"/>
       <c r="AQ95" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AR95" s="8"/>
       <c r="AS95" s="8"/>
@@ -15332,7 +14931,7 @@
     <row r="96" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -15362,7 +14961,7 @@
       <c r="AE96" s="7"/>
       <c r="AF96" s="7"/>
       <c r="AG96" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AH96" s="8"/>
       <c r="AI96" s="8"/>
@@ -15373,7 +14972,7 @@
       <c r="AN96" s="8"/>
       <c r="AO96" s="8"/>
       <c r="AP96" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AQ96" s="8"/>
       <c r="AR96" s="8"/>
@@ -15394,7 +14993,7 @@
     <row r="97" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" s="19" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -15429,7 +15028,7 @@
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
       <c r="AL97" s="8" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AM97" s="8"/>
       <c r="AN97" s="8"/>
@@ -15456,7 +15055,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
@@ -15486,7 +15085,7 @@
       <c r="AE98" s="7"/>
       <c r="AF98" s="7"/>
       <c r="AG98" s="8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AH98" s="8"/>
       <c r="AI98" s="8"/>
@@ -15497,7 +15096,7 @@
       <c r="AN98" s="8"/>
       <c r="AO98" s="8"/>
       <c r="AP98" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AQ98" s="8"/>
       <c r="AR98" s="8"/>
@@ -15518,7 +15117,7 @@
     <row r="99" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
       <c r="C99" s="19" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
@@ -15576,7 +15175,7 @@
     <row r="100" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
       <c r="C100" s="19" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
@@ -15606,7 +15205,7 @@
       <c r="AE100" s="7"/>
       <c r="AF100" s="7"/>
       <c r="AG100" s="19" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AH100" s="19"/>
       <c r="AI100" s="19"/>
@@ -15614,7 +15213,7 @@
       <c r="AK100" s="19"/>
       <c r="AL100" s="66"/>
       <c r="AM100" s="19" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AN100" s="19"/>
       <c r="AO100" s="19"/>
@@ -15638,7 +15237,7 @@
     <row r="101" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
       <c r="C101" s="19" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
@@ -15698,7 +15297,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
@@ -15731,7 +15330,7 @@
       <c r="AE102" s="7"/>
       <c r="AF102" s="7"/>
       <c r="AG102" s="19" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AH102" s="19"/>
       <c r="AI102" s="19"/>
@@ -15742,7 +15341,7 @@
       <c r="AN102" s="60"/>
       <c r="AO102" s="19"/>
       <c r="AP102" s="19" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ102" s="19"/>
       <c r="AR102" s="19"/>
@@ -15796,7 +15395,7 @@
       <c r="AJ103" s="35"/>
       <c r="AK103" s="35"/>
       <c r="AL103" s="35" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AM103" s="35"/>
       <c r="AN103" s="35"/>
@@ -15823,7 +15422,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
@@ -15881,7 +15480,7 @@
     <row r="105" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
       <c r="C105" s="19" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
@@ -15910,7 +15509,7 @@
       <c r="AB105" s="54"/>
       <c r="AE105" s="7"/>
       <c r="AF105" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AG105" s="3"/>
       <c r="AH105" s="8"/>
@@ -15941,7 +15540,7 @@
     <row r="106" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
       <c r="C106" s="19" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
@@ -15999,7 +15598,7 @@
     <row r="107" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
       <c r="C107" s="19" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
@@ -16057,25 +15656,25 @@
     <row r="109" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="3"/>
       <c r="G109" s="14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="3"/>
       <c r="K109" s="30" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="3"/>
       <c r="O109" s="30" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="3"/>
@@ -16091,7 +15690,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="6"/>
       <c r="AE109" s="18" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AF109" s="5"/>
       <c r="AG109" s="5"/>
@@ -16100,7 +15699,7 @@
       <c r="AJ109" s="5"/>
       <c r="AK109" s="5"/>
       <c r="AL109" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AM109" s="5"/>
       <c r="AN109" s="5"/>
@@ -16175,7 +15774,7 @@
     <row r="111" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="8" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -16205,7 +15804,7 @@
       <c r="AE111" s="7"/>
       <c r="AF111" s="8"/>
       <c r="AG111" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
@@ -16213,7 +15812,7 @@
       <c r="AK111" s="3"/>
       <c r="AL111" s="8"/>
       <c r="AM111" s="8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AN111" s="8"/>
       <c r="AO111" s="8"/>
@@ -16234,25 +15833,25 @@
     <row r="112" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="C112" s="13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="3"/>
       <c r="J112" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="3"/>
       <c r="M112" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16286,7 +15885,7 @@
       <c r="AS112" s="8"/>
       <c r="AT112" s="7"/>
       <c r="AU112" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AV112" s="8"/>
       <c r="AW112" s="8"/>
@@ -16379,14 +15978,14 @@
       <c r="AB114" s="9"/>
       <c r="AE114" s="7"/>
       <c r="AF114" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG114" s="8"/>
       <c r="AH114" s="8"/>
       <c r="AI114" s="8"/>
       <c r="AJ114" s="8"/>
       <c r="AK114" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AL114" s="2"/>
       <c r="AM114" s="2"/>
@@ -16491,14 +16090,14 @@
       <c r="AB116" s="9"/>
       <c r="AE116" s="7"/>
       <c r="AF116" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AG116" s="8"/>
       <c r="AH116" s="8"/>
       <c r="AI116" s="8"/>
       <c r="AJ116" s="8"/>
       <c r="AK116" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AL116" s="2"/>
       <c r="AM116" s="2"/>
@@ -16601,14 +16200,14 @@
       <c r="AB118" s="9"/>
       <c r="AE118" s="7"/>
       <c r="AF118" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AG118" s="8"/>
       <c r="AH118" s="8"/>
       <c r="AI118" s="8"/>
       <c r="AJ118" s="8"/>
       <c r="AK118" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AL118" s="3"/>
       <c r="AM118" s="8"/>
@@ -16622,10 +16221,10 @@
       <c r="AU118" s="8"/>
       <c r="AV118" s="8"/>
       <c r="AW118" s="31" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AX118" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AY118" s="3"/>
       <c r="AZ118" s="8"/>
@@ -16667,7 +16266,7 @@
       <c r="AI119" s="8"/>
       <c r="AJ119" s="8"/>
       <c r="AK119" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AL119" s="8"/>
       <c r="AM119" s="8"/>
@@ -16717,7 +16316,7 @@
       <c r="AB120" s="9"/>
       <c r="AE120" s="7"/>
       <c r="AF120" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AG120" s="8"/>
       <c r="AH120" s="8"/>
@@ -16726,10 +16325,10 @@
       <c r="AK120" s="1"/>
       <c r="AL120" s="2"/>
       <c r="AM120" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AN120" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AO120" s="8"/>
       <c r="AP120" s="8"/>
@@ -16740,11 +16339,11 @@
       <c r="AU120" s="8"/>
       <c r="AV120" s="8"/>
       <c r="AW120" s="31" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AX120" s="1"/>
       <c r="AY120" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AZ120" s="8"/>
       <c r="BA120" s="8"/>
@@ -16785,7 +16384,7 @@
       <c r="AI121" s="8"/>
       <c r="AJ121" s="8"/>
       <c r="AK121" s="19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL121" s="8"/>
       <c r="AM121" s="8"/>
@@ -16808,7 +16407,7 @@
     <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE122" s="7"/>
       <c r="AF122" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
@@ -16816,10 +16415,10 @@
       <c r="AJ122" s="8"/>
       <c r="AK122" s="1"/>
       <c r="AL122" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AM122" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AN122" s="8"/>
       <c r="AO122" s="8"/>
@@ -16845,7 +16444,7 @@
       <c r="AI123" s="8"/>
       <c r="AJ123" s="8"/>
       <c r="AK123" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AL123" s="8"/>
       <c r="AM123" s="8"/>
@@ -16868,7 +16467,7 @@
     <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE124" s="7"/>
       <c r="AF124" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
@@ -16881,7 +16480,7 @@
       </c>
       <c r="AN124" s="8"/>
       <c r="AO124" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AP124" s="8"/>
       <c r="AQ124" s="8"/>
@@ -16952,7 +16551,7 @@
     <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE127" s="7"/>
       <c r="AF127" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
@@ -16961,7 +16560,7 @@
       <c r="AK127" s="1"/>
       <c r="AL127" s="3"/>
       <c r="AM127" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AN127" s="8"/>
       <c r="AO127" s="8"/>
@@ -16987,7 +16586,7 @@
       <c r="AI128" s="8"/>
       <c r="AJ128" s="8"/>
       <c r="AK128" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AL128" s="8"/>
       <c r="AM128" s="8"/>
@@ -17036,14 +16635,14 @@
     <row r="130" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE130" s="7"/>
       <c r="AF130" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG130" s="8"/>
       <c r="AH130" s="8"/>
       <c r="AI130" s="8"/>
       <c r="AJ130" s="8"/>
       <c r="AK130" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AL130" s="5"/>
       <c r="AM130" s="5"/>
@@ -17144,18 +16743,18 @@
     <row r="134" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE134" s="67"/>
       <c r="AF134" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AG134" s="19"/>
       <c r="AH134" s="19"/>
       <c r="AI134" s="19" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AJ134" s="19"/>
       <c r="AK134" s="19"/>
       <c r="AL134" s="19"/>
       <c r="AM134" s="19" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AN134" s="19"/>
       <c r="AO134" s="19"/>
@@ -17176,14 +16775,14 @@
     <row r="135" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE135" s="67"/>
       <c r="AF135" s="66" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AG135" s="58" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AH135" s="60"/>
       <c r="AI135" s="59" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AJ135" s="59"/>
       <c r="AK135" s="59"/>
@@ -17211,7 +16810,7 @@
       <c r="AG136" s="67"/>
       <c r="AH136" s="68"/>
       <c r="AI136" s="19" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AJ136" s="19"/>
       <c r="AK136" s="19"/>
@@ -17314,7 +16913,7 @@
     <row r="140" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE140" s="7"/>
       <c r="AF140" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AG140" s="3"/>
       <c r="AH140" s="8"/>
@@ -17384,7 +16983,7 @@
     <row r="2" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -17410,7 +17009,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
       <c r="AB2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.25">
@@ -17440,7 +17039,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="9"/>
       <c r="AC3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.25">
@@ -17452,7 +17051,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -17467,7 +17066,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -17478,7 +17077,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="9"/>
       <c r="AC4" s="54" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AD4" s="54"/>
       <c r="AE4" s="54"/>
@@ -17540,7 +17139,7 @@
     <row r="6" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="19" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -17550,7 +17149,7 @@
       <c r="I6" s="59"/>
       <c r="J6" s="60"/>
       <c r="K6" s="19" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -17610,7 +17209,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="9"/>
       <c r="AC7" s="54" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="AD7" s="54"/>
       <c r="AE7" s="54"/>
@@ -17630,7 +17229,7 @@
     <row r="8" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -17656,7 +17255,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
       <c r="AC8" s="54" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="AD8" s="54"/>
       <c r="AE8" s="54"/>
@@ -17700,7 +17299,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="9"/>
       <c r="AC9" s="54" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
@@ -17720,7 +17319,7 @@
     <row r="10" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -17780,12 +17379,12 @@
     <row r="12" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
@@ -17793,13 +17392,13 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="8"/>
@@ -17817,7 +17416,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -17829,7 +17428,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -17844,16 +17443,16 @@
     <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -17903,7 +17502,7 @@
     <row r="16" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -17958,7 +17557,7 @@
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.25">
@@ -17997,13 +17596,13 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -18028,7 +17627,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -18040,7 +17639,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
@@ -18114,7 +17713,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -18152,7 +17751,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -18200,7 +17799,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
       <c r="I26" s="35" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -18920,25 +18519,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BB73"/>
+  <dimension ref="A2:BD73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="AJ49" sqref="AJ49"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB56" sqref="AB56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="2:54" x14ac:dyDescent="0.25">
@@ -19277,7 +18876,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
       <c r="AD12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
@@ -19369,7 +18968,7 @@
       <c r="V14" s="9"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="8" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
@@ -19461,7 +19060,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -19469,12 +19068,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -19499,7 +19098,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
       <c r="AO17" s="8" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -19543,7 +19142,7 @@
       <c r="AA18" s="9"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="8" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
@@ -19566,7 +19165,7 @@
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -19666,7 +19265,7 @@
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="19" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -19676,7 +19275,7 @@
       <c r="I21" s="59"/>
       <c r="J21" s="60"/>
       <c r="K21" s="19" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -19764,12 +19363,12 @@
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="G23" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
@@ -19777,13 +19376,13 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="8"/>
@@ -19821,7 +19420,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -19833,7 +19432,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -19868,16 +19467,16 @@
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -19966,7 +19565,7 @@
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
@@ -20044,7 +19643,7 @@
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
@@ -20078,7 +19677,7 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="6"/>
       <c r="AE31" s="54" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AF31" s="54"/>
       <c r="AG31" s="54"/>
@@ -20110,18 +19709,18 @@
       <c r="E32" s="6"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -20139,7 +19738,7 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="9"/>
       <c r="AE32" s="54" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AF32" s="54"/>
       <c r="AG32" s="54"/>
@@ -20187,16 +19786,16 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="9"/>
       <c r="AE33" s="54" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AF33" s="54"/>
       <c r="AG33" s="54"/>
@@ -20228,7 +19827,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -20238,7 +19837,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="P34" s="8" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -20248,7 +19847,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z34" s="10"/>
       <c r="AA34" s="11"/>
@@ -20285,14 +19884,14 @@
       <c r="E35" s="12"/>
       <c r="F35" s="8"/>
       <c r="G35" s="36" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -20300,12 +19899,12 @@
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="55" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
@@ -20317,7 +19916,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="9"/>
       <c r="AE35" s="54" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AF35" s="54"/>
       <c r="AG35" s="54"/>
@@ -20349,24 +19948,26 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="37" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
+      <c r="P36" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
@@ -20374,7 +19975,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AA36" s="2"/>
       <c r="AB36" s="3"/>
@@ -20402,7 +20003,7 @@
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
@@ -20452,18 +20053,18 @@
       <c r="E40" s="6"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -20506,17 +20107,17 @@
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="9"/>
       <c r="AG41" s="61"/>
       <c r="AH41" s="61" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AI41" s="61"/>
       <c r="AJ41" s="61"/>
@@ -20542,7 +20143,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -20553,7 +20154,7 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
@@ -20563,7 +20164,7 @@
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
       <c r="X42" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z42" s="10"/>
       <c r="AA42" s="11"/>
@@ -20571,7 +20172,7 @@
       <c r="AC42" s="9"/>
       <c r="AG42" s="61"/>
       <c r="AH42" s="61" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AI42" s="61"/>
       <c r="AJ42" s="61"/>
@@ -20597,10 +20198,10 @@
       <c r="E43" s="12"/>
       <c r="F43" s="8"/>
       <c r="G43" s="36" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -20610,12 +20211,12 @@
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="55" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
@@ -20635,11 +20236,11 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="37" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -20647,10 +20248,12 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
+      <c r="P44" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -20658,14 +20261,14 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="9"/>
       <c r="AG44" s="61"/>
       <c r="AH44" s="61" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AI44" s="61"/>
       <c r="AJ44" s="61"/>
@@ -20715,7 +20318,7 @@
       <c r="AC45" s="12"/>
       <c r="AG45" s="61"/>
       <c r="AH45" s="61" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AI45" s="61"/>
       <c r="AJ45" s="61"/>
@@ -20736,7 +20339,7 @@
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AG46" s="61"/>
       <c r="AH46" s="61" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AI46" s="61"/>
       <c r="AJ46" s="61"/>
@@ -20793,18 +20396,18 @@
       <c r="E48" s="6"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
@@ -20822,7 +20425,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
@@ -20847,16 +20450,16 @@
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
       <c r="X49" s="8" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="9"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -20864,7 +20467,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -20875,7 +20478,7 @@
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
@@ -20885,14 +20488,14 @@
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
       <c r="X50" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z50" s="10"/>
       <c r="AA50" s="11"/>
       <c r="AB50" s="12"/>
       <c r="AC50" s="9"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
@@ -20900,14 +20503,14 @@
       <c r="E51" s="12"/>
       <c r="F51" s="8"/>
       <c r="G51" s="36" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -20915,12 +20518,12 @@
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="55" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
@@ -20932,7 +20535,7 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="9"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -20940,24 +20543,26 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="37" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
+      <c r="P52" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
@@ -20965,12 +20570,14 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="9"/>
-      <c r="AG52" s="54"/>
+      <c r="AG52" s="54" t="s">
+        <v>527</v>
+      </c>
       <c r="AH52" s="54"/>
       <c r="AI52" s="54"/>
       <c r="AJ52" s="54"/>
@@ -20988,7 +20595,7 @@
       <c r="AV52" s="54"/>
       <c r="AW52" s="54"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -21018,46 +20625,66 @@
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
       <c r="AC53" s="12"/>
-      <c r="AG53" s="54"/>
-      <c r="AH53" s="54"/>
-      <c r="AI53" s="54"/>
-      <c r="AJ53" s="54"/>
-      <c r="AK53" s="54"/>
-      <c r="AL53" s="54"/>
-      <c r="AM53" s="54"/>
-      <c r="AN53" s="54"/>
-      <c r="AO53" s="54"/>
-      <c r="AP53" s="54"/>
-      <c r="AQ53" s="54"/>
-      <c r="AR53" s="54"/>
-      <c r="AS53" s="54"/>
-      <c r="AT53" s="54"/>
-      <c r="AU53" s="54"/>
-      <c r="AV53" s="54"/>
-      <c r="AW53" s="54"/>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AG54" s="54"/>
-      <c r="AH54" s="54"/>
-      <c r="AI54" s="54"/>
-      <c r="AJ54" s="54"/>
-      <c r="AK54" s="54"/>
-      <c r="AL54" s="54"/>
-      <c r="AM54" s="54"/>
-      <c r="AN54" s="54"/>
-      <c r="AO54" s="54"/>
-      <c r="AP54" s="54"/>
-      <c r="AQ54" s="54"/>
-      <c r="AR54" s="54"/>
-      <c r="AS54" s="54"/>
-      <c r="AT54" s="54"/>
-      <c r="AU54" s="54"/>
-      <c r="AV54" s="54"/>
-      <c r="AW54" s="54"/>
-    </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AG53" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH53" s="62"/>
+      <c r="AI53" s="62"/>
+      <c r="AJ53" s="62"/>
+      <c r="AK53" s="62"/>
+      <c r="AL53" s="62"/>
+      <c r="AM53" s="62"/>
+      <c r="AN53" s="62"/>
+      <c r="AO53" s="62"/>
+      <c r="AP53" s="62"/>
+      <c r="AQ53" s="62"/>
+      <c r="AR53" s="62"/>
+      <c r="AS53" s="62"/>
+      <c r="AT53" s="62"/>
+      <c r="AU53" s="62"/>
+      <c r="AV53" s="62"/>
+      <c r="AW53" s="62"/>
+      <c r="AX53" s="62"/>
+      <c r="AY53" s="62"/>
+      <c r="AZ53" s="62"/>
+      <c r="BA53" s="62"/>
+      <c r="BB53" s="62"/>
+      <c r="BC53" s="62"/>
+      <c r="BD53" s="8"/>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AG54" s="62"/>
+      <c r="AH54" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI54" s="62"/>
+      <c r="AJ54" s="62"/>
+      <c r="AK54" s="62"/>
+      <c r="AL54" s="62"/>
+      <c r="AM54" s="62"/>
+      <c r="AN54" s="62"/>
+      <c r="AO54" s="62"/>
+      <c r="AP54" s="62"/>
+      <c r="AQ54" s="62" t="s">
+        <v>523</v>
+      </c>
+      <c r="AR54" s="62"/>
+      <c r="AS54" s="62"/>
+      <c r="AT54" s="62"/>
+      <c r="AU54" s="62"/>
+      <c r="AV54" s="62"/>
+      <c r="AW54" s="62"/>
+      <c r="AX54" s="62"/>
+      <c r="AY54" s="62"/>
+      <c r="AZ54" s="62"/>
+      <c r="BA54" s="62"/>
+      <c r="BB54" s="62"/>
+      <c r="BC54" s="62"/>
+      <c r="BD54" s="8"/>
+    </row>
+    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -21087,36 +20714,47 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="6"/>
-      <c r="AG55" s="54"/>
-      <c r="AH55" s="54"/>
-      <c r="AI55" s="54"/>
-      <c r="AJ55" s="54"/>
-      <c r="AK55" s="54"/>
-      <c r="AL55" s="54"/>
-      <c r="AM55" s="54"/>
-      <c r="AN55" s="54"/>
-      <c r="AO55" s="54"/>
-      <c r="AP55" s="54"/>
-      <c r="AQ55" s="54"/>
-      <c r="AR55" s="54"/>
-      <c r="AS55" s="54"/>
-      <c r="AT55" s="54"/>
-      <c r="AU55" s="54"/>
-      <c r="AV55" s="54"/>
-      <c r="AW55" s="54"/>
-    </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AG55" s="62"/>
+      <c r="AH55" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI55" s="62"/>
+      <c r="AJ55" s="62"/>
+      <c r="AK55" s="62"/>
+      <c r="AL55" s="62"/>
+      <c r="AM55" s="62"/>
+      <c r="AN55" s="62"/>
+      <c r="AO55" s="62"/>
+      <c r="AP55" s="62"/>
+      <c r="AQ55" s="62" t="s">
+        <v>524</v>
+      </c>
+      <c r="AR55" s="62"/>
+      <c r="AS55" s="62"/>
+      <c r="AT55" s="62"/>
+      <c r="AU55" s="62"/>
+      <c r="AV55" s="62"/>
+      <c r="AW55" s="62"/>
+      <c r="AX55" s="62"/>
+      <c r="AY55" s="62"/>
+      <c r="AZ55" s="62"/>
+      <c r="BA55" s="62"/>
+      <c r="BB55" s="62"/>
+      <c r="BC55" s="62"/>
+      <c r="BD55" s="8"/>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -21141,31 +20779,42 @@
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
       <c r="AC56" s="9"/>
-      <c r="AG56" s="54"/>
-      <c r="AH56" s="54"/>
-      <c r="AI56" s="54"/>
-      <c r="AJ56" s="54"/>
-      <c r="AK56" s="54"/>
-      <c r="AL56" s="54"/>
-      <c r="AM56" s="54"/>
-      <c r="AN56" s="54"/>
-      <c r="AO56" s="54"/>
-      <c r="AP56" s="54"/>
-      <c r="AQ56" s="54"/>
-      <c r="AR56" s="54"/>
-      <c r="AS56" s="54"/>
-      <c r="AT56" s="54"/>
-      <c r="AU56" s="54"/>
-      <c r="AV56" s="54"/>
-      <c r="AW56" s="54"/>
-    </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AG56" s="62"/>
+      <c r="AH56" s="62" t="s">
+        <v>522</v>
+      </c>
+      <c r="AI56" s="62"/>
+      <c r="AJ56" s="62"/>
+      <c r="AK56" s="62"/>
+      <c r="AL56" s="62"/>
+      <c r="AM56" s="62"/>
+      <c r="AN56" s="62"/>
+      <c r="AO56" s="62"/>
+      <c r="AP56" s="62"/>
+      <c r="AQ56" s="62" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR56" s="62"/>
+      <c r="AS56" s="62"/>
+      <c r="AT56" s="62"/>
+      <c r="AU56" s="62"/>
+      <c r="AV56" s="62"/>
+      <c r="AW56" s="62"/>
+      <c r="AX56" s="62"/>
+      <c r="AY56" s="62"/>
+      <c r="AZ56" s="62"/>
+      <c r="BA56" s="62"/>
+      <c r="BB56" s="62"/>
+      <c r="BC56" s="62"/>
+      <c r="BD56" s="8"/>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -21193,33 +20842,40 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
       <c r="AC57" s="9"/>
-      <c r="AG57" s="61"/>
-      <c r="AH57" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="AI57" s="61"/>
-      <c r="AJ57" s="61"/>
-      <c r="AK57" s="61"/>
-      <c r="AL57" s="61"/>
-      <c r="AM57" s="61"/>
-      <c r="AN57" s="61"/>
-      <c r="AO57" s="61"/>
-      <c r="AP57" s="61"/>
-      <c r="AQ57" s="61"/>
-      <c r="AR57" s="61"/>
-      <c r="AS57" s="61"/>
-      <c r="AT57" s="61"/>
-      <c r="AU57" s="61"/>
-      <c r="AV57" s="61"/>
-      <c r="AW57" s="61"/>
-    </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AG57" s="62"/>
+      <c r="AH57" s="62"/>
+      <c r="AI57" s="62"/>
+      <c r="AJ57" s="62"/>
+      <c r="AK57" s="62"/>
+      <c r="AL57" s="62"/>
+      <c r="AM57" s="62"/>
+      <c r="AN57" s="62"/>
+      <c r="AO57" s="62"/>
+      <c r="AP57" s="62"/>
+      <c r="AQ57" s="62" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR57" s="62"/>
+      <c r="AS57" s="62"/>
+      <c r="AT57" s="62"/>
+      <c r="AU57" s="62"/>
+      <c r="AV57" s="62"/>
+      <c r="AW57" s="62"/>
+      <c r="AX57" s="62"/>
+      <c r="AY57" s="62"/>
+      <c r="AZ57" s="62"/>
+      <c r="BA57" s="62"/>
+      <c r="BB57" s="62"/>
+      <c r="BC57" s="62"/>
+      <c r="BD57" s="8"/>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -21247,33 +20903,14 @@
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
       <c r="AC58" s="9"/>
-      <c r="AG58" s="61"/>
-      <c r="AH58" s="61" t="s">
-        <v>467</v>
-      </c>
-      <c r="AI58" s="61"/>
-      <c r="AJ58" s="61"/>
-      <c r="AK58" s="61"/>
-      <c r="AL58" s="61"/>
-      <c r="AM58" s="61"/>
-      <c r="AN58" s="61"/>
-      <c r="AO58" s="61"/>
-      <c r="AP58" s="61"/>
-      <c r="AQ58" s="61"/>
-      <c r="AR58" s="61"/>
-      <c r="AS58" s="61"/>
-      <c r="AT58" s="61"/>
-      <c r="AU58" s="61"/>
-      <c r="AV58" s="61"/>
-      <c r="AW58" s="61"/>
-    </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="19" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -21301,33 +20938,14 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
       <c r="AC59" s="9"/>
-      <c r="AG59" s="61"/>
-      <c r="AH59" s="61" t="s">
-        <v>471</v>
-      </c>
-      <c r="AI59" s="61"/>
-      <c r="AJ59" s="61"/>
-      <c r="AK59" s="61"/>
-      <c r="AL59" s="61"/>
-      <c r="AM59" s="61"/>
-      <c r="AN59" s="61"/>
-      <c r="AO59" s="61"/>
-      <c r="AP59" s="61"/>
-      <c r="AQ59" s="61"/>
-      <c r="AR59" s="61"/>
-      <c r="AS59" s="61"/>
-      <c r="AT59" s="61"/>
-      <c r="AU59" s="61"/>
-      <c r="AV59" s="61"/>
-      <c r="AW59" s="61"/>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="19" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -21355,27 +20973,8 @@
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="9"/>
-      <c r="AG60" s="61"/>
-      <c r="AH60" s="61" t="s">
-        <v>472</v>
-      </c>
-      <c r="AI60" s="61"/>
-      <c r="AJ60" s="61"/>
-      <c r="AK60" s="61"/>
-      <c r="AL60" s="61"/>
-      <c r="AM60" s="61"/>
-      <c r="AN60" s="61"/>
-      <c r="AO60" s="61"/>
-      <c r="AP60" s="61"/>
-      <c r="AQ60" s="61"/>
-      <c r="AR60" s="61"/>
-      <c r="AS60" s="61"/>
-      <c r="AT60" s="61"/>
-      <c r="AU60" s="61"/>
-      <c r="AV60" s="61"/>
-      <c r="AW60" s="61"/>
-    </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -21405,10 +21004,10 @@
       <c r="AA61" s="11"/>
       <c r="AB61" s="11"/>
       <c r="AC61" s="12"/>
-      <c r="AG61" s="61" t="s">
-        <v>473</v>
-      </c>
-      <c r="AH61" s="61"/>
+      <c r="AG61" s="61"/>
+      <c r="AH61" s="61" t="s">
+        <v>457</v>
+      </c>
       <c r="AI61" s="61"/>
       <c r="AJ61" s="61"/>
       <c r="AK61" s="61"/>
@@ -21424,11 +21023,10 @@
       <c r="AU61" s="61"/>
       <c r="AV61" s="61"/>
       <c r="AW61" s="61"/>
-      <c r="AX61" s="61"/>
-    </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -21458,10 +21056,10 @@
       <c r="AA62" s="8"/>
       <c r="AB62" s="8"/>
       <c r="AC62" s="9"/>
-      <c r="AG62" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH62" s="61"/>
+      <c r="AG62" s="61"/>
+      <c r="AH62" s="61" t="s">
+        <v>458</v>
+      </c>
       <c r="AI62" s="61"/>
       <c r="AJ62" s="61"/>
       <c r="AK62" s="61"/>
@@ -21477,9 +21075,8 @@
       <c r="AU62" s="61"/>
       <c r="AV62" s="61"/>
       <c r="AW62" s="61"/>
-      <c r="AX62" s="61"/>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -21509,8 +21106,27 @@
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
       <c r="AC63" s="9"/>
-    </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AG63" s="61"/>
+      <c r="AH63" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI63" s="61"/>
+      <c r="AJ63" s="61"/>
+      <c r="AK63" s="61"/>
+      <c r="AL63" s="61"/>
+      <c r="AM63" s="61"/>
+      <c r="AN63" s="61"/>
+      <c r="AO63" s="61"/>
+      <c r="AP63" s="61"/>
+      <c r="AQ63" s="61"/>
+      <c r="AR63" s="61"/>
+      <c r="AS63" s="61"/>
+      <c r="AT63" s="61"/>
+      <c r="AU63" s="61"/>
+      <c r="AV63" s="61"/>
+      <c r="AW63" s="61"/>
+    </row>
+    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -21540,8 +21156,27 @@
       <c r="AA64" s="8"/>
       <c r="AB64" s="8"/>
       <c r="AC64" s="9"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG64" s="61"/>
+      <c r="AH64" s="61" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI64" s="61"/>
+      <c r="AJ64" s="61"/>
+      <c r="AK64" s="61"/>
+      <c r="AL64" s="61"/>
+      <c r="AM64" s="61"/>
+      <c r="AN64" s="61"/>
+      <c r="AO64" s="61"/>
+      <c r="AP64" s="61"/>
+      <c r="AQ64" s="61"/>
+      <c r="AR64" s="61"/>
+      <c r="AS64" s="61"/>
+      <c r="AT64" s="61"/>
+      <c r="AU64" s="61"/>
+      <c r="AV64" s="61"/>
+      <c r="AW64" s="61"/>
+    </row>
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -21571,8 +21206,28 @@
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
       <c r="AC65" s="9"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG65" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="AH65" s="61"/>
+      <c r="AI65" s="61"/>
+      <c r="AJ65" s="61"/>
+      <c r="AK65" s="61"/>
+      <c r="AL65" s="61"/>
+      <c r="AM65" s="61"/>
+      <c r="AN65" s="61"/>
+      <c r="AO65" s="61"/>
+      <c r="AP65" s="61"/>
+      <c r="AQ65" s="61"/>
+      <c r="AR65" s="61"/>
+      <c r="AS65" s="61"/>
+      <c r="AT65" s="61"/>
+      <c r="AU65" s="61"/>
+      <c r="AV65" s="61"/>
+      <c r="AW65" s="61"/>
+      <c r="AX65" s="61"/>
+    </row>
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -21602,10 +21257,30 @@
       <c r="AA66" s="11"/>
       <c r="AB66" s="11"/>
       <c r="AC66" s="12"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG66" s="61" t="s">
+        <v>469</v>
+      </c>
+      <c r="AH66" s="61"/>
+      <c r="AI66" s="61"/>
+      <c r="AJ66" s="61"/>
+      <c r="AK66" s="61"/>
+      <c r="AL66" s="61"/>
+      <c r="AM66" s="61"/>
+      <c r="AN66" s="61"/>
+      <c r="AO66" s="61"/>
+      <c r="AP66" s="61"/>
+      <c r="AQ66" s="61"/>
+      <c r="AR66" s="61"/>
+      <c r="AS66" s="61"/>
+      <c r="AT66" s="61"/>
+      <c r="AU66" s="61"/>
+      <c r="AV66" s="61"/>
+      <c r="AW66" s="61"/>
+      <c r="AX66" s="61"/>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -21636,7 +21311,7 @@
       <c r="AB67" s="5"/>
       <c r="AC67" s="6"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -21667,7 +21342,7 @@
       <c r="AB68" s="8"/>
       <c r="AC68" s="9"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -21698,7 +21373,7 @@
       <c r="AB69" s="8"/>
       <c r="AC69" s="9"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -21729,7 +21404,7 @@
       <c r="AB70" s="8"/>
       <c r="AC70" s="9"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -21760,7 +21435,7 @@
       <c r="AB71" s="8"/>
       <c r="AC71" s="9"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -21791,7 +21466,7 @@
       <c r="AB72" s="8"/>
       <c r="AC72" s="9"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -21833,8 +21508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AQ51"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21844,7 +21519,7 @@
   <sheetData>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C2" s="18" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -21873,7 +21548,7 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="6"/>
       <c r="AD2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.25">
@@ -21939,7 +21614,7 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
@@ -21947,7 +21622,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -21974,7 +21649,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="9"/>
       <c r="AE5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.25">
@@ -21992,7 +21667,7 @@
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -22004,7 +21679,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -22015,13 +21690,13 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="9"/>
       <c r="AE6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s">
         <v>35</v>
       </c>
       <c r="AK6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -22084,13 +21759,13 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="9"/>
       <c r="AE8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s">
         <v>35</v>
       </c>
       <c r="AK8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
@@ -22111,7 +21786,7 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -22131,13 +21806,13 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="9"/>
       <c r="AE9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AJ9" t="s">
         <v>35</v>
       </c>
       <c r="AK9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
@@ -22158,7 +21833,7 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -22180,13 +21855,13 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="9"/>
       <c r="AE10" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AJ10" t="s">
         <v>35</v>
       </c>
       <c r="AK10" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -22207,7 +21882,7 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -22227,13 +21902,13 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="9"/>
       <c r="AE11" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AJ11" t="s">
         <v>35</v>
       </c>
       <c r="AK11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
@@ -22241,7 +21916,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="19" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -22250,11 +21925,11 @@
         <v>35</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="19" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -22274,13 +21949,13 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="9"/>
       <c r="AE12" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="AJ12" t="s">
         <v>35</v>
       </c>
       <c r="AK12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -22333,7 +22008,7 @@
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O14" s="62"/>
       <c r="P14" s="19"/>
@@ -22351,13 +22026,13 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="9"/>
       <c r="AE14" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AJ14" t="s">
         <v>35</v>
       </c>
       <c r="AK14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -22365,7 +22040,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -22380,7 +22055,7 @@
       <c r="L15" s="54"/>
       <c r="M15" s="54"/>
       <c r="N15" s="54" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="O15" s="54"/>
       <c r="P15" s="19"/>
@@ -22398,13 +22073,13 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="9"/>
       <c r="AE15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s">
         <v>35</v>
       </c>
       <c r="AK15" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -22437,13 +22112,13 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="9"/>
       <c r="AE16" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AJ16" t="s">
         <v>35</v>
       </c>
       <c r="AK16" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
@@ -22463,19 +22138,19 @@
         <v>40</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="P17" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
@@ -22486,13 +22161,13 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="9"/>
       <c r="AE17" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AJ17" t="s">
         <v>35</v>
       </c>
       <c r="AK17" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
@@ -22516,7 +22191,7 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -22527,13 +22202,13 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="9"/>
       <c r="AE18" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AJ18" t="s">
         <v>35</v>
       </c>
       <c r="AK18" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
@@ -22556,7 +22231,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -22574,13 +22249,13 @@
       <c r="AB19" s="8"/>
       <c r="AC19" s="9"/>
       <c r="AE19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s">
         <v>35</v>
       </c>
       <c r="AK19" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
@@ -22603,7 +22278,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="19" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -22641,7 +22316,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -22659,7 +22334,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="9"/>
       <c r="AE21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
@@ -22692,13 +22367,13 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="9"/>
       <c r="AE22" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AI22" t="s">
         <v>35</v>
       </c>
       <c r="AJ22" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
@@ -22706,196 +22381,210 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="8"/>
+        <v>296</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="62"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="9"/>
       <c r="AE23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AI23" t="s">
         <v>35</v>
       </c>
       <c r="AJ23" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="8"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62" t="s">
+        <v>523</v>
+      </c>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="62"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="9"/>
       <c r="AE24" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="AK24" t="s">
         <v>35</v>
       </c>
       <c r="AL24" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="8"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62" t="s">
+        <v>524</v>
+      </c>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="62"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
       <c r="AE25" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AK25" t="s">
         <v>35</v>
       </c>
       <c r="AL25" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="8"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="62"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="9"/>
       <c r="AE26" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="AK26" t="s">
         <v>35</v>
       </c>
       <c r="AL26" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62" t="s">
+        <v>526</v>
+      </c>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="9"/>
       <c r="AE27" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AK27" t="s">
         <v>35</v>
       </c>
       <c r="AL27" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
@@ -22930,13 +22619,13 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="9"/>
       <c r="AE28" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AK28" t="s">
         <v>35</v>
       </c>
       <c r="AL28" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
@@ -22948,7 +22637,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -22971,13 +22660,13 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="9"/>
       <c r="AE29" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AK29" t="s">
         <v>35</v>
       </c>
       <c r="AL29" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
@@ -22991,11 +22680,11 @@
       <c r="G30" s="8"/>
       <c r="I30" s="21"/>
       <c r="J30" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
@@ -23029,7 +22718,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -23049,7 +22738,7 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="9"/>
       <c r="AE31" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
@@ -23066,7 +22755,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -23086,13 +22775,13 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="9"/>
       <c r="AE32" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AJ32" t="s">
         <v>35</v>
       </c>
       <c r="AK32" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.25">
@@ -23125,13 +22814,13 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="9"/>
       <c r="AE33" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AJ33" t="s">
         <v>35</v>
       </c>
       <c r="AK33" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.25">
@@ -23164,13 +22853,13 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="9"/>
       <c r="AE34" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AJ34" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="AK34" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="2:40" x14ac:dyDescent="0.25">
@@ -23205,13 +22894,13 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="9"/>
       <c r="AE35" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AJ35" t="s">
         <v>35</v>
       </c>
       <c r="AK35" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="2:40" x14ac:dyDescent="0.25">
@@ -23244,18 +22933,18 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="9"/>
       <c r="AE36" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AJ36" t="s">
         <v>35</v>
       </c>
       <c r="AK36" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
@@ -23274,7 +22963,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -23291,18 +22980,18 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
       <c r="AE37" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AJ37" t="s">
         <v>35</v>
       </c>
       <c r="AK37" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
@@ -23321,7 +23010,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -23338,7 +23027,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="9"/>
       <c r="AE38" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AJ38" t="s">
         <v>35</v>
@@ -23349,7 +23038,7 @@
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -23371,7 +23060,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
@@ -23385,13 +23074,13 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="9"/>
       <c r="AE39" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AJ39" t="s">
         <v>35</v>
       </c>
       <c r="AK39" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.25">
@@ -23408,14 +23097,14 @@
       <c r="J40" s="8"/>
       <c r="K40" s="73"/>
       <c r="L40" s="62" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="M40" s="62"/>
       <c r="N40" s="62"/>
       <c r="O40" s="62"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
@@ -23430,7 +23119,7 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="9"/>
       <c r="AE40" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AJ40" t="s">
         <v>35</v>
@@ -23445,7 +23134,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="19" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -23471,13 +23160,13 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="9"/>
       <c r="AE41" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AJ41" t="s">
         <v>35</v>
       </c>
       <c r="AK41" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="2:40" x14ac:dyDescent="0.25">
@@ -23512,13 +23201,13 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="9"/>
       <c r="AE42" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AJ42" t="s">
         <v>35</v>
       </c>
       <c r="AK42" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="2:40" x14ac:dyDescent="0.25">
@@ -23551,13 +23240,13 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="9"/>
       <c r="AE43" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AJ43" t="s">
         <v>35</v>
       </c>
       <c r="AK43" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="2:40" x14ac:dyDescent="0.25">
@@ -23602,7 +23291,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -23714,7 +23403,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="9"/>
       <c r="AE48" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AJ48" s="54"/>
       <c r="AK48" s="54"/>
@@ -23751,7 +23440,7 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="9"/>
       <c r="AE49" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="3:31" x14ac:dyDescent="0.25">
@@ -23774,7 +23463,7 @@
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
       <c r="U50" s="14" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="3"/>
@@ -23824,8 +23513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN85"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23835,7 +23524,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -23864,7 +23553,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="6"/>
       <c r="AB1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -23930,14 +23619,14 @@
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -23964,7 +23653,7 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="9"/>
       <c r="AC4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -23981,7 +23670,7 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -23993,7 +23682,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
@@ -24004,13 +23693,13 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="9"/>
       <c r="AC5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AH5" t="s">
         <v>35</v>
       </c>
       <c r="AI5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -24071,13 +23760,13 @@
       <c r="Z7" s="8"/>
       <c r="AA7" s="9"/>
       <c r="AC7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AH7" t="s">
         <v>35</v>
       </c>
       <c r="AI7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -24097,7 +23786,7 @@
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -24117,13 +23806,13 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="9"/>
       <c r="AC8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AH8" t="s">
         <v>35</v>
       </c>
       <c r="AI8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -24143,7 +23832,7 @@
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -24165,13 +23854,13 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="9"/>
       <c r="AC9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AH9" t="s">
         <v>35</v>
       </c>
       <c r="AI9" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -24191,7 +23880,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -24211,20 +23900,20 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="9"/>
       <c r="AC10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AH10" t="s">
         <v>35</v>
       </c>
       <c r="AI10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="19" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -24233,11 +23922,11 @@
         <v>35</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="19" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -24257,13 +23946,13 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="9"/>
       <c r="AC11" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="AH11" t="s">
         <v>35</v>
       </c>
       <c r="AI11" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -24314,7 +24003,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
       <c r="L13" s="62" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M13" s="62"/>
       <c r="N13" s="19"/>
@@ -24332,20 +24021,20 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="9"/>
       <c r="AC13" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AH13" t="s">
         <v>35</v>
       </c>
       <c r="AI13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -24360,7 +24049,7 @@
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
       <c r="L14" s="54" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="M14" s="54"/>
       <c r="N14" s="19"/>
@@ -24378,13 +24067,13 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
       <c r="AC14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AH14" t="s">
         <v>35</v>
       </c>
       <c r="AI14" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -24416,13 +24105,13 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="9"/>
       <c r="AC15" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AH15" t="s">
         <v>35</v>
       </c>
       <c r="AI15" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -24441,19 +24130,19 @@
         <v>40</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="N16" s="61" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="O16" s="62"/>
       <c r="P16" s="62"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
       <c r="S16" s="62" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="T16" s="62"/>
       <c r="U16" s="62"/>
@@ -24464,13 +24153,13 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="9"/>
       <c r="AC16" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AH16" t="s">
         <v>35</v>
       </c>
       <c r="AI16" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -24493,7 +24182,7 @@
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
       <c r="S17" s="62" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="T17" s="62"/>
       <c r="U17" s="62"/>
@@ -24504,13 +24193,13 @@
       <c r="Z17" s="8"/>
       <c r="AA17" s="9"/>
       <c r="AC17" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AH17" t="s">
         <v>35</v>
       </c>
       <c r="AI17" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -24532,7 +24221,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -24550,13 +24239,13 @@
       <c r="Z18" s="8"/>
       <c r="AA18" s="9"/>
       <c r="AC18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AH18" t="s">
         <v>35</v>
       </c>
       <c r="AI18" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
@@ -24578,7 +24267,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="19" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -24615,7 +24304,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -24633,7 +24322,7 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="9"/>
       <c r="AC20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
@@ -24665,205 +24354,219 @@
       <c r="Z21" s="8"/>
       <c r="AA21" s="9"/>
       <c r="AC21" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AG21" t="s">
         <v>35</v>
       </c>
       <c r="AH21" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="8"/>
+        <v>296</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="62"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="9"/>
       <c r="AC22" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s">
         <v>35</v>
       </c>
       <c r="AH22" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="8"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62" t="s">
+        <v>523</v>
+      </c>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="62"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="9"/>
       <c r="AC23" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="AI23" t="s">
         <v>35</v>
       </c>
       <c r="AJ23" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="8"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62" t="s">
+        <v>524</v>
+      </c>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="62"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="9"/>
       <c r="AC24" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AI24" t="s">
         <v>35</v>
       </c>
       <c r="AJ24" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="8"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="62"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="9"/>
       <c r="AC25" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="AI25" t="s">
         <v>35</v>
       </c>
       <c r="AJ25" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62" t="s">
+        <v>526</v>
+      </c>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="9"/>
       <c r="AC26" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AI26" t="s">
         <v>35</v>
       </c>
       <c r="AJ26" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -24897,13 +24600,13 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="9"/>
       <c r="AC27" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AI27" t="s">
         <v>35</v>
       </c>
       <c r="AJ27" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -24914,7 +24617,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -24937,13 +24640,13 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="9"/>
       <c r="AC28" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AI28" t="s">
         <v>35</v>
       </c>
       <c r="AJ28" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -24956,11 +24659,11 @@
       <c r="E29" s="8"/>
       <c r="G29" s="21"/>
       <c r="H29" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -24993,7 +24696,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -25013,7 +24716,7 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="9"/>
       <c r="AC30" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
@@ -25029,7 +24732,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -25049,13 +24752,13 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="9"/>
       <c r="AC31" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AH31" t="s">
         <v>35</v>
       </c>
       <c r="AI31" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
@@ -25087,13 +24790,13 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="9"/>
       <c r="AC32" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AH32" t="s">
         <v>35</v>
       </c>
       <c r="AI32" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
@@ -25125,13 +24828,13 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="9"/>
       <c r="AC33" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AH33" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="AI33" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
@@ -25165,13 +24868,13 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="9"/>
       <c r="AC34" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AH34" t="s">
         <v>35</v>
       </c>
       <c r="AI34" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
@@ -25203,13 +24906,13 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="9"/>
       <c r="AC35" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AH35" t="s">
         <v>35</v>
       </c>
       <c r="AI35" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
@@ -25230,7 +24933,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -25247,13 +24950,13 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="9"/>
       <c r="AC36" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AH36" t="s">
         <v>35</v>
       </c>
       <c r="AI36" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
@@ -25274,7 +24977,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -25291,7 +24994,7 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="9"/>
       <c r="AC37" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AH37" t="s">
         <v>35</v>
@@ -25321,7 +25024,7 @@
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
@@ -25335,13 +25038,13 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="9"/>
       <c r="AC38" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AH38" t="s">
         <v>35</v>
       </c>
       <c r="AI38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -25357,14 +25060,14 @@
       <c r="H39" s="8"/>
       <c r="I39" s="73"/>
       <c r="J39" s="62" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="K39" s="62"/>
       <c r="L39" s="62"/>
       <c r="M39" s="62"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -25379,7 +25082,7 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="9"/>
       <c r="AC39" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AH39" t="s">
         <v>35</v>
@@ -25393,7 +25096,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="19" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -25419,13 +25122,13 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="9"/>
       <c r="AC40" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AH40" t="s">
         <v>35</v>
       </c>
       <c r="AI40" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
@@ -25459,13 +25162,13 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="9"/>
       <c r="AC41" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AH41" t="s">
         <v>35</v>
       </c>
       <c r="AI41" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
@@ -25497,13 +25200,13 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="9"/>
       <c r="AC42" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AH42" t="s">
         <v>35</v>
       </c>
       <c r="AI42" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
@@ -25546,7 +25249,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -25658,7 +25361,7 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="9"/>
       <c r="AC47" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AH47" s="54"/>
       <c r="AI47" s="54"/>
@@ -25695,7 +25398,7 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="9"/>
       <c r="AC48" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
@@ -25718,7 +25421,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="14" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="3"/>
@@ -25791,7 +25494,7 @@
       <c r="AC52" s="5"/>
       <c r="AD52" s="6"/>
       <c r="AF52" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
@@ -25830,7 +25533,7 @@
         <v>1</v>
       </c>
       <c r="AF53" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
@@ -25876,7 +25579,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="9"/>
       <c r="AF54" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
@@ -25913,7 +25616,7 @@
         <v>2</v>
       </c>
       <c r="AF55" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
@@ -26013,7 +25716,7 @@
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
       <c r="AF58" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AK58" s="54"/>
       <c r="AL58" s="54"/>
@@ -26051,7 +25754,7 @@
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
       <c r="AF59" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
@@ -26116,7 +25819,7 @@
       <c r="AC61" s="8"/>
       <c r="AD61" s="9"/>
       <c r="AF61" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.25">
@@ -26153,7 +25856,7 @@
         <v>1</v>
       </c>
       <c r="AG62" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
@@ -26193,7 +25896,7 @@
       <c r="AC63" s="8"/>
       <c r="AD63" s="9"/>
       <c r="AG63" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
@@ -26230,7 +25933,7 @@
         <v>2</v>
       </c>
       <c r="AG64" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="2:39" x14ac:dyDescent="0.25">
@@ -26267,7 +25970,7 @@
         <v>3</v>
       </c>
       <c r="AG65" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="2:39" x14ac:dyDescent="0.25">
@@ -26304,7 +26007,7 @@
         <v>4</v>
       </c>
       <c r="AG66" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="2:39" x14ac:dyDescent="0.25">
@@ -26340,7 +26043,7 @@
       <c r="AC67" s="8"/>
       <c r="AD67" s="9"/>
       <c r="AG67" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="2:39" x14ac:dyDescent="0.25">
@@ -26379,7 +26082,7 @@
         <v>5</v>
       </c>
       <c r="AG68" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="2:39" x14ac:dyDescent="0.25">
@@ -26388,7 +26091,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -26415,13 +26118,13 @@
       <c r="AC69" s="8"/>
       <c r="AD69" s="9"/>
       <c r="AG69" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AL69" t="s">
         <v>35</v>
       </c>
       <c r="AM69" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="2:39" x14ac:dyDescent="0.25">
@@ -26455,7 +26158,7 @@
       <c r="AC70" s="8"/>
       <c r="AD70" s="9"/>
       <c r="AM70" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="2:39" x14ac:dyDescent="0.25">
@@ -26494,13 +26197,13 @@
         <v>6</v>
       </c>
       <c r="AG71" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ71" t="s">
         <v>35</v>
       </c>
       <c r="AK71" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="2:39" x14ac:dyDescent="0.25">
@@ -26509,7 +26212,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -26536,7 +26239,7 @@
       <c r="AC72" s="8"/>
       <c r="AD72" s="9"/>
       <c r="AK72" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="2:39" x14ac:dyDescent="0.25">
@@ -26546,11 +26249,11 @@
       <c r="E73" s="8"/>
       <c r="G73" s="13"/>
       <c r="H73" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K73" s="13"/>
       <c r="L73" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
@@ -26563,13 +26266,13 @@
         <v>7</v>
       </c>
       <c r="AG73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AK73" t="s">
         <v>35</v>
       </c>
       <c r="AL73" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="2:39" x14ac:dyDescent="0.25">
@@ -26609,7 +26312,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -26620,7 +26323,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
@@ -26641,13 +26344,13 @@
         <v>8</v>
       </c>
       <c r="AG75" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AK75" t="s">
         <v>35</v>
       </c>
       <c r="AL75" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="2:39" x14ac:dyDescent="0.25">
@@ -26656,7 +26359,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -26667,7 +26370,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
@@ -26719,13 +26422,13 @@
         <v>9</v>
       </c>
       <c r="AG77" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AK77" t="s">
         <v>35</v>
       </c>
       <c r="AL77" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="2:39" x14ac:dyDescent="0.25">
@@ -26734,7 +26437,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -26742,14 +26445,14 @@
       <c r="J78" s="73"/>
       <c r="K78" s="62"/>
       <c r="L78" s="62" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M78" s="62"/>
       <c r="N78" s="62"/>
       <c r="O78" s="62"/>
       <c r="P78" s="62"/>
       <c r="Q78" s="62" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="R78" s="62"/>
       <c r="S78" s="62"/>
@@ -26758,7 +26461,7 @@
       <c r="V78" s="62"/>
       <c r="W78" s="62"/>
       <c r="X78" s="8" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
@@ -26770,7 +26473,7 @@
         <v>10</v>
       </c>
       <c r="AG78" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="2:39" x14ac:dyDescent="0.25">
@@ -26797,7 +26500,7 @@
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
       <c r="X79" s="8" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
@@ -26806,7 +26509,7 @@
       <c r="AC79" s="8"/>
       <c r="AD79" s="9"/>
       <c r="AG79" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="2:39" x14ac:dyDescent="0.25">
@@ -26815,7 +26518,7 @@
       <c r="D80" s="73"/>
       <c r="E80" s="62"/>
       <c r="F80" s="62" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G80" s="62"/>
       <c r="H80" s="62"/>
@@ -27006,15 +26709,59 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S21"/>
+  <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="15">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -27033,388 +26780,970 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="S3" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s">
+        <v>446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="G14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="3"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="8"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="9"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="8"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="9"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="8"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="9"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="7"/>
       <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="9"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="9"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="12"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>2</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>519</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="O27" t="s">
+        <v>391</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="O31" t="s">
+        <v>392</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="3"/>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="9"/>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="9"/>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="9"/>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="12"/>
+    </row>
+    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="9"/>
+    </row>
+    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="9"/>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="9"/>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="9"/>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="536">
   <si>
     <t>Agent Register</t>
   </si>
@@ -335,18 +335,12 @@
     <t>dari total trx011.base_value</t>
   </si>
   <si>
-    <t>dari total trx011.gross_value</t>
-  </si>
-  <si>
     <t>trx011</t>
   </si>
   <si>
     <t>trx011.hotel_name</t>
   </si>
   <si>
-    <t>confirm isi ke table trx012</t>
-  </si>
-  <si>
     <t>payment_method</t>
   </si>
   <si>
@@ -1082,9 +1076,6 @@
     <t xml:space="preserve">tot_commision_val </t>
   </si>
   <si>
-    <t>dari total trx011.tot_commision_value</t>
-  </si>
-  <si>
     <t>tot_tax_base_price</t>
   </si>
   <si>
@@ -1355,9 +1346,6 @@
     <t>DI BLNC002 ada no_cof_order dikosongin, ntar diisi ma admin ada menu sendiri</t>
   </si>
   <si>
-    <t>status_payment = pending</t>
-  </si>
-  <si>
     <t>Confirmation Number</t>
   </si>
   <si>
@@ -1508,24 +1496,6 @@
     <t>trx011.tot_tax_base_price</t>
   </si>
   <si>
-    <t>sum dari trx013.tot_comm_val</t>
-  </si>
-  <si>
-    <t>sum dari trx013.gross_price</t>
-  </si>
-  <si>
-    <t>sum dari trx013.disc</t>
-  </si>
-  <si>
-    <t>sum dari trx013.tax_base_price</t>
-  </si>
-  <si>
-    <t>sum dari trx013.tax_value</t>
-  </si>
-  <si>
-    <t>sum dari trx013.tot_payment</t>
-  </si>
-  <si>
     <t>trx012</t>
   </si>
   <si>
@@ -1556,9 +1526,6 @@
     <t>(nett_value-daily_price)*trx011.room_num</t>
   </si>
   <si>
-    <t>(trx012.nett_value * trx011.room_num) - disc</t>
-  </si>
-  <si>
     <t>tax_base_price - tax_value</t>
   </si>
   <si>
@@ -1614,6 +1581,57 @@
   </si>
   <si>
     <t>Order Number</t>
+  </si>
+  <si>
+    <t>sum dari trx012.tot_comm_val</t>
+  </si>
+  <si>
+    <t>sum dari trx012.gross_price</t>
+  </si>
+  <si>
+    <t>sum dari trx012.disc</t>
+  </si>
+  <si>
+    <t>sum dari trx012.tax_base_price</t>
+  </si>
+  <si>
+    <t>sum dari trx012.tax_value</t>
+  </si>
+  <si>
+    <t>sum dari trx012.tot_payment</t>
+  </si>
+  <si>
+    <t>tot_base_price - disc</t>
+  </si>
+  <si>
+    <t>note:</t>
+  </si>
+  <si>
+    <t>kalau pesan di periode cut off maka harus langsung bayar, transfer or cc or deposit</t>
+  </si>
+  <si>
+    <t>diksh batas waktu 1x 24 jam</t>
+  </si>
+  <si>
+    <t>dari total trx011.tot_commision_price</t>
+  </si>
+  <si>
+    <t>dari total trx011.gross_price</t>
+  </si>
+  <si>
+    <t>status_payment = pending kalau tipe bayarnya transfer atau pending payment</t>
+  </si>
+  <si>
+    <t>kalau cc tergantung payment gateway, klo berhasil done, klo gagal failed</t>
+  </si>
+  <si>
+    <t>kalau deposit otomatis done</t>
+  </si>
+  <si>
+    <t>confirm isi ke table trx013</t>
+  </si>
+  <si>
+    <t>kosong</t>
   </si>
 </sst>
 </file>
@@ -3340,7 +3358,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -3368,7 +3386,7 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3870,7 +3888,7 @@
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -3884,7 +3902,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
@@ -3944,7 +3962,7 @@
       <c r="C57" s="8"/>
       <c r="D57" s="7"/>
       <c r="E57" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
@@ -3997,7 +4015,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="13"/>
       <c r="J59" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -4039,7 +4057,7 @@
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="8"/>
@@ -4085,12 +4103,12 @@
     </row>
     <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
@@ -4100,7 +4118,7 @@
     </row>
     <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="AD68" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.25">
@@ -4131,10 +4149,10 @@
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="P71" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
@@ -4142,7 +4160,7 @@
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>75</v>
@@ -4151,38 +4169,38 @@
       <c r="K73" s="2"/>
       <c r="L73" s="3"/>
       <c r="M73" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C76" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="3"/>
       <c r="J78" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="3"/>
       <c r="M78" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
       <c r="P78" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
@@ -4196,7 +4214,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
@@ -4237,7 +4255,7 @@
       <c r="AC79" s="8"/>
       <c r="AD79" s="9"/>
       <c r="AE79" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AF79" s="2"/>
       <c r="AG79" s="3"/>
@@ -4307,7 +4325,7 @@
       <c r="AC81" s="8"/>
       <c r="AD81" s="9"/>
       <c r="AE81" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AF81" s="2"/>
       <c r="AG81" s="3"/>
@@ -4411,7 +4429,7 @@
       <c r="AC84" s="8"/>
       <c r="AD84" s="9"/>
       <c r="AE84" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AF84" s="2"/>
       <c r="AG84" s="3"/>
@@ -4481,7 +4499,7 @@
       <c r="AC86" s="8"/>
       <c r="AD86" s="9"/>
       <c r="AE86" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AF86" s="2"/>
       <c r="AG86" s="3"/>
@@ -4557,7 +4575,7 @@
     </row>
     <row r="91" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C91" s="24" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="3:55" x14ac:dyDescent="0.25">
@@ -4615,7 +4633,7 @@
     </row>
     <row r="93" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C93" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4644,7 +4662,7 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="9"/>
       <c r="AF93" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG93" s="8"/>
       <c r="AH93" s="8"/>
@@ -4719,7 +4737,7 @@
       <c r="AX94" s="11"/>
       <c r="AY94" s="11"/>
       <c r="AZ94" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="BA94" s="11"/>
       <c r="BB94" s="11"/>
@@ -4727,7 +4745,7 @@
     </row>
     <row r="95" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C95" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4742,7 +4760,7 @@
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
       <c r="N95" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
@@ -4817,7 +4835,7 @@
       <c r="AB96" s="8"/>
       <c r="AC96" s="9"/>
       <c r="AF96" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AG96" s="8"/>
       <c r="AH96" s="8"/>
@@ -4832,7 +4850,7 @@
       <c r="AO96" s="8"/>
       <c r="AP96" s="8"/>
       <c r="AQ96" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AR96" s="8"/>
       <c r="AS96" s="8"/>
@@ -4868,7 +4886,7 @@
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
@@ -4941,7 +4959,7 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="9"/>
       <c r="AF98" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AG98" s="8"/>
       <c r="AH98" s="8"/>
@@ -4969,7 +4987,7 @@
       <c r="AX98" s="8"/>
       <c r="AY98" s="8"/>
       <c r="AZ98" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BA98" s="8"/>
       <c r="BB98" s="8"/>
@@ -5063,7 +5081,7 @@
       <c r="AB100" s="8"/>
       <c r="AC100" s="9"/>
       <c r="AF100" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
@@ -5113,7 +5131,7 @@
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
       <c r="U101" s="15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
@@ -5203,7 +5221,7 @@
     </row>
     <row r="103" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C103" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -5225,7 +5243,7 @@
       <c r="S103" s="8"/>
       <c r="T103" s="8"/>
       <c r="U103" s="15" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
@@ -5236,7 +5254,7 @@
       <c r="AB103" s="8"/>
       <c r="AC103" s="9"/>
       <c r="AF103" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
@@ -5319,7 +5337,7 @@
     </row>
     <row r="105" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C105" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5341,17 +5359,17 @@
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
       <c r="U105" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
       <c r="X105" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AB105" s="8"/>
       <c r="AC105" s="9"/>
@@ -5457,7 +5475,7 @@
         <v>2</v>
       </c>
       <c r="V107" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W107" s="8"/>
       <c r="X107" s="8"/>
@@ -5467,7 +5485,7 @@
       <c r="AB107" s="8"/>
       <c r="AC107" s="9"/>
       <c r="AF107" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
@@ -5515,7 +5533,7 @@
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
@@ -5552,13 +5570,13 @@
     </row>
     <row r="109" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
       <c r="G109" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2"/>
@@ -5625,7 +5643,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2"/>
@@ -5869,7 +5887,7 @@
     </row>
     <row r="117" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -5895,7 +5913,7 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="9"/>
       <c r="AF117" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
@@ -5945,7 +5963,7 @@
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
       <c r="V118" s="57" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="W118" s="11"/>
       <c r="X118" s="11"/>
@@ -5977,7 +5995,7 @@
     </row>
     <row r="119" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B119" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -6003,7 +6021,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="6"/>
       <c r="AF119" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
@@ -6107,7 +6125,7 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="9"/>
       <c r="AF121" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
@@ -6137,7 +6155,7 @@
     </row>
     <row r="122" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -6172,7 +6190,7 @@
       <c r="B123" s="7"/>
       <c r="Y123" s="9"/>
       <c r="AF123" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG123" s="8"/>
       <c r="AH123" s="8"/>
@@ -6202,7 +6220,7 @@
     </row>
     <row r="124" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G124" t="s">
         <v>35</v>
@@ -6273,7 +6291,7 @@
     </row>
     <row r="126" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -6289,7 +6307,7 @@
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
@@ -6305,7 +6323,7 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="9"/>
       <c r="AF126" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AG126" s="5"/>
       <c r="AH126" s="5"/>
@@ -6383,7 +6401,7 @@
     </row>
     <row r="128" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -6399,7 +6417,7 @@
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
@@ -6507,7 +6525,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
       <c r="N130" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
@@ -6575,7 +6593,7 @@
     </row>
     <row r="132" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -6591,7 +6609,7 @@
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
@@ -6635,7 +6653,7 @@
     </row>
     <row r="134" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G134" t="s">
         <v>35</v>
@@ -6647,7 +6665,7 @@
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
       <c r="N134" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
@@ -6704,7 +6722,7 @@
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H137" s="3"/>
       <c r="S137" s="8"/>
@@ -6823,7 +6841,7 @@
     </row>
     <row r="144" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -6980,12 +6998,12 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7005,12 +7023,12 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
@@ -7020,7 +7038,7 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -7036,7 +7054,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -7071,38 +7089,38 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -7113,7 +7131,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -7121,7 +7139,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
       <c r="P16" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -7152,7 +7170,7 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -8205,18 +8223,18 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
       <c r="D4" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -8242,7 +8260,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="6"/>
       <c r="AC4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -8276,7 +8294,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -8338,7 +8356,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -8354,7 +8372,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -8481,7 +8499,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -8497,20 +8515,20 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
       <c r="X13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="3"/>
@@ -8765,7 +8783,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -8819,13 +8837,13 @@
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -8850,7 +8868,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="6"/>
       <c r="AC28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.25">
@@ -8879,7 +8897,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="9"/>
       <c r="AC29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.25">
@@ -8887,7 +8905,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -8901,7 +8919,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
@@ -8912,7 +8930,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="9"/>
       <c r="AC30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.25">
@@ -8941,7 +8959,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="9"/>
       <c r="AC31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.25">
@@ -8949,7 +8967,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -9005,7 +9023,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -9013,13 +9031,13 @@
       <c r="J34" s="8"/>
       <c r="K34" s="13"/>
       <c r="L34" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -9032,7 +9050,7 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="9"/>
       <c r="AC34" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="3:29" x14ac:dyDescent="0.25">
@@ -9061,7 +9079,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="9"/>
       <c r="AC35" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="3:29" x14ac:dyDescent="0.25">
@@ -9069,7 +9087,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -9089,12 +9107,12 @@
       <c r="V36" s="6"/>
       <c r="W36" s="8"/>
       <c r="X36" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="9"/>
       <c r="AC36" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="3:29" x14ac:dyDescent="0.25">
@@ -9123,7 +9141,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="9"/>
       <c r="AC37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="3:29" x14ac:dyDescent="0.25">
@@ -9152,7 +9170,7 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="9"/>
       <c r="AC38" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="3:29" x14ac:dyDescent="0.25">
@@ -9191,7 +9209,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -9200,7 +9218,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
@@ -9216,7 +9234,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -9230,7 +9248,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="1" t="s">
@@ -9276,7 +9294,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -9288,7 +9306,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
@@ -9332,7 +9350,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -9348,7 +9366,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -9395,7 +9413,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -9404,11 +9422,11 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S47" s="8"/>
       <c r="T47" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -9448,14 +9466,14 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -9504,14 +9522,14 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -9560,7 +9578,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -9573,7 +9591,7 @@
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -9618,14 +9636,14 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -9634,12 +9652,12 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
@@ -9678,7 +9696,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="62" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G57" s="62"/>
       <c r="H57" s="62"/>
@@ -9692,7 +9710,7 @@
       <c r="P57" s="62"/>
       <c r="Q57" s="62"/>
       <c r="R57" s="8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
@@ -9718,7 +9736,7 @@
       <c r="P58" s="61"/>
       <c r="Q58" s="61"/>
       <c r="R58" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
@@ -9732,14 +9750,14 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="61" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G59" s="61"/>
       <c r="H59" s="61"/>
       <c r="I59" s="61"/>
       <c r="J59" s="61"/>
       <c r="K59" s="63" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L59" s="64"/>
       <c r="M59" s="64"/>
@@ -9748,7 +9766,7 @@
       <c r="P59" s="65"/>
       <c r="Q59" s="61"/>
       <c r="R59" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
@@ -9788,7 +9806,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -9844,14 +9862,14 @@
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9900,14 +9918,14 @@
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9956,14 +9974,14 @@
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10139,13 +10157,13 @@
     </row>
     <row r="76" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C76" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C77" s="4"/>
       <c r="D77" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -10202,7 +10220,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -10264,7 +10282,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -10280,7 +10298,7 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
       <c r="S81" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
@@ -10407,7 +10425,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="13"/>
       <c r="E86" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -10423,20 +10441,20 @@
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="3"/>
       <c r="X86" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" s="3"/>
@@ -10765,30 +10783,30 @@
     <row r="2" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="3"/>
@@ -10799,30 +10817,30 @@
       <c r="Y2" s="6"/>
       <c r="AE2" s="41"/>
       <c r="AF2" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AG2" s="43"/>
       <c r="AH2" s="43"/>
       <c r="AI2" s="42"/>
       <c r="AJ2" s="48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AK2" s="43"/>
       <c r="AL2" s="43"/>
       <c r="AM2" s="42"/>
       <c r="AN2" s="48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AO2" s="43"/>
       <c r="AP2" s="43"/>
       <c r="AQ2" s="42"/>
       <c r="AR2" s="48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AS2" s="43"/>
       <c r="AT2" s="42"/>
       <c r="AU2" s="49" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AV2" s="43"/>
       <c r="AW2" s="42"/>
@@ -10868,7 +10886,7 @@
       <c r="AI3" s="39"/>
       <c r="AJ3" s="39"/>
       <c r="AK3" s="39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL3" s="39"/>
       <c r="AM3" s="39"/>
@@ -10919,7 +10937,7 @@
       <c r="Z4" s="8"/>
       <c r="AE4" s="38"/>
       <c r="AF4" s="39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG4" s="39"/>
       <c r="AH4" s="39"/>
@@ -10952,7 +10970,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -10966,7 +10984,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -10978,14 +10996,14 @@
       <c r="Y5" s="9"/>
       <c r="AE5" s="38"/>
       <c r="AF5" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG5" s="41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH5" s="42"/>
       <c r="AI5" s="41" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AJ5" s="43"/>
       <c r="AK5" s="43"/>
@@ -11041,7 +11059,7 @@
       <c r="AH6" s="40"/>
       <c r="AI6" s="52"/>
       <c r="AJ6" s="50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AK6" s="50"/>
       <c r="AL6" s="50"/>
@@ -11070,7 +11088,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -11078,13 +11096,13 @@
       <c r="I7" s="8"/>
       <c r="J7" s="13"/>
       <c r="K7" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -11182,7 +11200,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -11202,7 +11220,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
@@ -11403,7 +11421,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -11412,7 +11430,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -11455,7 +11473,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -11469,7 +11487,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="1" t="s">
@@ -11542,7 +11560,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -11554,7 +11572,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
@@ -11598,7 +11616,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -11614,7 +11632,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
@@ -11661,7 +11679,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -11670,11 +11688,11 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -11714,14 +11732,14 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -11770,14 +11788,14 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -11826,7 +11844,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -11839,7 +11857,7 @@
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -11884,14 +11902,14 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -11900,12 +11918,12 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -11968,30 +11986,30 @@
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="3"/>
       <c r="K34" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="3"/>
       <c r="O34" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="3"/>
@@ -12072,7 +12090,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="4"/>
@@ -12082,7 +12100,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="4"/>
@@ -12092,7 +12110,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AA37" s="8"/>
       <c r="AB37" s="9"/>
@@ -12246,7 +12264,7 @@
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -12256,7 +12274,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="8"/>
       <c r="L43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -12266,7 +12284,7 @@
       <c r="R43" s="6"/>
       <c r="S43" s="8"/>
       <c r="T43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -12432,7 +12450,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="8"/>
       <c r="J49" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="3"/>
@@ -12486,7 +12504,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
@@ -12604,7 +12622,7 @@
     </row>
     <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="AE55" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
@@ -12613,7 +12631,7 @@
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
       <c r="AL55" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -12663,30 +12681,30 @@
     <row r="57" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="3"/>
       <c r="K57" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="3"/>
       <c r="O57" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="3"/>
@@ -12781,7 +12799,7 @@
     <row r="59" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -12837,25 +12855,25 @@
     <row r="60" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="3"/>
       <c r="J60" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="3"/>
       <c r="M60" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -12874,14 +12892,14 @@
       <c r="AB60" s="9"/>
       <c r="AE60" s="7"/>
       <c r="AF60" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AG60" s="8"/>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="8"/>
       <c r="AK60" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AL60" s="2"/>
       <c r="AM60" s="2"/>
@@ -12939,14 +12957,14 @@
       <c r="AI61" s="8"/>
       <c r="AJ61" s="8"/>
       <c r="AK61" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="8"/>
       <c r="AO61" s="8"/>
       <c r="AP61" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
@@ -12992,7 +13010,7 @@
       <c r="AB62" s="9"/>
       <c r="AE62" s="7"/>
       <c r="AF62" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG62" s="8"/>
       <c r="AH62" s="8"/>
@@ -13003,7 +13021,7 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="13"/>
@@ -13104,14 +13122,14 @@
       <c r="AB64" s="9"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG64" s="8"/>
       <c r="AH64" s="8"/>
       <c r="AI64" s="8"/>
       <c r="AJ64" s="8"/>
       <c r="AK64" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
@@ -13218,14 +13236,14 @@
       <c r="AB66" s="9"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG66" s="8"/>
       <c r="AH66" s="8"/>
       <c r="AI66" s="8"/>
       <c r="AJ66" s="8"/>
       <c r="AK66" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL66" s="3"/>
       <c r="AM66" s="8"/>
@@ -13239,10 +13257,10 @@
       <c r="AU66" s="8"/>
       <c r="AV66" s="8"/>
       <c r="AW66" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AX66" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AY66" s="3"/>
       <c r="AZ66" s="8"/>
@@ -13285,7 +13303,7 @@
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8"/>
       <c r="AK67" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
@@ -13336,7 +13354,7 @@
       <c r="AB68" s="9"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG68" s="8"/>
       <c r="AH68" s="8"/>
@@ -13348,7 +13366,7 @@
         <v>75</v>
       </c>
       <c r="AN68" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
@@ -13359,7 +13377,7 @@
       <c r="AU68" s="8"/>
       <c r="AV68" s="8"/>
       <c r="AW68" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX68" s="1"/>
       <c r="AY68" s="3" t="s">
@@ -13405,7 +13423,7 @@
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8"/>
       <c r="AK69" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AL69" s="8"/>
       <c r="AM69" s="8"/>
@@ -13456,7 +13474,7 @@
       <c r="AB70" s="8"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG70" s="8"/>
       <c r="AH70" s="8"/>
@@ -13467,7 +13485,7 @@
         <v>75</v>
       </c>
       <c r="AM70" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
@@ -13523,7 +13541,7 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="8"/>
       <c r="AK71" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL71" s="8"/>
       <c r="AM71" s="8"/>
@@ -13549,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -13578,7 +13596,7 @@
       <c r="AB72" s="8"/>
       <c r="AE72" s="7"/>
       <c r="AF72" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG72" s="8"/>
       <c r="AH72" s="8"/>
@@ -13591,7 +13609,7 @@
       </c>
       <c r="AN72" s="8"/>
       <c r="AO72" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
@@ -13613,7 +13631,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -13647,7 +13665,7 @@
       <c r="AI73" s="8"/>
       <c r="AJ73" s="8"/>
       <c r="AK73" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL73" s="8"/>
       <c r="AM73" s="8"/>
@@ -13662,7 +13680,7 @@
       <c r="AV73" s="8"/>
       <c r="AW73" s="8"/>
       <c r="AX73" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AY73" s="8"/>
       <c r="AZ73" s="8"/>
@@ -13673,7 +13691,7 @@
     <row r="74" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -13702,7 +13720,7 @@
       <c r="AB74" s="8"/>
       <c r="AE74" s="7"/>
       <c r="AF74" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG74" s="8"/>
       <c r="AH74" s="8"/>
@@ -13711,7 +13729,7 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="3"/>
       <c r="AM74" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
@@ -13723,7 +13741,7 @@
       <c r="AU74" s="8"/>
       <c r="AV74" s="8"/>
       <c r="AW74" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AX74" s="1"/>
       <c r="AY74" s="3"/>
@@ -13735,12 +13753,12 @@
     <row r="75" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -13793,12 +13811,12 @@
     <row r="76" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -13824,7 +13842,7 @@
       <c r="AB76" s="8"/>
       <c r="AE76" s="7"/>
       <c r="AF76" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG76" s="8"/>
       <c r="AH76" s="8"/>
@@ -13833,7 +13851,7 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="3"/>
       <c r="AM76" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AN76" s="8"/>
       <c r="AO76" s="8"/>
@@ -13854,7 +13872,7 @@
       </c>
       <c r="BA76" s="62"/>
       <c r="BB76" s="62" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="BC76" s="62"/>
       <c r="BD76" s="61"/>
@@ -13865,12 +13883,12 @@
     <row r="77" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -13901,7 +13919,7 @@
       <c r="AI77" s="8"/>
       <c r="AJ77" s="8"/>
       <c r="AK77" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AL77" s="8"/>
       <c r="AM77" s="8"/>
@@ -13918,7 +13936,7 @@
       <c r="AX77" s="62"/>
       <c r="AY77" s="62"/>
       <c r="AZ77" s="62" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="BA77" s="62"/>
       <c r="BB77" s="62"/>
@@ -13965,7 +13983,7 @@
       <c r="AX78" s="62"/>
       <c r="AY78" s="62"/>
       <c r="AZ78" s="62" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="BA78" s="62"/>
       <c r="BB78" s="62"/>
@@ -13978,14 +13996,14 @@
     <row r="79" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -14015,7 +14033,7 @@
       <c r="AX79" s="61"/>
       <c r="AY79" s="61"/>
       <c r="AZ79" s="62" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="BA79" s="61"/>
       <c r="BB79" s="61"/>
@@ -14031,7 +14049,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -14039,7 +14057,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
@@ -14092,7 +14110,7 @@
     <row r="82" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -14121,14 +14139,14 @@
       <c r="AB82" s="8"/>
       <c r="AE82" s="7"/>
       <c r="AF82" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG82" s="8"/>
       <c r="AH82" s="8"/>
       <c r="AI82" s="8"/>
       <c r="AJ82" s="8"/>
       <c r="AK82" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AL82" s="5"/>
       <c r="AM82" s="5"/>
@@ -14151,7 +14169,7 @@
     <row r="83" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="8"/>
@@ -14207,7 +14225,7 @@
     <row r="84" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -14317,7 +14335,7 @@
     <row r="86" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -14346,7 +14364,7 @@
       <c r="AB86" s="8"/>
       <c r="AE86" s="7"/>
       <c r="AF86" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
@@ -14375,7 +14393,7 @@
     <row r="87" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -14409,7 +14427,7 @@
       <c r="AI87" s="8"/>
       <c r="AJ87" s="8"/>
       <c r="AK87" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL87" s="8"/>
       <c r="AM87" s="8"/>
@@ -14471,7 +14489,7 @@
         <v>75</v>
       </c>
       <c r="AM88" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AN88" s="8"/>
       <c r="AO88" s="8"/>
@@ -14495,7 +14513,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -14551,7 +14569,7 @@
     <row r="90" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -14580,20 +14598,20 @@
       <c r="AB90" s="8"/>
       <c r="AE90" s="22"/>
       <c r="AG90" s="54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AH90" s="54"/>
       <c r="AI90" s="54"/>
       <c r="AJ90" s="54"/>
       <c r="AK90" s="66"/>
       <c r="AL90" s="54" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AM90" s="54"/>
       <c r="AN90" s="54"/>
       <c r="AO90" s="54"/>
       <c r="AP90" s="54" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AQ90" s="54"/>
       <c r="AR90" s="54"/>
@@ -14614,7 +14632,7 @@
     <row r="91" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -14652,7 +14670,7 @@
       <c r="AN91" s="54"/>
       <c r="AO91" s="54"/>
       <c r="AP91" s="54" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AQ91" s="54"/>
       <c r="AR91" s="54"/>
@@ -14673,7 +14691,7 @@
     <row r="92" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -14703,17 +14721,17 @@
       <c r="AE92" s="7"/>
       <c r="AF92" s="7"/>
       <c r="AG92" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AH92" s="19"/>
       <c r="AI92" s="19"/>
       <c r="AJ92" s="19"/>
       <c r="AK92" s="19"/>
       <c r="AL92" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM92" s="58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AN92" s="59"/>
       <c r="AO92" s="59"/>
@@ -14722,7 +14740,7 @@
       <c r="AR92" s="19"/>
       <c r="AS92" s="19"/>
       <c r="AT92" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AU92" s="19"/>
       <c r="AV92" s="19"/>
@@ -14730,10 +14748,10 @@
       <c r="AX92" s="19"/>
       <c r="AY92" s="19"/>
       <c r="AZ92" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BA92" s="58" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="BB92" s="59"/>
       <c r="BC92" s="59"/>
@@ -14743,7 +14761,7 @@
     <row r="93" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -14778,7 +14796,7 @@
       <c r="AJ93" s="8"/>
       <c r="AK93" s="8"/>
       <c r="AL93" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM93" s="8"/>
       <c r="AN93" s="8"/>
@@ -14803,7 +14821,7 @@
     <row r="94" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -14833,7 +14851,7 @@
       <c r="AE94" s="7"/>
       <c r="AF94" s="7"/>
       <c r="AG94" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AH94" s="8"/>
       <c r="AI94" s="8"/>
@@ -14844,12 +14862,12 @@
         <v>75</v>
       </c>
       <c r="AN94" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AO94" s="8"/>
       <c r="AP94" s="8"/>
       <c r="AQ94" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AR94" s="8"/>
       <c r="AS94" s="8"/>
@@ -14869,7 +14887,7 @@
     <row r="95" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -14904,14 +14922,14 @@
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
       <c r="AL95" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM95" s="8"/>
       <c r="AN95" s="8"/>
       <c r="AO95" s="8"/>
       <c r="AP95" s="8"/>
       <c r="AQ95" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AR95" s="8"/>
       <c r="AS95" s="8"/>
@@ -14931,7 +14949,7 @@
     <row r="96" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -14961,7 +14979,7 @@
       <c r="AE96" s="7"/>
       <c r="AF96" s="7"/>
       <c r="AG96" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH96" s="8"/>
       <c r="AI96" s="8"/>
@@ -14972,7 +14990,7 @@
       <c r="AN96" s="8"/>
       <c r="AO96" s="8"/>
       <c r="AP96" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AQ96" s="8"/>
       <c r="AR96" s="8"/>
@@ -14993,7 +15011,7 @@
     <row r="97" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -15028,7 +15046,7 @@
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
       <c r="AL97" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM97" s="8"/>
       <c r="AN97" s="8"/>
@@ -15055,7 +15073,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
@@ -15085,7 +15103,7 @@
       <c r="AE98" s="7"/>
       <c r="AF98" s="7"/>
       <c r="AG98" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AH98" s="8"/>
       <c r="AI98" s="8"/>
@@ -15096,7 +15114,7 @@
       <c r="AN98" s="8"/>
       <c r="AO98" s="8"/>
       <c r="AP98" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AQ98" s="8"/>
       <c r="AR98" s="8"/>
@@ -15117,7 +15135,7 @@
     <row r="99" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
       <c r="C99" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
@@ -15175,7 +15193,7 @@
     <row r="100" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
       <c r="C100" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
@@ -15205,7 +15223,7 @@
       <c r="AE100" s="7"/>
       <c r="AF100" s="7"/>
       <c r="AG100" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AH100" s="19"/>
       <c r="AI100" s="19"/>
@@ -15213,7 +15231,7 @@
       <c r="AK100" s="19"/>
       <c r="AL100" s="66"/>
       <c r="AM100" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AN100" s="19"/>
       <c r="AO100" s="19"/>
@@ -15237,7 +15255,7 @@
     <row r="101" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
       <c r="C101" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
@@ -15297,7 +15315,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
@@ -15330,7 +15348,7 @@
       <c r="AE102" s="7"/>
       <c r="AF102" s="7"/>
       <c r="AG102" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH102" s="19"/>
       <c r="AI102" s="19"/>
@@ -15341,7 +15359,7 @@
       <c r="AN102" s="60"/>
       <c r="AO102" s="19"/>
       <c r="AP102" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AQ102" s="19"/>
       <c r="AR102" s="19"/>
@@ -15395,7 +15413,7 @@
       <c r="AJ103" s="35"/>
       <c r="AK103" s="35"/>
       <c r="AL103" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AM103" s="35"/>
       <c r="AN103" s="35"/>
@@ -15422,7 +15440,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
@@ -15480,7 +15498,7 @@
     <row r="105" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
       <c r="C105" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
@@ -15509,7 +15527,7 @@
       <c r="AB105" s="54"/>
       <c r="AE105" s="7"/>
       <c r="AF105" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG105" s="3"/>
       <c r="AH105" s="8"/>
@@ -15540,7 +15558,7 @@
     <row r="106" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
       <c r="C106" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
@@ -15598,7 +15616,7 @@
     <row r="107" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
       <c r="C107" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
@@ -15656,25 +15674,25 @@
     <row r="109" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="3"/>
       <c r="G109" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="3"/>
       <c r="K109" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="3"/>
       <c r="O109" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="3"/>
@@ -15690,7 +15708,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="6"/>
       <c r="AE109" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF109" s="5"/>
       <c r="AG109" s="5"/>
@@ -15699,7 +15717,7 @@
       <c r="AJ109" s="5"/>
       <c r="AK109" s="5"/>
       <c r="AL109" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM109" s="5"/>
       <c r="AN109" s="5"/>
@@ -15774,7 +15792,7 @@
     <row r="111" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -15804,7 +15822,7 @@
       <c r="AE111" s="7"/>
       <c r="AF111" s="8"/>
       <c r="AG111" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
@@ -15812,7 +15830,7 @@
       <c r="AK111" s="3"/>
       <c r="AL111" s="8"/>
       <c r="AM111" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AN111" s="8"/>
       <c r="AO111" s="8"/>
@@ -15833,25 +15851,25 @@
     <row r="112" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="C112" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="3"/>
       <c r="J112" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="3"/>
       <c r="M112" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15885,7 +15903,7 @@
       <c r="AS112" s="8"/>
       <c r="AT112" s="7"/>
       <c r="AU112" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AV112" s="8"/>
       <c r="AW112" s="8"/>
@@ -15978,14 +15996,14 @@
       <c r="AB114" s="9"/>
       <c r="AE114" s="7"/>
       <c r="AF114" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AG114" s="8"/>
       <c r="AH114" s="8"/>
       <c r="AI114" s="8"/>
       <c r="AJ114" s="8"/>
       <c r="AK114" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AL114" s="2"/>
       <c r="AM114" s="2"/>
@@ -16090,14 +16108,14 @@
       <c r="AB116" s="9"/>
       <c r="AE116" s="7"/>
       <c r="AF116" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG116" s="8"/>
       <c r="AH116" s="8"/>
       <c r="AI116" s="8"/>
       <c r="AJ116" s="8"/>
       <c r="AK116" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AL116" s="2"/>
       <c r="AM116" s="2"/>
@@ -16200,14 +16218,14 @@
       <c r="AB118" s="9"/>
       <c r="AE118" s="7"/>
       <c r="AF118" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG118" s="8"/>
       <c r="AH118" s="8"/>
       <c r="AI118" s="8"/>
       <c r="AJ118" s="8"/>
       <c r="AK118" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL118" s="3"/>
       <c r="AM118" s="8"/>
@@ -16221,10 +16239,10 @@
       <c r="AU118" s="8"/>
       <c r="AV118" s="8"/>
       <c r="AW118" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AX118" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AY118" s="3"/>
       <c r="AZ118" s="8"/>
@@ -16266,7 +16284,7 @@
       <c r="AI119" s="8"/>
       <c r="AJ119" s="8"/>
       <c r="AK119" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL119" s="8"/>
       <c r="AM119" s="8"/>
@@ -16316,7 +16334,7 @@
       <c r="AB120" s="9"/>
       <c r="AE120" s="7"/>
       <c r="AF120" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG120" s="8"/>
       <c r="AH120" s="8"/>
@@ -16328,7 +16346,7 @@
         <v>75</v>
       </c>
       <c r="AN120" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AO120" s="8"/>
       <c r="AP120" s="8"/>
@@ -16339,7 +16357,7 @@
       <c r="AU120" s="8"/>
       <c r="AV120" s="8"/>
       <c r="AW120" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX120" s="1"/>
       <c r="AY120" s="3" t="s">
@@ -16384,7 +16402,7 @@
       <c r="AI121" s="8"/>
       <c r="AJ121" s="8"/>
       <c r="AK121" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AL121" s="8"/>
       <c r="AM121" s="8"/>
@@ -16407,7 +16425,7 @@
     <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE122" s="7"/>
       <c r="AF122" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
@@ -16418,7 +16436,7 @@
         <v>75</v>
       </c>
       <c r="AM122" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN122" s="8"/>
       <c r="AO122" s="8"/>
@@ -16444,7 +16462,7 @@
       <c r="AI123" s="8"/>
       <c r="AJ123" s="8"/>
       <c r="AK123" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL123" s="8"/>
       <c r="AM123" s="8"/>
@@ -16467,7 +16485,7 @@
     <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE124" s="7"/>
       <c r="AF124" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
@@ -16480,7 +16498,7 @@
       </c>
       <c r="AN124" s="8"/>
       <c r="AO124" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AP124" s="8"/>
       <c r="AQ124" s="8"/>
@@ -16551,7 +16569,7 @@
     <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="AE127" s="7"/>
       <c r="AF127" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
@@ -16560,7 +16578,7 @@
       <c r="AK127" s="1"/>
       <c r="AL127" s="3"/>
       <c r="AM127" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AN127" s="8"/>
       <c r="AO127" s="8"/>
@@ -16586,7 +16604,7 @@
       <c r="AI128" s="8"/>
       <c r="AJ128" s="8"/>
       <c r="AK128" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AL128" s="8"/>
       <c r="AM128" s="8"/>
@@ -16635,14 +16653,14 @@
     <row r="130" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE130" s="7"/>
       <c r="AF130" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG130" s="8"/>
       <c r="AH130" s="8"/>
       <c r="AI130" s="8"/>
       <c r="AJ130" s="8"/>
       <c r="AK130" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AL130" s="5"/>
       <c r="AM130" s="5"/>
@@ -16743,18 +16761,18 @@
     <row r="134" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE134" s="67"/>
       <c r="AF134" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG134" s="19"/>
       <c r="AH134" s="19"/>
       <c r="AI134" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AJ134" s="19"/>
       <c r="AK134" s="19"/>
       <c r="AL134" s="19"/>
       <c r="AM134" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AN134" s="19"/>
       <c r="AO134" s="19"/>
@@ -16775,14 +16793,14 @@
     <row r="135" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE135" s="67"/>
       <c r="AF135" s="66" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG135" s="58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AH135" s="60"/>
       <c r="AI135" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AJ135" s="59"/>
       <c r="AK135" s="59"/>
@@ -16810,7 +16828,7 @@
       <c r="AG136" s="67"/>
       <c r="AH136" s="68"/>
       <c r="AI136" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AJ136" s="19"/>
       <c r="AK136" s="19"/>
@@ -16913,7 +16931,7 @@
     <row r="140" spans="31:54" x14ac:dyDescent="0.25">
       <c r="AE140" s="7"/>
       <c r="AF140" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG140" s="3"/>
       <c r="AH140" s="8"/>
@@ -17009,7 +17027,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
       <c r="AB2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.25">
@@ -17039,7 +17057,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="9"/>
       <c r="AC3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.25">
@@ -17077,7 +17095,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="9"/>
       <c r="AC4" s="54" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AD4" s="54"/>
       <c r="AE4" s="54"/>
@@ -17139,7 +17157,7 @@
     <row r="6" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -17149,7 +17167,7 @@
       <c r="I6" s="59"/>
       <c r="J6" s="60"/>
       <c r="K6" s="19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -17209,7 +17227,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="9"/>
       <c r="AC7" s="54" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AD7" s="54"/>
       <c r="AE7" s="54"/>
@@ -17229,7 +17247,7 @@
     <row r="8" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -17255,7 +17273,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
       <c r="AC8" s="54" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AD8" s="54"/>
       <c r="AE8" s="54"/>
@@ -17299,7 +17317,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="9"/>
       <c r="AC9" s="54" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AD9" s="54"/>
       <c r="AE9" s="54"/>
@@ -17319,7 +17337,7 @@
     <row r="10" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -17379,7 +17397,7 @@
     <row r="12" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -17392,7 +17410,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -17416,7 +17434,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -17428,7 +17446,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -17443,7 +17461,7 @@
     <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -17452,7 +17470,7 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -17557,7 +17575,7 @@
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.25">
@@ -17596,13 +17614,13 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -17627,7 +17645,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -17639,7 +17657,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
@@ -17713,7 +17731,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -17751,7 +17769,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -17799,7 +17817,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
       <c r="I26" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -18529,15 +18547,15 @@
   <sheetData>
     <row r="2" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="2:54" x14ac:dyDescent="0.25">
@@ -18876,7 +18894,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
       <c r="AD12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
@@ -18968,7 +18986,7 @@
       <c r="V14" s="9"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
@@ -19060,7 +19078,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -19068,12 +19086,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -19098,7 +19116,7 @@
       <c r="AM17" s="8"/>
       <c r="AN17" s="8"/>
       <c r="AO17" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -19142,7 +19160,7 @@
       <c r="AA18" s="9"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
@@ -19165,7 +19183,7 @@
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -19265,7 +19283,7 @@
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -19275,7 +19293,7 @@
       <c r="I21" s="59"/>
       <c r="J21" s="60"/>
       <c r="K21" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -19363,7 +19381,7 @@
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -19376,7 +19394,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -19420,7 +19438,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -19432,7 +19450,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -19467,7 +19485,7 @@
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -19476,7 +19494,7 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -19643,7 +19661,7 @@
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
@@ -19677,7 +19695,7 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="6"/>
       <c r="AE31" s="54" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF31" s="54"/>
       <c r="AG31" s="54"/>
@@ -19709,18 +19727,18 @@
       <c r="E32" s="6"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -19738,7 +19756,7 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="9"/>
       <c r="AE32" s="54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AF32" s="54"/>
       <c r="AG32" s="54"/>
@@ -19786,16 +19804,16 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="9"/>
       <c r="AE33" s="54" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF33" s="54"/>
       <c r="AG33" s="54"/>
@@ -19827,7 +19845,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -19837,7 +19855,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="P34" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -19884,14 +19902,14 @@
       <c r="E35" s="12"/>
       <c r="F35" s="8"/>
       <c r="G35" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -19899,12 +19917,12 @@
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
@@ -19916,7 +19934,7 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="9"/>
       <c r="AE35" s="54" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF35" s="54"/>
       <c r="AG35" s="54"/>
@@ -19948,14 +19966,14 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -19963,7 +19981,7 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
@@ -19975,7 +19993,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AA36" s="2"/>
       <c r="AB36" s="3"/>
@@ -20003,7 +20021,7 @@
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
@@ -20053,18 +20071,18 @@
       <c r="E40" s="6"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -20107,17 +20125,17 @@
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="9"/>
       <c r="AG41" s="61"/>
       <c r="AH41" s="61" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AI41" s="61"/>
       <c r="AJ41" s="61"/>
@@ -20143,7 +20161,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -20154,7 +20172,7 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
@@ -20172,7 +20190,7 @@
       <c r="AC42" s="9"/>
       <c r="AG42" s="61"/>
       <c r="AH42" s="61" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AI42" s="61"/>
       <c r="AJ42" s="61"/>
@@ -20198,10 +20216,10 @@
       <c r="E43" s="12"/>
       <c r="F43" s="8"/>
       <c r="G43" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -20211,12 +20229,12 @@
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
@@ -20236,11 +20254,11 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -20249,7 +20267,7 @@
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
@@ -20261,14 +20279,14 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="9"/>
       <c r="AG44" s="61"/>
       <c r="AH44" s="61" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AI44" s="61"/>
       <c r="AJ44" s="61"/>
@@ -20318,7 +20336,7 @@
       <c r="AC45" s="12"/>
       <c r="AG45" s="61"/>
       <c r="AH45" s="61" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AI45" s="61"/>
       <c r="AJ45" s="61"/>
@@ -20339,7 +20357,7 @@
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AG46" s="61"/>
       <c r="AH46" s="61" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AI46" s="61"/>
       <c r="AJ46" s="61"/>
@@ -20396,18 +20414,18 @@
       <c r="E48" s="6"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
@@ -20450,10 +20468,10 @@
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
       <c r="X49" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="6"/>
@@ -20467,7 +20485,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -20478,7 +20496,7 @@
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
@@ -20503,14 +20521,14 @@
       <c r="E51" s="12"/>
       <c r="F51" s="8"/>
       <c r="G51" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -20518,12 +20536,12 @@
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
@@ -20543,14 +20561,14 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -20558,7 +20576,7 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
@@ -20570,13 +20588,13 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="9"/>
       <c r="AG52" s="54" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="AH52" s="54"/>
       <c r="AI52" s="54"/>
@@ -20626,7 +20644,7 @@
       <c r="AB53" s="11"/>
       <c r="AC53" s="12"/>
       <c r="AG53" s="74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AH53" s="62"/>
       <c r="AI53" s="62"/>
@@ -20655,7 +20673,7 @@
     <row r="54" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AG54" s="62"/>
       <c r="AH54" s="62" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="AI54" s="62"/>
       <c r="AJ54" s="62"/>
@@ -20666,7 +20684,7 @@
       <c r="AO54" s="62"/>
       <c r="AP54" s="62"/>
       <c r="AQ54" s="62" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="AR54" s="62"/>
       <c r="AS54" s="62"/>
@@ -20684,7 +20702,7 @@
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -20716,7 +20734,7 @@
       <c r="AC55" s="6"/>
       <c r="AG55" s="62"/>
       <c r="AH55" s="62" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="AI55" s="62"/>
       <c r="AJ55" s="62"/>
@@ -20727,7 +20745,7 @@
       <c r="AO55" s="62"/>
       <c r="AP55" s="62"/>
       <c r="AQ55" s="62" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="AR55" s="62"/>
       <c r="AS55" s="62"/>
@@ -20746,15 +20764,15 @@
     <row r="56" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -20781,7 +20799,7 @@
       <c r="AC56" s="9"/>
       <c r="AG56" s="62"/>
       <c r="AH56" s="62" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="AI56" s="62"/>
       <c r="AJ56" s="62"/>
@@ -20792,7 +20810,7 @@
       <c r="AO56" s="62"/>
       <c r="AP56" s="62"/>
       <c r="AQ56" s="62" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AR56" s="62"/>
       <c r="AS56" s="62"/>
@@ -20811,10 +20829,10 @@
     <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -20853,7 +20871,7 @@
       <c r="AO57" s="62"/>
       <c r="AP57" s="62"/>
       <c r="AQ57" s="62" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="AR57" s="62"/>
       <c r="AS57" s="62"/>
@@ -20872,10 +20890,10 @@
     <row r="58" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -20907,10 +20925,10 @@
     <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -20942,10 +20960,10 @@
     <row r="60" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -21006,7 +21024,7 @@
       <c r="AC61" s="12"/>
       <c r="AG61" s="61"/>
       <c r="AH61" s="61" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AI61" s="61"/>
       <c r="AJ61" s="61"/>
@@ -21026,7 +21044,7 @@
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -21058,7 +21076,7 @@
       <c r="AC62" s="9"/>
       <c r="AG62" s="61"/>
       <c r="AH62" s="61" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AI62" s="61"/>
       <c r="AJ62" s="61"/>
@@ -21108,7 +21126,7 @@
       <c r="AC63" s="9"/>
       <c r="AG63" s="61"/>
       <c r="AH63" s="61" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AI63" s="61"/>
       <c r="AJ63" s="61"/>
@@ -21158,7 +21176,7 @@
       <c r="AC64" s="9"/>
       <c r="AG64" s="61"/>
       <c r="AH64" s="61" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AI64" s="61"/>
       <c r="AJ64" s="61"/>
@@ -21207,7 +21225,7 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="9"/>
       <c r="AG65" s="61" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AH65" s="61"/>
       <c r="AI65" s="61"/>
@@ -21258,7 +21276,7 @@
       <c r="AB66" s="11"/>
       <c r="AC66" s="12"/>
       <c r="AG66" s="61" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AH66" s="61"/>
       <c r="AI66" s="61"/>
@@ -21280,7 +21298,7 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -21508,8 +21526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:AA27"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21519,7 +21537,7 @@
   <sheetData>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C2" s="18" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -21614,7 +21632,7 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
@@ -21622,7 +21640,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -21667,7 +21685,7 @@
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -21679,7 +21697,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -21855,13 +21873,13 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="9"/>
       <c r="AE10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AJ10" t="s">
         <v>35</v>
       </c>
       <c r="AK10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -21882,7 +21900,7 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -21902,7 +21920,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="9"/>
       <c r="AE11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ11" t="s">
         <v>35</v>
@@ -21916,7 +21934,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -21925,11 +21943,11 @@
         <v>35</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -21949,13 +21967,13 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="9"/>
       <c r="AE12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AJ12" t="s">
         <v>35</v>
       </c>
       <c r="AK12" t="s">
-        <v>352</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -22026,13 +22044,13 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="9"/>
       <c r="AE14" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AJ14" t="s">
         <v>35</v>
       </c>
       <c r="AK14" t="s">
-        <v>103</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -22040,7 +22058,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -22055,7 +22073,7 @@
       <c r="L15" s="54"/>
       <c r="M15" s="54"/>
       <c r="N15" s="54" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O15" s="54"/>
       <c r="P15" s="19"/>
@@ -22079,7 +22097,7 @@
         <v>35</v>
       </c>
       <c r="AK15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -22112,13 +22130,13 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="9"/>
       <c r="AE16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AJ16" t="s">
         <v>35</v>
       </c>
       <c r="AK16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
@@ -22138,19 +22156,19 @@
         <v>40</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="P17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
@@ -22161,13 +22179,13 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="9"/>
       <c r="AE17" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AJ17" t="s">
         <v>35</v>
       </c>
       <c r="AK17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
@@ -22191,7 +22209,7 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -22202,13 +22220,13 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="9"/>
       <c r="AE18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AJ18" t="s">
         <v>35</v>
       </c>
       <c r="AK18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
@@ -22255,7 +22273,7 @@
         <v>35</v>
       </c>
       <c r="AK19" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
@@ -22278,7 +22296,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="19" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -22316,7 +22334,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -22334,7 +22352,7 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="9"/>
       <c r="AE21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
@@ -22367,13 +22385,13 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="9"/>
       <c r="AE22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AI22" t="s">
         <v>35</v>
       </c>
       <c r="AJ22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
@@ -22381,7 +22399,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F23" s="62"/>
       <c r="G23" s="62"/>
@@ -22408,13 +22426,13 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="9"/>
       <c r="AE23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AI23" t="s">
         <v>35</v>
       </c>
       <c r="AJ23" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
@@ -22423,7 +22441,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="62"/>
       <c r="F24" s="62" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
@@ -22434,7 +22452,7 @@
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
       <c r="O24" s="62" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="P24" s="62"/>
       <c r="Q24" s="62"/>
@@ -22451,13 +22469,13 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="9"/>
       <c r="AE24" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AK24" t="s">
         <v>35</v>
       </c>
       <c r="AL24" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
@@ -22466,7 +22484,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="62"/>
       <c r="F25" s="62" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
@@ -22477,7 +22495,7 @@
       <c r="M25" s="62"/>
       <c r="N25" s="62"/>
       <c r="O25" s="62" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="P25" s="62"/>
       <c r="Q25" s="62"/>
@@ -22494,13 +22512,13 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
       <c r="AE25" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AK25" t="s">
         <v>35</v>
       </c>
       <c r="AL25" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
@@ -22509,7 +22527,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G26" s="76"/>
       <c r="H26" s="76"/>
@@ -22520,7 +22538,7 @@
       <c r="M26" s="76"/>
       <c r="N26" s="76"/>
       <c r="O26" s="76" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="P26" s="76"/>
       <c r="Q26" s="76"/>
@@ -22537,13 +22555,13 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="9"/>
       <c r="AE26" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AK26" t="s">
         <v>35</v>
       </c>
       <c r="AL26" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
@@ -22561,7 +22579,7 @@
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
       <c r="O27" s="62" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
@@ -22578,13 +22596,13 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="9"/>
       <c r="AE27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK27" t="s">
         <v>35</v>
       </c>
       <c r="AL27" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
@@ -22619,13 +22637,13 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="9"/>
       <c r="AE28" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AK28" t="s">
         <v>35</v>
       </c>
       <c r="AL28" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
@@ -22637,7 +22655,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -22660,13 +22678,13 @@
       <c r="AB29" s="8"/>
       <c r="AC29" s="9"/>
       <c r="AE29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AK29" t="s">
         <v>35</v>
       </c>
       <c r="AL29" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
@@ -22738,7 +22756,7 @@
       <c r="AB31" s="8"/>
       <c r="AC31" s="9"/>
       <c r="AE31" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
@@ -22775,13 +22793,13 @@
       <c r="AB32" s="8"/>
       <c r="AC32" s="9"/>
       <c r="AE32" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="AJ32" t="s">
         <v>35</v>
       </c>
       <c r="AK32" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.25">
@@ -22814,13 +22832,13 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="9"/>
       <c r="AE33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AJ33" t="s">
         <v>35</v>
       </c>
       <c r="AK33" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.25">
@@ -22853,13 +22871,13 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="9"/>
       <c r="AE34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AJ34" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="AK34" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="2:40" x14ac:dyDescent="0.25">
@@ -22894,13 +22912,13 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="9"/>
       <c r="AE35" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="AJ35" t="s">
         <v>35</v>
       </c>
       <c r="AK35" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="2:40" x14ac:dyDescent="0.25">
@@ -22933,18 +22951,18 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="9"/>
       <c r="AE36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ36" t="s">
         <v>35</v>
       </c>
       <c r="AK36" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
@@ -22963,7 +22981,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -22980,18 +22998,18 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
       <c r="AE37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AJ37" t="s">
         <v>35</v>
       </c>
       <c r="AK37" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
@@ -23010,7 +23028,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -23027,7 +23045,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="9"/>
       <c r="AE38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AJ38" t="s">
         <v>35</v>
@@ -23038,7 +23056,7 @@
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -23060,7 +23078,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
@@ -23074,13 +23092,13 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="9"/>
       <c r="AE39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AJ39" t="s">
         <v>35</v>
       </c>
       <c r="AK39" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.25">
@@ -23097,14 +23115,14 @@
       <c r="J40" s="8"/>
       <c r="K40" s="73"/>
       <c r="L40" s="62" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M40" s="62"/>
       <c r="N40" s="62"/>
       <c r="O40" s="62"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
@@ -23119,7 +23137,7 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="9"/>
       <c r="AE40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AJ40" t="s">
         <v>35</v>
@@ -23134,7 +23152,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -23160,13 +23178,13 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="9"/>
       <c r="AE41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AJ41" t="s">
         <v>35</v>
       </c>
       <c r="AK41" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="2:40" x14ac:dyDescent="0.25">
@@ -23201,13 +23219,13 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="9"/>
       <c r="AE42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AJ42" t="s">
         <v>35</v>
       </c>
       <c r="AK42" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="2:40" x14ac:dyDescent="0.25">
@@ -23240,13 +23258,13 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="9"/>
       <c r="AE43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AJ43" t="s">
         <v>35</v>
       </c>
       <c r="AK43" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="2:40" x14ac:dyDescent="0.25">
@@ -23403,7 +23421,7 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="9"/>
       <c r="AE48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AJ48" s="54"/>
       <c r="AK48" s="54"/>
@@ -23440,7 +23458,7 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="9"/>
       <c r="AE49" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="3:31" x14ac:dyDescent="0.25">
@@ -23463,7 +23481,7 @@
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
       <c r="U50" s="14" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="3"/>
@@ -23511,10 +23529,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN85"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="AL78" sqref="AL78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23524,7 +23542,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -23619,14 +23637,14 @@
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -23670,7 +23688,7 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -23682,7 +23700,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
@@ -23853,15 +23871,6 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="9"/>
-      <c r="AC9" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>490</v>
-      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -23880,7 +23889,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -23900,7 +23909,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="9"/>
       <c r="AC10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AH10" t="s">
         <v>35</v>
@@ -23913,7 +23922,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -23922,11 +23931,11 @@
         <v>35</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -23946,13 +23955,13 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="9"/>
       <c r="AC11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AH11" t="s">
         <v>35</v>
       </c>
       <c r="AI11" t="s">
-        <v>352</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -24002,9 +24011,7 @@
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="62" t="s">
-        <v>86</v>
-      </c>
+      <c r="L13" s="62"/>
       <c r="M13" s="62"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
@@ -24021,20 +24028,20 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="9"/>
       <c r="AC13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AH13" t="s">
         <v>35</v>
       </c>
       <c r="AI13" t="s">
-        <v>103</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -24049,7 +24056,7 @@
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
       <c r="L14" s="54" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M14" s="54"/>
       <c r="N14" s="19"/>
@@ -24073,7 +24080,7 @@
         <v>35</v>
       </c>
       <c r="AI14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -24105,13 +24112,13 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="9"/>
       <c r="AC15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AH15" t="s">
         <v>35</v>
       </c>
       <c r="AI15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -24130,19 +24137,19 @@
         <v>40</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="N16" s="61" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O16" s="62"/>
       <c r="P16" s="62"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
       <c r="S16" s="62" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="T16" s="62"/>
       <c r="U16" s="62"/>
@@ -24153,13 +24160,13 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="9"/>
       <c r="AC16" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AH16" t="s">
         <v>35</v>
       </c>
       <c r="AI16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -24182,7 +24189,7 @@
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
       <c r="S17" s="62" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T17" s="62"/>
       <c r="U17" s="62"/>
@@ -24193,13 +24200,13 @@
       <c r="Z17" s="8"/>
       <c r="AA17" s="9"/>
       <c r="AC17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH17" t="s">
         <v>35</v>
       </c>
       <c r="AI17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -24238,15 +24245,6 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="9"/>
-      <c r="AC18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -24267,7 +24265,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="19" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -24304,7 +24302,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -24322,7 +24320,7 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="9"/>
       <c r="AC20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
@@ -24354,20 +24352,20 @@
       <c r="Z21" s="8"/>
       <c r="AA21" s="9"/>
       <c r="AC21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s">
         <v>35</v>
       </c>
       <c r="AH21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -24394,13 +24392,13 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="9"/>
       <c r="AC22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s">
         <v>35</v>
       </c>
       <c r="AH22" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
@@ -24408,7 +24406,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
@@ -24419,7 +24417,7 @@
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="N23" s="62"/>
       <c r="O23" s="62"/>
@@ -24436,13 +24434,13 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="9"/>
       <c r="AC23" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AI23" t="s">
         <v>35</v>
       </c>
       <c r="AJ23" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
@@ -24450,7 +24448,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="62"/>
       <c r="D24" s="62" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
@@ -24461,7 +24459,7 @@
       <c r="K24" s="62"/>
       <c r="L24" s="62"/>
       <c r="M24" s="62" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="N24" s="62"/>
       <c r="O24" s="62"/>
@@ -24478,13 +24476,13 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="9"/>
       <c r="AC24" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AI24" t="s">
         <v>35</v>
       </c>
       <c r="AJ24" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -24492,7 +24490,7 @@
       <c r="B25" s="10"/>
       <c r="C25" s="76"/>
       <c r="D25" s="76" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
@@ -24503,7 +24501,7 @@
       <c r="K25" s="76"/>
       <c r="L25" s="76"/>
       <c r="M25" s="76" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="N25" s="76"/>
       <c r="O25" s="76"/>
@@ -24520,13 +24518,13 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="9"/>
       <c r="AC25" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AI25" t="s">
         <v>35</v>
       </c>
       <c r="AJ25" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -24543,7 +24541,7 @@
       <c r="K26" s="62"/>
       <c r="L26" s="62"/>
       <c r="M26" s="62" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="N26" s="62"/>
       <c r="O26" s="62"/>
@@ -24560,13 +24558,13 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="9"/>
       <c r="AC26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI26" t="s">
         <v>35</v>
       </c>
       <c r="AJ26" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -24600,13 +24598,13 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="9"/>
       <c r="AC27" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AI27" t="s">
         <v>35</v>
       </c>
       <c r="AJ27" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -24617,7 +24615,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -24640,13 +24638,13 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="9"/>
       <c r="AC28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AI28" t="s">
         <v>35</v>
       </c>
       <c r="AJ28" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -24716,7 +24714,7 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="9"/>
       <c r="AC30" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
@@ -24752,13 +24750,13 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="9"/>
       <c r="AC31" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="AH31" t="s">
         <v>35</v>
       </c>
       <c r="AI31" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
@@ -24790,13 +24788,13 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="9"/>
       <c r="AC32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AH32" t="s">
         <v>35</v>
       </c>
       <c r="AI32" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
@@ -24828,13 +24826,13 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="9"/>
       <c r="AC33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AH33" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="AI33" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
@@ -24868,13 +24866,13 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="9"/>
       <c r="AC34" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="AH34" t="s">
         <v>35</v>
       </c>
       <c r="AI34" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
@@ -24906,13 +24904,13 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="9"/>
       <c r="AC35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AH35" t="s">
         <v>35</v>
       </c>
       <c r="AI35" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
@@ -24933,7 +24931,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -24950,13 +24948,13 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="9"/>
       <c r="AC36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AH36" t="s">
         <v>35</v>
       </c>
       <c r="AI36" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
@@ -24977,7 +24975,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -24994,7 +24992,7 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="9"/>
       <c r="AC37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AH37" t="s">
         <v>35</v>
@@ -25024,7 +25022,7 @@
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
@@ -25038,13 +25036,13 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="9"/>
       <c r="AC38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AH38" t="s">
         <v>35</v>
       </c>
       <c r="AI38" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -25060,14 +25058,14 @@
       <c r="H39" s="8"/>
       <c r="I39" s="73"/>
       <c r="J39" s="62" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K39" s="62"/>
       <c r="L39" s="62"/>
       <c r="M39" s="62"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -25082,7 +25080,7 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="9"/>
       <c r="AC39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AH39" t="s">
         <v>35</v>
@@ -25096,7 +25094,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -25122,13 +25120,13 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="9"/>
       <c r="AC40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH40" t="s">
         <v>35</v>
       </c>
       <c r="AI40" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
@@ -25162,13 +25160,13 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="9"/>
       <c r="AC41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AH41" t="s">
         <v>35</v>
       </c>
       <c r="AI41" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
@@ -25200,13 +25198,13 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="9"/>
       <c r="AC42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AH42" t="s">
         <v>35</v>
       </c>
       <c r="AI42" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
@@ -25361,7 +25359,7 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="9"/>
       <c r="AC47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AH47" s="54"/>
       <c r="AI47" s="54"/>
@@ -25398,7 +25396,7 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="9"/>
       <c r="AC48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
@@ -25421,7 +25419,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="14" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="3"/>
@@ -25494,7 +25492,7 @@
       <c r="AC52" s="5"/>
       <c r="AD52" s="6"/>
       <c r="AF52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
@@ -25533,7 +25531,7 @@
         <v>1</v>
       </c>
       <c r="AF53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
@@ -25579,7 +25577,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="9"/>
       <c r="AF54" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
@@ -25616,7 +25614,7 @@
         <v>2</v>
       </c>
       <c r="AF55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
@@ -25716,7 +25714,7 @@
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
       <c r="AF58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AK58" s="54"/>
       <c r="AL58" s="54"/>
@@ -25754,7 +25752,7 @@
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
       <c r="AF59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
@@ -25896,7 +25894,7 @@
       <c r="AC63" s="8"/>
       <c r="AD63" s="9"/>
       <c r="AG63" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
@@ -26082,7 +26080,7 @@
         <v>5</v>
       </c>
       <c r="AG68" t="s">
-        <v>106</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69" spans="2:39" x14ac:dyDescent="0.25">
@@ -26091,7 +26089,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -26118,13 +26116,13 @@
       <c r="AC69" s="8"/>
       <c r="AD69" s="9"/>
       <c r="AG69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AL69" t="s">
         <v>35</v>
       </c>
       <c r="AM69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:39" x14ac:dyDescent="0.25">
@@ -26158,7 +26156,7 @@
       <c r="AC70" s="8"/>
       <c r="AD70" s="9"/>
       <c r="AM70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="2:39" x14ac:dyDescent="0.25">
@@ -26197,13 +26195,13 @@
         <v>6</v>
       </c>
       <c r="AG71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AJ71" t="s">
         <v>35</v>
       </c>
       <c r="AK71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="2:39" x14ac:dyDescent="0.25">
@@ -26212,7 +26210,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -26239,7 +26237,7 @@
       <c r="AC72" s="8"/>
       <c r="AD72" s="9"/>
       <c r="AK72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="2:39" x14ac:dyDescent="0.25">
@@ -26249,11 +26247,11 @@
       <c r="E73" s="8"/>
       <c r="G73" s="13"/>
       <c r="H73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K73" s="13"/>
       <c r="L73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
@@ -26266,13 +26264,13 @@
         <v>7</v>
       </c>
       <c r="AG73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK73" t="s">
         <v>35</v>
       </c>
       <c r="AL73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="2:39" x14ac:dyDescent="0.25">
@@ -26312,7 +26310,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -26323,7 +26321,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
@@ -26344,13 +26342,13 @@
         <v>8</v>
       </c>
       <c r="AG75" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK75" t="s">
         <v>35</v>
       </c>
       <c r="AL75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="2:39" x14ac:dyDescent="0.25">
@@ -26359,7 +26357,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -26370,7 +26368,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
@@ -26422,13 +26420,13 @@
         <v>9</v>
       </c>
       <c r="AG77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK77" t="s">
         <v>35</v>
       </c>
       <c r="AL77" t="s">
-        <v>112</v>
+        <v>535</v>
       </c>
     </row>
     <row r="78" spans="2:39" x14ac:dyDescent="0.25">
@@ -26437,7 +26435,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -26445,14 +26443,14 @@
       <c r="J78" s="73"/>
       <c r="K78" s="62"/>
       <c r="L78" s="62" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M78" s="62"/>
       <c r="N78" s="62"/>
       <c r="O78" s="62"/>
       <c r="P78" s="62"/>
       <c r="Q78" s="62" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="R78" s="62"/>
       <c r="S78" s="62"/>
@@ -26461,7 +26459,7 @@
       <c r="V78" s="62"/>
       <c r="W78" s="62"/>
       <c r="X78" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
@@ -26473,7 +26471,7 @@
         <v>10</v>
       </c>
       <c r="AG78" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="2:39" x14ac:dyDescent="0.25">
@@ -26500,7 +26498,7 @@
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
       <c r="X79" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
@@ -26509,7 +26507,7 @@
       <c r="AC79" s="8"/>
       <c r="AD79" s="9"/>
       <c r="AG79" t="s">
-        <v>443</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80" spans="2:39" x14ac:dyDescent="0.25">
@@ -26518,7 +26516,7 @@
       <c r="D80" s="73"/>
       <c r="E80" s="62"/>
       <c r="F80" s="62" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G80" s="62"/>
       <c r="H80" s="62"/>
@@ -26544,8 +26542,11 @@
       <c r="AB80" s="8"/>
       <c r="AC80" s="8"/>
       <c r="AD80" s="9"/>
-    </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG80" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -26575,8 +26576,11 @@
       <c r="AB81" s="8"/>
       <c r="AC81" s="8"/>
       <c r="AD81" s="9"/>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG81" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="14" t="s">
@@ -26609,7 +26613,7 @@
       <c r="AC82" s="8"/>
       <c r="AD82" s="9"/>
     </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -26640,7 +26644,7 @@
       <c r="AC83" s="8"/>
       <c r="AD83" s="9"/>
     </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -26671,7 +26675,7 @@
       <c r="AC84" s="8"/>
       <c r="AD84" s="9"/>
     </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -26702,6 +26706,21 @@
       <c r="AC85" s="11"/>
       <c r="AD85" s="12"/>
     </row>
+    <row r="87" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="88" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26722,7 +26741,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -26805,7 +26824,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -26813,7 +26832,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
       <c r="S3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="2"/>
@@ -26827,7 +26846,7 @@
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -26847,7 +26866,7 @@
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -26890,16 +26909,16 @@
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
       <c r="M11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -26908,20 +26927,20 @@
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="G14" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
@@ -26935,7 +26954,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -26946,7 +26965,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
       <c r="L16" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -26954,7 +26973,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -26985,7 +27004,7 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -27264,22 +27283,22 @@
         <v>2</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
       <c r="O27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="2"/>
@@ -27289,7 +27308,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AC28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
@@ -27320,10 +27339,10 @@
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
       <c r="O31" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -27331,7 +27350,7 @@
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>75</v>
@@ -27340,12 +27359,12 @@
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
       <c r="L33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.25">
@@ -27355,28 +27374,28 @@
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
       <c r="I38" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="3"/>
       <c r="O38" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -27390,7 +27409,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
@@ -27434,7 +27453,7 @@
       <c r="AE39" s="8"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AH39" s="2"/>
       <c r="AI39" s="3"/>
@@ -27510,7 +27529,7 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AH41" s="2"/>
       <c r="AI41" s="3"/>
@@ -27623,7 +27642,7 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="9"/>
       <c r="AG44" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AH44" s="2"/>
       <c r="AI44" s="3"/>
@@ -27699,7 +27718,7 @@
       <c r="AE46" s="8"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AH46" s="2"/>
       <c r="AI46" s="3"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="751" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="751" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Menu" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="565">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1577,12 +1577,6 @@
     <t>muncul dialog untuk cancelation policy</t>
   </si>
   <si>
-    <t>Ubah Status Payment</t>
-  </si>
-  <si>
-    <t>Order Number</t>
-  </si>
-  <si>
     <t>sum dari trx012.tot_comm_val</t>
   </si>
   <si>
@@ -1631,7 +1625,100 @@
     <t>confirm isi ke table trx013</t>
   </si>
   <si>
-    <t>kosong</t>
+    <t>deposit_value</t>
+  </si>
+  <si>
+    <t>diisi jika payment pethod deposit</t>
+  </si>
+  <si>
+    <t>expired yrmo</t>
+  </si>
+  <si>
+    <t>tahun bulan expired cc</t>
+  </si>
+  <si>
+    <t>jika payment method deposit</t>
+  </si>
+  <si>
+    <t>isi ke log010</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>log_no</t>
+  </si>
+  <si>
+    <t>log_yrmo</t>
+  </si>
+  <si>
+    <t>log_date</t>
+  </si>
+  <si>
+    <t>nilai deposit di trx013.deposit_value</t>
+  </si>
+  <si>
+    <t>nomor order</t>
+  </si>
+  <si>
+    <t>tahun bln order</t>
+  </si>
+  <si>
+    <t>tgl order</t>
+  </si>
+  <si>
+    <t>Deposit Agent</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Used Value</t>
+  </si>
+  <si>
+    <t>Deposit Value</t>
+  </si>
+  <si>
+    <t>Make Deposit</t>
+  </si>
+  <si>
+    <t>Input Deposit Agent</t>
+  </si>
+  <si>
+    <t>Agent*</t>
+  </si>
+  <si>
+    <t>Deposit Value*</t>
+  </si>
+  <si>
+    <t>used value waktu awal input 0</t>
+  </si>
+  <si>
+    <t>remaining deposit = deposit value - used value</t>
+  </si>
+  <si>
+    <t>deposit value harus &gt; 0</t>
+  </si>
+  <si>
+    <t>simpan ke eglo010</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>nomor otomatis</t>
+  </si>
+  <si>
+    <t>tgl sysdate</t>
+  </si>
+  <si>
+    <t>tahun bulan tgl sysdate</t>
+  </si>
+  <si>
+    <t>nilai deposit</t>
   </si>
 </sst>
 </file>
@@ -1873,7 +1960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1957,6 +2044,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6985,29 +7073,923 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>518</v>
+      <c r="B1" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="6"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="6"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="9"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="9"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="9"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="9"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="9"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="9"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="9"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="9"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="9"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="9"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="9"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="9"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="9"/>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="9"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="9"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="9"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="9"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="9"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="9"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="9"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="9"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="9"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="9"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="12"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="9"/>
+      <c r="AB16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="9"/>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="9"/>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="9"/>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="12"/>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC21" t="s">
+        <v>539</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC22" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC24" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC25" t="s">
+        <v>533</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8215,7 +9197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F57" sqref="F57:Q59"/>
     </sheetView>
   </sheetViews>
@@ -21973,7 +22955,7 @@
         <v>35</v>
       </c>
       <c r="AK12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -22050,7 +23032,7 @@
         <v>35</v>
       </c>
       <c r="AK14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -22475,7 +23457,7 @@
         <v>35</v>
       </c>
       <c r="AL24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
@@ -22518,7 +23500,7 @@
         <v>35</v>
       </c>
       <c r="AL25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
@@ -22561,7 +23543,7 @@
         <v>35</v>
       </c>
       <c r="AL26" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
@@ -22602,7 +23584,7 @@
         <v>35</v>
       </c>
       <c r="AL27" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
@@ -22643,7 +23625,7 @@
         <v>35</v>
       </c>
       <c r="AL28" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
@@ -22684,7 +23666,7 @@
         <v>35</v>
       </c>
       <c r="AL29" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
@@ -23098,7 +24080,7 @@
         <v>35</v>
       </c>
       <c r="AK39" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.25">
@@ -23529,10 +24511,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN89"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="AL78" sqref="AL78"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AL92" sqref="AL92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23961,7 +24943,7 @@
         <v>35</v>
       </c>
       <c r="AI11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -24034,7 +25016,7 @@
         <v>35</v>
       </c>
       <c r="AI13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -24440,7 +25422,7 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
@@ -24482,7 +25464,7 @@
         <v>35</v>
       </c>
       <c r="AJ24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -24524,7 +25506,7 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -24564,7 +25546,7 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -24604,7 +25586,7 @@
         <v>35</v>
       </c>
       <c r="AJ27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -24644,7 +25626,7 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -25042,7 +26024,7 @@
         <v>35</v>
       </c>
       <c r="AI38" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -26080,7 +27062,7 @@
         <v>5</v>
       </c>
       <c r="AG68" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="2:39" x14ac:dyDescent="0.25">
@@ -26419,14 +27401,17 @@
       <c r="AF77">
         <v>9</v>
       </c>
-      <c r="AG77" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK77" t="s">
+      <c r="AG77" s="79" t="s">
+        <v>533</v>
+      </c>
+      <c r="AH77" s="79"/>
+      <c r="AI77" s="79"/>
+      <c r="AJ77" s="79"/>
+      <c r="AK77" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AL77" t="s">
-        <v>535</v>
+      <c r="AL77" s="79" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="2:39" x14ac:dyDescent="0.25">
@@ -26470,8 +27455,17 @@
       <c r="AF78">
         <v>10</v>
       </c>
-      <c r="AG78" t="s">
-        <v>439</v>
+      <c r="AG78" s="79" t="s">
+        <v>535</v>
+      </c>
+      <c r="AH78" s="79"/>
+      <c r="AI78" s="79"/>
+      <c r="AJ78" s="79"/>
+      <c r="AK78" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL78" s="79" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="79" spans="2:39" x14ac:dyDescent="0.25">
@@ -26506,9 +27500,6 @@
       <c r="AB79" s="8"/>
       <c r="AC79" s="8"/>
       <c r="AD79" s="9"/>
-      <c r="AG79" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="80" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
@@ -26542,11 +27533,8 @@
       <c r="AB80" s="8"/>
       <c r="AC80" s="8"/>
       <c r="AD80" s="9"/>
-      <c r="AG80" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -26576,11 +27564,14 @@
       <c r="AB81" s="8"/>
       <c r="AC81" s="8"/>
       <c r="AD81" s="9"/>
+      <c r="AF81">
+        <v>10</v>
+      </c>
       <c r="AG81" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="14" t="s">
@@ -26612,8 +27603,11 @@
       <c r="AB82" s="8"/>
       <c r="AC82" s="8"/>
       <c r="AD82" s="9"/>
-    </row>
-    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG82" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -26643,8 +27637,11 @@
       <c r="AB83" s="8"/>
       <c r="AC83" s="8"/>
       <c r="AD83" s="9"/>
-    </row>
-    <row r="84" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG83" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -26674,8 +27671,11 @@
       <c r="AB84" s="8"/>
       <c r="AC84" s="8"/>
       <c r="AD84" s="9"/>
-    </row>
-    <row r="85" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG84" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -26706,19 +27706,81 @@
       <c r="AC85" s="11"/>
       <c r="AD85" s="12"/>
     </row>
-    <row r="87" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF86">
+        <v>11</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>524</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="88" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>539</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="89" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="88" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="89" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>528</v>
+      <c r="AG89" t="s">
+        <v>541</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="90" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG90" t="s">
+        <v>542</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="91" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG91" t="s">
+        <v>543</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="92" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG92" t="s">
+        <v>533</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="751" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="751" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Menu" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="578">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1719,6 +1719,45 @@
   </si>
   <si>
     <t>nilai deposit</t>
+  </si>
+  <si>
+    <t>isi LOG020 jika belum ada, jika sudah ada cukup update used_allotmentnya saja</t>
+  </si>
+  <si>
+    <t>used_allotment + room_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mst023_id </t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>udah tau hrsnya ambil dr mana</t>
+  </si>
+  <si>
+    <t>check_in_Date</t>
+  </si>
+  <si>
+    <t>tgl perhari ambil dari looping perhair tu</t>
+  </si>
+  <si>
+    <t>mst022.allotment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used_allotment </t>
+  </si>
+  <si>
+    <t>used_allotment lama + room_num</t>
+  </si>
+  <si>
+    <t>check in date jd misalkan</t>
+  </si>
+  <si>
+    <t>check in 1-5 jan</t>
+  </si>
+  <si>
+    <t>isinya ada 4 record dari tgl 1-4 jan</t>
   </si>
 </sst>
 </file>
@@ -7075,7 +7114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -24511,10 +24550,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AW104"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AL92" sqref="AL92"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27534,7 +27573,7 @@
       <c r="AC80" s="8"/>
       <c r="AD80" s="9"/>
     </row>
-    <row r="81" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -27571,7 +27610,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="82" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="14" t="s">
@@ -27607,7 +27646,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -27641,7 +27680,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="84" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -27675,7 +27714,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="85" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -27706,7 +27745,7 @@
       <c r="AC85" s="11"/>
       <c r="AD85" s="12"/>
     </row>
-    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AF86">
         <v>11</v>
       </c>
@@ -27714,7 +27753,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="87" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>524</v>
       </c>
@@ -27722,7 +27761,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="88" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>525</v>
       </c>
@@ -27736,7 +27775,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="89" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>526</v>
       </c>
@@ -27750,7 +27789,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AG90" t="s">
         <v>542</v>
       </c>
@@ -27761,7 +27800,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="91" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AG91" t="s">
         <v>543</v>
       </c>
@@ -27772,7 +27811,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="92" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AG92" t="s">
         <v>533</v>
       </c>
@@ -27782,6 +27821,242 @@
       <c r="AL92" t="s">
         <v>544</v>
       </c>
+    </row>
+    <row r="95" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AF95" s="79">
+        <v>12</v>
+      </c>
+      <c r="AG95" s="79" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH95" s="79"/>
+      <c r="AI95" s="79"/>
+      <c r="AJ95" s="79"/>
+      <c r="AK95" s="79"/>
+      <c r="AL95" s="79"/>
+      <c r="AM95" s="79"/>
+      <c r="AN95" s="79"/>
+      <c r="AO95" s="79"/>
+      <c r="AP95" s="79"/>
+      <c r="AQ95" s="79"/>
+      <c r="AR95" s="79"/>
+      <c r="AS95" s="79"/>
+      <c r="AT95" s="79"/>
+      <c r="AU95" s="79"/>
+      <c r="AV95" s="79"/>
+      <c r="AW95" s="79"/>
+    </row>
+    <row r="96" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AF96" s="79"/>
+      <c r="AG96" s="79" t="s">
+        <v>566</v>
+      </c>
+      <c r="AH96" s="79"/>
+      <c r="AI96" s="79"/>
+      <c r="AJ96" s="79"/>
+      <c r="AK96" s="79"/>
+      <c r="AL96" s="79"/>
+      <c r="AM96" s="79"/>
+      <c r="AN96" s="79"/>
+      <c r="AO96" s="79"/>
+      <c r="AP96" s="79"/>
+      <c r="AQ96" s="79"/>
+      <c r="AR96" s="79"/>
+      <c r="AS96" s="79"/>
+      <c r="AT96" s="79"/>
+      <c r="AU96" s="79"/>
+      <c r="AV96" s="79"/>
+      <c r="AW96" s="79"/>
+    </row>
+    <row r="97" spans="32:49" x14ac:dyDescent="0.25">
+      <c r="AF97" s="79"/>
+      <c r="AG97" s="79" t="s">
+        <v>567</v>
+      </c>
+      <c r="AH97" s="79"/>
+      <c r="AI97" s="79"/>
+      <c r="AJ97" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="AK97" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="AL97" s="79"/>
+      <c r="AM97" s="79"/>
+      <c r="AN97" s="79"/>
+      <c r="AO97" s="79"/>
+      <c r="AP97" s="79"/>
+      <c r="AQ97" s="79"/>
+      <c r="AR97" s="79"/>
+      <c r="AS97" s="79"/>
+      <c r="AT97" s="79"/>
+      <c r="AU97" s="79"/>
+      <c r="AV97" s="79"/>
+      <c r="AW97" s="79"/>
+    </row>
+    <row r="98" spans="32:49" x14ac:dyDescent="0.25">
+      <c r="AF98" s="79"/>
+      <c r="AG98" s="79" t="s">
+        <v>570</v>
+      </c>
+      <c r="AH98" s="79"/>
+      <c r="AI98" s="79"/>
+      <c r="AJ98" s="79"/>
+      <c r="AK98" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL98" s="79" t="s">
+        <v>571</v>
+      </c>
+      <c r="AM98" s="79"/>
+      <c r="AN98" s="79"/>
+      <c r="AO98" s="79"/>
+      <c r="AP98" s="79"/>
+      <c r="AQ98" s="79"/>
+      <c r="AR98" s="79"/>
+      <c r="AS98" s="79"/>
+      <c r="AT98" s="79"/>
+      <c r="AU98" s="79"/>
+      <c r="AV98" s="79"/>
+      <c r="AW98" s="79"/>
+    </row>
+    <row r="99" spans="32:49" x14ac:dyDescent="0.25">
+      <c r="AF99" s="79"/>
+      <c r="AG99" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH99" s="79"/>
+      <c r="AI99" s="79"/>
+      <c r="AJ99" s="79"/>
+      <c r="AK99" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL99" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="AM99" s="79"/>
+      <c r="AN99" s="79"/>
+      <c r="AO99" s="79"/>
+      <c r="AP99" s="79"/>
+      <c r="AQ99" s="79"/>
+      <c r="AR99" s="79"/>
+      <c r="AS99" s="79"/>
+      <c r="AT99" s="79"/>
+      <c r="AU99" s="79"/>
+      <c r="AV99" s="79"/>
+      <c r="AW99" s="79"/>
+    </row>
+    <row r="100" spans="32:49" x14ac:dyDescent="0.25">
+      <c r="AF100" s="79"/>
+      <c r="AG100" s="79" t="s">
+        <v>573</v>
+      </c>
+      <c r="AH100" s="79"/>
+      <c r="AI100" s="79"/>
+      <c r="AJ100" s="79"/>
+      <c r="AK100" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL100" s="79" t="s">
+        <v>574</v>
+      </c>
+      <c r="AM100" s="79"/>
+      <c r="AN100" s="79"/>
+      <c r="AO100" s="79"/>
+      <c r="AP100" s="79"/>
+      <c r="AQ100" s="79"/>
+      <c r="AR100" s="79"/>
+      <c r="AS100" s="79"/>
+      <c r="AT100" s="79"/>
+      <c r="AU100" s="79"/>
+      <c r="AV100" s="79"/>
+      <c r="AW100" s="79"/>
+    </row>
+    <row r="101" spans="32:49" x14ac:dyDescent="0.25">
+      <c r="AF101" s="79"/>
+      <c r="AG101" s="79"/>
+      <c r="AH101" s="79"/>
+      <c r="AI101" s="79"/>
+      <c r="AJ101" s="79"/>
+      <c r="AK101" s="79"/>
+      <c r="AL101" s="79"/>
+      <c r="AM101" s="79"/>
+      <c r="AN101" s="79"/>
+      <c r="AO101" s="79"/>
+      <c r="AP101" s="79"/>
+      <c r="AQ101" s="79"/>
+      <c r="AR101" s="79"/>
+      <c r="AS101" s="79"/>
+      <c r="AT101" s="79"/>
+      <c r="AU101" s="79"/>
+      <c r="AV101" s="79"/>
+      <c r="AW101" s="79"/>
+    </row>
+    <row r="102" spans="32:49" x14ac:dyDescent="0.25">
+      <c r="AF102" s="79"/>
+      <c r="AG102" s="79" t="s">
+        <v>575</v>
+      </c>
+      <c r="AH102" s="79"/>
+      <c r="AI102" s="79"/>
+      <c r="AJ102" s="79"/>
+      <c r="AK102" s="79"/>
+      <c r="AL102" s="79"/>
+      <c r="AM102" s="79"/>
+      <c r="AN102" s="79"/>
+      <c r="AO102" s="79"/>
+      <c r="AP102" s="79"/>
+      <c r="AQ102" s="79"/>
+      <c r="AR102" s="79"/>
+      <c r="AS102" s="79"/>
+      <c r="AT102" s="79"/>
+      <c r="AU102" s="79"/>
+      <c r="AV102" s="79"/>
+      <c r="AW102" s="79"/>
+    </row>
+    <row r="103" spans="32:49" x14ac:dyDescent="0.25">
+      <c r="AF103" s="79"/>
+      <c r="AG103" s="79" t="s">
+        <v>576</v>
+      </c>
+      <c r="AH103" s="79"/>
+      <c r="AI103" s="79"/>
+      <c r="AJ103" s="79"/>
+      <c r="AK103" s="79"/>
+      <c r="AL103" s="79"/>
+      <c r="AM103" s="79"/>
+      <c r="AN103" s="79"/>
+      <c r="AO103" s="79"/>
+      <c r="AP103" s="79"/>
+      <c r="AQ103" s="79"/>
+      <c r="AR103" s="79"/>
+      <c r="AS103" s="79"/>
+      <c r="AT103" s="79"/>
+      <c r="AU103" s="79"/>
+      <c r="AV103" s="79"/>
+      <c r="AW103" s="79"/>
+    </row>
+    <row r="104" spans="32:49" x14ac:dyDescent="0.25">
+      <c r="AF104" s="79"/>
+      <c r="AG104" s="79" t="s">
+        <v>577</v>
+      </c>
+      <c r="AH104" s="79"/>
+      <c r="AI104" s="79"/>
+      <c r="AJ104" s="79"/>
+      <c r="AK104" s="79"/>
+      <c r="AL104" s="79"/>
+      <c r="AM104" s="79"/>
+      <c r="AN104" s="79"/>
+      <c r="AO104" s="79"/>
+      <c r="AP104" s="79"/>
+      <c r="AQ104" s="79"/>
+      <c r="AR104" s="79"/>
+      <c r="AS104" s="79"/>
+      <c r="AT104" s="79"/>
+      <c r="AU104" s="79"/>
+      <c r="AV104" s="79"/>
+      <c r="AW104" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/spec.xlsx
+++ b/document/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="751" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7500" tabRatio="751" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Agent Menu" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="595">
   <si>
     <t>Agent Register</t>
   </si>
@@ -1343,9 +1343,6 @@
     <t>Report Booking Per periode</t>
   </si>
   <si>
-    <t>DI BLNC002 ada no_cof_order dikosongin, ntar diisi ma admin ada menu sendiri</t>
-  </si>
-  <si>
     <t>Confirmation Number</t>
   </si>
   <si>
@@ -1758,6 +1755,60 @@
   </si>
   <si>
     <t>isinya ada 4 record dari tgl 1-4 jan</t>
+  </si>
+  <si>
+    <t>DI BLNC001ada no_cof_order dikosongin, ntar diisi ma admin ada menu sendiri</t>
+  </si>
+  <si>
+    <t>Ubah statement pembayaran</t>
+  </si>
+  <si>
+    <t>No Order</t>
+  </si>
+  <si>
+    <t>Tgl Order</t>
+  </si>
+  <si>
+    <t>s/d</t>
+  </si>
+  <si>
+    <t>Nomor</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Status Pembayaran</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>query dari BLNC001</t>
+  </si>
+  <si>
+    <t>INNER JOIN BLNC002 b on b.BLNC001_ID = a.ID</t>
+  </si>
+  <si>
+    <t>SELECT * FROM BLNC001 a</t>
+  </si>
+  <si>
+    <t>WHERE a.order_no = porderNo</t>
+  </si>
+  <si>
+    <t>AND a.order_date  &gt;= fromdate</t>
+  </si>
+  <si>
+    <t>AND a.order_date &lt;= end date</t>
+  </si>
+  <si>
+    <t>AND a.mst001 = pagent</t>
+  </si>
+  <si>
+    <t>update ke BLNC001, stts_pymnt</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2084,6 +2135,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7112,10 +7164,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR29"/>
+  <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -7153,7 +7205,7 @@
       <c r="Z1" s="6"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
@@ -7245,7 +7297,7 @@
       <c r="Z3" s="9"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
@@ -7337,7 +7389,7 @@
       <c r="Z5" s="9"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
@@ -7404,7 +7456,7 @@
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -7431,7 +7483,7 @@
       <c r="Z7" s="9"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
@@ -7462,18 +7514,18 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -7864,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -7897,7 +7949,7 @@
         <v>2</v>
       </c>
       <c r="AC18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -7930,7 +7982,7 @@
         <v>3</v>
       </c>
       <c r="AC19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -7963,68 +8015,825 @@
         <v>4</v>
       </c>
       <c r="AC20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG21" t="s">
         <v>35</v>
       </c>
       <c r="AH21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG22" t="s">
         <v>35</v>
       </c>
       <c r="AH22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG23" t="s">
         <v>35</v>
       </c>
       <c r="AH23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG24" t="s">
         <v>35</v>
       </c>
       <c r="AH24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG25" t="s">
         <v>35</v>
       </c>
       <c r="AH25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="24">
         <v>2</v>
       </c>
+      <c r="B29" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="6"/>
+      <c r="AE29" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="9"/>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="9"/>
+      <c r="AF31" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="9"/>
+      <c r="AF32" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="9"/>
+      <c r="AF33" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="9"/>
+      <c r="AF34" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="9"/>
+      <c r="AF35" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="9"/>
+      <c r="AF36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="9"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="9"/>
+      <c r="AE38">
+        <v>2</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D39" s="80"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="9"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="9"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="U41" s="5"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="9"/>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="9"/>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="9"/>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="9"/>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="9"/>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="9"/>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="9"/>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="9"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="9"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="9"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8049,7 +8858,7 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
@@ -8075,7 +8884,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -8110,16 +8919,16 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>441</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -8127,21 +8936,21 @@
         <v>392</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -8152,7 +8961,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -10731,7 +11540,7 @@
       <c r="P57" s="62"/>
       <c r="Q57" s="62"/>
       <c r="R57" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
@@ -10778,7 +11587,7 @@
       <c r="I59" s="61"/>
       <c r="J59" s="61"/>
       <c r="K59" s="63" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L59" s="64"/>
       <c r="M59" s="64"/>
@@ -14893,7 +15702,7 @@
       </c>
       <c r="BA76" s="62"/>
       <c r="BB76" s="62" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BC76" s="62"/>
       <c r="BD76" s="61"/>
@@ -21014,7 +21823,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA36" s="2"/>
       <c r="AB36" s="3"/>
@@ -21156,7 +21965,7 @@
       <c r="AC41" s="9"/>
       <c r="AG41" s="61"/>
       <c r="AH41" s="61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AI41" s="61"/>
       <c r="AJ41" s="61"/>
@@ -21211,7 +22020,7 @@
       <c r="AC42" s="9"/>
       <c r="AG42" s="61"/>
       <c r="AH42" s="61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI42" s="61"/>
       <c r="AJ42" s="61"/>
@@ -21300,14 +22109,14 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="9"/>
       <c r="AG44" s="61"/>
       <c r="AH44" s="61" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AI44" s="61"/>
       <c r="AJ44" s="61"/>
@@ -21357,7 +22166,7 @@
       <c r="AC45" s="12"/>
       <c r="AG45" s="61"/>
       <c r="AH45" s="61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI45" s="61"/>
       <c r="AJ45" s="61"/>
@@ -21378,7 +22187,7 @@
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AG46" s="61"/>
       <c r="AH46" s="61" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AI46" s="61"/>
       <c r="AJ46" s="61"/>
@@ -21609,13 +22418,13 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="9"/>
       <c r="AG52" s="54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AH52" s="54"/>
       <c r="AI52" s="54"/>
@@ -21694,7 +22503,7 @@
     <row r="54" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AG54" s="62"/>
       <c r="AH54" s="62" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI54" s="62"/>
       <c r="AJ54" s="62"/>
@@ -21705,7 +22514,7 @@
       <c r="AO54" s="62"/>
       <c r="AP54" s="62"/>
       <c r="AQ54" s="62" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AR54" s="62"/>
       <c r="AS54" s="62"/>
@@ -21755,7 +22564,7 @@
       <c r="AC55" s="6"/>
       <c r="AG55" s="62"/>
       <c r="AH55" s="62" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AI55" s="62"/>
       <c r="AJ55" s="62"/>
@@ -21766,7 +22575,7 @@
       <c r="AO55" s="62"/>
       <c r="AP55" s="62"/>
       <c r="AQ55" s="62" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AR55" s="62"/>
       <c r="AS55" s="62"/>
@@ -21820,7 +22629,7 @@
       <c r="AC56" s="9"/>
       <c r="AG56" s="62"/>
       <c r="AH56" s="62" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AI56" s="62"/>
       <c r="AJ56" s="62"/>
@@ -21831,7 +22640,7 @@
       <c r="AO56" s="62"/>
       <c r="AP56" s="62"/>
       <c r="AQ56" s="62" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AR56" s="62"/>
       <c r="AS56" s="62"/>
@@ -21892,7 +22701,7 @@
       <c r="AO57" s="62"/>
       <c r="AP57" s="62"/>
       <c r="AQ57" s="62" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AR57" s="62"/>
       <c r="AS57" s="62"/>
@@ -22045,7 +22854,7 @@
       <c r="AC61" s="12"/>
       <c r="AG61" s="61"/>
       <c r="AH61" s="61" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AI61" s="61"/>
       <c r="AJ61" s="61"/>
@@ -22097,7 +22906,7 @@
       <c r="AC62" s="9"/>
       <c r="AG62" s="61"/>
       <c r="AH62" s="61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AI62" s="61"/>
       <c r="AJ62" s="61"/>
@@ -22147,7 +22956,7 @@
       <c r="AC63" s="9"/>
       <c r="AG63" s="61"/>
       <c r="AH63" s="61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AI63" s="61"/>
       <c r="AJ63" s="61"/>
@@ -22197,7 +23006,7 @@
       <c r="AC64" s="9"/>
       <c r="AG64" s="61"/>
       <c r="AH64" s="61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI64" s="61"/>
       <c r="AJ64" s="61"/>
@@ -22246,7 +23055,7 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="9"/>
       <c r="AG65" s="61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AH65" s="61"/>
       <c r="AI65" s="61"/>
@@ -22297,7 +23106,7 @@
       <c r="AB66" s="11"/>
       <c r="AC66" s="12"/>
       <c r="AG66" s="61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AH66" s="61"/>
       <c r="AI66" s="61"/>
@@ -22558,7 +23367,7 @@
   <sheetData>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C2" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -22653,7 +23462,7 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
@@ -22900,7 +23709,7 @@
         <v>35</v>
       </c>
       <c r="AK10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -22921,7 +23730,7 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -22994,7 +23803,7 @@
         <v>35</v>
       </c>
       <c r="AK12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -23065,13 +23874,13 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="9"/>
       <c r="AE14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AJ14" t="s">
         <v>35</v>
       </c>
       <c r="AK14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -23094,7 +23903,7 @@
       <c r="L15" s="54"/>
       <c r="M15" s="54"/>
       <c r="N15" s="54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O15" s="54"/>
       <c r="P15" s="19"/>
@@ -23182,14 +23991,14 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="P17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
@@ -23200,7 +24009,7 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="9"/>
       <c r="AE17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AJ17" t="s">
         <v>35</v>
@@ -23230,7 +24039,7 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -23294,7 +24103,7 @@
         <v>35</v>
       </c>
       <c r="AK19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
@@ -23317,7 +24126,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -23453,7 +24262,7 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
@@ -23462,7 +24271,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="62"/>
       <c r="F24" s="62" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
@@ -23473,7 +24282,7 @@
       <c r="M24" s="62"/>
       <c r="N24" s="62"/>
       <c r="O24" s="62" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P24" s="62"/>
       <c r="Q24" s="62"/>
@@ -23490,13 +24299,13 @@
       <c r="AB24" s="8"/>
       <c r="AC24" s="9"/>
       <c r="AE24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AK24" t="s">
         <v>35</v>
       </c>
       <c r="AL24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
@@ -23505,7 +24314,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="62"/>
       <c r="F25" s="62" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
@@ -23516,7 +24325,7 @@
       <c r="M25" s="62"/>
       <c r="N25" s="62"/>
       <c r="O25" s="62" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P25" s="62"/>
       <c r="Q25" s="62"/>
@@ -23533,13 +24342,13 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
       <c r="AE25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AK25" t="s">
         <v>35</v>
       </c>
       <c r="AL25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
@@ -23548,7 +24357,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G26" s="76"/>
       <c r="H26" s="76"/>
@@ -23559,7 +24368,7 @@
       <c r="M26" s="76"/>
       <c r="N26" s="76"/>
       <c r="O26" s="76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P26" s="76"/>
       <c r="Q26" s="76"/>
@@ -23576,13 +24385,13 @@
       <c r="AB26" s="8"/>
       <c r="AC26" s="9"/>
       <c r="AE26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AK26" t="s">
         <v>35</v>
       </c>
       <c r="AL26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
@@ -23600,7 +24409,7 @@
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
       <c r="O27" s="62" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
@@ -23623,7 +24432,7 @@
         <v>35